--- a/benchmarks/results/plots/results-Fig1.xlsx
+++ b/benchmarks/results/plots/results-Fig1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1172,6 +1172,510 @@
         <v>41624812990.19927</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.617376079212621</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4132.1479413331</v>
+      </c>
+      <c r="H27" t="n">
+        <v>56173760792.12621</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.542141708955856</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3325.449347556602</v>
+      </c>
+      <c r="H28" t="n">
+        <v>54184383186.76098</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>50</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5.446960605394081</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1907.719100977238</v>
+      </c>
+      <c r="H29" t="n">
+        <v>50921342004.35909</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>150</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5.284873959765065</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1202.548741644049</v>
+      </c>
+      <c r="H30" t="n">
+        <v>46138693191.39314</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>25</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.575694718346717</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2462.292974901137</v>
+      </c>
+      <c r="H31" t="n">
+        <v>53467076274.13348</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>100</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5.368697169073908</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1343.214069111344</v>
+      </c>
+      <c r="H32" t="n">
+        <v>48690345645.40958</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>full_open</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>100</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5.458431692148885</v>
+      </c>
+      <c r="G33" t="n">
+        <v>21741.68594864994</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-26292645863.9519</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>full_open</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5.458431039898306</v>
+      </c>
+      <c r="G34" t="n">
+        <v>21741.68594864994</v>
+      </c>
+      <c r="H34" t="n">
+        <v>46496620642.94477</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>full_open</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5.458431692148884</v>
+      </c>
+      <c r="G35" t="n">
+        <v>21741.68594864994</v>
+      </c>
+      <c r="H35" t="n">
+        <v>54584316921.48884</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>full_open</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>150</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5.458430605064586</v>
+      </c>
+      <c r="G36" t="n">
+        <v>21741.68594864994</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-66731127256.67229</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>full_open</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>50</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5.458430605064586</v>
+      </c>
+      <c r="G37" t="n">
+        <v>21741.68594864994</v>
+      </c>
+      <c r="H37" t="n">
+        <v>14145835528.76845</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>full_open</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>25</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5.458430061522437</v>
+      </c>
+      <c r="G38" t="n">
+        <v>21741.68594864994</v>
+      </c>
+      <c r="H38" t="n">
+        <v>34365076225.12864</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>full_lockdown</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>100</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.938147660321204</v>
+      </c>
+      <c r="G39" t="n">
+        <v>889.6259531912921</v>
+      </c>
+      <c r="H39" t="n">
+        <v>26072154351.05789</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>full_lockdown</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.938147633632425</v>
+      </c>
+      <c r="G40" t="n">
+        <v>889.6259531912921</v>
+      </c>
+      <c r="H40" t="n">
+        <v>29050544377.99662</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>full_lockdown</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.938147660321204</v>
+      </c>
+      <c r="G41" t="n">
+        <v>889.6259531912921</v>
+      </c>
+      <c r="H41" t="n">
+        <v>29381476603.21204</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>full_lockdown</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>150</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.938147615839905</v>
+      </c>
+      <c r="G42" t="n">
+        <v>889.6259531912921</v>
+      </c>
+      <c r="H42" t="n">
+        <v>24417493224.98081</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>full_lockdown</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>50</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.938147615839906</v>
+      </c>
+      <c r="G43" t="n">
+        <v>889.6259531912921</v>
+      </c>
+      <c r="H43" t="n">
+        <v>27726815477.13496</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>full_lockdown</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>25</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.938147593599258</v>
+      </c>
+      <c r="G44" t="n">
+        <v>889.6259531912921</v>
+      </c>
+      <c r="H44" t="n">
+        <v>28554146040.1735</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/benchmarks/results/plots/results-Fig1.xlsx
+++ b/benchmarks/results/plots/results-Fig1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1676,6 +1676,3534 @@
         <v>28554146040.1735</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>260</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5.247384001005649</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1106.759678093673</v>
+      </c>
+      <c r="H45" t="n">
+        <v>41769539528.3253</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>190</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5.26299480302681</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1170.645443664017</v>
+      </c>
+      <c r="H46" t="n">
+        <v>44356041784.4061</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>80</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5.394946163460205</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1413.502336575855</v>
+      </c>
+      <c r="H47" t="n">
+        <v>49742988368.73362</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>310</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5.239896954166604</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1080.754762167668</v>
+      </c>
+      <c r="H48" t="n">
+        <v>39936030607.30549</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>330</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5.237907039020585</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1067.608708158707</v>
+      </c>
+      <c r="H49" t="n">
+        <v>39273447630.39705</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>130</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5.315413817862019</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1238.874500432424</v>
+      </c>
+      <c r="H50" t="n">
+        <v>47163097316.6035</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>380</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5.165318469075213</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1045.492543833211</v>
+      </c>
+      <c r="H51" t="n">
+        <v>36874487459.67752</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>230</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5.249439868254794</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1138.259609497438</v>
+      </c>
+      <c r="H52" t="n">
+        <v>42755703409.40675</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>180</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5.25927840181846</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1162.338757247657</v>
+      </c>
+      <c r="H53" t="n">
+        <v>44809966644.00132</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>60</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5.45146349858046</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1416.046159295469</v>
+      </c>
+      <c r="H54" t="n">
+        <v>51354102372.14358</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>420</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5.160638202674619</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1032.26529530821</v>
+      </c>
+      <c r="H55" t="n">
+        <v>35478689597.73202</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>110</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5.39273685821234</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1358.388935514787</v>
+      </c>
+      <c r="H56" t="n">
+        <v>48368985998.09631</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>470</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5.069493103108656</v>
+      </c>
+      <c r="G57" t="n">
+        <v>994.9193248779019</v>
+      </c>
+      <c r="H57" t="n">
+        <v>33300215138.64154</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>280</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5.21126389691235</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1088.5022127427</v>
+      </c>
+      <c r="H58" t="n">
+        <v>40775095558.39653</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>250</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5.235976686751612</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1088.190248358078</v>
+      </c>
+      <c r="H59" t="n">
+        <v>42239861443.92123</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>120</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5.319155847405044</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1272.181282348886</v>
+      </c>
+      <c r="H60" t="n">
+        <v>47512689311.54627</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>460</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5.066118272621551</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1006.562769785307</v>
+      </c>
+      <c r="H61" t="n">
+        <v>33437329737.95723</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>360</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5.161490860436476</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1033.231993233353</v>
+      </c>
+      <c r="H62" t="n">
+        <v>37778226555.59573</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>320</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5.239390861454845</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1075.048137700258</v>
+      </c>
+      <c r="H63" t="n">
+        <v>39596869278.30653</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>350</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5.161678053005802</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1032.714974108675</v>
+      </c>
+      <c r="H64" t="n">
+        <v>38171182173.89679</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>300</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5.198673972913106</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1089.876847379389</v>
+      </c>
+      <c r="H65" t="n">
+        <v>39824031266.53966</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>200</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>5.218966184287482</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1035.398108396834</v>
+      </c>
+      <c r="H66" t="n">
+        <v>44486500783.63541</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>390</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>5.16343123222585</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1050.726389869463</v>
+      </c>
+      <c r="H67" t="n">
+        <v>36390771347.82562</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>210</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>5.254077826639728</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1122.327797403325</v>
+      </c>
+      <c r="H68" t="n">
+        <v>43773382131.25483</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>410</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5.113941071408032</v>
+      </c>
+      <c r="G69" t="n">
+        <v>972.1020194564995</v>
+      </c>
+      <c r="H69" t="n">
+        <v>36313297318.30293</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>370</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>5.124095329951563</v>
+      </c>
+      <c r="G70" t="n">
+        <v>991.0409381073059</v>
+      </c>
+      <c r="H70" t="n">
+        <v>37600621511.99935</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>490</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5.068737809629324</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1004.65204507886</v>
+      </c>
+      <c r="H71" t="n">
+        <v>32375058129.71281</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>40</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>5.500811003174675</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2007.746532115671</v>
+      </c>
+      <c r="H72" t="n">
+        <v>52020661092.52408</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>480</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5.054218062543545</v>
+      </c>
+      <c r="G73" t="n">
+        <v>950.2273454044395</v>
+      </c>
+      <c r="H73" t="n">
+        <v>33575363571.7458</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>270</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5.242411359685727</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1102.982829941689</v>
+      </c>
+      <c r="H74" t="n">
+        <v>41346042924.12611</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>430</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5.098444129971974</v>
+      </c>
+      <c r="G75" t="n">
+        <v>962.1995021923739</v>
+      </c>
+      <c r="H75" t="n">
+        <v>35593499396.0629</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>160</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>5.28418902020945</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1194.160151990671</v>
+      </c>
+      <c r="H76" t="n">
+        <v>45734434311.10162</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>400</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5.151522081180165</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1020.550943466395</v>
+      </c>
+      <c r="H77" t="n">
+        <v>36329818746.78777</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>450</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5.054703402706168</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1007.670527120428</v>
+      </c>
+      <c r="H78" t="n">
+        <v>33679069251.2508</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>30</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5.56304157479099</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2439.566937975329</v>
+      </c>
+      <c r="H79" t="n">
+        <v>52907930036.52733</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>290</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>5.204059333068362</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1086.411606003562</v>
+      </c>
+      <c r="H80" t="n">
+        <v>40320690532.70197</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>240</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>5.205905663336909</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1020.098151221488</v>
+      </c>
+      <c r="H81" t="n">
+        <v>42951857818.11324</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>170</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5.271203757611699</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1160.503025932125</v>
+      </c>
+      <c r="H82" t="n">
+        <v>45373207807.0712</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>140</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>5.312670383060011</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1232.839754681979</v>
+      </c>
+      <c r="H83" t="n">
+        <v>46706241807.85506</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>70</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5.393436639205709</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1515.461962598775</v>
+      </c>
+      <c r="H84" t="n">
+        <v>49988206341.31714</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>20</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5.599676484281008</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2859.283719157379</v>
+      </c>
+      <c r="H85" t="n">
+        <v>53869513225.86115</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>90</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5.383932481124578</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1364.420775417599</v>
+      </c>
+      <c r="H86" t="n">
+        <v>49271363169.08135</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>440</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>5.066996329767532</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1006.678026376586</v>
+      </c>
+      <c r="H87" t="n">
+        <v>34193087012.12502</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>340</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>5.163416286347092</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1033.686066272019</v>
+      </c>
+      <c r="H88" t="n">
+        <v>38560442406.92709</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>220</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5.197925157361796</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1109.11055549864</v>
+      </c>
+      <c r="H89" t="n">
+        <v>42902527471.60964</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>60</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>5.407338409909327</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1290.991744790961</v>
+      </c>
+      <c r="H90" t="n">
+        <v>51191966693.23279</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>430</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>5.048502951762259</v>
+      </c>
+      <c r="G91" t="n">
+        <v>949.4312257660079</v>
+      </c>
+      <c r="H91" t="n">
+        <v>35298324492.5219</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>160</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>5.263569596593215</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1175.150197092412</v>
+      </c>
+      <c r="H92" t="n">
+        <v>45641385316.26886</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>220</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4.942030899392737</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1178.334046167005</v>
+      </c>
+      <c r="H93" t="n">
+        <v>39777075323.58247</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>460</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4.83156294104711</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1017.620095940575</v>
+      </c>
+      <c r="H94" t="n">
+        <v>30902569204.91887</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>440</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>4.847377529861763</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1017.680671696106</v>
+      </c>
+      <c r="H95" t="n">
+        <v>31816812613.94259</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>490</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>4.855409149228613</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1010.199901234492</v>
+      </c>
+      <c r="H96" t="n">
+        <v>30140648547.7368</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>330</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5.183560788773356</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1059.334758406673</v>
+      </c>
+      <c r="H97" t="n">
+        <v>38831554439.99068</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>200</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5.145554127849277</v>
+      </c>
+      <c r="G98" t="n">
+        <v>988.0770918417653</v>
+      </c>
+      <c r="H98" t="n">
+        <v>44104439402.14585</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>140</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5.289693570458192</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1208.605090971576</v>
+      </c>
+      <c r="H99" t="n">
+        <v>46602684761.09432</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>450</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4.796867412003337</v>
+      </c>
+      <c r="G100" t="n">
+        <v>996.7894262820772</v>
+      </c>
+      <c r="H100" t="n">
+        <v>31282854721.05069</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>420</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>4.987266960764384</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1023.624069896042</v>
+      </c>
+      <c r="H101" t="n">
+        <v>33879984778.2086</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>380</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4.99845447068011</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1034.237723718805</v>
+      </c>
+      <c r="H102" t="n">
+        <v>35364941878.03213</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>90</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>5.372115144671032</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1348.862842472761</v>
+      </c>
+      <c r="H103" t="n">
+        <v>49205277350.04166</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>130</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>5.291696899029193</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1214.843570360464</v>
+      </c>
+      <c r="H104" t="n">
+        <v>47042139769.16216</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>210</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5.149364606476186</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1183.854292809949</v>
+      </c>
+      <c r="H105" t="n">
+        <v>42245617835.60628</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>410</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5.0853220311183</v>
+      </c>
+      <c r="G106" t="n">
+        <v>959.3592000488655</v>
+      </c>
+      <c r="H106" t="n">
+        <v>36221455616.99932</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>120</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5.29460449268119</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1238.038603177611</v>
+      </c>
+      <c r="H107" t="n">
+        <v>47419585452.74361</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>30</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5.589394788992458</v>
+      </c>
+      <c r="G108" t="n">
+        <v>3385.193394177907</v>
+      </c>
+      <c r="H108" t="n">
+        <v>52116173617.82386</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>170</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>5.248439821635206</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1139.548971829659</v>
+      </c>
+      <c r="H109" t="n">
+        <v>45278078544.08165</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>320</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5.190816393313573</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1064.139659423792</v>
+      </c>
+      <c r="H110" t="n">
+        <v>39240976374.78899</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>230</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5.076595483141633</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1165.678814285468</v>
+      </c>
+      <c r="H111" t="n">
+        <v>40792668008.44427</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>190</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5.047324693575295</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1168.420667647492</v>
+      </c>
+      <c r="H112" t="n">
+        <v>42215065814.64398</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>180</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5.164668274370452</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1207.928778400187</v>
+      </c>
+      <c r="H113" t="n">
+        <v>43558603031.07309</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>360</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5.119150046319067</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1026.01268297963</v>
+      </c>
+      <c r="H114" t="n">
+        <v>37451497717.16652</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>260</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>5.020991791244054</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1128.861458455253</v>
+      </c>
+      <c r="H115" t="n">
+        <v>39291855488.21032</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>40</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5.485830552579702</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2043.199878895984</v>
+      </c>
+      <c r="H116" t="n">
+        <v>51818103790.79507</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>310</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>5.185663074489355</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1065.452192804078</v>
+      </c>
+      <c r="H117" t="n">
+        <v>39570156758.58696</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>390</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4.938720885525882</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1057.526651659249</v>
+      </c>
+      <c r="H118" t="n">
+        <v>34045012995.58742</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>340</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5.118237968985746</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1026.098633435207</v>
+      </c>
+      <c r="H119" t="n">
+        <v>38204622786.718</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>370</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5.051156668043549</v>
+      </c>
+      <c r="G120" t="n">
+        <v>952.5498130263128</v>
+      </c>
+      <c r="H120" t="n">
+        <v>37401013019.3242</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>280</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5.070440136922005</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1104.50808916375</v>
+      </c>
+      <c r="H121" t="n">
+        <v>39200145538.69068</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>470</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4.977060393232993</v>
+      </c>
+      <c r="G122" t="n">
+        <v>991.2410427605602</v>
+      </c>
+      <c r="H122" t="n">
+        <v>32440197546.61979</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>300</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5.03718047584218</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1084.334339184542</v>
+      </c>
+      <c r="H123" t="n">
+        <v>38270949074.41501</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>400</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>5.112746033533597</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1018.348294916385</v>
+      </c>
+      <c r="H124" t="n">
+        <v>35974832826.11858</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>290</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5.047852755326534</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1097.009786225895</v>
+      </c>
+      <c r="H125" t="n">
+        <v>38644295336.2201</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>350</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5.119335837657446</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1021.698365778097</v>
+      </c>
+      <c r="H126" t="n">
+        <v>37891193031.58801</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>480</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5.027940350483228</v>
+      </c>
+      <c r="G127" t="n">
+        <v>940.9542623235826</v>
+      </c>
+      <c r="H127" t="n">
+        <v>33478162681.46864</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>20</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>5.571674550499981</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2749.497285297144</v>
+      </c>
+      <c r="H128" t="n">
+        <v>53671174514.68445</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>110</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5.363156111839552</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1317.709778170206</v>
+      </c>
+      <c r="H129" t="n">
+        <v>48239633701.06931</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>70</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5.381403306977266</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1571.020311366338</v>
+      </c>
+      <c r="H130" t="n">
+        <v>49723203008.3559</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>250</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5.142680527041446</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1127.161215091894</v>
+      </c>
+      <c r="H131" t="n">
+        <v>40944479870.23512</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>240</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5.158696623320028</v>
+      </c>
+      <c r="G132" t="n">
+        <v>990.7944549248626</v>
+      </c>
+      <c r="H132" t="n">
+        <v>42741384194.73911</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>270</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5.07164369260264</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1104.588378985904</v>
+      </c>
+      <c r="H133" t="n">
+        <v>39622240649.64728</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>80</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5.378672017925614</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1381.98701025098</v>
+      </c>
+      <c r="H134" t="n">
+        <v>49674034631.73602</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>560</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5.019937925279149</v>
+      </c>
+      <c r="G135" t="n">
+        <v>937.0502708021635</v>
+      </c>
+      <c r="H135" t="n">
+        <v>30679257017.14791</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>500</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5.063808488933743</v>
+      </c>
+      <c r="G136" t="n">
+        <v>988.7911833010349</v>
+      </c>
+      <c r="H136" t="n">
+        <v>32247048443.66209</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>900</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4.987288357913877</v>
+      </c>
+      <c r="G137" t="n">
+        <v>955.0429197900118</v>
+      </c>
+      <c r="H137" t="n">
+        <v>17898880377.03814</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>660</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5.020505206397931</v>
+      </c>
+      <c r="G138" t="n">
+        <v>967.0316207163371</v>
+      </c>
+      <c r="H138" t="n">
+        <v>26463110805.79538</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>540</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5.058561555714677</v>
+      </c>
+      <c r="G139" t="n">
+        <v>980.6264559300182</v>
+      </c>
+      <c r="H139" t="n">
+        <v>30887304962.56219</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>590</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5.022578548235094</v>
+      </c>
+      <c r="G140" t="n">
+        <v>937.3740766768691</v>
+      </c>
+      <c r="H140" t="n">
+        <v>29652835706.6311</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>580</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5.063766819345555</v>
+      </c>
+      <c r="G141" t="n">
+        <v>979.1804257589636</v>
+      </c>
+      <c r="H141" t="n">
+        <v>29511422214.18769</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>670</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5.021206210417879</v>
+      </c>
+      <c r="G142" t="n">
+        <v>973.926099733616</v>
+      </c>
+      <c r="H142" t="n">
+        <v>25938560948.99037</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>750</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5.043458363046391</v>
+      </c>
+      <c r="G143" t="n">
+        <v>979.393993663985</v>
+      </c>
+      <c r="H143" t="n">
+        <v>23110203716.36913</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>610</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>5.042656347131249</v>
+      </c>
+      <c r="G144" t="n">
+        <v>983.5377874640116</v>
+      </c>
+      <c r="H144" t="n">
+        <v>28108705957.48798</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>520</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5.060120409632961</v>
+      </c>
+      <c r="G145" t="n">
+        <v>990.1835324240741</v>
+      </c>
+      <c r="H145" t="n">
+        <v>31447593293.69208</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>720</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5.052192542944677</v>
+      </c>
+      <c r="G146" t="n">
+        <v>970.9919338524003</v>
+      </c>
+      <c r="H146" t="n">
+        <v>24515555613.91069</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>550</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5.056679345916631</v>
+      </c>
+      <c r="G147" t="n">
+        <v>988.7508114013762</v>
+      </c>
+      <c r="H147" t="n">
+        <v>30337479356.45204</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>510</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5.06071238022893</v>
+      </c>
+      <c r="G148" t="n">
+        <v>983.490322798844</v>
+      </c>
+      <c r="H148" t="n">
+        <v>31948831930.81232</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>630</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5.046356626824831</v>
+      </c>
+      <c r="G149" t="n">
+        <v>989.9916572257368</v>
+      </c>
+      <c r="H149" t="n">
+        <v>27262726773.40766</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>650</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5.044749183782897</v>
+      </c>
+      <c r="G150" t="n">
+        <v>973.4564566204454</v>
+      </c>
+      <c r="H150" t="n">
+        <v>26909928481.04249</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>620</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>5.050538589812423</v>
+      </c>
+      <c r="G151" t="n">
+        <v>974.0311645508162</v>
+      </c>
+      <c r="H151" t="n">
+        <v>28040916901.26657</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>760</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5.014165664048709</v>
+      </c>
+      <c r="G152" t="n">
+        <v>965.594039639096</v>
+      </c>
+      <c r="H152" t="n">
+        <v>22843093787.7366</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>810</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4.975522045580422</v>
+      </c>
+      <c r="G153" t="n">
+        <v>925.9989920875282</v>
+      </c>
+      <c r="H153" t="n">
+        <v>21853746383.63091</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>870</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5.005594154055394</v>
+      </c>
+      <c r="G154" t="n">
+        <v>959.1881075528643</v>
+      </c>
+      <c r="H154" t="n">
+        <v>19013587086.557</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>530</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5.05947265179807</v>
+      </c>
+      <c r="G155" t="n">
+        <v>981.2585511697878</v>
+      </c>
+      <c r="H155" t="n">
+        <v>31248737388.13833</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>940</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4.972008922611118</v>
+      </c>
+      <c r="G156" t="n">
+        <v>945.953416583402</v>
+      </c>
+      <c r="H156" t="n">
+        <v>16642852675.34803</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>740</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5.024218792727851</v>
+      </c>
+      <c r="G157" t="n">
+        <v>973.3656723439913</v>
+      </c>
+      <c r="H157" t="n">
+        <v>23448076380.87272</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>600</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5.046351061440332</v>
+      </c>
+      <c r="G158" t="n">
+        <v>981.0977566447966</v>
+      </c>
+      <c r="H158" t="n">
+        <v>28565979684.98584</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>680</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5.029856734708559</v>
+      </c>
+      <c r="G159" t="n">
+        <v>977.0481653370915</v>
+      </c>
+      <c r="H159" t="n">
+        <v>25583801417.68838</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>980</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>4.977443582575788</v>
+      </c>
+      <c r="G160" t="n">
+        <v>949.7821164340635</v>
+      </c>
+      <c r="H160" t="n">
+        <v>15150081851.91754</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>730</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5.048452835543293</v>
+      </c>
+      <c r="G161" t="n">
+        <v>974.1603786563011</v>
+      </c>
+      <c r="H161" t="n">
+        <v>24030918915.60656</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>780</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5.022497904217798</v>
+      </c>
+      <c r="G162" t="n">
+        <v>962.9771377752779</v>
+      </c>
+      <c r="H162" t="n">
+        <v>22283963000.99296</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>820</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>4.962217114494318</v>
+      </c>
+      <c r="G163" t="n">
+        <v>924.2390885663583</v>
+      </c>
+      <c r="H163" t="n">
+        <v>21429917127.08603</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>640</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>5.020138045280559</v>
+      </c>
+      <c r="G164" t="n">
+        <v>936.1449888712615</v>
+      </c>
+      <c r="H164" t="n">
+        <v>27914221716.56769</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>690</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>5.039637133517633</v>
+      </c>
+      <c r="G165" t="n">
+        <v>971.5719499802634</v>
+      </c>
+      <c r="H165" t="n">
+        <v>25458712796.18905</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>710</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>5.046599687634619</v>
+      </c>
+      <c r="G166" t="n">
+        <v>977.6171764114453</v>
+      </c>
+      <c r="H166" t="n">
+        <v>24645845297.91649</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>700</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>5.027494837882093</v>
+      </c>
+      <c r="G167" t="n">
+        <v>977.2083720659995</v>
+      </c>
+      <c r="H167" t="n">
+        <v>24829105894.70695</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>570</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>5.022579040027997</v>
+      </c>
+      <c r="G168" t="n">
+        <v>937.2870566472569</v>
+      </c>
+      <c r="H168" t="n">
+        <v>30352073877.14516</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>960</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4.964439275467988</v>
+      </c>
+      <c r="G169" t="n">
+        <v>946.7543376330365</v>
+      </c>
+      <c r="H169" t="n">
+        <v>15834783466.76808</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>800</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>5.011227097383774</v>
+      </c>
+      <c r="G170" t="n">
+        <v>966.079128888859</v>
+      </c>
+      <c r="H170" t="n">
+        <v>21362505775.50931</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/benchmarks/results/plots/results-Fig1.xlsx
+++ b/benchmarks/results/plots/results-Fig1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H532"/>
+  <dimension ref="A1:H533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15340,6 +15340,34 @@
         <v>40037778040.3941</v>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=dynamic_gradient</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1e+16</v>
+      </c>
+      <c r="C533" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0</v>
+      </c>
+      <c r="E533" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F533" t="n">
+        <v>2.9326573568</v>
+      </c>
+      <c r="G533" t="n">
+        <v>889.6259531912921</v>
+      </c>
+      <c r="H533" t="n">
+        <v>-3.309322252153853e+23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/benchmarks/results/plots/results-Fig1.xlsx
+++ b/benchmarks/results/plots/results-Fig1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H533"/>
+  <dimension ref="A1:H541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15368,6 +15368,230 @@
         <v>-3.309322252153853e+23</v>
       </c>
     </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=age_group_gradient_targetGroups=True_targetAct=False_targetTests=False</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>50</v>
+      </c>
+      <c r="C534" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D534" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E534" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F534" t="n">
+        <v>52.97564769386039</v>
+      </c>
+      <c r="G534" t="n">
+        <v>1868.070516240173</v>
+      </c>
+      <c r="H534" t="n">
+        <v>49501127135.07371</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=age_group_gradient_targetGroups=True_targetAct=False_targetTests=False</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>50</v>
+      </c>
+      <c r="C535" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D535" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E535" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F535" t="n">
+        <v>53.06393615750851</v>
+      </c>
+      <c r="G535" t="n">
+        <v>1821.193960486289</v>
+      </c>
+      <c r="H535" t="n">
+        <v>49676603718.91109</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=age_group_gradient_targetGroups=True_targetAct=False_targetTests=False</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>50</v>
+      </c>
+      <c r="C536" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D536" t="n">
+        <v>240000</v>
+      </c>
+      <c r="E536" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F536" t="n">
+        <v>52.69334229288796</v>
+      </c>
+      <c r="G536" t="n">
+        <v>1426.416571816286</v>
+      </c>
+      <c r="H536" t="n">
+        <v>50040276650.5134</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=age_group_gradient_targetGroups=True_targetAct=False_targetTests=False</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>50</v>
+      </c>
+      <c r="C537" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D537" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E537" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F537" t="n">
+        <v>52.70093459161686</v>
+      </c>
+      <c r="G537" t="n">
+        <v>1801.951147482135</v>
+      </c>
+      <c r="H537" t="n">
+        <v>49349392851.93075</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=age_group_gradient_targetGroups=True_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>50</v>
+      </c>
+      <c r="C538" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D538" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E538" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F538" t="n">
+        <v>52.98238601317134</v>
+      </c>
+      <c r="G538" t="n">
+        <v>1776.946010866787</v>
+      </c>
+      <c r="H538" t="n">
+        <v>49677352614.84064</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=age_group_gradient_targetGroups=True_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>50</v>
+      </c>
+      <c r="C539" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D539" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E539" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F539" t="n">
+        <v>53.07388983985473</v>
+      </c>
+      <c r="G539" t="n">
+        <v>1680.452738282573</v>
+      </c>
+      <c r="H539" t="n">
+        <v>49948329248.60695</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=age_group_gradient_targetGroups=True_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>50</v>
+      </c>
+      <c r="C540" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D540" t="n">
+        <v>240000</v>
+      </c>
+      <c r="E540" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F540" t="n">
+        <v>52.97304648324432</v>
+      </c>
+      <c r="G540" t="n">
+        <v>1411.228643471699</v>
+      </c>
+      <c r="H540" t="n">
+        <v>50348229650.97617</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=age_group_gradient_targetGroups=True_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>50</v>
+      </c>
+      <c r="C541" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D541" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E541" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F541" t="n">
+        <v>52.71130665491413</v>
+      </c>
+      <c r="G541" t="n">
+        <v>1579.370988188422</v>
+      </c>
+      <c r="H541" t="n">
+        <v>49773753216.37659</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/benchmarks/results/plots/results-Fig1.xlsx
+++ b/benchmarks/results/plots/results-Fig1.xlsx
@@ -510,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>98.01884882001667</v>
+        <v>57.04199372071903</v>
       </c>
       <c r="J2" t="n">
-        <v>98.01884882001667</v>
+        <v>57.04199372071903</v>
       </c>
     </row>
     <row r="3">
@@ -544,10 +544,10 @@
         <v>41.7695395283253</v>
       </c>
       <c r="I3" t="n">
-        <v>45.54500880996019</v>
+        <v>4.568153710662557</v>
       </c>
       <c r="J3" t="n">
-        <v>56.24930929169138</v>
+        <v>15.27245419239373</v>
       </c>
     </row>
     <row r="4">
@@ -578,10 +578,10 @@
         <v>46.24276153182451</v>
       </c>
       <c r="I4" t="n">
-        <v>44.88204076304537</v>
+        <v>3.905185663747737</v>
       </c>
       <c r="J4" t="n">
-        <v>51.77608728819216</v>
+        <v>10.79923218889452</v>
       </c>
     </row>
     <row r="5">
@@ -612,10 +612,10 @@
         <v>56.18911791337925</v>
       </c>
       <c r="I5" t="n">
-        <v>41.82973090663742</v>
+        <v>0.8528758073397853</v>
       </c>
       <c r="J5" t="n">
-        <v>41.82973090663743</v>
+        <v>0.8528758073397853</v>
       </c>
     </row>
     <row r="6">
@@ -646,10 +646,10 @@
         <v>44.3560417844061</v>
       </c>
       <c r="I6" t="n">
-        <v>45.38890078974857</v>
+        <v>4.412045690450931</v>
       </c>
       <c r="J6" t="n">
-        <v>53.66280703561058</v>
+        <v>12.68595193631293</v>
       </c>
     </row>
     <row r="7">
@@ -680,10 +680,10 @@
         <v>30.67925701714791</v>
       </c>
       <c r="I7" t="n">
-        <v>47.81946956722518</v>
+        <v>6.842614467927547</v>
       </c>
       <c r="J7" t="n">
-        <v>67.33959180286877</v>
+        <v>26.36273670357112</v>
       </c>
     </row>
     <row r="8">
@@ -714,10 +714,10 @@
         <v>49.74298836873362</v>
       </c>
       <c r="I8" t="n">
-        <v>44.06938718541462</v>
+        <v>3.092532086116982</v>
       </c>
       <c r="J8" t="n">
-        <v>48.27586045128306</v>
+        <v>7.299005351985414</v>
       </c>
     </row>
     <row r="9">
@@ -748,10 +748,10 @@
         <v>51.71546452726919</v>
       </c>
       <c r="I9" t="n">
-        <v>43.09030109899047</v>
+        <v>2.113445999692836</v>
       </c>
       <c r="J9" t="n">
-        <v>46.30338429274749</v>
+        <v>5.326529193449844</v>
       </c>
     </row>
     <row r="10">
@@ -782,10 +782,10 @@
         <v>32.24704844366209</v>
       </c>
       <c r="I10" t="n">
-        <v>47.38076393067924</v>
+        <v>6.403908831381607</v>
       </c>
       <c r="J10" t="n">
-        <v>65.77180037635458</v>
+        <v>24.79494527705695</v>
       </c>
     </row>
     <row r="11">
@@ -816,10 +816,10 @@
         <v>44.57261520219429</v>
       </c>
       <c r="I11" t="n">
-        <v>45.42133531979337</v>
+        <v>4.444480220495734</v>
       </c>
       <c r="J11" t="n">
-        <v>53.44623361782239</v>
+        <v>12.46937851852474</v>
       </c>
     </row>
     <row r="12">
@@ -850,10 +850,10 @@
         <v>45.16864240208564</v>
       </c>
       <c r="I12" t="n">
-        <v>45.24400034070838</v>
+        <v>4.267145241410745</v>
       </c>
       <c r="J12" t="n">
-        <v>52.85020641793104</v>
+        <v>11.8733513186334</v>
       </c>
     </row>
     <row r="13">
@@ -884,10 +884,10 @@
         <v>39.93603060730549</v>
       </c>
       <c r="I13" t="n">
-        <v>45.61987927835062</v>
+        <v>4.643024179052986</v>
       </c>
       <c r="J13" t="n">
-        <v>58.08281821271119</v>
+        <v>17.10596311341354</v>
       </c>
     </row>
     <row r="14">
@@ -918,10 +918,10 @@
         <v>39.27344763039705</v>
       </c>
       <c r="I14" t="n">
-        <v>45.63977842981082</v>
+        <v>4.662923330513188</v>
       </c>
       <c r="J14" t="n">
-        <v>58.74540118961963</v>
+        <v>17.76854609032198</v>
       </c>
     </row>
     <row r="15">
@@ -952,10 +952,10 @@
         <v>47.1630973166035</v>
       </c>
       <c r="I15" t="n">
-        <v>44.86471064139648</v>
+        <v>3.887855542098848</v>
       </c>
       <c r="J15" t="n">
-        <v>50.85575150341317</v>
+        <v>9.878896404115537</v>
       </c>
     </row>
     <row r="16">
@@ -986,10 +986,10 @@
         <v>17.89888037703814</v>
       </c>
       <c r="I16" t="n">
-        <v>48.1459652408779</v>
+        <v>7.169110141580262</v>
       </c>
       <c r="J16" t="n">
-        <v>80.11996844297855</v>
+        <v>39.14311334368089</v>
       </c>
     </row>
     <row r="17">
@@ -1020,10 +1020,10 @@
         <v>26.46311080579538</v>
       </c>
       <c r="I17" t="n">
-        <v>47.81379675603736</v>
+        <v>6.836941656739725</v>
       </c>
       <c r="J17" t="n">
-        <v>71.5557380142213</v>
+        <v>30.57888291492365</v>
       </c>
     </row>
     <row r="18">
@@ -1054,10 +1054,10 @@
         <v>36.87448745967752</v>
       </c>
       <c r="I18" t="n">
-        <v>46.36566412926454</v>
+        <v>5.388809029966907</v>
       </c>
       <c r="J18" t="n">
-        <v>61.14436136033915</v>
+        <v>20.16750626104152</v>
       </c>
     </row>
     <row r="19">
@@ -1088,10 +1088,10 @@
         <v>30.88730496256219</v>
       </c>
       <c r="I19" t="n">
-        <v>47.4332332628699</v>
+        <v>6.456378163572268</v>
       </c>
       <c r="J19" t="n">
-        <v>67.13154385745449</v>
+        <v>26.15468875815684</v>
       </c>
     </row>
     <row r="20">
@@ -1122,10 +1122,10 @@
         <v>42.75570340940676</v>
       </c>
       <c r="I20" t="n">
-        <v>45.52445013746872</v>
+        <v>4.547595038171082</v>
       </c>
       <c r="J20" t="n">
-        <v>55.26314541060992</v>
+        <v>14.28629031131227</v>
       </c>
     </row>
     <row r="21">
@@ -1156,10 +1156,10 @@
         <v>49.49099725518467</v>
       </c>
       <c r="I21" t="n">
-        <v>44.15759242458651</v>
+        <v>3.180737325288874</v>
       </c>
       <c r="J21" t="n">
-        <v>48.52785156483201</v>
+        <v>7.550996465534361</v>
       </c>
     </row>
     <row r="22">
@@ -1190,10 +1190,10 @@
         <v>44.80996664400132</v>
       </c>
       <c r="I22" t="n">
-        <v>45.42606480183206</v>
+        <v>4.449209702534425</v>
       </c>
       <c r="J22" t="n">
-        <v>53.20888217601536</v>
+        <v>12.23202707671771</v>
       </c>
     </row>
     <row r="23">
@@ -1224,10 +1224,10 @@
         <v>48.75303984215779</v>
       </c>
       <c r="I23" t="n">
-        <v>44.06655127537232</v>
+        <v>3.089696176074682</v>
       </c>
       <c r="J23" t="n">
-        <v>49.26580897785889</v>
+        <v>8.288953878561244</v>
       </c>
     </row>
     <row r="24">
@@ -1258,10 +1258,10 @@
         <v>50.290697075671</v>
       </c>
       <c r="I24" t="n">
-        <v>43.91082180759008</v>
+        <v>2.933966708292438</v>
       </c>
       <c r="J24" t="n">
-        <v>47.72815174434568</v>
+        <v>6.751296645048036</v>
       </c>
     </row>
     <row r="25">
@@ -1292,10 +1292,10 @@
         <v>29.6528357066311</v>
       </c>
       <c r="I25" t="n">
-        <v>47.79306333766573</v>
+        <v>6.816208238368091</v>
       </c>
       <c r="J25" t="n">
-        <v>68.36601311338556</v>
+        <v>27.38915801408793</v>
       </c>
     </row>
     <row r="26">
@@ -1326,10 +1326,10 @@
         <v>29.51142221418769</v>
       </c>
       <c r="I26" t="n">
-        <v>47.38118062656112</v>
+        <v>6.404325527263481</v>
       </c>
       <c r="J26" t="n">
-        <v>68.50742660582898</v>
+        <v>27.53057150653134</v>
       </c>
     </row>
     <row r="27">
@@ -1360,10 +1360,10 @@
         <v>51.35410237214358</v>
       </c>
       <c r="I27" t="n">
-        <v>43.50421383421207</v>
+        <v>2.527358734914436</v>
       </c>
       <c r="J27" t="n">
-        <v>46.6647464478731</v>
+        <v>5.687891348575455</v>
       </c>
     </row>
     <row r="28">
@@ -1394,10 +1394,10 @@
         <v>35.47868959773201</v>
       </c>
       <c r="I28" t="n">
-        <v>46.41246679327049</v>
+        <v>5.435611693972852</v>
       </c>
       <c r="J28" t="n">
-        <v>62.54015922228466</v>
+        <v>21.56330412298703</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         <v>48.36898599809631</v>
       </c>
       <c r="I29" t="n">
-        <v>44.09148023789327</v>
+        <v>3.114625138595635</v>
       </c>
       <c r="J29" t="n">
-        <v>49.64986282192036</v>
+        <v>8.673007722622721</v>
       </c>
     </row>
     <row r="30">
@@ -1462,10 +1462,10 @@
         <v>33.30021513864154</v>
       </c>
       <c r="I30" t="n">
-        <v>47.32391778893011</v>
+        <v>6.347062689632473</v>
       </c>
       <c r="J30" t="n">
-        <v>64.71863368137514</v>
+        <v>23.74177858207749</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         <v>40.77509555839653</v>
       </c>
       <c r="I31" t="n">
-        <v>45.90620985089317</v>
+        <v>4.929354751595532</v>
       </c>
       <c r="J31" t="n">
-        <v>57.24375326162015</v>
+        <v>16.26689816232251</v>
       </c>
     </row>
     <row r="32">
@@ -1530,10 +1530,10 @@
         <v>25.93856094899037</v>
       </c>
       <c r="I32" t="n">
-        <v>47.80678671583789</v>
+        <v>6.829931616540257</v>
       </c>
       <c r="J32" t="n">
-        <v>72.0802878710263</v>
+        <v>31.10343277172866</v>
       </c>
     </row>
     <row r="33">
@@ -1564,10 +1564,10 @@
         <v>23.11020371636913</v>
       </c>
       <c r="I33" t="n">
-        <v>47.58426518955276</v>
+        <v>6.607410090255122</v>
       </c>
       <c r="J33" t="n">
-        <v>74.90864510364756</v>
+        <v>33.93179000434991</v>
       </c>
     </row>
     <row r="34">
@@ -1598,10 +1598,10 @@
         <v>42.23986144392123</v>
       </c>
       <c r="I34" t="n">
-        <v>45.65908195250055</v>
+        <v>4.682226853202913</v>
       </c>
       <c r="J34" t="n">
-        <v>55.77898737609545</v>
+        <v>14.80213227679781</v>
       </c>
     </row>
     <row r="35">
@@ -1632,10 +1632,10 @@
         <v>47.51268931154627</v>
       </c>
       <c r="I35" t="n">
-        <v>44.82729034596623</v>
+        <v>3.850435246668596</v>
       </c>
       <c r="J35" t="n">
-        <v>50.50615950847041</v>
+        <v>9.529304409172767</v>
       </c>
     </row>
     <row r="36">
@@ -1666,10 +1666,10 @@
         <v>28.10870595748798</v>
       </c>
       <c r="I36" t="n">
-        <v>47.59228534870418</v>
+        <v>6.615430249406543</v>
       </c>
       <c r="J36" t="n">
-        <v>69.9101428625287</v>
+        <v>28.93328776323105</v>
       </c>
     </row>
     <row r="37">
@@ -1700,10 +1700,10 @@
         <v>33.43732973795723</v>
       </c>
       <c r="I37" t="n">
-        <v>47.35766609380116</v>
+        <v>6.380810994503527</v>
       </c>
       <c r="J37" t="n">
-        <v>64.58151908205944</v>
+        <v>23.60466398276181</v>
       </c>
     </row>
     <row r="38">
@@ -1734,10 +1734,10 @@
         <v>-330932225215385.3</v>
       </c>
       <c r="I38" t="n">
-        <v>68.69227525201667</v>
+        <v>27.71542015271903</v>
       </c>
       <c r="J38" t="n">
-        <v>330932225215483.3</v>
+        <v>330932225215442.4</v>
       </c>
     </row>
     <row r="39">
@@ -1768,10 +1768,10 @@
         <v>31.44759329369208</v>
       </c>
       <c r="I39" t="n">
-        <v>47.41764472368707</v>
+        <v>6.440789624389431</v>
       </c>
       <c r="J39" t="n">
-        <v>66.57125552632461</v>
+        <v>25.59440042702695</v>
       </c>
     </row>
     <row r="40">
@@ -1802,10 +1802,10 @@
         <v>24.51555561391069</v>
       </c>
       <c r="I40" t="n">
-        <v>47.4969233905699</v>
+        <v>6.520068291272267</v>
       </c>
       <c r="J40" t="n">
-        <v>73.50329320610599</v>
+        <v>32.52643810680834</v>
       </c>
     </row>
     <row r="41">
@@ -1836,10 +1836,10 @@
         <v>37.77822655559574</v>
       </c>
       <c r="I41" t="n">
-        <v>46.40394021565191</v>
+        <v>5.427085116354277</v>
       </c>
       <c r="J41" t="n">
-        <v>60.24062226442094</v>
+        <v>19.2637671651233</v>
       </c>
     </row>
     <row r="42">
@@ -1870,10 +1870,10 @@
         <v>39.59686927830654</v>
       </c>
       <c r="I42" t="n">
-        <v>45.62494020546822</v>
+        <v>4.648085106170583</v>
       </c>
       <c r="J42" t="n">
-        <v>58.42197954171014</v>
+        <v>17.44512444241249</v>
       </c>
     </row>
     <row r="43">
@@ -1904,10 +1904,10 @@
         <v>30.33747935645204</v>
       </c>
       <c r="I43" t="n">
-        <v>47.45205536085036</v>
+        <v>6.475200261552722</v>
       </c>
       <c r="J43" t="n">
-        <v>67.68136946356464</v>
+        <v>26.70451436426699</v>
       </c>
     </row>
     <row r="44">
@@ -1938,10 +1938,10 @@
         <v>31.94883193081232</v>
       </c>
       <c r="I44" t="n">
-        <v>47.41172501772737</v>
+        <v>6.434869918429733</v>
       </c>
       <c r="J44" t="n">
-        <v>66.07001688920437</v>
+        <v>25.09316178990671</v>
       </c>
     </row>
     <row r="45">
@@ -1972,10 +1972,10 @@
         <v>27.26272677340766</v>
       </c>
       <c r="I45" t="n">
-        <v>47.55528255176836</v>
+        <v>6.578427452470727</v>
       </c>
       <c r="J45" t="n">
-        <v>70.75612204660901</v>
+        <v>29.77926694731137</v>
       </c>
     </row>
     <row r="46">
@@ -2006,10 +2006,10 @@
         <v>26.90992848104249</v>
       </c>
       <c r="I46" t="n">
-        <v>47.57135698218771</v>
+        <v>6.594501882890071</v>
       </c>
       <c r="J46" t="n">
-        <v>71.10892033897419</v>
+        <v>30.13206523967655</v>
       </c>
     </row>
     <row r="47">
@@ -2040,10 +2040,10 @@
         <v>38.17118217389679</v>
       </c>
       <c r="I47" t="n">
-        <v>46.40206828995865</v>
+        <v>5.425213190661012</v>
       </c>
       <c r="J47" t="n">
-        <v>59.84766664611989</v>
+        <v>18.87081154682225</v>
       </c>
     </row>
     <row r="48">
@@ -2074,10 +2074,10 @@
         <v>39.82403126653966</v>
       </c>
       <c r="I48" t="n">
-        <v>46.03210909088561</v>
+        <v>5.055253991587975</v>
       </c>
       <c r="J48" t="n">
-        <v>58.19481755347702</v>
+        <v>17.21796245417937</v>
       </c>
     </row>
     <row r="49">
@@ -2108,10 +2108,10 @@
         <v>55.41830381850417</v>
       </c>
       <c r="I49" t="n">
-        <v>41.87741632560939</v>
+        <v>0.9005612263117513</v>
       </c>
       <c r="J49" t="n">
-        <v>42.60054500151249</v>
+        <v>1.623689902214863</v>
       </c>
     </row>
     <row r="50">
@@ -2142,10 +2142,10 @@
         <v>28.04091690126657</v>
       </c>
       <c r="I50" t="n">
-        <v>47.51346292189244</v>
+        <v>6.536607822594803</v>
       </c>
       <c r="J50" t="n">
-        <v>69.9779319187501</v>
+        <v>29.00107681945246</v>
       </c>
     </row>
     <row r="51">
@@ -2176,10 +2176,10 @@
         <v>44.48650078363541</v>
       </c>
       <c r="I51" t="n">
-        <v>45.82918697714184</v>
+        <v>4.852331877844207</v>
       </c>
       <c r="J51" t="n">
-        <v>53.53234803638127</v>
+        <v>12.55549293708363</v>
       </c>
     </row>
     <row r="52">
@@ -2210,10 +2210,10 @@
         <v>22.8430937877366</v>
       </c>
       <c r="I52" t="n">
-        <v>47.87719217952958</v>
+        <v>6.900337080231942</v>
       </c>
       <c r="J52" t="n">
-        <v>75.17575503228008</v>
+        <v>34.19889993298244</v>
       </c>
     </row>
     <row r="53">
@@ -2244,10 +2244,10 @@
         <v>46.92974222368663</v>
       </c>
       <c r="I53" t="n">
-        <v>44.89292373405774</v>
+        <v>3.916068634760101</v>
       </c>
       <c r="J53" t="n">
-        <v>51.08910659633005</v>
+        <v>10.1122514970324</v>
       </c>
     </row>
     <row r="54">
@@ -2278,10 +2278,10 @@
         <v>36.39077134782562</v>
       </c>
       <c r="I54" t="n">
-        <v>46.38453649775817</v>
+        <v>5.407681398460532</v>
       </c>
       <c r="J54" t="n">
-        <v>61.62807747219107</v>
+        <v>20.65122237289341</v>
       </c>
     </row>
     <row r="55">
@@ -2312,10 +2312,10 @@
         <v>52.58378780780419</v>
       </c>
       <c r="I55" t="n">
-        <v>42.37151121633364</v>
+        <v>1.394656117036007</v>
       </c>
       <c r="J55" t="n">
-        <v>45.43506101221249</v>
+        <v>4.458205912914842</v>
       </c>
     </row>
     <row r="56">
@@ -2346,10 +2346,10 @@
         <v>21.85374638363091</v>
       </c>
       <c r="I56" t="n">
-        <v>48.26362836421245</v>
+        <v>7.286773264914814</v>
       </c>
       <c r="J56" t="n">
-        <v>76.16510243638577</v>
+        <v>35.18824733708813</v>
       </c>
     </row>
     <row r="57">
@@ -2380,10 +2380,10 @@
         <v>43.77338213125483</v>
       </c>
       <c r="I57" t="n">
-        <v>45.47807055361939</v>
+        <v>4.501215454321752</v>
       </c>
       <c r="J57" t="n">
-        <v>54.24546668876185</v>
+        <v>13.26861158946421</v>
       </c>
     </row>
     <row r="58">
@@ -2414,10 +2414,10 @@
         <v>36.31329731830293</v>
       </c>
       <c r="I58" t="n">
-        <v>46.87943810593635</v>
+        <v>5.902583006638714</v>
       </c>
       <c r="J58" t="n">
-        <v>61.70555150171375</v>
+        <v>20.72869640241611</v>
       </c>
     </row>
     <row r="59">
@@ -2448,10 +2448,10 @@
         <v>19.013587086557</v>
       </c>
       <c r="I59" t="n">
-        <v>47.96290727946273</v>
+        <v>6.986052180165096</v>
       </c>
       <c r="J59" t="n">
-        <v>79.00526173345969</v>
+        <v>38.02840663416204</v>
       </c>
     </row>
     <row r="60">
@@ -2482,10 +2482,10 @@
         <v>31.24873738813833</v>
       </c>
       <c r="I60" t="n">
-        <v>47.42412230203597</v>
+        <v>6.447267202738331</v>
       </c>
       <c r="J60" t="n">
-        <v>66.77011143187835</v>
+        <v>25.7932563325807</v>
       </c>
     </row>
     <row r="61">
@@ -2516,10 +2516,10 @@
         <v>16.64285267534803</v>
       </c>
       <c r="I61" t="n">
-        <v>48.29875959390549</v>
+        <v>7.321904494607857</v>
       </c>
       <c r="J61" t="n">
-        <v>81.37599614466863</v>
+        <v>40.399141045371</v>
       </c>
     </row>
     <row r="62">
@@ -2550,10 +2550,10 @@
         <v>46.49364923537973</v>
       </c>
       <c r="I62" t="n">
-        <v>44.95523425784643</v>
+        <v>3.978379158548798</v>
       </c>
       <c r="J62" t="n">
-        <v>51.52519958463694</v>
+        <v>10.54834448533931</v>
       </c>
     </row>
     <row r="63">
@@ -2584,10 +2584,10 @@
         <v>23.44807638087272</v>
       </c>
       <c r="I63" t="n">
-        <v>47.77666089273817</v>
+        <v>6.799805793440534</v>
       </c>
       <c r="J63" t="n">
-        <v>74.57077243914395</v>
+        <v>33.59391733984631</v>
       </c>
     </row>
     <row r="64">
@@ -2618,10 +2618,10 @@
         <v>37.60062151199935</v>
       </c>
       <c r="I64" t="n">
-        <v>46.77789552050105</v>
+        <v>5.801040421203417</v>
       </c>
       <c r="J64" t="n">
-        <v>60.41822730801733</v>
+        <v>19.44137220871968</v>
       </c>
     </row>
     <row r="65">
@@ -2652,10 +2652,10 @@
         <v>28.56597968498584</v>
       </c>
       <c r="I65" t="n">
-        <v>47.55533820561334</v>
+        <v>6.578483106315701</v>
       </c>
       <c r="J65" t="n">
-        <v>69.45286913503084</v>
+        <v>28.47601403573319</v>
       </c>
     </row>
     <row r="66">
@@ -2686,10 +2686,10 @@
         <v>32.37505812971281</v>
       </c>
       <c r="I66" t="n">
-        <v>47.33147072372343</v>
+        <v>6.354615624425797</v>
       </c>
       <c r="J66" t="n">
-        <v>65.64379069030386</v>
+        <v>24.66693559100622</v>
       </c>
     </row>
     <row r="67">
@@ -2720,10 +2720,10 @@
         <v>52.02066109252408</v>
       </c>
       <c r="I67" t="n">
-        <v>43.01073878826992</v>
+        <v>2.033883688972281</v>
       </c>
       <c r="J67" t="n">
-        <v>45.9981877274926</v>
+        <v>5.021332628194955</v>
       </c>
     </row>
     <row r="68">
@@ -2754,10 +2754,10 @@
         <v>33.5753635717458</v>
       </c>
       <c r="I68" t="n">
-        <v>47.47666819458121</v>
+        <v>6.499813095283571</v>
       </c>
       <c r="J68" t="n">
-        <v>64.44348524827086</v>
+        <v>23.46663014897324</v>
       </c>
     </row>
     <row r="69">
@@ -2788,10 +2788,10 @@
         <v>25.58380141768838</v>
       </c>
       <c r="I69" t="n">
-        <v>47.72028147293108</v>
+        <v>6.743426373633447</v>
       </c>
       <c r="J69" t="n">
-        <v>72.43504740232829</v>
+        <v>31.45819230303065</v>
       </c>
     </row>
     <row r="70">
@@ -2822,10 +2822,10 @@
         <v>41.34604292412611</v>
       </c>
       <c r="I70" t="n">
-        <v>45.5947352231594</v>
+        <v>4.617880123861767</v>
       </c>
       <c r="J70" t="n">
-        <v>56.67280589589057</v>
+        <v>15.69595079659292</v>
       </c>
     </row>
     <row r="71">
@@ -2856,10 +2856,10 @@
         <v>53.48152688311742</v>
       </c>
       <c r="I71" t="n">
-        <v>42.14856670331515</v>
+        <v>1.171711604017517</v>
       </c>
       <c r="J71" t="n">
-        <v>44.53732193689926</v>
+        <v>3.560466837601616</v>
       </c>
     </row>
     <row r="72">
@@ -2890,10 +2890,10 @@
         <v>35.5934993960629</v>
       </c>
       <c r="I72" t="n">
-        <v>47.03440752029693</v>
+        <v>6.057552420999293</v>
       </c>
       <c r="J72" t="n">
-        <v>62.42534942395378</v>
+        <v>21.44849432465613</v>
       </c>
     </row>
     <row r="73">
@@ -2924,10 +2924,10 @@
         <v>15.15008185191754</v>
       </c>
       <c r="I73" t="n">
-        <v>48.24441299425879</v>
+        <v>7.267557894961158</v>
       </c>
       <c r="J73" t="n">
-        <v>82.86876696809914</v>
+        <v>41.89191186880149</v>
       </c>
     </row>
     <row r="74">
@@ -2958,10 +2958,10 @@
         <v>24.03091891560656</v>
       </c>
       <c r="I74" t="n">
-        <v>47.53432046458373</v>
+        <v>6.557465365286092</v>
       </c>
       <c r="J74" t="n">
-        <v>73.98792990441012</v>
+        <v>33.01107480511247</v>
       </c>
     </row>
     <row r="75">
@@ -2992,10 +2992,10 @@
         <v>22.28396300099296</v>
       </c>
       <c r="I75" t="n">
-        <v>47.79386977783869</v>
+        <v>6.817014678541057</v>
       </c>
       <c r="J75" t="n">
-        <v>75.73488581902372</v>
+        <v>34.75803071972608</v>
       </c>
     </row>
     <row r="76">
@@ -3026,10 +3026,10 @@
         <v>45.59307661399068</v>
       </c>
       <c r="I76" t="n">
-        <v>45.218098929222</v>
+        <v>4.241243829924365</v>
       </c>
       <c r="J76" t="n">
-        <v>52.425772206026</v>
+        <v>11.44891710672835</v>
       </c>
     </row>
     <row r="77">
@@ -3060,10 +3060,10 @@
         <v>45.73443431110162</v>
       </c>
       <c r="I77" t="n">
-        <v>45.17695861792217</v>
+        <v>4.200103518624537</v>
       </c>
       <c r="J77" t="n">
-        <v>52.28441450891505</v>
+        <v>11.30755940961741</v>
       </c>
     </row>
     <row r="78">
@@ -3094,10 +3094,10 @@
         <v>21.42991712708603</v>
       </c>
       <c r="I78" t="n">
-        <v>48.39667767507351</v>
+        <v>7.419822575775868</v>
       </c>
       <c r="J78" t="n">
-        <v>76.58893169293064</v>
+        <v>35.61207659363301</v>
       </c>
     </row>
     <row r="79">
@@ -3128,10 +3128,10 @@
         <v>54.1203706499624</v>
       </c>
       <c r="I79" t="n">
-        <v>41.91099843147781</v>
+        <v>0.9341433321801773</v>
       </c>
       <c r="J79" t="n">
-        <v>43.89847817005428</v>
+        <v>2.921623070756631</v>
       </c>
     </row>
     <row r="80">
@@ -3162,10 +3162,10 @@
         <v>49.2782623139927</v>
       </c>
       <c r="I80" t="n">
-        <v>44.61426743746653</v>
+        <v>3.637412338168893</v>
       </c>
       <c r="J80" t="n">
-        <v>48.74058650602398</v>
+        <v>7.763731406726336</v>
       </c>
     </row>
     <row r="81">
@@ -3196,10 +3196,10 @@
         <v>44.23539327719426</v>
       </c>
       <c r="I81" t="n">
-        <v>45.49257186808283</v>
+        <v>4.515716768785197</v>
       </c>
       <c r="J81" t="n">
-        <v>53.78345554282242</v>
+        <v>12.80660044352477</v>
       </c>
     </row>
     <row r="82">
@@ -3230,10 +3230,10 @@
         <v>36.32981874678777</v>
       </c>
       <c r="I82" t="n">
-        <v>46.50362800821502</v>
+        <v>5.526772908917387</v>
       </c>
       <c r="J82" t="n">
-        <v>61.6890300732289</v>
+        <v>20.71217497393126</v>
       </c>
     </row>
     <row r="83">
@@ -3264,10 +3264,10 @@
         <v>27.91422171656769</v>
       </c>
       <c r="I83" t="n">
-        <v>47.81746836721108</v>
+        <v>6.840613267913447</v>
       </c>
       <c r="J83" t="n">
-        <v>70.10462710344899</v>
+        <v>29.12777200415135</v>
       </c>
     </row>
     <row r="84">
@@ -3298,10 +3298,10 @@
         <v>33.6790692512508</v>
       </c>
       <c r="I84" t="n">
-        <v>47.47181479295499</v>
+        <v>6.494959693657357</v>
       </c>
       <c r="J84" t="n">
-        <v>64.33977956876588</v>
+        <v>23.36292446946823</v>
       </c>
     </row>
     <row r="85">
@@ -3332,10 +3332,10 @@
         <v>25.45871279618905</v>
       </c>
       <c r="I85" t="n">
-        <v>47.62247748484034</v>
+        <v>6.645622385542701</v>
       </c>
       <c r="J85" t="n">
-        <v>72.56013602382764</v>
+        <v>31.58328092452998</v>
       </c>
     </row>
     <row r="86">
@@ -3366,10 +3366,10 @@
         <v>52.90793003652733</v>
       </c>
       <c r="I86" t="n">
-        <v>42.38843307210678</v>
+        <v>1.411577972809141</v>
       </c>
       <c r="J86" t="n">
-        <v>45.11091878348935</v>
+        <v>4.134063684191702</v>
       </c>
     </row>
     <row r="87">
@@ -3400,10 +3400,10 @@
         <v>47.744771123593</v>
       </c>
       <c r="I87" t="n">
-        <v>44.85935731373242</v>
+        <v>3.882502214434787</v>
       </c>
       <c r="J87" t="n">
-        <v>50.27407769642368</v>
+        <v>9.297222597126037</v>
       </c>
     </row>
     <row r="88">
@@ -3434,10 +3434,10 @@
         <v>54.83601174477604</v>
       </c>
       <c r="I88" t="n">
-        <v>41.91203044928328</v>
+        <v>0.9351753499856414</v>
       </c>
       <c r="J88" t="n">
-        <v>43.18283707524063</v>
+        <v>2.205981975942997</v>
       </c>
     </row>
     <row r="89">
@@ -3468,10 +3468,10 @@
         <v>40.32069053270197</v>
       </c>
       <c r="I89" t="n">
-        <v>45.97825548933304</v>
+        <v>5.001400390035407</v>
       </c>
       <c r="J89" t="n">
-        <v>57.6981582873147</v>
+        <v>16.72130318801707</v>
       </c>
     </row>
     <row r="90">
@@ -3502,10 +3502,10 @@
         <v>42.95185781811324</v>
       </c>
       <c r="I90" t="n">
-        <v>45.95979218664758</v>
+        <v>4.982937087349946</v>
       </c>
       <c r="J90" t="n">
-        <v>55.06699100190342</v>
+        <v>14.09013590260579</v>
       </c>
     </row>
     <row r="91">
@@ -3536,10 +3536,10 @@
         <v>50.28635088336978</v>
       </c>
       <c r="I91" t="n">
-        <v>44.40510831236351</v>
+        <v>3.428253213065872</v>
       </c>
       <c r="J91" t="n">
-        <v>47.73249793664689</v>
+        <v>6.755642837349257</v>
       </c>
     </row>
     <row r="92">
@@ -3570,10 +3570,10 @@
         <v>51.14490751052708</v>
       </c>
       <c r="I92" t="n">
-        <v>43.11442650743233</v>
+        <v>2.137571408134697</v>
       </c>
       <c r="J92" t="n">
-        <v>46.8739413094896</v>
+        <v>5.897086210191958</v>
       </c>
     </row>
     <row r="93">
@@ -3604,10 +3604,10 @@
         <v>45.3732078070712</v>
       </c>
       <c r="I93" t="n">
-        <v>45.30681124389969</v>
+        <v>4.329956144602058</v>
       </c>
       <c r="J93" t="n">
-        <v>52.64564101294548</v>
+        <v>11.66878591364783</v>
       </c>
     </row>
     <row r="94">
@@ -3638,10 +3638,10 @@
         <v>46.70624180785506</v>
       </c>
       <c r="I94" t="n">
-        <v>44.89214498941656</v>
+        <v>3.915289890118927</v>
       </c>
       <c r="J94" t="n">
-        <v>51.31260701216162</v>
+        <v>10.33575191286398</v>
       </c>
     </row>
     <row r="95">
@@ -3672,10 +3672,10 @@
         <v>49.98820634131714</v>
       </c>
       <c r="I95" t="n">
-        <v>44.08448242795958</v>
+        <v>3.107627328661941</v>
       </c>
       <c r="J95" t="n">
-        <v>48.03064247869954</v>
+        <v>7.053787379401896</v>
       </c>
     </row>
     <row r="96">
@@ -3706,10 +3706,10 @@
         <v>24.64584529791649</v>
       </c>
       <c r="I96" t="n">
-        <v>47.55285194367048</v>
+        <v>6.575996844372845</v>
       </c>
       <c r="J96" t="n">
-        <v>73.37300352210019</v>
+        <v>32.39614842280254</v>
       </c>
     </row>
     <row r="97">
@@ -3740,10 +3740,10 @@
         <v>53.86951322586116</v>
       </c>
       <c r="I97" t="n">
-        <v>42.02208397720659</v>
+        <v>1.045228877908954</v>
       </c>
       <c r="J97" t="n">
-        <v>44.14933559415553</v>
+        <v>3.172480494857872</v>
       </c>
     </row>
     <row r="98">
@@ -3774,10 +3774,10 @@
         <v>49.27136316908135</v>
       </c>
       <c r="I98" t="n">
-        <v>44.17952400877089</v>
+        <v>3.202668909473253</v>
       </c>
       <c r="J98" t="n">
-        <v>48.74748565093533</v>
+        <v>7.770630551637687</v>
       </c>
     </row>
     <row r="99">
@@ -3808,10 +3808,10 @@
         <v>34.19308701212502</v>
       </c>
       <c r="I99" t="n">
-        <v>47.34888552234136</v>
+        <v>6.372030423043718</v>
       </c>
       <c r="J99" t="n">
-        <v>63.82576180789166</v>
+        <v>22.84890670859401</v>
       </c>
     </row>
     <row r="100">
@@ -3842,10 +3842,10 @@
         <v>47.72061031788171</v>
       </c>
       <c r="I100" t="n">
-        <v>45.19114880454634</v>
+        <v>4.214293705248707</v>
       </c>
       <c r="J100" t="n">
-        <v>50.29823850213497</v>
+        <v>9.321383402837327</v>
       </c>
     </row>
     <row r="101">
@@ -3876,10 +3876,10 @@
         <v>38.56044240692709</v>
       </c>
       <c r="I101" t="n">
-        <v>46.38468595654575</v>
+        <v>5.407830857248108</v>
       </c>
       <c r="J101" t="n">
-        <v>59.45840641308958</v>
+        <v>18.48155131379195</v>
       </c>
     </row>
     <row r="102">
@@ -3910,10 +3910,10 @@
         <v>24.82910589470695</v>
       </c>
       <c r="I102" t="n">
-        <v>47.74390044119573</v>
+        <v>6.767045341898097</v>
       </c>
       <c r="J102" t="n">
-        <v>73.18974292530972</v>
+        <v>32.21288782601209</v>
       </c>
     </row>
     <row r="103">
@@ -3944,10 +3944,10 @@
         <v>42.90252747160964</v>
       </c>
       <c r="I103" t="n">
-        <v>46.0395972463987</v>
+        <v>5.062742147101062</v>
       </c>
       <c r="J103" t="n">
-        <v>55.11632134840704</v>
+        <v>14.1394662491094</v>
       </c>
     </row>
     <row r="104">
@@ -3978,10 +3978,10 @@
         <v>48.55208518675315</v>
       </c>
       <c r="I104" t="n">
-        <v>44.07479334213379</v>
+        <v>3.097938242836157</v>
       </c>
       <c r="J104" t="n">
-        <v>49.46676363326353</v>
+        <v>8.489908533965881</v>
       </c>
     </row>
     <row r="105">
@@ -4012,10 +4012,10 @@
         <v>45.72843613724068</v>
       </c>
       <c r="I105" t="n">
-        <v>45.31545150155324</v>
+        <v>4.338596402255604</v>
       </c>
       <c r="J105" t="n">
-        <v>52.290412682776</v>
+        <v>11.31355758347836</v>
       </c>
     </row>
     <row r="106">
@@ -4046,10 +4046,10 @@
         <v>30.35207387714516</v>
       </c>
       <c r="I106" t="n">
-        <v>47.7930584197367</v>
+        <v>6.816203320439065</v>
       </c>
       <c r="J106" t="n">
-        <v>67.66677494287153</v>
+        <v>26.68991984357388</v>
       </c>
     </row>
     <row r="107">
@@ -4080,10 +4080,10 @@
         <v>51.47419545210434</v>
       </c>
       <c r="I107" t="n">
-        <v>43.10345905412158</v>
+        <v>2.126603954823942</v>
       </c>
       <c r="J107" t="n">
-        <v>46.54465336791234</v>
+        <v>5.567798268614695</v>
       </c>
     </row>
     <row r="108">
@@ -4114,10 +4114,10 @@
         <v>15.83478346676808</v>
       </c>
       <c r="I108" t="n">
-        <v>48.37445606533679</v>
+        <v>7.397600966039157</v>
       </c>
       <c r="J108" t="n">
-        <v>82.1840653532486</v>
+        <v>41.20721025395095</v>
       </c>
     </row>
     <row r="109">
@@ -4148,10 +4148,10 @@
         <v>21.36250577550931</v>
       </c>
       <c r="I109" t="n">
-        <v>47.90657784617893</v>
+        <v>6.929722746881296</v>
       </c>
       <c r="J109" t="n">
-        <v>76.65634304450737</v>
+        <v>35.67948794520973</v>
       </c>
     </row>
     <row r="110">
@@ -4182,10 +4182,10 @@
         <v>18.11799702221794</v>
       </c>
       <c r="I110" t="n">
-        <v>63.60421452114136</v>
+        <v>22.62735942184372</v>
       </c>
       <c r="J110" t="n">
-        <v>79.90085179779874</v>
+        <v>38.9239966985011</v>
       </c>
     </row>
     <row r="111">
@@ -4216,10 +4216,10 @@
         <v>19.22913139556729</v>
       </c>
       <c r="I111" t="n">
-        <v>63.60421462070797</v>
+        <v>22.62735952141033</v>
       </c>
       <c r="J111" t="n">
-        <v>78.78971742444939</v>
+        <v>37.81286232515174</v>
       </c>
     </row>
     <row r="112">
@@ -4250,10 +4250,10 @@
         <v>22.56253451561537</v>
       </c>
       <c r="I112" t="n">
-        <v>63.6042149194078</v>
+        <v>22.62735982011016</v>
       </c>
       <c r="J112" t="n">
-        <v>75.4563143044013</v>
+        <v>34.47945920510367</v>
       </c>
     </row>
     <row r="113">
@@ -4284,10 +4284,10 @@
         <v>-1.512043573620744</v>
       </c>
       <c r="I113" t="n">
-        <v>63.60421442157476</v>
+        <v>22.62735932227712</v>
       </c>
       <c r="J113" t="n">
-        <v>99.53089239363742</v>
+        <v>58.55403729433978</v>
       </c>
     </row>
     <row r="114">
@@ -4318,10 +4318,10 @@
         <v>-0.7712873247211709</v>
       </c>
       <c r="I114" t="n">
-        <v>63.60421481984119</v>
+        <v>22.62735972054355</v>
       </c>
       <c r="J114" t="n">
-        <v>98.79013614473786</v>
+        <v>57.81328104544021</v>
       </c>
     </row>
     <row r="115">
@@ -4352,10 +4352,10 @@
         <v>14.78459390216986</v>
       </c>
       <c r="I115" t="n">
-        <v>63.60421521810761</v>
+        <v>22.62736011880997</v>
       </c>
       <c r="J115" t="n">
-        <v>83.23425491784681</v>
+        <v>42.25739981854917</v>
       </c>
     </row>
     <row r="116">
@@ -4386,10 +4386,10 @@
         <v>7.377031413174132</v>
       </c>
       <c r="I116" t="n">
-        <v>63.60421521810762</v>
+        <v>22.62736011880998</v>
       </c>
       <c r="J116" t="n">
-        <v>90.64181740684255</v>
+        <v>49.6649623075449</v>
       </c>
     </row>
     <row r="117">
@@ -4420,10 +4420,10 @@
         <v>34.32991580571241</v>
       </c>
       <c r="I117" t="n">
-        <v>58.69605056400242</v>
+        <v>17.71919546470478</v>
       </c>
       <c r="J117" t="n">
-        <v>63.68893301430427</v>
+        <v>22.71207791500662</v>
       </c>
     </row>
     <row r="118">
@@ -4454,10 +4454,10 @@
         <v>16.266106399969</v>
       </c>
       <c r="I118" t="n">
-        <v>63.60421501897441</v>
+        <v>22.62735991967678</v>
       </c>
       <c r="J118" t="n">
-        <v>81.75274242004768</v>
+        <v>40.77588732075003</v>
       </c>
     </row>
     <row r="119">
@@ -4488,10 +4488,10 @@
         <v>41.5624767656128</v>
       </c>
       <c r="I119" t="n">
-        <v>48.44915836398726</v>
+        <v>7.472303264689621</v>
       </c>
       <c r="J119" t="n">
-        <v>56.45637205440388</v>
+        <v>15.47951695510623</v>
       </c>
     </row>
     <row r="120">
@@ -4522,10 +4522,10 @@
         <v>31.94201525220591</v>
       </c>
       <c r="I120" t="n">
-        <v>58.69605015550439</v>
+        <v>17.71919505620676</v>
       </c>
       <c r="J120" t="n">
-        <v>66.07683356781077</v>
+        <v>25.09997846851313</v>
       </c>
     </row>
     <row r="121">
@@ -4556,10 +4556,10 @@
         <v>1.450981421977548</v>
       </c>
       <c r="I121" t="n">
-        <v>63.60421501897441</v>
+        <v>22.62735991967678</v>
       </c>
       <c r="J121" t="n">
-        <v>96.56786739803913</v>
+        <v>55.59101229874149</v>
       </c>
     </row>
     <row r="122">
@@ -4590,10 +4590,10 @@
         <v>49.56668933308701</v>
       </c>
       <c r="I122" t="n">
-        <v>44.92602611718428</v>
+        <v>3.949171017886641</v>
       </c>
       <c r="J122" t="n">
-        <v>48.45215948692966</v>
+        <v>7.475304387632022</v>
       </c>
     </row>
     <row r="123">
@@ -4624,10 +4624,10 @@
         <v>42.64036064638022</v>
       </c>
       <c r="I123" t="n">
-        <v>48.06578399763606</v>
+        <v>7.088928898338423</v>
       </c>
       <c r="J123" t="n">
-        <v>55.37848817363646</v>
+        <v>14.40163307433881</v>
       </c>
     </row>
     <row r="124">
@@ -4658,10 +4658,10 @@
         <v>30.20536030420119</v>
       </c>
       <c r="I124" t="n">
-        <v>58.69605038893184</v>
+        <v>17.71919528963421</v>
       </c>
       <c r="J124" t="n">
-        <v>67.81348851581549</v>
+        <v>26.83663341651785</v>
       </c>
     </row>
     <row r="125">
@@ -4692,10 +4692,10 @@
         <v>47.21593185743513</v>
       </c>
       <c r="I125" t="n">
-        <v>44.9260280130059</v>
+        <v>3.949172913708267</v>
       </c>
       <c r="J125" t="n">
-        <v>50.80291696258155</v>
+        <v>9.826061863283904</v>
       </c>
     </row>
     <row r="126">
@@ -4726,10 +4726,10 @@
         <v>43.01833426276189</v>
       </c>
       <c r="I126" t="n">
-        <v>48.44915718987802</v>
+        <v>7.472302090580378</v>
       </c>
       <c r="J126" t="n">
-        <v>55.00051455725479</v>
+        <v>14.02365945795714</v>
       </c>
     </row>
     <row r="127">
@@ -4760,10 +4760,10 @@
         <v>40.10661926846371</v>
       </c>
       <c r="I127" t="n">
-        <v>48.4491595380965</v>
+        <v>7.472304438798865</v>
       </c>
       <c r="J127" t="n">
-        <v>57.91222955155297</v>
+        <v>16.93537445225532</v>
       </c>
     </row>
     <row r="128">
@@ -4794,10 +4794,10 @@
         <v>-0.4009092002713702</v>
       </c>
       <c r="I128" t="n">
-        <v>63.60421452114135</v>
+        <v>22.62735942184371</v>
       </c>
       <c r="J128" t="n">
-        <v>98.41975802028806</v>
+        <v>57.44290292099041</v>
       </c>
     </row>
     <row r="129">
@@ -4828,10 +4828,10 @@
         <v>28.46870535619645</v>
       </c>
       <c r="I129" t="n">
-        <v>58.6960506223593</v>
+        <v>17.71919552306166</v>
       </c>
       <c r="J129" t="n">
-        <v>69.55014346382022</v>
+        <v>28.57328836452259</v>
       </c>
     </row>
     <row r="130">
@@ -4862,10 +4862,10 @@
         <v>31.07368777820354</v>
       </c>
       <c r="I130" t="n">
-        <v>58.69605085578674</v>
+        <v>17.71919575648911</v>
       </c>
       <c r="J130" t="n">
-        <v>66.94516104181314</v>
+        <v>25.9683059425155</v>
       </c>
     </row>
     <row r="131">
@@ -4896,10 +4896,10 @@
         <v>11.45119078212178</v>
       </c>
       <c r="I131" t="n">
-        <v>63.6042149194078</v>
+        <v>22.62735982011016</v>
       </c>
       <c r="J131" t="n">
-        <v>86.5676580378949</v>
+        <v>45.59080293859726</v>
       </c>
     </row>
     <row r="132">
@@ -4930,10 +4930,10 @@
         <v>6.636275164274556</v>
       </c>
       <c r="I132" t="n">
-        <v>63.60421481984119</v>
+        <v>22.62735972054355</v>
       </c>
       <c r="J132" t="n">
-        <v>91.38257365574212</v>
+        <v>50.40571855644448</v>
       </c>
     </row>
     <row r="133">
@@ -4964,10 +4964,10 @@
         <v>30.85660590970296</v>
       </c>
       <c r="I133" t="n">
-        <v>58.69605103085732</v>
+        <v>17.71919593155968</v>
       </c>
       <c r="J133" t="n">
-        <v>67.16224291031372</v>
+        <v>26.18538781101607</v>
       </c>
     </row>
     <row r="134">
@@ -4998,10 +4998,10 @@
         <v>-2.252799822520317</v>
       </c>
       <c r="I134" t="n">
-        <v>63.60421501897441</v>
+        <v>22.62735991967678</v>
       </c>
       <c r="J134" t="n">
-        <v>100.271648642537</v>
+        <v>59.29479354323935</v>
       </c>
     </row>
     <row r="135">
@@ -5032,10 +5032,10 @@
         <v>27.60037788219409</v>
       </c>
       <c r="I135" t="n">
-        <v>58.69605015550439</v>
+        <v>17.71919505620676</v>
       </c>
       <c r="J135" t="n">
-        <v>70.41847093782259</v>
+        <v>29.44161583852495</v>
       </c>
     </row>
     <row r="136">
@@ -5066,10 +5066,10 @@
         <v>17.74761889776814</v>
       </c>
       <c r="I136" t="n">
-        <v>63.60421481984119</v>
+        <v>22.62735972054355</v>
       </c>
       <c r="J136" t="n">
-        <v>80.27122992224854</v>
+        <v>39.29437482295089</v>
       </c>
     </row>
     <row r="137">
@@ -5100,10 +5100,10 @@
         <v>21.82177826671579</v>
       </c>
       <c r="I137" t="n">
-        <v>63.60421452114136</v>
+        <v>22.62735942184372</v>
       </c>
       <c r="J137" t="n">
-        <v>76.19707055330089</v>
+        <v>35.22021545400325</v>
       </c>
     </row>
     <row r="138">
@@ -5134,10 +5134,10 @@
         <v>33.02742459470887</v>
       </c>
       <c r="I138" t="n">
-        <v>58.6960504472887</v>
+        <v>17.71919534799106</v>
       </c>
       <c r="J138" t="n">
-        <v>64.99142422530781</v>
+        <v>24.01456912601017</v>
       </c>
     </row>
     <row r="139">
@@ -5168,10 +5168,10 @@
         <v>28.03454161919528</v>
       </c>
       <c r="I139" t="n">
-        <v>58.69605097250046</v>
+        <v>17.71919587320282</v>
       </c>
       <c r="J139" t="n">
-        <v>69.98430720082139</v>
+        <v>29.00745210152375</v>
       </c>
     </row>
     <row r="140">
@@ -5202,10 +5202,10 @@
         <v>4.784384542025629</v>
       </c>
       <c r="I140" t="n">
-        <v>63.60421432200814</v>
+        <v>22.6273592227105</v>
       </c>
       <c r="J140" t="n">
-        <v>93.23446427799104</v>
+        <v>52.25760917869341</v>
       </c>
     </row>
     <row r="141">
@@ -5236,10 +5236,10 @@
         <v>15.89572827551921</v>
       </c>
       <c r="I141" t="n">
-        <v>63.60421432200815</v>
+        <v>22.62735922271052</v>
       </c>
       <c r="J141" t="n">
-        <v>82.12312054449747</v>
+        <v>41.14626544519982</v>
       </c>
     </row>
     <row r="142">
@@ -5270,10 +5270,10 @@
         <v>22.93291264006516</v>
       </c>
       <c r="I142" t="n">
-        <v>63.60421462070797</v>
+        <v>22.62735952141033</v>
       </c>
       <c r="J142" t="n">
-        <v>75.08593617995152</v>
+        <v>34.10908108065387</v>
       </c>
     </row>
     <row r="143">
@@ -5304,10 +5304,10 @@
         <v>39.37869051988916</v>
       </c>
       <c r="I143" t="n">
-        <v>48.44915621145366</v>
+        <v>7.472301112156025</v>
       </c>
       <c r="J143" t="n">
-        <v>58.64015830012752</v>
+        <v>17.66330320082987</v>
       </c>
     </row>
     <row r="144">
@@ -5338,10 +5338,10 @@
         <v>12.19194703102135</v>
       </c>
       <c r="I144" t="n">
-        <v>63.60421432200814</v>
+        <v>22.6273592227105</v>
       </c>
       <c r="J144" t="n">
-        <v>85.82690178899533</v>
+        <v>44.85004668969768</v>
       </c>
     </row>
     <row r="145">
@@ -5372,10 +5372,10 @@
         <v>29.33703283019881</v>
       </c>
       <c r="I145" t="n">
-        <v>58.69605108921419</v>
+        <v>17.71919598991656</v>
       </c>
       <c r="J145" t="n">
-        <v>68.68181598981788</v>
+        <v>27.70496089052022</v>
       </c>
     </row>
     <row r="146">
@@ -5406,10 +5406,10 @@
         <v>34.11283393721183</v>
       </c>
       <c r="I146" t="n">
-        <v>58.69605073907301</v>
+        <v>17.71919563977537</v>
       </c>
       <c r="J146" t="n">
-        <v>63.90601488280485</v>
+        <v>22.9291597835072</v>
       </c>
     </row>
     <row r="147">
@@ -5440,10 +5440,10 @@
         <v>30.63952404120237</v>
       </c>
       <c r="I147" t="n">
-        <v>58.69605003879066</v>
+        <v>17.71919493949302</v>
       </c>
       <c r="J147" t="n">
-        <v>67.37932477881431</v>
+        <v>26.40246967951666</v>
       </c>
     </row>
     <row r="148">
@@ -5474,10 +5474,10 @@
         <v>4.414006417575833</v>
       </c>
       <c r="I148" t="n">
-        <v>63.60421462070798</v>
+        <v>22.62735952141034</v>
       </c>
       <c r="J148" t="n">
-        <v>93.60484240244084</v>
+        <v>52.6279873031432</v>
       </c>
     </row>
     <row r="149">
@@ -5508,10 +5508,10 @@
         <v>0.7102251730779782</v>
       </c>
       <c r="I149" t="n">
-        <v>63.60421462070797</v>
+        <v>22.62735952141033</v>
       </c>
       <c r="J149" t="n">
-        <v>97.3086236469387</v>
+        <v>56.33176854764105</v>
       </c>
     </row>
     <row r="150">
@@ -5542,10 +5542,10 @@
         <v>9.228922035423068</v>
       </c>
       <c r="I150" t="n">
-        <v>63.60421472027458</v>
+        <v>22.62735962097695</v>
       </c>
       <c r="J150" t="n">
-        <v>88.78992678459362</v>
+        <v>47.81307168529597</v>
       </c>
     </row>
     <row r="151">
@@ -5576,10 +5576,10 @@
         <v>7.747409537623919</v>
       </c>
       <c r="I151" t="n">
-        <v>63.6042149194078</v>
+        <v>22.62735982011016</v>
       </c>
       <c r="J151" t="n">
-        <v>90.27143928239276</v>
+        <v>49.29458418309512</v>
       </c>
     </row>
     <row r="152">
@@ -5610,10 +5610,10 @@
         <v>32.15909712070652</v>
       </c>
       <c r="I152" t="n">
-        <v>58.69605114757105</v>
+        <v>17.71919604827342</v>
       </c>
       <c r="J152" t="n">
-        <v>65.85975169931015</v>
+        <v>24.88289660001251</v>
       </c>
     </row>
     <row r="153">
@@ -5644,10 +5644,10 @@
         <v>8.117787662073702</v>
       </c>
       <c r="I153" t="n">
-        <v>63.60421462070797</v>
+        <v>22.62735952141033</v>
       </c>
       <c r="J153" t="n">
-        <v>89.90106115794298</v>
+        <v>48.92420605864533</v>
       </c>
     </row>
     <row r="154">
@@ -5678,10 +5678,10 @@
         <v>21.08102201781622</v>
       </c>
       <c r="I154" t="n">
-        <v>63.604215118541</v>
+        <v>22.62736001924336</v>
       </c>
       <c r="J154" t="n">
-        <v>76.93782680220045</v>
+        <v>35.96097170290281</v>
       </c>
     </row>
     <row r="155">
@@ -5712,10 +5712,10 @@
         <v>4.043628293126057</v>
       </c>
       <c r="I155" t="n">
-        <v>63.6042149194078</v>
+        <v>22.62735982011016</v>
       </c>
       <c r="J155" t="n">
-        <v>93.97522052689062</v>
+        <v>52.99836542759298</v>
       </c>
     </row>
     <row r="156">
@@ -5746,10 +5746,10 @@
         <v>48.39131059526105</v>
       </c>
       <c r="I156" t="n">
-        <v>44.92602706509511</v>
+        <v>3.949171965797476</v>
       </c>
       <c r="J156" t="n">
-        <v>49.62753822475563</v>
+        <v>8.650683125457988</v>
       </c>
     </row>
     <row r="157">
@@ -5780,10 +5780,10 @@
         <v>27.16621414519291</v>
       </c>
       <c r="I157" t="n">
-        <v>58.69605050564556</v>
+        <v>17.71919540634792</v>
       </c>
       <c r="J157" t="n">
-        <v>70.85263467482376</v>
+        <v>29.87577957552612</v>
       </c>
     </row>
     <row r="158">
@@ -5814,10 +5814,10 @@
         <v>33.67867020021063</v>
       </c>
       <c r="I158" t="n">
-        <v>58.6960510892142</v>
+        <v>17.71919598991656</v>
       </c>
       <c r="J158" t="n">
-        <v>64.34017861980605</v>
+        <v>23.3633235205084</v>
       </c>
     </row>
     <row r="159">
@@ -5848,10 +5848,10 @@
         <v>42.29040551418736</v>
       </c>
       <c r="I159" t="n">
-        <v>48.44915777693262</v>
+        <v>7.472302677634985</v>
       </c>
       <c r="J159" t="n">
-        <v>55.72844330582932</v>
+        <v>14.75158820653167</v>
       </c>
     </row>
     <row r="160">
@@ -5882,10 +5882,10 @@
         <v>1.821359546427339</v>
       </c>
       <c r="I160" t="n">
-        <v>63.60421472027458</v>
+        <v>22.62735962097695</v>
       </c>
       <c r="J160" t="n">
-        <v>96.19748927358934</v>
+        <v>55.2206341742917</v>
       </c>
     </row>
     <row r="161">
@@ -5916,10 +5916,10 @@
         <v>42.23409921832574</v>
       </c>
       <c r="I161" t="n">
-        <v>48.06578432527477</v>
+        <v>7.088929225977132</v>
       </c>
       <c r="J161" t="n">
-        <v>55.78474960169094</v>
+        <v>14.8078945023933</v>
       </c>
     </row>
     <row r="162">
@@ -5950,10 +5950,10 @@
         <v>14.04383765327028</v>
       </c>
       <c r="I162" t="n">
-        <v>63.60421481984119</v>
+        <v>22.62735972054355</v>
       </c>
       <c r="J162" t="n">
-        <v>83.9750111667464</v>
+        <v>42.99815606744875</v>
       </c>
     </row>
     <row r="163">
@@ -5984,10 +5984,10 @@
         <v>12.93270327992093</v>
       </c>
       <c r="I163" t="n">
-        <v>63.60421472027458</v>
+        <v>22.62735962097695</v>
       </c>
       <c r="J163" t="n">
-        <v>85.08614554009574</v>
+        <v>44.10929044079811</v>
       </c>
     </row>
     <row r="164">
@@ -6018,10 +6018,10 @@
         <v>29.7711965672</v>
       </c>
       <c r="I164" t="n">
-        <v>58.69605073907301</v>
+        <v>17.71919563977537</v>
       </c>
       <c r="J164" t="n">
-        <v>68.24765225281668</v>
+        <v>27.27079715351903</v>
       </c>
     </row>
     <row r="165">
@@ -6052,10 +6052,10 @@
         <v>1.080603297527763</v>
       </c>
       <c r="I165" t="n">
-        <v>63.60421432200815</v>
+        <v>22.62735922271052</v>
       </c>
       <c r="J165" t="n">
-        <v>96.93824552248893</v>
+        <v>55.96139042319127</v>
       </c>
     </row>
     <row r="166">
@@ -6086,10 +6086,10 @@
         <v>5.154762666475415</v>
       </c>
       <c r="I166" t="n">
-        <v>63.60421501897441</v>
+        <v>22.62735991967678</v>
       </c>
       <c r="J166" t="n">
-        <v>92.86408615354127</v>
+        <v>51.88723105424362</v>
       </c>
     </row>
     <row r="167">
@@ -6120,10 +6120,10 @@
         <v>40.83454801703828</v>
       </c>
       <c r="I167" t="n">
-        <v>48.44915895104186</v>
+        <v>7.472303851744222</v>
       </c>
       <c r="J167" t="n">
-        <v>57.1843008029784</v>
+        <v>16.20744570368075</v>
       </c>
     </row>
     <row r="168">
@@ -6154,10 +6154,10 @@
         <v>19.59950952001707</v>
       </c>
       <c r="I168" t="n">
-        <v>63.60421432200815</v>
+        <v>22.62735922271052</v>
       </c>
       <c r="J168" t="n">
-        <v>78.41933929999961</v>
+        <v>37.44248420070197</v>
       </c>
     </row>
     <row r="169">
@@ -6188,10 +6188,10 @@
         <v>2.562115795326912</v>
       </c>
       <c r="I169" t="n">
-        <v>63.604215118541</v>
+        <v>22.62736001924336</v>
       </c>
       <c r="J169" t="n">
-        <v>95.45673302468975</v>
+        <v>54.47987792539212</v>
       </c>
     </row>
     <row r="170">
@@ -6222,10 +6222,10 @@
         <v>47.51549778303428</v>
       </c>
       <c r="I170" t="n">
-        <v>48.0657844344877</v>
+        <v>7.088929335190066</v>
       </c>
       <c r="J170" t="n">
-        <v>50.50335103698239</v>
+        <v>9.526495937684757</v>
       </c>
     </row>
     <row r="171">
@@ -6256,10 +6256,10 @@
         <v>8.858543910973275</v>
       </c>
       <c r="I171" t="n">
-        <v>63.60421501897441</v>
+        <v>22.62735991967678</v>
       </c>
       <c r="J171" t="n">
-        <v>89.16030490904339</v>
+        <v>48.18344980974576</v>
       </c>
     </row>
     <row r="172">
@@ -6290,10 +6290,10 @@
         <v>11.82156890657156</v>
       </c>
       <c r="I172" t="n">
-        <v>63.60421462070797</v>
+        <v>22.62735952141033</v>
       </c>
       <c r="J172" t="n">
-        <v>86.19727991344512</v>
+        <v>45.22042481414748</v>
       </c>
     </row>
     <row r="173">
@@ -6324,10 +6324,10 @@
         <v>15.15497202661964</v>
       </c>
       <c r="I173" t="n">
-        <v>63.6042149194078</v>
+        <v>22.62735982011016</v>
       </c>
       <c r="J173" t="n">
-        <v>82.86387679339704</v>
+        <v>41.8870216940994</v>
       </c>
     </row>
     <row r="174">
@@ -6358,10 +6358,10 @@
         <v>9.969678284322633</v>
       </c>
       <c r="I174" t="n">
-        <v>63.604215118541</v>
+        <v>22.62736001924336</v>
       </c>
       <c r="J174" t="n">
-        <v>88.04917053569405</v>
+        <v>47.0723154363964</v>
       </c>
     </row>
     <row r="175">
@@ -6392,10 +6392,10 @@
         <v>31.29076964670414</v>
       </c>
       <c r="I175" t="n">
-        <v>58.69605068071616</v>
+        <v>17.71919558141852</v>
       </c>
       <c r="J175" t="n">
-        <v>66.72807917331254</v>
+        <v>25.7512240740149</v>
       </c>
     </row>
     <row r="176">
@@ -6426,10 +6426,10 @@
         <v>32.5932608577077</v>
       </c>
       <c r="I176" t="n">
-        <v>58.69605079742987</v>
+        <v>17.71919569813223</v>
       </c>
       <c r="J176" t="n">
-        <v>65.42558796230898</v>
+        <v>24.44873286301134</v>
       </c>
     </row>
     <row r="177">
@@ -6460,10 +6460,10 @@
         <v>31.50785151520473</v>
       </c>
       <c r="I177" t="n">
-        <v>58.69605050564557</v>
+        <v>17.71919540634794</v>
       </c>
       <c r="J177" t="n">
-        <v>66.51099730481195</v>
+        <v>25.5341422055143</v>
       </c>
     </row>
     <row r="178">
@@ -6494,10 +6494,10 @@
         <v>17.37724077331836</v>
       </c>
       <c r="I178" t="n">
-        <v>63.60421511854102</v>
+        <v>22.62736001924338</v>
       </c>
       <c r="J178" t="n">
-        <v>80.64160804669832</v>
+        <v>39.66475294740067</v>
       </c>
     </row>
     <row r="179">
@@ -6528,10 +6528,10 @@
         <v>54.58431692148883</v>
       </c>
       <c r="I179" t="n">
-        <v>43.43453189852784</v>
+        <v>2.457676799230207</v>
       </c>
       <c r="J179" t="n">
-        <v>43.43453189852784</v>
+        <v>2.457676799230207</v>
       </c>
     </row>
     <row r="180">
@@ -6562,10 +6562,10 @@
         <v>28.90286909319764</v>
       </c>
       <c r="I180" t="n">
-        <v>58.69605027221811</v>
+        <v>17.71919517292047</v>
       </c>
       <c r="J180" t="n">
-        <v>69.11597972681903</v>
+        <v>28.13912462752139</v>
       </c>
     </row>
     <row r="181">
@@ -6596,10 +6596,10 @@
         <v>-1.141665449170949</v>
       </c>
       <c r="I181" t="n">
-        <v>63.604215118541</v>
+        <v>22.62736001924336</v>
       </c>
       <c r="J181" t="n">
-        <v>99.16051426918762</v>
+        <v>58.18365916988999</v>
       </c>
     </row>
     <row r="182">
@@ -6630,10 +6630,10 @@
         <v>44.47419175991097</v>
       </c>
       <c r="I182" t="n">
-        <v>48.44915601576878</v>
+        <v>7.472300916471141</v>
       </c>
       <c r="J182" t="n">
-        <v>53.54465706010571</v>
+        <v>12.56780196080806</v>
       </c>
     </row>
     <row r="183">
@@ -6664,10 +6664,10 @@
         <v>20.34026576891665</v>
       </c>
       <c r="I183" t="n">
-        <v>63.60421472027458</v>
+        <v>22.62735962097695</v>
       </c>
       <c r="J183" t="n">
-        <v>77.67858305110003</v>
+        <v>36.70172795180238</v>
       </c>
     </row>
     <row r="184">
@@ -6698,10 +6698,10 @@
         <v>10.34005640877242</v>
       </c>
       <c r="I184" t="n">
-        <v>63.60421481984119</v>
+        <v>22.62735972054355</v>
       </c>
       <c r="J184" t="n">
-        <v>87.67879241124426</v>
+        <v>46.70193731194662</v>
       </c>
     </row>
     <row r="185">
@@ -6732,10 +6732,10 @@
         <v>13.30308140437071</v>
       </c>
       <c r="I185" t="n">
-        <v>63.60421442157475</v>
+        <v>22.62735932227712</v>
       </c>
       <c r="J185" t="n">
-        <v>84.71576741564597</v>
+        <v>43.73891231634833</v>
       </c>
     </row>
     <row r="186">
@@ -6766,10 +6766,10 @@
         <v>0.3398470486281841</v>
       </c>
       <c r="I186" t="n">
-        <v>63.60421491940781</v>
+        <v>22.62735982011017</v>
       </c>
       <c r="J186" t="n">
-        <v>97.67900177138849</v>
+        <v>56.70214667209085</v>
       </c>
     </row>
     <row r="187">
@@ -6800,10 +6800,10 @@
         <v>11.080812657672</v>
       </c>
       <c r="I187" t="n">
-        <v>63.60421521810761</v>
+        <v>22.62736011880997</v>
       </c>
       <c r="J187" t="n">
-        <v>86.93803616234469</v>
+        <v>45.96118106304704</v>
       </c>
     </row>
     <row r="188">
@@ -6834,10 +6834,10 @@
         <v>3.673250168676273</v>
       </c>
       <c r="I188" t="n">
-        <v>63.60421521810761</v>
+        <v>22.62736011880997</v>
       </c>
       <c r="J188" t="n">
-        <v>94.34559865134041</v>
+        <v>53.36874355204276</v>
       </c>
     </row>
     <row r="189">
@@ -6868,10 +6868,10 @@
         <v>13.6734595288205</v>
       </c>
       <c r="I189" t="n">
-        <v>63.604215118541</v>
+        <v>22.62736001924336</v>
       </c>
       <c r="J189" t="n">
-        <v>84.34538929119618</v>
+        <v>43.36853419189853</v>
       </c>
     </row>
     <row r="190">
@@ -6902,10 +6902,10 @@
         <v>37.92283302274009</v>
       </c>
       <c r="I190" t="n">
-        <v>48.44915738556289</v>
+        <v>7.472302286265254</v>
       </c>
       <c r="J190" t="n">
-        <v>60.09601579727659</v>
+        <v>19.11916069797894</v>
       </c>
     </row>
     <row r="191">
@@ -6936,10 +6936,10 @@
         <v>2.19173767087712</v>
       </c>
       <c r="I191" t="n">
-        <v>63.60421442157476</v>
+        <v>22.62735932227712</v>
       </c>
       <c r="J191" t="n">
-        <v>95.82711114913955</v>
+        <v>54.85025604984192</v>
       </c>
     </row>
     <row r="192">
@@ -6970,10 +6970,10 @@
         <v>3.302872044226478</v>
       </c>
       <c r="I192" t="n">
-        <v>63.60421452114136</v>
+        <v>22.62735942184372</v>
       </c>
       <c r="J192" t="n">
-        <v>94.71597677579021</v>
+        <v>53.73912167649256</v>
       </c>
     </row>
     <row r="193">
@@ -7004,10 +7004,10 @@
         <v>50.74206807091294</v>
       </c>
       <c r="I193" t="n">
-        <v>44.92602516927349</v>
+        <v>3.949170069975857</v>
       </c>
       <c r="J193" t="n">
-        <v>47.27678074910374</v>
+        <v>6.299925649806092</v>
       </c>
     </row>
     <row r="194">
@@ -7038,10 +7038,10 @@
         <v>8.488165786523487</v>
       </c>
       <c r="I194" t="n">
-        <v>63.60421432200815</v>
+        <v>22.62735922271052</v>
       </c>
       <c r="J194" t="n">
-        <v>89.53068303349319</v>
+        <v>48.55382793419555</v>
       </c>
     </row>
     <row r="195">
@@ -7072,10 +7072,10 @@
         <v>15.52535015106943</v>
       </c>
       <c r="I195" t="n">
-        <v>63.60421462070797</v>
+        <v>22.62735952141033</v>
       </c>
       <c r="J195" t="n">
-        <v>82.49349866894725</v>
+        <v>41.5166435696496</v>
       </c>
     </row>
     <row r="196">
@@ -7106,10 +7106,10 @@
         <v>-0.03053107582159597</v>
       </c>
       <c r="I196" t="n">
-        <v>63.60421521810762</v>
+        <v>22.62736011880998</v>
       </c>
       <c r="J196" t="n">
-        <v>98.04937989583827</v>
+        <v>57.07252479654063</v>
       </c>
     </row>
     <row r="197">
@@ -7140,10 +7140,10 @@
         <v>51.91744680873883</v>
       </c>
       <c r="I197" t="n">
-        <v>44.92602422136271</v>
+        <v>3.949169122065072</v>
       </c>
       <c r="J197" t="n">
-        <v>46.10140201127785</v>
+        <v>5.124546911980204</v>
       </c>
     </row>
     <row r="198">
@@ -7174,10 +7174,10 @@
         <v>23.30329076451495</v>
       </c>
       <c r="I198" t="n">
-        <v>63.60421432200814</v>
+        <v>22.6273592227105</v>
       </c>
       <c r="J198" t="n">
-        <v>74.71555805550173</v>
+        <v>33.73870295620408</v>
       </c>
     </row>
     <row r="199">
@@ -7208,10 +7208,10 @@
         <v>9.599300159872854</v>
       </c>
       <c r="I199" t="n">
-        <v>63.60421442157474</v>
+        <v>22.6273593222771</v>
       </c>
       <c r="J199" t="n">
-        <v>88.41954866014383</v>
+        <v>47.44269356084618</v>
       </c>
     </row>
     <row r="200">
@@ -7242,10 +7242,10 @@
         <v>14.41421577772007</v>
       </c>
       <c r="I200" t="n">
-        <v>63.60421452114136</v>
+        <v>22.62735942184372</v>
       </c>
       <c r="J200" t="n">
-        <v>83.6046330422966</v>
+        <v>42.62777794299896</v>
       </c>
     </row>
     <row r="201">
@@ -7276,10 +7276,10 @@
         <v>18.85875327111751</v>
       </c>
       <c r="I201" t="n">
-        <v>63.6042149194078</v>
+        <v>22.62735982011016</v>
       </c>
       <c r="J201" t="n">
-        <v>79.16009554889916</v>
+        <v>38.18324044960153</v>
       </c>
     </row>
     <row r="202">
@@ -7310,10 +7310,10 @@
         <v>18.48837514666772</v>
       </c>
       <c r="I202" t="n">
-        <v>63.60421521810762</v>
+        <v>22.62736011880998</v>
       </c>
       <c r="J202" t="n">
-        <v>79.53047367334895</v>
+        <v>38.55361857405131</v>
       </c>
     </row>
     <row r="203">
@@ -7344,10 +7344,10 @@
         <v>22.19215639116558</v>
       </c>
       <c r="I203" t="n">
-        <v>63.60421521810762</v>
+        <v>22.62736011880998</v>
       </c>
       <c r="J203" t="n">
-        <v>75.8266924288511</v>
+        <v>34.84983732955345</v>
       </c>
     </row>
     <row r="204">
@@ -7378,10 +7378,10 @@
         <v>33.46158833171004</v>
       </c>
       <c r="I204" t="n">
-        <v>58.69605009714754</v>
+        <v>17.7191949978499</v>
       </c>
       <c r="J204" t="n">
-        <v>64.55726048830664</v>
+        <v>23.58040538900899</v>
       </c>
     </row>
     <row r="205">
@@ -7412,10 +7412,10 @@
         <v>17.00686264886858</v>
       </c>
       <c r="I205" t="n">
-        <v>63.60421442157474</v>
+        <v>22.6273593222771</v>
       </c>
       <c r="J205" t="n">
-        <v>81.0119861711481</v>
+        <v>40.03513107185046</v>
       </c>
     </row>
     <row r="206">
@@ -7446,10 +7446,10 @@
         <v>34.54699767421301</v>
       </c>
       <c r="I206" t="n">
-        <v>58.69605038893183</v>
+        <v>17.71919528963419</v>
       </c>
       <c r="J206" t="n">
-        <v>63.47185114580368</v>
+        <v>22.49499604650602</v>
       </c>
     </row>
     <row r="207">
@@ -7480,10 +7480,10 @@
         <v>31.72493338370532</v>
       </c>
       <c r="I207" t="n">
-        <v>58.69605033057498</v>
+        <v>17.71919523127735</v>
       </c>
       <c r="J207" t="n">
-        <v>66.29391543631137</v>
+        <v>25.31706033701371</v>
       </c>
     </row>
     <row r="208">
@@ -7514,10 +7514,10 @@
         <v>5.895518915374986</v>
       </c>
       <c r="I208" t="n">
-        <v>63.60421442157475</v>
+        <v>22.62735932227712</v>
       </c>
       <c r="J208" t="n">
-        <v>92.12332990464169</v>
+        <v>51.14647480534405</v>
       </c>
     </row>
     <row r="209">
@@ -7548,10 +7548,10 @@
         <v>43.74626301133643</v>
       </c>
       <c r="I209" t="n">
-        <v>48.44915660282339</v>
+        <v>7.472301503525756</v>
       </c>
       <c r="J209" t="n">
-        <v>54.27258580868023</v>
+        <v>13.2957307093826</v>
       </c>
     </row>
     <row r="210">
@@ -7582,10 +7582,10 @@
         <v>20.71064389336644</v>
       </c>
       <c r="I210" t="n">
-        <v>63.60421442157475</v>
+        <v>22.62735932227712</v>
       </c>
       <c r="J210" t="n">
-        <v>77.30820492665023</v>
+        <v>36.3313498273526</v>
       </c>
     </row>
     <row r="211">
@@ -7616,10 +7616,10 @@
         <v>32.81034272620828</v>
       </c>
       <c r="I211" t="n">
-        <v>58.69605062235929</v>
+        <v>17.71919552306166</v>
       </c>
       <c r="J211" t="n">
-        <v>65.20850609380841</v>
+        <v>24.23165099451075</v>
       </c>
     </row>
     <row r="212">
@@ -7650,10 +7650,10 @@
         <v>38.03757772157646</v>
       </c>
       <c r="I212" t="n">
-        <v>53.9205911172047</v>
+        <v>12.94373601790706</v>
       </c>
       <c r="J212" t="n">
-        <v>59.98127109844022</v>
+        <v>19.00441599914257</v>
       </c>
     </row>
     <row r="213">
@@ -7684,10 +7684,10 @@
         <v>33.24450646320947</v>
       </c>
       <c r="I213" t="n">
-        <v>58.6960502722181</v>
+        <v>17.71919517292046</v>
       </c>
       <c r="J213" t="n">
-        <v>64.77434235680721</v>
+        <v>23.79748725750957</v>
       </c>
     </row>
     <row r="214">
@@ -7718,10 +7718,10 @@
         <v>16.63648452441879</v>
       </c>
       <c r="I214" t="n">
-        <v>63.60421472027458</v>
+        <v>22.62735962097695</v>
       </c>
       <c r="J214" t="n">
-        <v>81.38236429559788</v>
+        <v>40.40550919630024</v>
       </c>
     </row>
     <row r="215">
@@ -7752,10 +7752,10 @@
         <v>5.525140790925199</v>
       </c>
       <c r="I215" t="n">
-        <v>63.60421472027458</v>
+        <v>22.62735962097695</v>
       </c>
       <c r="J215" t="n">
-        <v>92.49370802909148</v>
+        <v>51.51685292979383</v>
       </c>
     </row>
     <row r="216">
@@ -7786,10 +7786,10 @@
         <v>38.65076177131463</v>
       </c>
       <c r="I216" t="n">
-        <v>48.44915679850826</v>
+        <v>7.472301699210625</v>
       </c>
       <c r="J216" t="n">
-        <v>59.36808704870204</v>
+        <v>18.39123194940441</v>
       </c>
     </row>
     <row r="217">
@@ -7820,10 +7820,10 @@
         <v>21.45140014226601</v>
       </c>
       <c r="I217" t="n">
-        <v>63.60421481984119</v>
+        <v>22.62735972054355</v>
       </c>
       <c r="J217" t="n">
-        <v>76.56744867775068</v>
+        <v>35.59059357845302</v>
       </c>
     </row>
     <row r="218">
@@ -7854,10 +7854,10 @@
         <v>19.96988764446686</v>
       </c>
       <c r="I218" t="n">
-        <v>63.60421501897441</v>
+        <v>22.62735991967678</v>
       </c>
       <c r="J218" t="n">
-        <v>78.04896117554982</v>
+        <v>37.07210607625218</v>
       </c>
     </row>
     <row r="219">
@@ -7888,10 +7888,10 @@
         <v>10.71043453322221</v>
       </c>
       <c r="I219" t="n">
-        <v>63.60421452114136</v>
+        <v>22.62735942184372</v>
       </c>
       <c r="J219" t="n">
-        <v>87.30841428679446</v>
+        <v>46.33155918749682</v>
       </c>
     </row>
     <row r="220">
@@ -7922,10 +7922,10 @@
         <v>43.04662207443474</v>
       </c>
       <c r="I220" t="n">
-        <v>48.06578366999732</v>
+        <v>7.088928570699686</v>
       </c>
       <c r="J220" t="n">
-        <v>54.97222674558194</v>
+        <v>13.9953716462843</v>
       </c>
     </row>
     <row r="221">
@@ -7956,10 +7956,10 @@
         <v>2.9324939197767</v>
       </c>
       <c r="I221" t="n">
-        <v>63.60421481984118</v>
+        <v>22.62735972054355</v>
       </c>
       <c r="J221" t="n">
-        <v>95.08635490023997</v>
+        <v>54.10949980094233</v>
       </c>
     </row>
     <row r="222">
@@ -7990,10 +7990,10 @@
         <v>-1.882421698070527</v>
       </c>
       <c r="I222" t="n">
-        <v>63.60421472027458</v>
+        <v>22.62735962097695</v>
       </c>
       <c r="J222" t="n">
-        <v>99.9012705180872</v>
+        <v>58.92441541878956</v>
       </c>
     </row>
     <row r="223">
@@ -8024,10 +8024,10 @@
         <v>6.265897039824774</v>
       </c>
       <c r="I223" t="n">
-        <v>63.604215118541</v>
+        <v>22.62736001924336</v>
       </c>
       <c r="J223" t="n">
-        <v>91.75295178019191</v>
+        <v>50.77609668089426</v>
       </c>
     </row>
     <row r="224">
@@ -8058,10 +8058,10 @@
         <v>12.56232515547114</v>
       </c>
       <c r="I224" t="n">
-        <v>63.60421501897441</v>
+        <v>22.62735991967678</v>
       </c>
       <c r="J224" t="n">
-        <v>85.45652366454553</v>
+        <v>44.47966856524789</v>
       </c>
     </row>
     <row r="225">
@@ -8092,10 +8092,10 @@
         <v>32.3761789892071</v>
       </c>
       <c r="I225" t="n">
-        <v>58.69605097250046</v>
+        <v>17.71919587320282</v>
       </c>
       <c r="J225" t="n">
-        <v>65.64266983080958</v>
+        <v>24.66581473151194</v>
       </c>
     </row>
     <row r="226">
@@ -8126,10 +8126,10 @@
         <v>38.32618154129015</v>
       </c>
       <c r="I226" t="n">
-        <v>53.92059088445357</v>
+        <v>12.94373578515594</v>
       </c>
       <c r="J226" t="n">
-        <v>59.69266727872652</v>
+        <v>18.71581217942889</v>
       </c>
     </row>
     <row r="227">
@@ -8160,10 +8160,10 @@
         <v>7.006653288724345</v>
       </c>
       <c r="I227" t="n">
-        <v>63.60421452114136</v>
+        <v>22.62735942184372</v>
       </c>
       <c r="J227" t="n">
-        <v>91.01219553129233</v>
+        <v>50.03534043199469</v>
       </c>
     </row>
     <row r="228">
@@ -8194,10 +8194,10 @@
         <v>26.73205040819173</v>
       </c>
       <c r="I228" t="n">
-        <v>58.69605085578674</v>
+        <v>17.71919575648911</v>
       </c>
       <c r="J228" t="n">
-        <v>71.28679841182495</v>
+        <v>30.30994331252731</v>
       </c>
     </row>
     <row r="229">
@@ -8228,10 +8228,10 @@
         <v>33.89575206871122</v>
       </c>
       <c r="I229" t="n">
-        <v>58.69605091414361</v>
+        <v>17.71919581484597</v>
       </c>
       <c r="J229" t="n">
-        <v>64.12309675130545</v>
+        <v>23.14624165200782</v>
       </c>
     </row>
     <row r="230">
@@ -8262,10 +8262,10 @@
         <v>22.49529191499209</v>
       </c>
       <c r="I230" t="n">
-        <v>59.77924776126186</v>
+        <v>18.80239266196423</v>
       </c>
       <c r="J230" t="n">
-        <v>75.52355690502459</v>
+        <v>34.54670180572694</v>
       </c>
     </row>
     <row r="231">
@@ -8296,10 +8296,10 @@
         <v>23.56876755154756</v>
       </c>
       <c r="I231" t="n">
-        <v>59.77924785745394</v>
+        <v>18.8023927581563</v>
       </c>
       <c r="J231" t="n">
-        <v>74.45008126846912</v>
+        <v>33.47322616917148</v>
       </c>
     </row>
     <row r="232">
@@ -8330,10 +8330,10 @@
         <v>29.80440236521104</v>
       </c>
       <c r="I232" t="n">
-        <v>55.35452966664623</v>
+        <v>14.37767456734859</v>
       </c>
       <c r="J232" t="n">
-        <v>68.21444645480564</v>
+        <v>27.23759135550799</v>
       </c>
     </row>
     <row r="233">
@@ -8364,10 +8364,10 @@
         <v>0.8264083095641029</v>
       </c>
       <c r="I233" t="n">
-        <v>64.20770104655479</v>
+        <v>23.23084594725715</v>
       </c>
       <c r="J233" t="n">
-        <v>97.19244051045257</v>
+        <v>56.21558541115493</v>
       </c>
     </row>
     <row r="234">
@@ -8398,10 +8398,10 @@
         <v>1.506506032354017</v>
       </c>
       <c r="I234" t="n">
-        <v>64.20770141220825</v>
+        <v>23.23084631291062</v>
       </c>
       <c r="J234" t="n">
-        <v>96.51234278766266</v>
+        <v>55.53548768836502</v>
       </c>
     </row>
     <row r="235">
@@ -8432,10 +8432,10 @@
         <v>19.27486500532568</v>
       </c>
       <c r="I235" t="n">
-        <v>59.77924843460643</v>
+        <v>18.80239333530879</v>
       </c>
       <c r="J235" t="n">
-        <v>78.74398381469099</v>
+        <v>37.76712871539335</v>
       </c>
     </row>
     <row r="236">
@@ -8466,10 +8466,10 @@
         <v>8.987580983043152</v>
       </c>
       <c r="I236" t="n">
-        <v>64.20770177786173</v>
+        <v>23.23084667856409</v>
       </c>
       <c r="J236" t="n">
-        <v>89.03126783697353</v>
+        <v>48.05441273767588</v>
       </c>
     </row>
     <row r="237">
@@ -8500,10 +8500,10 @@
         <v>40.65435144521875</v>
       </c>
       <c r="I237" t="n">
-        <v>51.96465366995086</v>
+        <v>10.98779857065323</v>
       </c>
       <c r="J237" t="n">
-        <v>57.36449737479793</v>
+        <v>16.38764227550028</v>
       </c>
     </row>
     <row r="238">
@@ -8534,10 +8534,10 @@
         <v>20.7061658540663</v>
       </c>
       <c r="I238" t="n">
-        <v>59.77924824222226</v>
+        <v>18.80239314292462</v>
       </c>
       <c r="J238" t="n">
-        <v>77.31268296595037</v>
+        <v>36.33582786665274</v>
       </c>
     </row>
     <row r="239">
@@ -8568,10 +8568,10 @@
         <v>43.47166150062809</v>
       </c>
       <c r="I239" t="n">
-        <v>51.96465392240459</v>
+        <v>10.98779882310696</v>
       </c>
       <c r="J239" t="n">
-        <v>54.54718731938858</v>
+        <v>13.57033222009095</v>
       </c>
     </row>
     <row r="240">
@@ -8602,10 +8602,10 @@
         <v>38.07181722776017</v>
       </c>
       <c r="I240" t="n">
-        <v>51.96465322815685</v>
+        <v>10.98779812885921</v>
       </c>
       <c r="J240" t="n">
-        <v>59.94703159225651</v>
+        <v>18.97017649295886</v>
       </c>
     </row>
     <row r="241">
@@ -8636,10 +8636,10 @@
         <v>3.54679920072378</v>
       </c>
       <c r="I241" t="n">
-        <v>64.207701595035</v>
+        <v>23.23084649573737</v>
       </c>
       <c r="J241" t="n">
-        <v>94.47204961929289</v>
+        <v>53.49519451999525</v>
       </c>
     </row>
     <row r="242">
@@ -8670,10 +8670,10 @@
         <v>46.42637434503645</v>
       </c>
       <c r="I242" t="n">
-        <v>50.48244060888211</v>
+        <v>9.505585509584478</v>
       </c>
       <c r="J242" t="n">
-        <v>51.59247447498021</v>
+        <v>10.61561937568258</v>
       </c>
     </row>
     <row r="243">
@@ -8704,10 +8704,10 @@
         <v>41.82823063497266</v>
       </c>
       <c r="I243" t="n">
-        <v>51.96465398551801</v>
+        <v>10.98779888622037</v>
       </c>
       <c r="J243" t="n">
-        <v>56.19061818504402</v>
+        <v>15.21376308574637</v>
       </c>
     </row>
     <row r="244">
@@ -8738,10 +8738,10 @@
         <v>36.19361052415395</v>
       </c>
       <c r="I244" t="n">
-        <v>51.96465348061056</v>
+        <v>10.98779838131293</v>
       </c>
       <c r="J244" t="n">
-        <v>61.82523829586272</v>
+        <v>20.84838319656509</v>
       </c>
     </row>
     <row r="245">
@@ -8772,10 +8772,10 @@
         <v>44.88031652833278</v>
       </c>
       <c r="I245" t="n">
-        <v>51.96465404863144</v>
+        <v>10.98779894933381</v>
       </c>
       <c r="J245" t="n">
-        <v>53.13853229168389</v>
+        <v>12.16167719238626</v>
       </c>
     </row>
     <row r="246">
@@ -8806,10 +8806,10 @@
         <v>43.94121317652967</v>
       </c>
       <c r="I246" t="n">
-        <v>51.96465354372399</v>
+        <v>10.98779844442635</v>
       </c>
       <c r="J246" t="n">
-        <v>54.07763564348701</v>
+        <v>13.10078054418936</v>
       </c>
     </row>
     <row r="247">
@@ -8840,10 +8840,10 @@
         <v>43.00210982472654</v>
       </c>
       <c r="I247" t="n">
-        <v>51.96465430108517</v>
+        <v>10.98779920178753</v>
       </c>
       <c r="J247" t="n">
-        <v>55.01673899529014</v>
+        <v>14.0398838959925</v>
       </c>
     </row>
     <row r="248">
@@ -8874,10 +8874,10 @@
         <v>1.846554893748986</v>
       </c>
       <c r="I248" t="n">
-        <v>64.20770113796814</v>
+        <v>23.23084603867051</v>
       </c>
       <c r="J248" t="n">
-        <v>96.17229392626768</v>
+        <v>55.19543882697005</v>
       </c>
     </row>
     <row r="249">
@@ -8908,10 +8908,10 @@
         <v>46.74066451385955</v>
       </c>
       <c r="I249" t="n">
-        <v>50.48243971366943</v>
+        <v>9.505584614371791</v>
       </c>
       <c r="J249" t="n">
-        <v>51.27818430615713</v>
+        <v>10.30132920685949</v>
       </c>
     </row>
     <row r="250">
@@ -8942,10 +8942,10 @@
         <v>32.61750930441427</v>
       </c>
       <c r="I250" t="n">
-        <v>55.35452955861318</v>
+        <v>14.37767445931554</v>
       </c>
       <c r="J250" t="n">
-        <v>65.40133951560242</v>
+        <v>24.42448441630476</v>
       </c>
     </row>
     <row r="251">
@@ -8976,10 +8976,10 @@
         <v>37.13271387595704</v>
       </c>
       <c r="I251" t="n">
-        <v>51.96465398551802</v>
+        <v>10.98779888622038</v>
       </c>
       <c r="J251" t="n">
-        <v>60.88613494405964</v>
+        <v>19.909279844762</v>
       </c>
     </row>
     <row r="252">
@@ -9010,10 +9010,10 @@
         <v>16.05443809565927</v>
       </c>
       <c r="I252" t="n">
-        <v>59.77924814603019</v>
+        <v>18.80239304673255</v>
       </c>
       <c r="J252" t="n">
-        <v>81.96441072435741</v>
+        <v>40.98755562505977</v>
       </c>
     </row>
     <row r="253">
@@ -9044,10 +9044,10 @@
         <v>8.307483260253226</v>
       </c>
       <c r="I253" t="n">
-        <v>64.20770141220825</v>
+        <v>23.23084631291062</v>
       </c>
       <c r="J253" t="n">
-        <v>89.71136555976346</v>
+        <v>48.73451046046581</v>
       </c>
     </row>
     <row r="254">
@@ -9078,10 +9078,10 @@
         <v>36.89793803800629</v>
       </c>
       <c r="I254" t="n">
-        <v>51.96465417485827</v>
+        <v>10.98779907556064</v>
       </c>
       <c r="J254" t="n">
-        <v>61.12091078201039</v>
+        <v>20.14405568271275</v>
       </c>
     </row>
     <row r="255">
@@ -9112,10 +9112,10 @@
         <v>0.1463105867741867</v>
       </c>
       <c r="I255" t="n">
-        <v>64.20770159503499</v>
+        <v>23.23084649573735</v>
       </c>
       <c r="J255" t="n">
-        <v>97.87253823324249</v>
+        <v>56.89568313394485</v>
       </c>
     </row>
     <row r="256">
@@ -9146,10 +9146,10 @@
         <v>31.81376446464191</v>
       </c>
       <c r="I256" t="n">
-        <v>55.35452912648104</v>
+        <v>14.3776740271834</v>
       </c>
       <c r="J256" t="n">
-        <v>66.20508435537477</v>
+        <v>25.22822925607712</v>
       </c>
     </row>
     <row r="257">
@@ -9180,10 +9180,10 @@
         <v>22.13746670280694</v>
       </c>
       <c r="I257" t="n">
-        <v>59.77924804983809</v>
+        <v>18.80239295054045</v>
       </c>
       <c r="J257" t="n">
-        <v>75.88138211720975</v>
+        <v>34.90452701791209</v>
       </c>
     </row>
     <row r="258">
@@ -9214,10 +9214,10 @@
         <v>26.07354403684365</v>
       </c>
       <c r="I258" t="n">
-        <v>59.77924776126186</v>
+        <v>18.80239266196423</v>
       </c>
       <c r="J258" t="n">
-        <v>71.94530478317303</v>
+        <v>30.96844968387538</v>
       </c>
     </row>
     <row r="259">
@@ -9248,10 +9248,10 @@
         <v>39.24569641751408</v>
       </c>
       <c r="I259" t="n">
-        <v>51.96465354372398</v>
+        <v>10.98779844442635</v>
       </c>
       <c r="J259" t="n">
-        <v>58.7731524025026</v>
+        <v>17.79629730320495</v>
       </c>
     </row>
     <row r="260">
@@ -9282,10 +9282,10 @@
         <v>32.2156368845281</v>
       </c>
       <c r="I260" t="n">
-        <v>55.3545298827123</v>
+        <v>14.37767478341466</v>
       </c>
       <c r="J260" t="n">
-        <v>65.80321193548858</v>
+        <v>24.82635683619093</v>
       </c>
     </row>
     <row r="261">
@@ -9316,10 +9316,10 @@
         <v>6.607238953278423</v>
       </c>
       <c r="I261" t="n">
-        <v>64.20770095514142</v>
+        <v>23.23084585584378</v>
       </c>
       <c r="J261" t="n">
-        <v>91.41160986673825</v>
+        <v>50.43475476744061</v>
       </c>
     </row>
     <row r="262">
@@ -9350,10 +9350,10 @@
         <v>20.34834064188115</v>
       </c>
       <c r="I262" t="n">
-        <v>59.77924756887769</v>
+        <v>18.80239246958006</v>
       </c>
       <c r="J262" t="n">
-        <v>77.67050817813553</v>
+        <v>36.69365307883788</v>
       </c>
     </row>
     <row r="263">
@@ -9384,10 +9384,10 @@
         <v>30.20627478509723</v>
       </c>
       <c r="I263" t="n">
-        <v>55.35452934254709</v>
+        <v>14.37767424324945</v>
       </c>
       <c r="J263" t="n">
-        <v>67.81257403491945</v>
+        <v>26.83571893562181</v>
       </c>
     </row>
     <row r="264">
@@ -9418,10 +9418,10 @@
         <v>42.76733398677575</v>
       </c>
       <c r="I264" t="n">
-        <v>51.96465322815685</v>
+        <v>10.98779812885921</v>
       </c>
       <c r="J264" t="n">
-        <v>55.25151483324092</v>
+        <v>14.27465973394328</v>
       </c>
     </row>
     <row r="265">
@@ -9452,10 +9452,10 @@
         <v>16.77008852002958</v>
       </c>
       <c r="I265" t="n">
-        <v>59.7792475688777</v>
+        <v>18.80239246958006</v>
       </c>
       <c r="J265" t="n">
-        <v>81.2487602999871</v>
+        <v>40.27190520068945</v>
       </c>
     </row>
     <row r="266">
@@ -9486,10 +9486,10 @@
         <v>33.42125414418663</v>
       </c>
       <c r="I266" t="n">
-        <v>55.35452999074533</v>
+        <v>14.3776748914477</v>
       </c>
       <c r="J266" t="n">
-        <v>64.59759467583005</v>
+        <v>23.6207395765324</v>
       </c>
     </row>
     <row r="267">
@@ -9520,10 +9520,10 @@
         <v>40.41957560726797</v>
       </c>
       <c r="I267" t="n">
-        <v>51.96465385929115</v>
+        <v>10.98779875999352</v>
       </c>
       <c r="J267" t="n">
-        <v>57.59927321274871</v>
+        <v>16.62241811345106</v>
       </c>
     </row>
     <row r="268">
@@ -9554,10 +9554,10 @@
         <v>36.6631622000555</v>
       </c>
       <c r="I268" t="n">
-        <v>51.96465310192997</v>
+        <v>10.98779800263233</v>
       </c>
       <c r="J268" t="n">
-        <v>61.35568661996118</v>
+        <v>20.37883152066353</v>
       </c>
     </row>
     <row r="269">
@@ -9588,10 +9588,10 @@
         <v>6.267190091883459</v>
       </c>
       <c r="I269" t="n">
-        <v>64.20770122938154</v>
+        <v>23.2308461300839</v>
       </c>
       <c r="J269" t="n">
-        <v>91.75165872813322</v>
+        <v>50.77480362883558</v>
       </c>
     </row>
     <row r="270">
@@ -9622,10 +9622,10 @@
         <v>2.866701477933868</v>
       </c>
       <c r="I270" t="n">
-        <v>64.20770122938151</v>
+        <v>23.23084613008388</v>
       </c>
       <c r="J270" t="n">
-        <v>95.15214734208281</v>
+        <v>54.17529224278517</v>
       </c>
     </row>
     <row r="271">
@@ -9656,10 +9656,10 @@
         <v>13.90748682254833</v>
       </c>
       <c r="I271" t="n">
-        <v>59.77924795364603</v>
+        <v>18.8023928543484</v>
       </c>
       <c r="J271" t="n">
-        <v>84.11136199746835</v>
+        <v>43.13450689817071</v>
       </c>
     </row>
     <row r="272">
@@ -9690,10 +9690,10 @@
         <v>12.47618597380771</v>
       </c>
       <c r="I272" t="n">
-        <v>59.77924814603018</v>
+        <v>18.80239304673255</v>
       </c>
       <c r="J272" t="n">
-        <v>85.54266284620897</v>
+        <v>44.56580774691133</v>
       </c>
     </row>
     <row r="273">
@@ -9724,10 +9724,10 @@
         <v>38.30659306571097</v>
       </c>
       <c r="I273" t="n">
-        <v>51.96465430108515</v>
+        <v>10.98779920178752</v>
       </c>
       <c r="J273" t="n">
-        <v>59.71225575430571</v>
+        <v>18.73540065500806</v>
       </c>
     </row>
     <row r="274">
@@ -9758,10 +9758,10 @@
         <v>12.83401118599287</v>
       </c>
       <c r="I274" t="n">
-        <v>59.77924785745394</v>
+        <v>18.8023927581563</v>
       </c>
       <c r="J274" t="n">
-        <v>85.18483763402381</v>
+        <v>44.20798253472616</v>
       </c>
     </row>
     <row r="275">
@@ -9792,10 +9792,10 @@
         <v>25.35789361247334</v>
       </c>
       <c r="I275" t="n">
-        <v>59.77924833841436</v>
+        <v>18.80239323911672</v>
       </c>
       <c r="J275" t="n">
-        <v>72.66095520754334</v>
+        <v>31.68410010824569</v>
       </c>
     </row>
     <row r="276">
@@ -9826,10 +9826,10 @@
         <v>5.927141230488508</v>
       </c>
       <c r="I276" t="n">
-        <v>64.20770150362162</v>
+        <v>23.23084640432398</v>
       </c>
       <c r="J276" t="n">
-        <v>92.09170758952817</v>
+        <v>51.11485249023053</v>
       </c>
     </row>
     <row r="277">
@@ -9860,10 +9860,10 @@
         <v>46.05636275793286</v>
       </c>
       <c r="I277" t="n">
-        <v>50.48244090728634</v>
+        <v>9.505585807988702</v>
       </c>
       <c r="J277" t="n">
-        <v>51.96248606208382</v>
+        <v>10.98563096278617</v>
       </c>
     </row>
     <row r="278">
@@ -9894,10 +9894,10 @@
         <v>31.41189204475574</v>
       </c>
       <c r="I278" t="n">
-        <v>55.35452945058015</v>
+        <v>14.37767435128251</v>
       </c>
       <c r="J278" t="n">
-        <v>66.60695677526094</v>
+        <v>25.6301016759633</v>
       </c>
     </row>
     <row r="279">
@@ -9928,10 +9928,10 @@
         <v>39.95002393136641</v>
       </c>
       <c r="I279" t="n">
-        <v>51.96465423797173</v>
+        <v>10.98779913867409</v>
       </c>
       <c r="J279" t="n">
-        <v>58.06882488865027</v>
+        <v>17.09196978935262</v>
       </c>
     </row>
     <row r="280">
@@ -9962,10 +9962,10 @@
         <v>43.7064373385789</v>
       </c>
       <c r="I280" t="n">
-        <v>51.96465373306427</v>
+        <v>10.98779863376664</v>
       </c>
       <c r="J280" t="n">
-        <v>54.31241148143777</v>
+        <v>13.33555638214013</v>
       </c>
     </row>
     <row r="281">
@@ -9996,10 +9996,10 @@
         <v>3.886848062118744</v>
       </c>
       <c r="I281" t="n">
-        <v>64.20770132079488</v>
+        <v>23.23084622149725</v>
       </c>
       <c r="J281" t="n">
-        <v>94.13200075789793</v>
+        <v>53.15514565860029</v>
       </c>
     </row>
     <row r="282">
@@ -10030,10 +10030,10 @@
         <v>41.59345479702186</v>
       </c>
       <c r="I282" t="n">
-        <v>51.96465417485831</v>
+        <v>10.98779907556067</v>
       </c>
       <c r="J282" t="n">
-        <v>56.42539402299482</v>
+        <v>15.44853892369717</v>
       </c>
     </row>
     <row r="283">
@@ -10064,10 +10064,10 @@
         <v>18.55921458095537</v>
       </c>
       <c r="I283" t="n">
-        <v>59.77924804983809</v>
+        <v>18.80239295054045</v>
       </c>
       <c r="J283" t="n">
-        <v>79.45963423906132</v>
+        <v>38.48277913976366</v>
       </c>
     </row>
     <row r="284">
@@ -10098,10 +10098,10 @@
         <v>17.4857389443999</v>
       </c>
       <c r="I284" t="n">
-        <v>59.77924795364602</v>
+        <v>18.80239285434838</v>
       </c>
       <c r="J284" t="n">
-        <v>80.53310987561677</v>
+        <v>39.55625477631914</v>
       </c>
     </row>
     <row r="285">
@@ -10132,10 +10132,10 @@
         <v>33.82312656407281</v>
       </c>
       <c r="I285" t="n">
-        <v>55.3545296666462</v>
+        <v>14.37767456734856</v>
       </c>
       <c r="J285" t="n">
-        <v>64.19572225594386</v>
+        <v>23.21886715664623</v>
       </c>
     </row>
     <row r="286">
@@ -10166,10 +10166,10 @@
         <v>3.206750339328827</v>
       </c>
       <c r="I286" t="n">
-        <v>64.20770095514142</v>
+        <v>23.23084585584378</v>
       </c>
       <c r="J286" t="n">
-        <v>94.81209848068785</v>
+        <v>53.83524338139021</v>
       </c>
     </row>
     <row r="287">
@@ -10200,10 +10200,10 @@
         <v>6.947287814673388</v>
       </c>
       <c r="I287" t="n">
-        <v>64.207701595035</v>
+        <v>23.23084649573737</v>
       </c>
       <c r="J287" t="n">
-        <v>91.0715610053433</v>
+        <v>50.09470590604565</v>
       </c>
     </row>
     <row r="288">
@@ -10234,10 +10234,10 @@
         <v>43.23688566267732</v>
       </c>
       <c r="I288" t="n">
-        <v>51.96465411174488</v>
+        <v>10.98779901244725</v>
       </c>
       <c r="J288" t="n">
-        <v>54.78196315733936</v>
+        <v>13.80510805804172</v>
       </c>
     </row>
     <row r="289">
@@ -10268,10 +10268,10 @@
         <v>23.92659276373272</v>
       </c>
       <c r="I289" t="n">
-        <v>59.77924756887769</v>
+        <v>18.80239246958006</v>
       </c>
       <c r="J289" t="n">
-        <v>74.09225605628397</v>
+        <v>33.11540095698631</v>
       </c>
     </row>
     <row r="290">
@@ -10302,10 +10302,10 @@
         <v>4.566945784908664</v>
       </c>
       <c r="I290" t="n">
-        <v>64.20770168644836</v>
+        <v>23.23084658715072</v>
       </c>
       <c r="J290" t="n">
-        <v>93.45190303510802</v>
+        <v>52.47504793581037</v>
       </c>
     </row>
     <row r="291">
@@ -10336,10 +10336,10 @@
         <v>44.64554069038201</v>
       </c>
       <c r="I291" t="n">
-        <v>51.96465423797173</v>
+        <v>10.98779913867409</v>
       </c>
       <c r="J291" t="n">
-        <v>53.37330812963467</v>
+        <v>12.39645303033702</v>
       </c>
     </row>
     <row r="292">
@@ -10370,10 +10370,10 @@
         <v>13.54966161036318</v>
       </c>
       <c r="I292" t="n">
-        <v>59.77924824222226</v>
+        <v>18.80239314292462</v>
       </c>
       <c r="J292" t="n">
-        <v>84.4691872096535</v>
+        <v>43.49233211035585</v>
       </c>
     </row>
     <row r="293">
@@ -10404,10 +10404,10 @@
         <v>16.41226330784443</v>
       </c>
       <c r="I293" t="n">
-        <v>59.77924785745394</v>
+        <v>18.8023927581563</v>
       </c>
       <c r="J293" t="n">
-        <v>81.60658551217224</v>
+        <v>40.62973041287461</v>
       </c>
     </row>
     <row r="294">
@@ -10438,10 +10438,10 @@
         <v>19.63269021751083</v>
       </c>
       <c r="I294" t="n">
-        <v>59.77924814603019</v>
+        <v>18.80239304673255</v>
       </c>
       <c r="J294" t="n">
-        <v>78.38615860250584</v>
+        <v>37.40930350320821</v>
       </c>
     </row>
     <row r="295">
@@ -10472,10 +10472,10 @@
         <v>14.62313724691864</v>
       </c>
       <c r="I295" t="n">
-        <v>59.77924833841436</v>
+        <v>18.80239323911672</v>
       </c>
       <c r="J295" t="n">
-        <v>83.39571157309804</v>
+        <v>42.4188564738004</v>
       </c>
     </row>
     <row r="296">
@@ -10506,10 +10506,10 @@
         <v>37.36748971390783</v>
       </c>
       <c r="I296" t="n">
-        <v>51.96465379617772</v>
+        <v>10.98779869688008</v>
       </c>
       <c r="J296" t="n">
-        <v>60.65135910610885</v>
+        <v>19.6745040068112</v>
       </c>
     </row>
     <row r="297">
@@ -10540,10 +10540,10 @@
         <v>38.77614474161252</v>
       </c>
       <c r="I297" t="n">
-        <v>51.96465392240457</v>
+        <v>10.98779882310694</v>
       </c>
       <c r="J297" t="n">
-        <v>59.24270407840416</v>
+        <v>18.26584897910652</v>
       </c>
     </row>
     <row r="298">
@@ -10574,10 +10574,10 @@
         <v>37.60226555185859</v>
       </c>
       <c r="I298" t="n">
-        <v>51.96465360683744</v>
+        <v>10.98779850753981</v>
       </c>
       <c r="J298" t="n">
-        <v>60.41658326815808</v>
+        <v>19.43972816886044</v>
       </c>
     </row>
     <row r="299">
@@ -10608,10 +10608,10 @@
         <v>21.77964149062178</v>
       </c>
       <c r="I299" t="n">
-        <v>59.77924833841436</v>
+        <v>18.80239323911672</v>
       </c>
       <c r="J299" t="n">
-        <v>76.2392073293949</v>
+        <v>35.26235223009725</v>
       </c>
     </row>
     <row r="300">
@@ -10642,10 +10642,10 @@
         <v>48.12906715088944</v>
       </c>
       <c r="I300" t="n">
-        <v>49.88978166912723</v>
+        <v>8.912926569829594</v>
       </c>
       <c r="J300" t="n">
-        <v>49.88978166912725</v>
+        <v>8.912926569829594</v>
       </c>
     </row>
     <row r="301">
@@ -10676,10 +10676,10 @@
         <v>33.01938172430045</v>
       </c>
       <c r="I301" t="n">
-        <v>55.35452923451408</v>
+        <v>14.37767413521644</v>
       </c>
       <c r="J301" t="n">
-        <v>64.99946709571623</v>
+        <v>24.02261199641858</v>
       </c>
     </row>
     <row r="302">
@@ -10710,10 +10710,10 @@
         <v>1.166457170959064</v>
       </c>
       <c r="I302" t="n">
-        <v>64.20770168644836</v>
+        <v>23.23084658715072</v>
       </c>
       <c r="J302" t="n">
-        <v>96.85239164905762</v>
+        <v>55.87553654975997</v>
       </c>
     </row>
     <row r="303">
@@ -10744,10 +10744,10 @@
         <v>44.41076485243124</v>
       </c>
       <c r="I303" t="n">
-        <v>51.96465316504341</v>
+        <v>10.98779806574577</v>
       </c>
       <c r="J303" t="n">
-        <v>53.60808396758544</v>
+        <v>12.63122886828779</v>
       </c>
     </row>
     <row r="304">
@@ -10778,10 +10778,10 @@
         <v>24.64224318810304</v>
       </c>
       <c r="I304" t="n">
-        <v>59.77924795364601</v>
+        <v>18.80239285434838</v>
       </c>
       <c r="J304" t="n">
-        <v>73.37660563191363</v>
+        <v>32.399750532616</v>
       </c>
     </row>
     <row r="305">
@@ -10812,10 +10812,10 @@
         <v>14.98096245910381</v>
       </c>
       <c r="I305" t="n">
-        <v>59.7792480498381</v>
+        <v>18.80239295054047</v>
       </c>
       <c r="J305" t="n">
-        <v>83.03788636091288</v>
+        <v>42.06103126161523</v>
       </c>
     </row>
     <row r="306">
@@ -10846,10 +10846,10 @@
         <v>17.84356415658506</v>
       </c>
       <c r="I306" t="n">
-        <v>59.77924766506978</v>
+        <v>18.80239256577214</v>
       </c>
       <c r="J306" t="n">
-        <v>80.17528466343161</v>
+        <v>39.19842956413397</v>
       </c>
     </row>
     <row r="307">
@@ -10880,10 +10880,10 @@
         <v>2.526652616538904</v>
       </c>
       <c r="I307" t="n">
-        <v>64.20770150362164</v>
+        <v>23.230846404324</v>
       </c>
       <c r="J307" t="n">
-        <v>95.49219620347777</v>
+        <v>54.51534110418013</v>
       </c>
     </row>
     <row r="308">
@@ -10914,10 +10914,10 @@
         <v>15.69661288347412</v>
       </c>
       <c r="I308" t="n">
-        <v>59.77924843460642</v>
+        <v>18.80239333530879</v>
       </c>
       <c r="J308" t="n">
-        <v>82.32223593654255</v>
+        <v>41.34538083724492</v>
       </c>
     </row>
     <row r="309">
@@ -10948,10 +10948,10 @@
         <v>5.587092369093546</v>
       </c>
       <c r="I309" t="n">
-        <v>64.20770177786173</v>
+        <v>23.23084667856409</v>
       </c>
       <c r="J309" t="n">
-        <v>92.43175645092313</v>
+        <v>51.45490135162549</v>
       </c>
     </row>
     <row r="310">
@@ -10982,10 +10982,10 @@
         <v>18.20138936877021</v>
       </c>
       <c r="I310" t="n">
-        <v>59.77924833841436</v>
+        <v>18.80239323911672</v>
       </c>
       <c r="J310" t="n">
-        <v>79.81745945124646</v>
+        <v>38.84060435194883</v>
       </c>
     </row>
     <row r="311">
@@ -11016,10 +11016,10 @@
         <v>42.2977823108742</v>
       </c>
       <c r="I311" t="n">
-        <v>51.96465360683741</v>
+        <v>10.98779850753977</v>
       </c>
       <c r="J311" t="n">
-        <v>55.72106650914247</v>
+        <v>14.74421140984484</v>
       </c>
     </row>
     <row r="312">
@@ -11050,10 +11050,10 @@
         <v>4.226896923513704</v>
       </c>
       <c r="I312" t="n">
-        <v>64.20770104655479</v>
+        <v>23.23084594725715</v>
       </c>
       <c r="J312" t="n">
-        <v>93.79195189650298</v>
+        <v>52.81509679720533</v>
       </c>
     </row>
     <row r="313">
@@ -11084,10 +11084,10 @@
         <v>5.247043507698584</v>
       </c>
       <c r="I313" t="n">
-        <v>64.20770113796817</v>
+        <v>23.23084603867053</v>
       </c>
       <c r="J313" t="n">
-        <v>92.77180531231809</v>
+        <v>51.79495021302045</v>
       </c>
     </row>
     <row r="314">
@@ -11118,10 +11118,10 @@
         <v>46.79638593214005</v>
       </c>
       <c r="I314" t="n">
-        <v>50.48244031047788</v>
+        <v>9.505585211180247</v>
       </c>
       <c r="J314" t="n">
-        <v>51.22246288787663</v>
+        <v>10.24560778857899</v>
       </c>
     </row>
     <row r="315">
@@ -11152,10 +11152,10 @@
         <v>13.19183639817803</v>
       </c>
       <c r="I315" t="n">
-        <v>59.77924756887769</v>
+        <v>18.80239246958006</v>
       </c>
       <c r="J315" t="n">
-        <v>84.82701242183866</v>
+        <v>43.85015732254101</v>
       </c>
     </row>
     <row r="316">
@@ -11186,10 +11186,10 @@
         <v>19.99051542969599</v>
       </c>
       <c r="I316" t="n">
-        <v>59.77924785745395</v>
+        <v>18.80239275815632</v>
       </c>
       <c r="J316" t="n">
-        <v>78.02833339032068</v>
+        <v>37.05147829102305</v>
       </c>
     </row>
     <row r="317">
@@ -11220,10 +11220,10 @@
         <v>2.18660375514395</v>
       </c>
       <c r="I317" t="n">
-        <v>64.20770177786173</v>
+        <v>23.23084667856409</v>
       </c>
       <c r="J317" t="n">
-        <v>95.83224506487272</v>
+        <v>54.85538996557509</v>
       </c>
     </row>
     <row r="318">
@@ -11254,10 +11254,10 @@
         <v>47.16639751924362</v>
       </c>
       <c r="I318" t="n">
-        <v>50.48244001207368</v>
+        <v>9.505584912776044</v>
       </c>
       <c r="J318" t="n">
-        <v>50.85245130077306</v>
+        <v>9.875596201475418</v>
       </c>
     </row>
     <row r="319">
@@ -11288,10 +11288,10 @@
         <v>30.6081472049834</v>
       </c>
       <c r="I319" t="n">
-        <v>55.35452901844799</v>
+        <v>14.37767391915035</v>
       </c>
       <c r="J319" t="n">
-        <v>67.41070161503328</v>
+        <v>26.43384651573563</v>
       </c>
     </row>
     <row r="320">
@@ -11322,10 +11322,10 @@
         <v>14.26531203473349</v>
       </c>
       <c r="I320" t="n">
-        <v>59.77924766506978</v>
+        <v>18.80239256577214</v>
       </c>
       <c r="J320" t="n">
-        <v>83.75353678528319</v>
+        <v>42.77668168598554</v>
       </c>
     </row>
     <row r="321">
@@ -11356,10 +11356,10 @@
         <v>18.91703979314053</v>
       </c>
       <c r="I321" t="n">
-        <v>59.77924776126186</v>
+        <v>18.80239266196423</v>
       </c>
       <c r="J321" t="n">
-        <v>79.10180902687614</v>
+        <v>38.1249539275785</v>
       </c>
     </row>
     <row r="322">
@@ -11390,10 +11390,10 @@
         <v>23.21094233936241</v>
       </c>
       <c r="I322" t="n">
-        <v>59.77924814603018</v>
+        <v>18.80239304673255</v>
       </c>
       <c r="J322" t="n">
-        <v>74.80790648065427</v>
+        <v>33.83105138135662</v>
       </c>
     </row>
     <row r="323">
@@ -11424,10 +11424,10 @@
         <v>22.85311712717725</v>
       </c>
       <c r="I323" t="n">
-        <v>59.77924843460642</v>
+        <v>18.80239333530879</v>
       </c>
       <c r="J323" t="n">
-        <v>75.16573169283943</v>
+        <v>34.18887659354179</v>
       </c>
     </row>
     <row r="324">
@@ -11458,10 +11458,10 @@
         <v>29.40252994532487</v>
       </c>
       <c r="I324" t="n">
-        <v>55.35452999074533</v>
+        <v>14.3776748914477</v>
       </c>
       <c r="J324" t="n">
-        <v>68.6163188746918</v>
+        <v>27.63946377539417</v>
       </c>
     </row>
     <row r="325">
@@ -11492,10 +11492,10 @@
         <v>39.71524809341564</v>
       </c>
       <c r="I325" t="n">
-        <v>51.96465316504341</v>
+        <v>10.98779806574577</v>
       </c>
       <c r="J325" t="n">
-        <v>58.30360072660105</v>
+        <v>17.3267456273034</v>
       </c>
     </row>
     <row r="326">
@@ -11526,10 +11526,10 @@
         <v>21.42181627843662</v>
       </c>
       <c r="I326" t="n">
-        <v>59.77924766506978</v>
+        <v>18.80239256577214</v>
       </c>
       <c r="J326" t="n">
-        <v>76.59703254158006</v>
+        <v>35.62017744228241</v>
       </c>
     </row>
     <row r="327">
@@ -11560,10 +11560,10 @@
         <v>40.88912728316954</v>
       </c>
       <c r="I327" t="n">
-        <v>51.96465348061056</v>
+        <v>10.98779838131293</v>
       </c>
       <c r="J327" t="n">
-        <v>57.12972153684715</v>
+        <v>16.15286643754949</v>
       </c>
     </row>
     <row r="328">
@@ -11594,10 +11594,10 @@
         <v>37.8370413898094</v>
       </c>
       <c r="I328" t="n">
-        <v>51.96465341749713</v>
+        <v>10.98779831819949</v>
       </c>
       <c r="J328" t="n">
-        <v>60.18180743020729</v>
+        <v>19.20495233090963</v>
       </c>
     </row>
     <row r="329">
@@ -11628,10 +11628,10 @@
         <v>7.627385537463311</v>
       </c>
       <c r="I329" t="n">
-        <v>64.20770104655477</v>
+        <v>23.23084594725714</v>
       </c>
       <c r="J329" t="n">
-        <v>90.39146328255336</v>
+        <v>49.41460818325572</v>
       </c>
     </row>
     <row r="330">
@@ -11662,10 +11662,10 @@
         <v>44.17598901448045</v>
       </c>
       <c r="I330" t="n">
-        <v>51.9646533543837</v>
+        <v>10.98779825508606</v>
       </c>
       <c r="J330" t="n">
-        <v>53.84285980553621</v>
+        <v>12.86600470623858</v>
       </c>
     </row>
     <row r="331">
@@ -11696,10 +11696,10 @@
         <v>25.00006840028819</v>
       </c>
       <c r="I331" t="n">
-        <v>59.77924766506978</v>
+        <v>18.80239256577214</v>
       </c>
       <c r="J331" t="n">
-        <v>73.01878041972849</v>
+        <v>32.04192532043085</v>
       </c>
     </row>
     <row r="332">
@@ -11730,10 +11730,10 @@
         <v>39.01092057956329</v>
       </c>
       <c r="I332" t="n">
-        <v>51.96465373306429</v>
+        <v>10.98779863376665</v>
       </c>
       <c r="J332" t="n">
-        <v>59.00792824045337</v>
+        <v>18.03107314115574</v>
       </c>
     </row>
     <row r="333">
@@ -11764,10 +11764,10 @@
         <v>41.12390312112032</v>
       </c>
       <c r="I333" t="n">
-        <v>51.96465329127027</v>
+        <v>10.98779819197264</v>
       </c>
       <c r="J333" t="n">
-        <v>56.89494569889635</v>
+        <v>15.91809059959871</v>
       </c>
     </row>
     <row r="334">
@@ -11798,10 +11798,10 @@
         <v>39.48047225546486</v>
       </c>
       <c r="I334" t="n">
-        <v>51.9646533543837</v>
+        <v>10.98779825508606</v>
       </c>
       <c r="J334" t="n">
-        <v>58.53837656455182</v>
+        <v>17.56152146525417</v>
       </c>
     </row>
     <row r="335">
@@ -11832,10 +11832,10 @@
         <v>21.06399106625146</v>
       </c>
       <c r="I335" t="n">
-        <v>59.77924795364602</v>
+        <v>18.80239285434838</v>
       </c>
       <c r="J335" t="n">
-        <v>76.95485775376521</v>
+        <v>35.97800265446757</v>
       </c>
     </row>
     <row r="336">
@@ -11866,10 +11866,10 @@
         <v>7.28733667606835</v>
       </c>
       <c r="I336" t="n">
-        <v>64.20770132079488</v>
+        <v>23.23084622149725</v>
       </c>
       <c r="J336" t="n">
-        <v>90.73151214394834</v>
+        <v>49.75465704465068</v>
       </c>
     </row>
     <row r="337">
@@ -11900,10 +11900,10 @@
         <v>42.53255814882499</v>
       </c>
       <c r="I337" t="n">
-        <v>51.96465341749714</v>
+        <v>10.9877983181995</v>
       </c>
       <c r="J337" t="n">
-        <v>55.48629067119169</v>
+        <v>14.50943557189404</v>
       </c>
     </row>
     <row r="338">
@@ -11934,10 +11934,10 @@
         <v>25.7157188246585</v>
       </c>
       <c r="I338" t="n">
-        <v>59.77924804983809</v>
+        <v>18.80239295054045</v>
       </c>
       <c r="J338" t="n">
-        <v>72.30312999535819</v>
+        <v>31.32627489606054</v>
       </c>
     </row>
     <row r="339">
@@ -11968,10 +11968,10 @@
         <v>24.28441797591787</v>
       </c>
       <c r="I339" t="n">
-        <v>59.77924824222226</v>
+        <v>18.80239314292462</v>
       </c>
       <c r="J339" t="n">
-        <v>73.73443084409881</v>
+        <v>32.75757574480117</v>
       </c>
     </row>
     <row r="340">
@@ -12002,10 +12002,10 @@
         <v>15.33878767128896</v>
       </c>
       <c r="I340" t="n">
-        <v>59.77924776126186</v>
+        <v>18.80239266196423</v>
       </c>
       <c r="J340" t="n">
-        <v>82.68006114872772</v>
+        <v>41.70320604943007</v>
       </c>
     </row>
     <row r="341">
@@ -12036,10 +12036,10 @@
         <v>42.06300647292344</v>
       </c>
       <c r="I341" t="n">
-        <v>51.96465379617771</v>
+        <v>10.98779869688008</v>
       </c>
       <c r="J341" t="n">
-        <v>55.95584234709324</v>
+        <v>14.97898724779559</v>
       </c>
     </row>
     <row r="342">
@@ -12070,10 +12070,10 @@
         <v>4.906994646303631</v>
       </c>
       <c r="I342" t="n">
-        <v>64.20770141220825</v>
+        <v>23.23084631291061</v>
       </c>
       <c r="J342" t="n">
-        <v>93.11185417371304</v>
+        <v>52.1349990744154</v>
       </c>
     </row>
     <row r="343">
@@ -12104,10 +12104,10 @@
         <v>0.4863594481691473</v>
       </c>
       <c r="I343" t="n">
-        <v>64.20770132079488</v>
+        <v>23.23084622149725</v>
       </c>
       <c r="J343" t="n">
-        <v>97.53248937184753</v>
+        <v>56.55563427254989</v>
       </c>
     </row>
     <row r="344">
@@ -12138,10 +12138,10 @@
         <v>7.967434398858269</v>
       </c>
       <c r="I344" t="n">
-        <v>64.20770168644836</v>
+        <v>23.23084658715072</v>
       </c>
       <c r="J344" t="n">
-        <v>90.05141442115841</v>
+        <v>49.07455932186077</v>
       </c>
     </row>
     <row r="345">
@@ -12172,10 +12172,10 @@
         <v>17.12791373221474</v>
       </c>
       <c r="I345" t="n">
-        <v>59.77924824222226</v>
+        <v>18.80239314292462</v>
       </c>
       <c r="J345" t="n">
-        <v>80.89093508780194</v>
+        <v>39.9140799885043</v>
       </c>
     </row>
     <row r="346">
@@ -12206,10 +12206,10 @@
         <v>38.54136890366174</v>
       </c>
       <c r="I346" t="n">
-        <v>51.96465411174486</v>
+        <v>10.98779901244723</v>
       </c>
       <c r="J346" t="n">
-        <v>59.47747991635493</v>
+        <v>18.50062481705729</v>
       </c>
     </row>
     <row r="347">
@@ -12240,10 +12240,10 @@
         <v>41.3586789590711</v>
       </c>
       <c r="I347" t="n">
-        <v>51.96465310192997</v>
+        <v>10.98779800263233</v>
       </c>
       <c r="J347" t="n">
-        <v>56.66016986094558</v>
+        <v>15.68331476164794</v>
       </c>
     </row>
     <row r="348">
@@ -12274,10 +12274,10 @@
         <v>8.647532121648192</v>
       </c>
       <c r="I348" t="n">
-        <v>64.20770113796814</v>
+        <v>23.23084603867051</v>
       </c>
       <c r="J348" t="n">
-        <v>89.37131669836849</v>
+        <v>48.39446159907084</v>
       </c>
     </row>
     <row r="349">
@@ -12308,10 +12308,10 @@
         <v>31.01001962486958</v>
       </c>
       <c r="I349" t="n">
-        <v>55.35452977467926</v>
+        <v>14.37767467538163</v>
       </c>
       <c r="J349" t="n">
-        <v>67.00882919514709</v>
+        <v>26.03197409584945</v>
       </c>
     </row>
     <row r="350">
@@ -12342,10 +12342,10 @@
         <v>40.18479976931719</v>
       </c>
       <c r="I350" t="n">
-        <v>51.96465404863143</v>
+        <v>10.98779894933379</v>
       </c>
       <c r="J350" t="n">
-        <v>57.83404905069949</v>
+        <v>16.85719395140185</v>
       </c>
     </row>
     <row r="351">
@@ -12376,10 +12376,10 @@
         <v>24.98193332657693</v>
       </c>
       <c r="I351" t="n">
-        <v>55.35452923451408</v>
+        <v>14.37767413521644</v>
       </c>
       <c r="J351" t="n">
-        <v>73.03691549343975</v>
+        <v>32.06006039414211</v>
       </c>
     </row>
     <row r="352">
@@ -12410,10 +12410,10 @@
         <v>26.18755058623547</v>
       </c>
       <c r="I352" t="n">
-        <v>55.35452934254709</v>
+        <v>14.37767424324945</v>
       </c>
       <c r="J352" t="n">
-        <v>71.8312982337812</v>
+        <v>30.85444313448356</v>
       </c>
     </row>
     <row r="353">
@@ -12444,10 +12444,10 @@
         <v>30.65443710530693</v>
       </c>
       <c r="I353" t="n">
-        <v>51.96610941789057</v>
+        <v>10.98925431859293</v>
       </c>
       <c r="J353" t="n">
-        <v>67.36441171470975</v>
+        <v>26.38755661541211</v>
       </c>
     </row>
     <row r="354">
@@ -12478,10 +12478,10 @@
         <v>3.530555669178797</v>
       </c>
       <c r="I354" t="n">
-        <v>59.77924766506978</v>
+        <v>18.80239256577214</v>
       </c>
       <c r="J354" t="n">
-        <v>94.48829315083788</v>
+        <v>53.51143805154024</v>
       </c>
     </row>
     <row r="355">
@@ -12512,10 +12512,10 @@
         <v>4.246206093549111</v>
       </c>
       <c r="I355" t="n">
-        <v>59.7792480498381</v>
+        <v>18.80239295054047</v>
       </c>
       <c r="J355" t="n">
-        <v>93.77264272646757</v>
+        <v>52.79578762716992</v>
       </c>
     </row>
     <row r="356">
@@ -12546,10 +12546,10 @@
         <v>21.36508154760135</v>
       </c>
       <c r="I356" t="n">
-        <v>55.35452999074533</v>
+        <v>14.3776748914477</v>
       </c>
       <c r="J356" t="n">
-        <v>76.65376727241532</v>
+        <v>35.67691217311769</v>
       </c>
     </row>
     <row r="357">
@@ -12580,10 +12580,10 @@
         <v>13.32763314987783</v>
       </c>
       <c r="I357" t="n">
-        <v>55.35452999074533</v>
+        <v>14.3776748914477</v>
       </c>
       <c r="J357" t="n">
-        <v>84.69121567013886</v>
+        <v>43.71436057084121</v>
       </c>
     </row>
     <row r="358">
@@ -12614,10 +12614,10 @@
         <v>40.51897501142419</v>
       </c>
       <c r="I358" t="n">
-        <v>51.96610922385449</v>
+        <v>10.98925412455685</v>
       </c>
       <c r="J358" t="n">
-        <v>57.49987380859249</v>
+        <v>16.52301870929485</v>
       </c>
     </row>
     <row r="359">
@@ -12648,10 +12648,10 @@
         <v>22.97257122714606</v>
       </c>
       <c r="I359" t="n">
-        <v>55.35452977467926</v>
+        <v>14.37767467538163</v>
       </c>
       <c r="J359" t="n">
-        <v>75.04627759287062</v>
+        <v>34.06942249357297</v>
       </c>
     </row>
     <row r="360">
@@ -12682,10 +12682,10 @@
         <v>45.64116437407758</v>
       </c>
       <c r="I360" t="n">
-        <v>47.46881209186591</v>
+        <v>6.491956992568277</v>
       </c>
       <c r="J360" t="n">
-        <v>52.37768444593909</v>
+        <v>11.40082934664145</v>
       </c>
     </row>
     <row r="361">
@@ -12716,10 +12716,10 @@
         <v>37.87239167075858</v>
       </c>
       <c r="I361" t="n">
-        <v>51.9661087711036</v>
+        <v>10.98925367180596</v>
       </c>
       <c r="J361" t="n">
-        <v>60.14645714925809</v>
+        <v>19.16960204996045</v>
       </c>
     </row>
     <row r="362">
@@ -12750,10 +12750,10 @@
         <v>6.897674431699013</v>
       </c>
       <c r="I362" t="n">
-        <v>55.35452977467926</v>
+        <v>14.37767467538163</v>
       </c>
       <c r="J362" t="n">
-        <v>91.12117438831766</v>
+        <v>50.14431928902002</v>
       </c>
     </row>
     <row r="363">
@@ -12784,10 +12784,10 @@
         <v>49.74969948247139</v>
       </c>
       <c r="I363" t="n">
-        <v>46.03127734318053</v>
+        <v>5.054422243882897</v>
       </c>
       <c r="J363" t="n">
-        <v>48.2691493375453</v>
+        <v>7.292294238247642</v>
       </c>
     </row>
     <row r="364">
@@ -12818,10 +12818,10 @@
         <v>42.51733551995004</v>
       </c>
       <c r="I364" t="n">
-        <v>47.46881221183172</v>
+        <v>6.491957112534081</v>
       </c>
       <c r="J364" t="n">
-        <v>55.50151330006664</v>
+        <v>14.524658200769</v>
       </c>
     </row>
     <row r="365">
@@ -12852,10 +12852,10 @@
         <v>35.94760378663813</v>
       </c>
       <c r="I365" t="n">
-        <v>51.9661090298184</v>
+        <v>10.98925393052077</v>
       </c>
       <c r="J365" t="n">
-        <v>62.07124503337855</v>
+        <v>21.0943899340809</v>
       </c>
     </row>
     <row r="366">
@@ -12886,10 +12886,10 @@
         <v>48.25778361637225</v>
       </c>
       <c r="I366" t="n">
-        <v>46.03127854636982</v>
+        <v>5.054423447072182</v>
       </c>
       <c r="J366" t="n">
-        <v>49.76106520364441</v>
+        <v>8.784210104346784</v>
       </c>
     </row>
     <row r="367">
@@ -12920,10 +12920,10 @@
         <v>46.53368690382831</v>
       </c>
       <c r="I367" t="n">
-        <v>47.46881137207091</v>
+        <v>6.491956272773272</v>
       </c>
       <c r="J367" t="n">
-        <v>51.48516191618837</v>
+        <v>10.50830681689072</v>
       </c>
     </row>
     <row r="368">
@@ -12954,10 +12954,10 @@
         <v>44.74864184432686</v>
       </c>
       <c r="I368" t="n">
-        <v>47.46881281166089</v>
+        <v>6.491957712363252</v>
       </c>
       <c r="J368" t="n">
-        <v>53.27020697568982</v>
+        <v>12.29335187639217</v>
       </c>
     </row>
     <row r="369">
@@ -12988,10 +12988,10 @@
         <v>4.888312332268147</v>
       </c>
       <c r="I369" t="n">
-        <v>55.35452923451405</v>
+        <v>14.37767413521642</v>
       </c>
       <c r="J369" t="n">
-        <v>93.13053648774853</v>
+        <v>52.15368138845088</v>
       </c>
     </row>
     <row r="370">
@@ -13022,10 +13022,10 @@
         <v>34.0228159025177</v>
       </c>
       <c r="I370" t="n">
-        <v>51.96610928853318</v>
+        <v>10.98925418923555</v>
       </c>
       <c r="J370" t="n">
-        <v>63.99603291749898</v>
+        <v>23.01917781820134</v>
       </c>
     </row>
     <row r="371">
@@ -13056,10 +13056,10 @@
         <v>36.90999772869836</v>
       </c>
       <c r="I371" t="n">
-        <v>51.96610954724798</v>
+        <v>10.98925444795034</v>
       </c>
       <c r="J371" t="n">
-        <v>61.10885109131832</v>
+        <v>20.13199599202068</v>
       </c>
     </row>
     <row r="372">
@@ -13090,10 +13090,10 @@
         <v>17.74822976862577</v>
       </c>
       <c r="I372" t="n">
-        <v>55.35452966664621</v>
+        <v>14.37767456734858</v>
       </c>
       <c r="J372" t="n">
-        <v>80.2706190513909</v>
+        <v>39.29376395209326</v>
       </c>
     </row>
     <row r="373">
@@ -13124,10 +13124,10 @@
         <v>12.52388831010548</v>
       </c>
       <c r="I373" t="n">
-        <v>55.35452955861317</v>
+        <v>14.37767445931554</v>
       </c>
       <c r="J373" t="n">
-        <v>85.49496050991119</v>
+        <v>44.51810541061356</v>
       </c>
     </row>
     <row r="374">
@@ -13158,10 +13158,10 @@
         <v>36.66939924318331</v>
       </c>
       <c r="I374" t="n">
-        <v>51.96610974128407</v>
+        <v>10.98925464198643</v>
       </c>
       <c r="J374" t="n">
-        <v>61.34944957683336</v>
+        <v>20.37259447753573</v>
       </c>
     </row>
     <row r="375">
@@ -13192,10 +13192,10 @@
         <v>2.814905244808493</v>
       </c>
       <c r="I375" t="n">
-        <v>59.77924824222226</v>
+        <v>18.80239314292462</v>
       </c>
       <c r="J375" t="n">
-        <v>95.20394357520819</v>
+        <v>54.22708847591054</v>
       </c>
     </row>
     <row r="376">
@@ -13226,10 +13226,10 @@
         <v>33.06042196045748</v>
       </c>
       <c r="I376" t="n">
-        <v>51.96610877110359</v>
+        <v>10.98925367180595</v>
       </c>
       <c r="J376" t="n">
-        <v>64.9584268595592</v>
+        <v>23.98157176026155</v>
       </c>
     </row>
     <row r="377">
@@ -13260,10 +13260,10 @@
         <v>24.58006090669076</v>
       </c>
       <c r="I377" t="n">
-        <v>55.35452955861318</v>
+        <v>14.37767445931554</v>
       </c>
       <c r="J377" t="n">
-        <v>73.43878791332591</v>
+        <v>32.46193281402827</v>
       </c>
     </row>
     <row r="378">
@@ -13294,10 +13294,10 @@
         <v>29.4643944224053</v>
       </c>
       <c r="I378" t="n">
-        <v>52.63220558681532</v>
+        <v>11.65535048751769</v>
       </c>
       <c r="J378" t="n">
-        <v>68.55445439761137</v>
+        <v>27.57759929831374</v>
       </c>
     </row>
     <row r="379">
@@ -13328,10 +13328,10 @@
         <v>39.07538409833385</v>
       </c>
       <c r="I379" t="n">
-        <v>51.96610909449709</v>
+        <v>10.98925399519946</v>
       </c>
       <c r="J379" t="n">
-        <v>58.94346472168283</v>
+        <v>17.96660962238519</v>
       </c>
     </row>
     <row r="380">
@@ -13362,10 +13362,10 @@
         <v>33.54161893148759</v>
       </c>
       <c r="I380" t="n">
-        <v>51.96610967660537</v>
+        <v>10.98925457730773</v>
       </c>
       <c r="J380" t="n">
-        <v>64.47722988852908</v>
+        <v>23.50037478923144</v>
       </c>
     </row>
     <row r="381">
@@ -13396,10 +13396,10 @@
         <v>10.51452621067459</v>
       </c>
       <c r="I381" t="n">
-        <v>55.35452901844799</v>
+        <v>14.37767391915035</v>
       </c>
       <c r="J381" t="n">
-        <v>87.50432260934208</v>
+        <v>46.52746751004445</v>
       </c>
     </row>
     <row r="382">
@@ -13430,10 +13430,10 @@
         <v>22.57069880725988</v>
       </c>
       <c r="I382" t="n">
-        <v>55.35452901844799</v>
+        <v>14.37767391915035</v>
       </c>
       <c r="J382" t="n">
-        <v>75.4481500127568</v>
+        <v>34.47129491345915</v>
       </c>
     </row>
     <row r="383">
@@ -13464,10 +13464,10 @@
         <v>31.13563407633704</v>
       </c>
       <c r="I383" t="n">
-        <v>51.96610902981838</v>
+        <v>10.98925393052075</v>
       </c>
       <c r="J383" t="n">
-        <v>66.88321474367964</v>
+        <v>25.90635964438199</v>
       </c>
     </row>
     <row r="384">
@@ -13498,10 +13498,10 @@
         <v>44.30238057945149</v>
       </c>
       <c r="I384" t="n">
-        <v>47.46881077224172</v>
+        <v>6.491955672944087</v>
       </c>
       <c r="J384" t="n">
-        <v>53.71646824056519</v>
+        <v>12.73961314126755</v>
       </c>
     </row>
     <row r="385">
@@ -13532,10 +13532,10 @@
         <v>18.55197460839812</v>
       </c>
       <c r="I385" t="n">
-        <v>55.35452901844799</v>
+        <v>14.37767391915035</v>
       </c>
       <c r="J385" t="n">
-        <v>79.46687421161856</v>
+        <v>38.49001911232092</v>
       </c>
     </row>
     <row r="386">
@@ -13566,10 +13566,10 @@
         <v>34.98520984457792</v>
       </c>
       <c r="I386" t="n">
-        <v>51.96610980596278</v>
+        <v>10.98925470666514</v>
       </c>
       <c r="J386" t="n">
-        <v>63.03363897543876</v>
+        <v>22.05678387614111</v>
       </c>
     </row>
     <row r="387">
@@ -13600,10 +13600,10 @@
         <v>40.27837652590914</v>
       </c>
       <c r="I387" t="n">
-        <v>51.96610941789058</v>
+        <v>10.98925431859294</v>
       </c>
       <c r="J387" t="n">
-        <v>57.74047229410753</v>
+        <v>16.7636171948099</v>
       </c>
     </row>
     <row r="388">
@@ -13634,10 +13634,10 @@
         <v>36.42880075766826</v>
       </c>
       <c r="I388" t="n">
-        <v>51.96610864174619</v>
+        <v>10.98925354244855</v>
       </c>
       <c r="J388" t="n">
-        <v>61.59004806234842</v>
+        <v>20.61319296305077</v>
       </c>
     </row>
     <row r="389">
@@ -13668,10 +13668,10 @@
         <v>10.11265379078842</v>
       </c>
       <c r="I389" t="n">
-        <v>55.35452934254709</v>
+        <v>14.37767424324945</v>
       </c>
       <c r="J389" t="n">
-        <v>87.90619502922826</v>
+        <v>46.92933992993061</v>
       </c>
     </row>
     <row r="390">
@@ -13702,10 +13702,10 @@
         <v>6.093929591926661</v>
       </c>
       <c r="I390" t="n">
-        <v>55.3545293425471</v>
+        <v>14.37767424324947</v>
       </c>
       <c r="J390" t="n">
-        <v>91.92491922809</v>
+        <v>50.94806412879237</v>
       </c>
     </row>
     <row r="391">
@@ -13736,10 +13736,10 @@
         <v>15.33699524930871</v>
       </c>
       <c r="I391" t="n">
-        <v>55.35452945058013</v>
+        <v>14.37767435128249</v>
       </c>
       <c r="J391" t="n">
-        <v>82.68185357070796</v>
+        <v>41.70499847141032</v>
       </c>
     </row>
     <row r="392">
@@ -13770,10 +13770,10 @@
         <v>13.72950556976401</v>
       </c>
       <c r="I392" t="n">
-        <v>55.35452966664621</v>
+        <v>14.37767456734858</v>
       </c>
       <c r="J392" t="n">
-        <v>84.28934325025267</v>
+        <v>43.31248815095503</v>
       </c>
     </row>
     <row r="393">
@@ -13804,10 +13804,10 @@
         <v>38.11299015627367</v>
       </c>
       <c r="I393" t="n">
-        <v>51.96610987064145</v>
+        <v>10.98925477134382</v>
       </c>
       <c r="J393" t="n">
-        <v>59.90585866374301</v>
+        <v>18.92900356444537</v>
       </c>
     </row>
     <row r="394">
@@ -13838,10 +13838,10 @@
         <v>14.13137798965018</v>
       </c>
       <c r="I394" t="n">
-        <v>55.35452934254709</v>
+        <v>14.37767424324945</v>
       </c>
       <c r="J394" t="n">
-        <v>83.8874708303665</v>
+        <v>42.91061573106886</v>
       </c>
     </row>
     <row r="395">
@@ -13872,10 +13872,10 @@
         <v>28.52779153637132</v>
       </c>
       <c r="I395" t="n">
-        <v>52.63220634215992</v>
+        <v>11.65535124286228</v>
       </c>
       <c r="J395" t="n">
-        <v>69.49105728364536</v>
+        <v>28.51420218434771</v>
       </c>
     </row>
     <row r="396">
@@ -13906,10 +13906,10 @@
         <v>9.710781370902247</v>
       </c>
       <c r="I396" t="n">
-        <v>55.35452966664621</v>
+        <v>14.37767456734858</v>
       </c>
       <c r="J396" t="n">
-        <v>88.30806744911443</v>
+        <v>47.33121234981679</v>
       </c>
     </row>
     <row r="397">
@@ -13940,10 +13940,10 @@
         <v>49.0037415494218</v>
       </c>
       <c r="I397" t="n">
-        <v>46.03127794477517</v>
+        <v>5.054422845477532</v>
       </c>
       <c r="J397" t="n">
-        <v>49.01510727059487</v>
+        <v>8.038252171297238</v>
       </c>
     </row>
     <row r="398">
@@ -13974,10 +13974,10 @@
         <v>32.57922498942736</v>
       </c>
       <c r="I398" t="n">
-        <v>51.96610915917579</v>
+        <v>10.98925405987816</v>
       </c>
       <c r="J398" t="n">
-        <v>65.43962383058931</v>
+        <v>24.46276873129167</v>
       </c>
     </row>
     <row r="399">
@@ -14008,10 +14008,10 @@
         <v>39.79717955487904</v>
       </c>
       <c r="I399" t="n">
-        <v>51.96610980596276</v>
+        <v>10.98925470666512</v>
       </c>
       <c r="J399" t="n">
-        <v>58.22166926513763</v>
+        <v>17.24481416584</v>
       </c>
     </row>
     <row r="400">
@@ -14042,10 +14042,10 @@
         <v>46.08742563895296</v>
       </c>
       <c r="I400" t="n">
-        <v>47.46881173196839</v>
+        <v>6.491956632670757</v>
       </c>
       <c r="J400" t="n">
-        <v>51.93142318106372</v>
+        <v>10.95456808176608</v>
       </c>
     </row>
     <row r="401">
@@ -14076,10 +14076,10 @@
         <v>7.299546851585191</v>
       </c>
       <c r="I401" t="n">
-        <v>55.35452945058015</v>
+        <v>14.37767435128251</v>
       </c>
       <c r="J401" t="n">
-        <v>90.71930196843149</v>
+        <v>49.74244686913384</v>
       </c>
     </row>
     <row r="402">
@@ -14110,10 +14110,10 @@
         <v>42.07107425507466</v>
       </c>
       <c r="I402" t="n">
-        <v>47.46881257172923</v>
+        <v>6.491957472431594</v>
       </c>
       <c r="J402" t="n">
-        <v>55.94777456494202</v>
+        <v>14.97091946564437</v>
       </c>
     </row>
     <row r="403">
@@ -14144,10 +14144,10 @@
         <v>20.56133670782899</v>
       </c>
       <c r="I403" t="n">
-        <v>55.35452955861318</v>
+        <v>14.37767445931554</v>
       </c>
       <c r="J403" t="n">
-        <v>77.45751211218769</v>
+        <v>36.48065701289005</v>
       </c>
     </row>
     <row r="404">
@@ -14178,10 +14178,10 @@
         <v>19.35571944817046</v>
       </c>
       <c r="I404" t="n">
-        <v>55.35452945058015</v>
+        <v>14.37767435128251</v>
       </c>
       <c r="J404" t="n">
-        <v>78.66312937184622</v>
+        <v>37.68627427254857</v>
       </c>
     </row>
     <row r="405">
@@ -14212,10 +14212,10 @@
         <v>35.46640681560804</v>
       </c>
       <c r="I405" t="n">
-        <v>51.96610941789057</v>
+        <v>10.98925431859293</v>
       </c>
       <c r="J405" t="n">
-        <v>62.55244200440864</v>
+        <v>21.575586905111</v>
       </c>
     </row>
     <row r="406">
@@ -14246,10 +14246,10 @@
         <v>6.495802011812842</v>
       </c>
       <c r="I406" t="n">
-        <v>55.35452901844798</v>
+        <v>14.37767391915035</v>
       </c>
       <c r="J406" t="n">
-        <v>91.52304680820384</v>
+        <v>50.54619170890619</v>
       </c>
     </row>
     <row r="407">
@@ -14280,10 +14280,10 @@
         <v>10.91639863056078</v>
       </c>
       <c r="I407" t="n">
-        <v>55.35452977467926</v>
+        <v>14.37767467538163</v>
       </c>
       <c r="J407" t="n">
-        <v>87.10245018945591</v>
+        <v>46.12559509015826</v>
       </c>
     </row>
     <row r="408">
@@ -14314,10 +14314,10 @@
         <v>45.19490310920222</v>
       </c>
       <c r="I408" t="n">
-        <v>47.46881245176341</v>
+        <v>6.491957352465768</v>
       </c>
       <c r="J408" t="n">
-        <v>52.82394571081446</v>
+        <v>11.84709061151681</v>
       </c>
     </row>
     <row r="409">
@@ -14348,10 +14348,10 @@
         <v>26.58942300612164</v>
       </c>
       <c r="I409" t="n">
-        <v>55.35452901844799</v>
+        <v>14.37767391915035</v>
       </c>
       <c r="J409" t="n">
-        <v>71.42942581389504</v>
+        <v>30.4525707145974</v>
       </c>
     </row>
     <row r="410">
@@ -14382,10 +14382,10 @@
         <v>8.103291691357539</v>
       </c>
       <c r="I410" t="n">
-        <v>55.3545298827123</v>
+        <v>14.37767478341466</v>
       </c>
       <c r="J410" t="n">
-        <v>89.91555712865913</v>
+        <v>48.93870202936149</v>
       </c>
     </row>
     <row r="411">
@@ -14416,10 +14416,10 @@
         <v>47.87247069845441</v>
       </c>
       <c r="I411" t="n">
-        <v>47.46881269169508</v>
+        <v>6.491957592397448</v>
       </c>
       <c r="J411" t="n">
-        <v>50.14637812156227</v>
+        <v>9.169523022264627</v>
       </c>
     </row>
     <row r="412">
@@ -14450,10 +14450,10 @@
         <v>14.93512282942253</v>
       </c>
       <c r="I412" t="n">
-        <v>55.35452977467926</v>
+        <v>14.37767467538163</v>
       </c>
       <c r="J412" t="n">
-        <v>83.08372599059415</v>
+        <v>42.1068708912965</v>
       </c>
     </row>
     <row r="413">
@@ -14484,10 +14484,10 @@
         <v>18.15010218851194</v>
       </c>
       <c r="I413" t="n">
-        <v>55.35452934254711</v>
+        <v>14.37767424324947</v>
       </c>
       <c r="J413" t="n">
-        <v>79.86874663150473</v>
+        <v>38.8918915322071</v>
       </c>
     </row>
     <row r="414">
@@ -14518,10 +14518,10 @@
         <v>21.76695396748752</v>
       </c>
       <c r="I414" t="n">
-        <v>55.35452966664622</v>
+        <v>14.37767456734858</v>
       </c>
       <c r="J414" t="n">
-        <v>76.25189485252916</v>
+        <v>35.27503975323151</v>
       </c>
     </row>
     <row r="415">
@@ -14552,10 +14552,10 @@
         <v>16.14074008908107</v>
       </c>
       <c r="I415" t="n">
-        <v>55.35452988271229</v>
+        <v>14.37767478341465</v>
       </c>
       <c r="J415" t="n">
-        <v>81.87810873093561</v>
+        <v>40.90125363163796</v>
       </c>
     </row>
     <row r="416">
@@ -14586,10 +14586,10 @@
         <v>37.15059621421342</v>
       </c>
       <c r="I416" t="n">
-        <v>51.96610935321188</v>
+        <v>10.98925425391425</v>
       </c>
       <c r="J416" t="n">
-        <v>60.86825260580326</v>
+        <v>19.89139750650561</v>
       </c>
     </row>
     <row r="417">
@@ -14620,10 +14620,10 @@
         <v>38.59418712730375</v>
       </c>
       <c r="I417" t="n">
-        <v>51.96610948256929</v>
+        <v>10.98925438327166</v>
       </c>
       <c r="J417" t="n">
-        <v>59.42466169271293</v>
+        <v>18.44780659341529</v>
       </c>
     </row>
     <row r="418">
@@ -14654,10 +14654,10 @@
         <v>37.39119469972849</v>
       </c>
       <c r="I418" t="n">
-        <v>51.96610915917577</v>
+        <v>10.98925405987814</v>
       </c>
       <c r="J418" t="n">
-        <v>60.62765412028819</v>
+        <v>19.65079902099055</v>
       </c>
     </row>
     <row r="419">
@@ -14688,10 +14688,10 @@
         <v>24.17818848680458</v>
       </c>
       <c r="I419" t="n">
-        <v>55.3545298827123</v>
+        <v>14.37767478341466</v>
       </c>
       <c r="J419" t="n">
-        <v>73.8406603332121</v>
+        <v>32.86380523391446</v>
       </c>
     </row>
     <row r="420">
@@ -14722,10 +14722,10 @@
         <v>54.09913142465374</v>
       </c>
       <c r="I420" t="n">
-        <v>43.91971739536293</v>
+        <v>2.942862296065293</v>
       </c>
       <c r="J420" t="n">
-        <v>43.91971739536294</v>
+        <v>2.942862296065293</v>
       </c>
     </row>
     <row r="421">
@@ -14756,10 +14756,10 @@
         <v>34.5040128735478</v>
       </c>
       <c r="I421" t="n">
-        <v>51.966108900461</v>
+        <v>10.98925380116336</v>
       </c>
       <c r="J421" t="n">
-        <v>63.51483594646888</v>
+        <v>22.53798084717123</v>
       </c>
     </row>
     <row r="422">
@@ -14790,10 +14790,10 @@
         <v>3.888380881363958</v>
       </c>
       <c r="I422" t="n">
-        <v>59.77924833841436</v>
+        <v>18.80239323911672</v>
       </c>
       <c r="J422" t="n">
-        <v>94.13046793865273</v>
+        <v>53.15361283935508</v>
       </c>
     </row>
     <row r="423">
@@ -14824,10 +14824,10 @@
         <v>47.42620943357904</v>
       </c>
       <c r="I423" t="n">
-        <v>47.4688106522759</v>
+        <v>6.491955552978261</v>
       </c>
       <c r="J423" t="n">
-        <v>50.59263938643764</v>
+        <v>9.615784287139995</v>
       </c>
     </row>
     <row r="424">
@@ -14858,10 +14858,10 @@
         <v>27.39316784589398</v>
       </c>
       <c r="I424" t="n">
-        <v>55.35452945058015</v>
+        <v>14.37767435128251</v>
       </c>
       <c r="J424" t="n">
-        <v>70.6256809741227</v>
+        <v>29.64882587482505</v>
       </c>
     </row>
     <row r="425">
@@ -14892,10 +14892,10 @@
         <v>16.54261250896723</v>
       </c>
       <c r="I425" t="n">
-        <v>55.35452955861318</v>
+        <v>14.37767445931554</v>
       </c>
       <c r="J425" t="n">
-        <v>81.47623631104945</v>
+        <v>40.4993812117518</v>
       </c>
     </row>
     <row r="426">
@@ -14926,10 +14926,10 @@
         <v>19.75759186805665</v>
       </c>
       <c r="I426" t="n">
-        <v>55.35452912648102</v>
+        <v>14.37767402718338</v>
       </c>
       <c r="J426" t="n">
-        <v>78.26125695196002</v>
+        <v>37.28440185266238</v>
       </c>
     </row>
     <row r="427">
@@ -14960,10 +14960,10 @@
         <v>5.692057172040493</v>
       </c>
       <c r="I427" t="n">
-        <v>55.3545296666462</v>
+        <v>14.37767456734856</v>
       </c>
       <c r="J427" t="n">
-        <v>92.32679164797618</v>
+        <v>51.34993654867854</v>
       </c>
     </row>
     <row r="428">
@@ -14994,10 +14994,10 @@
         <v>17.34635734873959</v>
       </c>
       <c r="I428" t="n">
-        <v>55.35452999074533</v>
+        <v>14.3776748914477</v>
       </c>
       <c r="J428" t="n">
-        <v>80.67249147127708</v>
+        <v>39.69563637197945</v>
       </c>
     </row>
     <row r="429">
@@ -15028,10 +15028,10 @@
         <v>9.30890895101607</v>
       </c>
       <c r="I429" t="n">
-        <v>55.35452999074533</v>
+        <v>14.3776748914477</v>
       </c>
       <c r="J429" t="n">
-        <v>88.70993986900061</v>
+        <v>47.73308476970296</v>
       </c>
     </row>
     <row r="430">
@@ -15062,10 +15062,10 @@
         <v>20.15946428794282</v>
       </c>
       <c r="I430" t="n">
-        <v>55.35452988271229</v>
+        <v>14.37767478341465</v>
       </c>
       <c r="J430" t="n">
-        <v>77.85938453207385</v>
+        <v>36.88252943277621</v>
       </c>
     </row>
     <row r="431">
@@ -15096,10 +15096,10 @@
         <v>43.40985804970074</v>
       </c>
       <c r="I431" t="n">
-        <v>47.46881149203675</v>
+        <v>6.491956392739112</v>
       </c>
       <c r="J431" t="n">
-        <v>54.60899077031594</v>
+        <v>13.6321356710183</v>
       </c>
     </row>
     <row r="432">
@@ -15130,10 +15130,10 @@
         <v>7.701419271471367</v>
       </c>
       <c r="I432" t="n">
-        <v>55.35452912648102</v>
+        <v>14.37767402718338</v>
       </c>
       <c r="J432" t="n">
-        <v>90.31742954854532</v>
+        <v>49.34057444924767</v>
       </c>
     </row>
     <row r="433">
@@ -15164,10 +15164,10 @@
         <v>8.907036531129894</v>
       </c>
       <c r="I433" t="n">
-        <v>55.35452923451406</v>
+        <v>14.37767413521642</v>
       </c>
       <c r="J433" t="n">
-        <v>89.11181228888678</v>
+        <v>48.13495718958914</v>
       </c>
     </row>
     <row r="434">
@@ -15198,10 +15198,10 @@
         <v>51.14204303414726</v>
       </c>
       <c r="I434" t="n">
-        <v>44.07553587458012</v>
+        <v>3.098680775282482</v>
       </c>
       <c r="J434" t="n">
-        <v>46.87680578586942</v>
+        <v>5.899950686571778</v>
       </c>
     </row>
     <row r="435">
@@ -15232,10 +15232,10 @@
         <v>14.53325040953635</v>
       </c>
       <c r="I435" t="n">
-        <v>55.35452901844799</v>
+        <v>14.37767391915035</v>
       </c>
       <c r="J435" t="n">
-        <v>83.48559841048034</v>
+        <v>42.50874331118268</v>
       </c>
     </row>
     <row r="436">
@@ -15266,10 +15266,10 @@
         <v>22.1688263873737</v>
       </c>
       <c r="I436" t="n">
-        <v>55.35452934254711</v>
+        <v>14.37767424324947</v>
       </c>
       <c r="J436" t="n">
-        <v>75.85002243264297</v>
+        <v>34.87316733334534</v>
       </c>
     </row>
     <row r="437">
@@ -15300,10 +15300,10 @@
         <v>5.290184752154318</v>
       </c>
       <c r="I437" t="n">
-        <v>55.35452999074532</v>
+        <v>14.37767489144768</v>
       </c>
       <c r="J437" t="n">
-        <v>92.72866406786237</v>
+        <v>51.75180896856472</v>
       </c>
     </row>
     <row r="438">
@@ -15334,10 +15334,10 @@
         <v>52.54267911936657</v>
       </c>
       <c r="I438" t="n">
-        <v>44.07553474500544</v>
+        <v>3.098679645707804</v>
       </c>
       <c r="J438" t="n">
-        <v>45.4761697006501</v>
+        <v>4.499314601352467</v>
       </c>
     </row>
     <row r="439">
@@ -15368,10 +15368,10 @@
         <v>31.61683104736715</v>
       </c>
       <c r="I439" t="n">
-        <v>51.96610864174619</v>
+        <v>10.98925354244855</v>
       </c>
       <c r="J439" t="n">
-        <v>66.40201777264953</v>
+        <v>25.42516267335188</v>
       </c>
     </row>
     <row r="440">
@@ -15402,10 +15402,10 @@
         <v>15.73886766919489</v>
       </c>
       <c r="I440" t="n">
-        <v>55.35452912648102</v>
+        <v>14.37767402718338</v>
       </c>
       <c r="J440" t="n">
-        <v>82.2799811508218</v>
+        <v>41.30312605152415</v>
       </c>
     </row>
     <row r="441">
@@ -15436,10 +15436,10 @@
         <v>20.96320912771518</v>
       </c>
       <c r="I441" t="n">
-        <v>55.35452923451406</v>
+        <v>14.37767413521642</v>
       </c>
       <c r="J441" t="n">
-        <v>77.0556396923015</v>
+        <v>36.07878459300385</v>
       </c>
     </row>
     <row r="442">
@@ -15470,10 +15470,10 @@
         <v>25.78567816634929</v>
       </c>
       <c r="I442" t="n">
-        <v>55.35452966664621</v>
+        <v>14.37767456734858</v>
       </c>
       <c r="J442" t="n">
-        <v>72.23317065366739</v>
+        <v>31.25631555436975</v>
       </c>
     </row>
     <row r="443">
@@ -15504,10 +15504,10 @@
         <v>25.3838057464631</v>
       </c>
       <c r="I443" t="n">
-        <v>55.35452999074533</v>
+        <v>14.3776748914477</v>
       </c>
       <c r="J443" t="n">
-        <v>72.63504307355358</v>
+        <v>31.65818797425593</v>
       </c>
     </row>
     <row r="444">
@@ -15538,10 +15538,10 @@
         <v>30.1732401342768</v>
       </c>
       <c r="I444" t="n">
-        <v>51.96610980596278</v>
+        <v>10.98925470666514</v>
       </c>
       <c r="J444" t="n">
-        <v>67.84560868573989</v>
+        <v>26.86875358644224</v>
       </c>
     </row>
     <row r="445">
@@ -15572,10 +15572,10 @@
         <v>39.55658106936399</v>
       </c>
       <c r="I445" t="n">
-        <v>51.96610870642489</v>
+        <v>10.98925360712725</v>
       </c>
       <c r="J445" t="n">
-        <v>58.46226775065269</v>
+        <v>17.48541265135504</v>
       </c>
     </row>
     <row r="446">
@@ -15606,10 +15606,10 @@
         <v>23.77631606691841</v>
       </c>
       <c r="I446" t="n">
-        <v>55.35452912648102</v>
+        <v>14.37767402718338</v>
       </c>
       <c r="J446" t="n">
-        <v>74.24253275309826</v>
+        <v>33.26567765380062</v>
       </c>
     </row>
     <row r="447">
@@ -15640,10 +15640,10 @@
         <v>40.75957349693927</v>
       </c>
       <c r="I447" t="n">
-        <v>51.96610902981837</v>
+        <v>10.98925393052073</v>
       </c>
       <c r="J447" t="n">
-        <v>57.25927532307741</v>
+        <v>16.28242022377977</v>
       </c>
     </row>
     <row r="448">
@@ -15674,10 +15674,10 @@
         <v>37.63179318524352</v>
       </c>
       <c r="I448" t="n">
-        <v>51.9661089651397</v>
+        <v>10.98925386584207</v>
       </c>
       <c r="J448" t="n">
-        <v>60.38705563477316</v>
+        <v>19.41020053547552</v>
       </c>
     </row>
     <row r="449">
@@ -15708,10 +15708,10 @@
         <v>11.72014347033313</v>
       </c>
       <c r="I449" t="n">
-        <v>55.35452912648102</v>
+        <v>14.37767402718338</v>
       </c>
       <c r="J449" t="n">
-        <v>86.29870534968354</v>
+        <v>45.32185025038591</v>
       </c>
     </row>
     <row r="450">
@@ -15742,10 +15742,10 @@
         <v>46.97994816870368</v>
       </c>
       <c r="I450" t="n">
-        <v>47.4688110121734</v>
+        <v>6.491955912875767</v>
       </c>
       <c r="J450" t="n">
-        <v>51.03890065131301</v>
+        <v>10.06204555201536</v>
       </c>
     </row>
     <row r="451">
@@ -15776,10 +15776,10 @@
         <v>28.05949009335432</v>
       </c>
       <c r="I451" t="n">
-        <v>52.63220546092457</v>
+        <v>11.65535036162694</v>
       </c>
       <c r="J451" t="n">
-        <v>69.95935872666236</v>
+        <v>28.98250362736471</v>
       </c>
     </row>
     <row r="452">
@@ -15810,10 +15810,10 @@
         <v>38.83478561281881</v>
       </c>
       <c r="I452" t="n">
-        <v>51.96610928853318</v>
+        <v>10.98925418923555</v>
       </c>
       <c r="J452" t="n">
-        <v>59.18406320719787</v>
+        <v>18.20720810790022</v>
       </c>
     </row>
     <row r="453">
@@ -15844,10 +15844,10 @@
         <v>41.17855172532391</v>
       </c>
       <c r="I453" t="n">
-        <v>47.46881089220758</v>
+        <v>6.491955792909941</v>
       </c>
       <c r="J453" t="n">
-        <v>56.84029709469276</v>
+        <v>15.86344199539512</v>
       </c>
     </row>
     <row r="454">
@@ -15878,10 +15878,10 @@
         <v>39.31598258384892</v>
       </c>
       <c r="I454" t="n">
-        <v>51.96610890046099</v>
+        <v>10.98925380116336</v>
       </c>
       <c r="J454" t="n">
-        <v>58.70286623616776</v>
+        <v>17.72601113687011</v>
       </c>
     </row>
     <row r="455">
@@ -15912,10 +15912,10 @@
         <v>23.37444364703222</v>
       </c>
       <c r="I455" t="n">
-        <v>55.35452945058015</v>
+        <v>14.37767435128251</v>
       </c>
       <c r="J455" t="n">
-        <v>74.64440517298446</v>
+        <v>33.66755007368681</v>
       </c>
     </row>
     <row r="456">
@@ -15946,10 +15946,10 @@
         <v>11.31827105044695</v>
       </c>
       <c r="I456" t="n">
-        <v>55.35452945058013</v>
+        <v>14.37767435128249</v>
       </c>
       <c r="J456" t="n">
-        <v>86.70057776956973</v>
+        <v>45.72372267027208</v>
       </c>
     </row>
     <row r="457">
@@ -15980,10 +15980,10 @@
         <v>43.85611931457612</v>
       </c>
       <c r="I457" t="n">
-        <v>47.46881113213924</v>
+        <v>6.491956032841607</v>
       </c>
       <c r="J457" t="n">
-        <v>54.16272950544056</v>
+        <v>13.18587440614291</v>
       </c>
     </row>
     <row r="458">
@@ -16014,10 +16014,10 @@
         <v>28.99609297938832</v>
       </c>
       <c r="I458" t="n">
-        <v>52.63220596448761</v>
+        <v>11.65535086518997</v>
       </c>
       <c r="J458" t="n">
-        <v>69.02275584062836</v>
+        <v>28.04590074133072</v>
       </c>
     </row>
     <row r="459">
@@ -16048,10 +16048,10 @@
         <v>26.99129542600782</v>
       </c>
       <c r="I459" t="n">
-        <v>55.35452977467923</v>
+        <v>14.37767467538159</v>
       </c>
       <c r="J459" t="n">
-        <v>71.02755339400885</v>
+        <v>30.05069829471121</v>
       </c>
     </row>
     <row r="460">
@@ -16082,10 +16082,10 @@
         <v>16.94448492885342</v>
       </c>
       <c r="I460" t="n">
-        <v>55.35452923451406</v>
+        <v>14.37767413521642</v>
       </c>
       <c r="J460" t="n">
-        <v>81.07436389116326</v>
+        <v>40.09750879186561</v>
       </c>
     </row>
     <row r="461">
@@ -16116,10 +16116,10 @@
         <v>42.96359678482541</v>
       </c>
       <c r="I461" t="n">
-        <v>47.46881185193421</v>
+        <v>6.491956752636575</v>
       </c>
       <c r="J461" t="n">
-        <v>55.05525203519127</v>
+        <v>14.07839693589362</v>
       </c>
     </row>
     <row r="462">
@@ -16150,10 +16150,10 @@
         <v>8.505164111243721</v>
       </c>
       <c r="I462" t="n">
-        <v>55.35452955861316</v>
+        <v>14.37767445931552</v>
       </c>
       <c r="J462" t="n">
-        <v>89.51368470877294</v>
+        <v>48.53682960947531</v>
       </c>
     </row>
     <row r="463">
@@ -16184,10 +16184,10 @@
         <v>3.172730456993646</v>
       </c>
       <c r="I463" t="n">
-        <v>59.77924795364602</v>
+        <v>18.80239285434838</v>
       </c>
       <c r="J463" t="n">
-        <v>94.84611836302302</v>
+        <v>53.86926326372539</v>
       </c>
     </row>
     <row r="464">
@@ -16218,10 +16218,10 @@
         <v>12.12201589021931</v>
       </c>
       <c r="I464" t="n">
-        <v>55.35452988271228</v>
+        <v>14.37767478341465</v>
       </c>
       <c r="J464" t="n">
-        <v>85.89683292979737</v>
+        <v>44.91997783049973</v>
       </c>
     </row>
     <row r="465">
@@ -16252,10 +16252,10 @@
         <v>18.95384702828429</v>
       </c>
       <c r="I465" t="n">
-        <v>55.35452977467926</v>
+        <v>14.37767467538163</v>
       </c>
       <c r="J465" t="n">
-        <v>79.06500179173239</v>
+        <v>38.08814669243475</v>
       </c>
     </row>
     <row r="466">
@@ -16286,10 +16286,10 @@
         <v>38.3535886417887</v>
       </c>
       <c r="I466" t="n">
-        <v>51.96610967660537</v>
+        <v>10.98925457730773</v>
       </c>
       <c r="J466" t="n">
-        <v>59.66526017822798</v>
+        <v>18.68840507893034</v>
       </c>
     </row>
     <row r="467">
@@ -16320,10 +16320,10 @@
         <v>41.62481299019927</v>
       </c>
       <c r="I467" t="n">
-        <v>47.46881053231008</v>
+        <v>6.491955433012443</v>
       </c>
       <c r="J467" t="n">
-        <v>56.39403582981741</v>
+        <v>15.41718073051977</v>
       </c>
     </row>
     <row r="468">
@@ -16354,10 +16354,10 @@
         <v>12.92576072999166</v>
       </c>
       <c r="I468" t="n">
-        <v>55.35452923451406</v>
+        <v>14.37767413521642</v>
       </c>
       <c r="J468" t="n">
-        <v>85.09308809002502</v>
+        <v>44.11623299072738</v>
       </c>
     </row>
     <row r="469">
@@ -16388,10 +16388,10 @@
         <v>32.09802801839726</v>
       </c>
       <c r="I469" t="n">
-        <v>51.96610954724797</v>
+        <v>10.98925444795034</v>
       </c>
       <c r="J469" t="n">
-        <v>65.92082080161943</v>
+        <v>24.94396570232178</v>
       </c>
     </row>
     <row r="470">
@@ -16422,10 +16422,10 @@
         <v>40.03777804039409</v>
       </c>
       <c r="I470" t="n">
-        <v>51.96610961192667</v>
+        <v>10.98925451262903</v>
       </c>
       <c r="J470" t="n">
-        <v>57.98107077962258</v>
+        <v>17.00421568032495</v>
       </c>
     </row>
     <row r="471">
@@ -16456,10 +16456,10 @@
         <v>-26.2926458639519</v>
       </c>
       <c r="I471" t="n">
-        <v>43.43453189852782</v>
+        <v>2.457676799230185</v>
       </c>
       <c r="J471" t="n">
-        <v>124.3114946839686</v>
+        <v>83.33463958467094</v>
       </c>
     </row>
     <row r="472">
@@ -16490,10 +16490,10 @@
         <v>46.49662064294477</v>
       </c>
       <c r="I472" t="n">
-        <v>43.43453842103361</v>
+        <v>2.457683321735978</v>
       </c>
       <c r="J472" t="n">
-        <v>51.52222817707191</v>
+        <v>10.54537307777426</v>
       </c>
     </row>
     <row r="473">
@@ -16524,10 +16524,10 @@
         <v>54.58431692148883</v>
       </c>
       <c r="I473" t="n">
-        <v>43.43453189852784</v>
+        <v>2.457676799230207</v>
       </c>
       <c r="J473" t="n">
-        <v>43.43453189852784</v>
+        <v>2.457676799230207</v>
       </c>
     </row>
     <row r="474">
@@ -16558,10 +16558,10 @@
         <v>-66.73112725667228</v>
       </c>
       <c r="I474" t="n">
-        <v>43.43454276937081</v>
+        <v>2.457687670073177</v>
       </c>
       <c r="J474" t="n">
-        <v>164.749976076689</v>
+        <v>123.7731209773913</v>
       </c>
     </row>
     <row r="475">
@@ -16592,10 +16592,10 @@
         <v>14.14583552876845</v>
       </c>
       <c r="I475" t="n">
-        <v>43.43454276937081</v>
+        <v>2.457687670073177</v>
       </c>
       <c r="J475" t="n">
-        <v>83.87301329124823</v>
+        <v>42.89615819195058</v>
       </c>
     </row>
     <row r="476">
@@ -16626,10 +16626,10 @@
         <v>34.36507622512864</v>
       </c>
       <c r="I476" t="n">
-        <v>43.43454820479231</v>
+        <v>2.457693105494677</v>
       </c>
       <c r="J476" t="n">
-        <v>63.65377259488804</v>
+        <v>22.67691749559039</v>
       </c>
     </row>
     <row r="477">
@@ -16660,10 +16660,10 @@
         <v>26.07215435105789</v>
       </c>
       <c r="I477" t="n">
-        <v>68.63737221680464</v>
+        <v>27.66051711750699</v>
       </c>
       <c r="J477" t="n">
-        <v>71.94669446895878</v>
+        <v>30.96983936966114</v>
       </c>
     </row>
     <row r="478">
@@ -16694,10 +16694,10 @@
         <v>29.05054437799662</v>
       </c>
       <c r="I478" t="n">
-        <v>68.63737248369243</v>
+        <v>27.66051738439479</v>
       </c>
       <c r="J478" t="n">
-        <v>68.96830444202006</v>
+        <v>27.99144934272242</v>
       </c>
     </row>
     <row r="479">
@@ -16728,10 +16728,10 @@
         <v>29.38147660321204</v>
       </c>
       <c r="I479" t="n">
-        <v>68.63737221680464</v>
+        <v>27.66051711750699</v>
       </c>
       <c r="J479" t="n">
-        <v>68.63737221680464</v>
+        <v>27.66051711750699</v>
       </c>
     </row>
     <row r="480">
@@ -16762,10 +16762,10 @@
         <v>24.41749322498081</v>
       </c>
       <c r="I480" t="n">
-        <v>68.63737266161762</v>
+        <v>27.66051756231998</v>
       </c>
       <c r="J480" t="n">
-        <v>73.60135559503587</v>
+        <v>32.62450049573822</v>
       </c>
     </row>
     <row r="481">
@@ -16796,10 +16796,10 @@
         <v>27.72681547713496</v>
       </c>
       <c r="I481" t="n">
-        <v>68.6373726616176</v>
+        <v>27.66051756231997</v>
       </c>
       <c r="J481" t="n">
-        <v>70.29203334288171</v>
+        <v>29.31517824358408</v>
       </c>
     </row>
     <row r="482">
@@ -16830,10 +16830,10 @@
         <v>28.5541460401735</v>
       </c>
       <c r="I482" t="n">
-        <v>68.63737288402409</v>
+        <v>27.66051778472645</v>
       </c>
       <c r="J482" t="n">
-        <v>69.46470277984317</v>
+        <v>28.48784768054553</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/results/plots/results-Fig1.xlsx
+++ b/benchmarks/results/plots/results-Fig1.xlsx
@@ -513,7 +513,7 @@
         <v>57.04199372071903</v>
       </c>
       <c r="J2" t="n">
-        <v>57.04199372071903</v>
+        <v>57041993720.71903</v>
       </c>
     </row>
     <row r="3">
@@ -541,13 +541,13 @@
         <v>1106.759678093673</v>
       </c>
       <c r="H3" t="n">
-        <v>41.7695395283253</v>
+        <v>41769539528.3253</v>
       </c>
       <c r="I3" t="n">
         <v>4.568153710662557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.27245419239373</v>
+        <v>15272454192.39373</v>
       </c>
     </row>
     <row r="4">
@@ -575,13 +575,13 @@
         <v>1235.52442543919</v>
       </c>
       <c r="H4" t="n">
-        <v>46.24276153182451</v>
+        <v>46242761531.82452</v>
       </c>
       <c r="I4" t="n">
         <v>3.905185663747737</v>
       </c>
       <c r="J4" t="n">
-        <v>10.79923218889452</v>
+        <v>10799232188.89452</v>
       </c>
     </row>
     <row r="5">
@@ -609,13 +609,13 @@
         <v>5053.366062615753</v>
       </c>
       <c r="H5" t="n">
-        <v>56.18911791337925</v>
+        <v>56189117913.37925</v>
       </c>
       <c r="I5" t="n">
         <v>0.8528758073397853</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8528758073397853</v>
+        <v>852875807.3397827</v>
       </c>
     </row>
     <row r="6">
@@ -643,13 +643,13 @@
         <v>1170.645443664017</v>
       </c>
       <c r="H6" t="n">
-        <v>44.3560417844061</v>
+        <v>44356041784.4061</v>
       </c>
       <c r="I6" t="n">
         <v>4.412045690450931</v>
       </c>
       <c r="J6" t="n">
-        <v>12.68595193631293</v>
+        <v>12685951936.31293</v>
       </c>
     </row>
     <row r="7">
@@ -677,13 +677,13 @@
         <v>937.0502708021635</v>
       </c>
       <c r="H7" t="n">
-        <v>30.67925701714791</v>
+        <v>30679257017.14791</v>
       </c>
       <c r="I7" t="n">
         <v>6.842614467927547</v>
       </c>
       <c r="J7" t="n">
-        <v>26.36273670357112</v>
+        <v>26362736703.57112</v>
       </c>
     </row>
     <row r="8">
@@ -711,13 +711,13 @@
         <v>1413.502336575855</v>
       </c>
       <c r="H8" t="n">
-        <v>49.74298836873362</v>
+        <v>49742988368.73362</v>
       </c>
       <c r="I8" t="n">
         <v>3.092532086116982</v>
       </c>
       <c r="J8" t="n">
-        <v>7.299005351985414</v>
+        <v>7299005351.985413</v>
       </c>
     </row>
     <row r="9">
@@ -745,13 +745,13 @@
         <v>1919.45458658884</v>
       </c>
       <c r="H9" t="n">
-        <v>51.71546452726919</v>
+        <v>51715464527.26919</v>
       </c>
       <c r="I9" t="n">
         <v>2.113445999692836</v>
       </c>
       <c r="J9" t="n">
-        <v>5.326529193449844</v>
+        <v>5326529193.449844</v>
       </c>
     </row>
     <row r="10">
@@ -779,13 +779,13 @@
         <v>988.7911833010349</v>
       </c>
       <c r="H10" t="n">
-        <v>32.24704844366209</v>
+        <v>32247048443.66209</v>
       </c>
       <c r="I10" t="n">
         <v>6.403908831381607</v>
       </c>
       <c r="J10" t="n">
-        <v>24.79494527705695</v>
+        <v>24794945277.05694</v>
       </c>
     </row>
     <row r="11">
@@ -813,13 +813,13 @@
         <v>1166.101068710519</v>
       </c>
       <c r="H11" t="n">
-        <v>44.57261520219429</v>
+        <v>44572615202.19429</v>
       </c>
       <c r="I11" t="n">
         <v>4.444480220495734</v>
       </c>
       <c r="J11" t="n">
-        <v>12.46937851852474</v>
+        <v>12469378518.52474</v>
       </c>
     </row>
     <row r="12">
@@ -847,13 +847,13 @@
         <v>1168.418497121742</v>
       </c>
       <c r="H12" t="n">
-        <v>45.16864240208564</v>
+        <v>45168642402.08564</v>
       </c>
       <c r="I12" t="n">
         <v>4.267145241410745</v>
       </c>
       <c r="J12" t="n">
-        <v>11.8733513186334</v>
+        <v>11873351318.63339</v>
       </c>
     </row>
     <row r="13">
@@ -881,13 +881,13 @@
         <v>1080.754762167668</v>
       </c>
       <c r="H13" t="n">
-        <v>39.93603060730549</v>
+        <v>39936030607.30549</v>
       </c>
       <c r="I13" t="n">
         <v>4.643024179052986</v>
       </c>
       <c r="J13" t="n">
-        <v>17.10596311341354</v>
+        <v>17105963113.41354</v>
       </c>
     </row>
     <row r="14">
@@ -915,13 +915,13 @@
         <v>1067.608708158707</v>
       </c>
       <c r="H14" t="n">
-        <v>39.27344763039705</v>
+        <v>39273447630.39705</v>
       </c>
       <c r="I14" t="n">
         <v>4.662923330513188</v>
       </c>
       <c r="J14" t="n">
-        <v>17.76854609032198</v>
+        <v>17768546090.32198</v>
       </c>
     </row>
     <row r="15">
@@ -949,13 +949,13 @@
         <v>1238.874500432424</v>
       </c>
       <c r="H15" t="n">
-        <v>47.1630973166035</v>
+        <v>47163097316.6035</v>
       </c>
       <c r="I15" t="n">
         <v>3.887855542098848</v>
       </c>
       <c r="J15" t="n">
-        <v>9.878896404115537</v>
+        <v>9878896404.115532</v>
       </c>
     </row>
     <row r="16">
@@ -983,13 +983,13 @@
         <v>955.0429197900118</v>
       </c>
       <c r="H16" t="n">
-        <v>17.89888037703814</v>
+        <v>17898880377.03814</v>
       </c>
       <c r="I16" t="n">
         <v>7.169110141580262</v>
       </c>
       <c r="J16" t="n">
-        <v>39.14311334368089</v>
+        <v>39143113343.68089</v>
       </c>
     </row>
     <row r="17">
@@ -1017,13 +1017,13 @@
         <v>967.0316207163371</v>
       </c>
       <c r="H17" t="n">
-        <v>26.46311080579538</v>
+        <v>26463110805.79538</v>
       </c>
       <c r="I17" t="n">
         <v>6.836941656739725</v>
       </c>
       <c r="J17" t="n">
-        <v>30.57888291492365</v>
+        <v>30578882914.92365</v>
       </c>
     </row>
     <row r="18">
@@ -1051,13 +1051,13 @@
         <v>1045.492543833211</v>
       </c>
       <c r="H18" t="n">
-        <v>36.87448745967752</v>
+        <v>36874487459.67752</v>
       </c>
       <c r="I18" t="n">
         <v>5.388809029966907</v>
       </c>
       <c r="J18" t="n">
-        <v>20.16750626104152</v>
+        <v>20167506261.04151</v>
       </c>
     </row>
     <row r="19">
@@ -1085,13 +1085,13 @@
         <v>980.6264559300182</v>
       </c>
       <c r="H19" t="n">
-        <v>30.88730496256219</v>
+        <v>30887304962.56219</v>
       </c>
       <c r="I19" t="n">
         <v>6.456378163572268</v>
       </c>
       <c r="J19" t="n">
-        <v>26.15468875815684</v>
+        <v>26154688758.15684</v>
       </c>
     </row>
     <row r="20">
@@ -1119,13 +1119,13 @@
         <v>1138.259609497438</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75570340940676</v>
+        <v>42755703409.40675</v>
       </c>
       <c r="I20" t="n">
         <v>4.547595038171082</v>
       </c>
       <c r="J20" t="n">
-        <v>14.28629031131227</v>
+        <v>14286290311.31228</v>
       </c>
     </row>
     <row r="21">
@@ -1153,13 +1153,13 @@
         <v>1382.154680233673</v>
       </c>
       <c r="H21" t="n">
-        <v>49.49099725518467</v>
+        <v>49490997255.18467</v>
       </c>
       <c r="I21" t="n">
         <v>3.180737325288874</v>
       </c>
       <c r="J21" t="n">
-        <v>7.550996465534361</v>
+        <v>7550996465.534363</v>
       </c>
     </row>
     <row r="22">
@@ -1187,13 +1187,13 @@
         <v>1162.338757247657</v>
       </c>
       <c r="H22" t="n">
-        <v>44.80996664400132</v>
+        <v>44809966644.00132</v>
       </c>
       <c r="I22" t="n">
         <v>4.449209702534425</v>
       </c>
       <c r="J22" t="n">
-        <v>12.23202707671771</v>
+        <v>12232027076.71771</v>
       </c>
     </row>
     <row r="23">
@@ -1221,13 +1221,13 @@
         <v>1397.686365070959</v>
       </c>
       <c r="H23" t="n">
-        <v>48.75303984215779</v>
+        <v>48753039842.15779</v>
       </c>
       <c r="I23" t="n">
         <v>3.089696176074682</v>
       </c>
       <c r="J23" t="n">
-        <v>8.288953878561244</v>
+        <v>8288953878.561241</v>
       </c>
     </row>
     <row r="24">
@@ -1255,13 +1255,13 @@
         <v>1578.754953372791</v>
       </c>
       <c r="H24" t="n">
-        <v>50.290697075671</v>
+        <v>50290697075.671</v>
       </c>
       <c r="I24" t="n">
         <v>2.933966708292438</v>
       </c>
       <c r="J24" t="n">
-        <v>6.751296645048036</v>
+        <v>6751296645.048035</v>
       </c>
     </row>
     <row r="25">
@@ -1289,13 +1289,13 @@
         <v>937.3740766768691</v>
       </c>
       <c r="H25" t="n">
-        <v>29.6528357066311</v>
+        <v>29652835706.6311</v>
       </c>
       <c r="I25" t="n">
         <v>6.816208238368091</v>
       </c>
       <c r="J25" t="n">
-        <v>27.38915801408793</v>
+        <v>27389158014.08793</v>
       </c>
     </row>
     <row r="26">
@@ -1323,13 +1323,13 @@
         <v>979.1804257589636</v>
       </c>
       <c r="H26" t="n">
-        <v>29.51142221418769</v>
+        <v>29511422214.18769</v>
       </c>
       <c r="I26" t="n">
         <v>6.404325527263481</v>
       </c>
       <c r="J26" t="n">
-        <v>27.53057150653134</v>
+        <v>27530571506.53134</v>
       </c>
     </row>
     <row r="27">
@@ -1357,13 +1357,13 @@
         <v>1416.046159295469</v>
       </c>
       <c r="H27" t="n">
-        <v>51.35410237214358</v>
+        <v>51354102372.14358</v>
       </c>
       <c r="I27" t="n">
         <v>2.527358734914436</v>
       </c>
       <c r="J27" t="n">
-        <v>5.687891348575455</v>
+        <v>5687891348.575455</v>
       </c>
     </row>
     <row r="28">
@@ -1391,13 +1391,13 @@
         <v>1032.26529530821</v>
       </c>
       <c r="H28" t="n">
-        <v>35.47868959773201</v>
+        <v>35478689597.73202</v>
       </c>
       <c r="I28" t="n">
         <v>5.435611693972852</v>
       </c>
       <c r="J28" t="n">
-        <v>21.56330412298703</v>
+        <v>21563304122.98701</v>
       </c>
     </row>
     <row r="29">
@@ -1425,13 +1425,13 @@
         <v>1358.388935514787</v>
       </c>
       <c r="H29" t="n">
-        <v>48.36898599809631</v>
+        <v>48368985998.09631</v>
       </c>
       <c r="I29" t="n">
         <v>3.114625138595635</v>
       </c>
       <c r="J29" t="n">
-        <v>8.673007722622721</v>
+        <v>8673007722.622719</v>
       </c>
     </row>
     <row r="30">
@@ -1459,13 +1459,13 @@
         <v>994.9193248779019</v>
       </c>
       <c r="H30" t="n">
-        <v>33.30021513864154</v>
+        <v>33300215138.64154</v>
       </c>
       <c r="I30" t="n">
         <v>6.347062689632473</v>
       </c>
       <c r="J30" t="n">
-        <v>23.74177858207749</v>
+        <v>23741778582.07749</v>
       </c>
     </row>
     <row r="31">
@@ -1493,13 +1493,13 @@
         <v>1088.5022127427</v>
       </c>
       <c r="H31" t="n">
-        <v>40.77509555839653</v>
+        <v>40775095558.39653</v>
       </c>
       <c r="I31" t="n">
         <v>4.929354751595532</v>
       </c>
       <c r="J31" t="n">
-        <v>16.26689816232251</v>
+        <v>16266898162.3225</v>
       </c>
     </row>
     <row r="32">
@@ -1527,13 +1527,13 @@
         <v>973.926099733616</v>
       </c>
       <c r="H32" t="n">
-        <v>25.93856094899037</v>
+        <v>25938560948.99037</v>
       </c>
       <c r="I32" t="n">
         <v>6.829931616540257</v>
       </c>
       <c r="J32" t="n">
-        <v>31.10343277172866</v>
+        <v>31103432771.72866</v>
       </c>
     </row>
     <row r="33">
@@ -1561,13 +1561,13 @@
         <v>979.393993663985</v>
       </c>
       <c r="H33" t="n">
-        <v>23.11020371636913</v>
+        <v>23110203716.36913</v>
       </c>
       <c r="I33" t="n">
         <v>6.607410090255122</v>
       </c>
       <c r="J33" t="n">
-        <v>33.93179000434991</v>
+        <v>33931790004.3499</v>
       </c>
     </row>
     <row r="34">
@@ -1595,13 +1595,13 @@
         <v>1088.190248358078</v>
       </c>
       <c r="H34" t="n">
-        <v>42.23986144392123</v>
+        <v>42239861443.92123</v>
       </c>
       <c r="I34" t="n">
         <v>4.682226853202913</v>
       </c>
       <c r="J34" t="n">
-        <v>14.80213227679781</v>
+        <v>14802132276.79781</v>
       </c>
     </row>
     <row r="35">
@@ -1629,13 +1629,13 @@
         <v>1272.181282348886</v>
       </c>
       <c r="H35" t="n">
-        <v>47.51268931154627</v>
+        <v>47512689311.54627</v>
       </c>
       <c r="I35" t="n">
         <v>3.850435246668596</v>
       </c>
       <c r="J35" t="n">
-        <v>9.529304409172767</v>
+        <v>9529304409.17276</v>
       </c>
     </row>
     <row r="36">
@@ -1663,13 +1663,13 @@
         <v>983.5377874640116</v>
       </c>
       <c r="H36" t="n">
-        <v>28.10870595748798</v>
+        <v>28108705957.48798</v>
       </c>
       <c r="I36" t="n">
         <v>6.615430249406543</v>
       </c>
       <c r="J36" t="n">
-        <v>28.93328776323105</v>
+        <v>28933287763.23105</v>
       </c>
     </row>
     <row r="37">
@@ -1697,13 +1697,13 @@
         <v>1006.562769785307</v>
       </c>
       <c r="H37" t="n">
-        <v>33.43732973795723</v>
+        <v>33437329737.95723</v>
       </c>
       <c r="I37" t="n">
         <v>6.380810994503527</v>
       </c>
       <c r="J37" t="n">
-        <v>23.60466398276181</v>
+        <v>23604663982.7618</v>
       </c>
     </row>
     <row r="38">
@@ -1731,13 +1731,13 @@
         <v>889.6259531912921</v>
       </c>
       <c r="H38" t="n">
-        <v>-330932225215385.3</v>
+        <v>-3.309322252153853e+23</v>
       </c>
       <c r="I38" t="n">
         <v>27.71542015271903</v>
       </c>
       <c r="J38" t="n">
-        <v>330932225215442.4</v>
+        <v>3.309322252154423e+23</v>
       </c>
     </row>
     <row r="39">
@@ -1765,13 +1765,13 @@
         <v>990.1835324240741</v>
       </c>
       <c r="H39" t="n">
-        <v>31.44759329369208</v>
+        <v>31447593293.69208</v>
       </c>
       <c r="I39" t="n">
         <v>6.440789624389431</v>
       </c>
       <c r="J39" t="n">
-        <v>25.59440042702695</v>
+        <v>25594400427.02695</v>
       </c>
     </row>
     <row r="40">
@@ -1799,13 +1799,13 @@
         <v>970.9919338524003</v>
       </c>
       <c r="H40" t="n">
-        <v>24.51555561391069</v>
+        <v>24515555613.91069</v>
       </c>
       <c r="I40" t="n">
         <v>6.520068291272267</v>
       </c>
       <c r="J40" t="n">
-        <v>32.52643810680834</v>
+        <v>32526438106.80834</v>
       </c>
     </row>
     <row r="41">
@@ -1833,13 +1833,13 @@
         <v>1033.231993233353</v>
       </c>
       <c r="H41" t="n">
-        <v>37.77822655559574</v>
+        <v>37778226555.59573</v>
       </c>
       <c r="I41" t="n">
         <v>5.427085116354277</v>
       </c>
       <c r="J41" t="n">
-        <v>19.2637671651233</v>
+        <v>19263767165.1233</v>
       </c>
     </row>
     <row r="42">
@@ -1867,13 +1867,13 @@
         <v>1075.048137700258</v>
       </c>
       <c r="H42" t="n">
-        <v>39.59686927830654</v>
+        <v>39596869278.30653</v>
       </c>
       <c r="I42" t="n">
         <v>4.648085106170583</v>
       </c>
       <c r="J42" t="n">
-        <v>17.44512444241249</v>
+        <v>17445124442.4125</v>
       </c>
     </row>
     <row r="43">
@@ -1901,13 +1901,13 @@
         <v>988.7508114013762</v>
       </c>
       <c r="H43" t="n">
-        <v>30.33747935645204</v>
+        <v>30337479356.45204</v>
       </c>
       <c r="I43" t="n">
         <v>6.475200261552722</v>
       </c>
       <c r="J43" t="n">
-        <v>26.70451436426699</v>
+        <v>26704514364.26699</v>
       </c>
     </row>
     <row r="44">
@@ -1935,13 +1935,13 @@
         <v>983.490322798844</v>
       </c>
       <c r="H44" t="n">
-        <v>31.94883193081232</v>
+        <v>31948831930.81232</v>
       </c>
       <c r="I44" t="n">
         <v>6.434869918429733</v>
       </c>
       <c r="J44" t="n">
-        <v>25.09316178990671</v>
+        <v>25093161789.90671</v>
       </c>
     </row>
     <row r="45">
@@ -1969,13 +1969,13 @@
         <v>989.9916572257368</v>
       </c>
       <c r="H45" t="n">
-        <v>27.26272677340766</v>
+        <v>27262726773.40766</v>
       </c>
       <c r="I45" t="n">
         <v>6.578427452470727</v>
       </c>
       <c r="J45" t="n">
-        <v>29.77926694731137</v>
+        <v>29779266947.31137</v>
       </c>
     </row>
     <row r="46">
@@ -2003,13 +2003,13 @@
         <v>973.4564566204454</v>
       </c>
       <c r="H46" t="n">
-        <v>26.90992848104249</v>
+        <v>26909928481.04249</v>
       </c>
       <c r="I46" t="n">
         <v>6.594501882890071</v>
       </c>
       <c r="J46" t="n">
-        <v>30.13206523967655</v>
+        <v>30132065239.67654</v>
       </c>
     </row>
     <row r="47">
@@ -2037,13 +2037,13 @@
         <v>1032.714974108675</v>
       </c>
       <c r="H47" t="n">
-        <v>38.17118217389679</v>
+        <v>38171182173.89679</v>
       </c>
       <c r="I47" t="n">
         <v>5.425213190661012</v>
       </c>
       <c r="J47" t="n">
-        <v>18.87081154682225</v>
+        <v>18870811546.82224</v>
       </c>
     </row>
     <row r="48">
@@ -2071,13 +2071,13 @@
         <v>1089.876847379389</v>
       </c>
       <c r="H48" t="n">
-        <v>39.82403126653966</v>
+        <v>39824031266.53966</v>
       </c>
       <c r="I48" t="n">
         <v>5.055253991587975</v>
       </c>
       <c r="J48" t="n">
-        <v>17.21796245417937</v>
+        <v>17217962454.17937</v>
       </c>
     </row>
     <row r="49">
@@ -2105,13 +2105,13 @@
         <v>3887.889957900055</v>
       </c>
       <c r="H49" t="n">
-        <v>55.41830381850417</v>
+        <v>55418303818.50417</v>
       </c>
       <c r="I49" t="n">
         <v>0.9005612263117513</v>
       </c>
       <c r="J49" t="n">
-        <v>1.623689902214863</v>
+        <v>1623689902.214859</v>
       </c>
     </row>
     <row r="50">
@@ -2139,13 +2139,13 @@
         <v>974.0311645508162</v>
       </c>
       <c r="H50" t="n">
-        <v>28.04091690126657</v>
+        <v>28040916901.26657</v>
       </c>
       <c r="I50" t="n">
         <v>6.536607822594803</v>
       </c>
       <c r="J50" t="n">
-        <v>29.00107681945246</v>
+        <v>29001076819.45246</v>
       </c>
     </row>
     <row r="51">
@@ -2173,13 +2173,13 @@
         <v>1035.398108396834</v>
       </c>
       <c r="H51" t="n">
-        <v>44.48650078363541</v>
+        <v>44486500783.63541</v>
       </c>
       <c r="I51" t="n">
         <v>4.852331877844207</v>
       </c>
       <c r="J51" t="n">
-        <v>12.55549293708363</v>
+        <v>12555492937.08363</v>
       </c>
     </row>
     <row r="52">
@@ -2207,13 +2207,13 @@
         <v>965.594039639096</v>
       </c>
       <c r="H52" t="n">
-        <v>22.8430937877366</v>
+        <v>22843093787.7366</v>
       </c>
       <c r="I52" t="n">
         <v>6.900337080231942</v>
       </c>
       <c r="J52" t="n">
-        <v>34.19889993298244</v>
+        <v>34198899932.98243</v>
       </c>
     </row>
     <row r="53">
@@ -2241,13 +2241,13 @@
         <v>1233.839990764453</v>
       </c>
       <c r="H53" t="n">
-        <v>46.92974222368663</v>
+        <v>46929742223.68663</v>
       </c>
       <c r="I53" t="n">
         <v>3.916068634760101</v>
       </c>
       <c r="J53" t="n">
-        <v>10.1122514970324</v>
+        <v>10112251497.0324</v>
       </c>
     </row>
     <row r="54">
@@ -2275,13 +2275,13 @@
         <v>1050.726389869463</v>
       </c>
       <c r="H54" t="n">
-        <v>36.39077134782562</v>
+        <v>36390771347.82562</v>
       </c>
       <c r="I54" t="n">
         <v>5.407681398460532</v>
       </c>
       <c r="J54" t="n">
-        <v>20.65122237289341</v>
+        <v>20651222372.89341</v>
       </c>
     </row>
     <row r="55">
@@ -2309,13 +2309,13 @@
         <v>2353.018188054013</v>
       </c>
       <c r="H55" t="n">
-        <v>52.58378780780419</v>
+        <v>52583787807.80419</v>
       </c>
       <c r="I55" t="n">
         <v>1.394656117036007</v>
       </c>
       <c r="J55" t="n">
-        <v>4.458205912914842</v>
+        <v>4458205912.914841</v>
       </c>
     </row>
     <row r="56">
@@ -2343,13 +2343,13 @@
         <v>925.9989920875282</v>
       </c>
       <c r="H56" t="n">
-        <v>21.85374638363091</v>
+        <v>21853746383.63091</v>
       </c>
       <c r="I56" t="n">
         <v>7.286773264914814</v>
       </c>
       <c r="J56" t="n">
-        <v>35.18824733708813</v>
+        <v>35188247337.08812</v>
       </c>
     </row>
     <row r="57">
@@ -2377,13 +2377,13 @@
         <v>1122.327797403325</v>
       </c>
       <c r="H57" t="n">
-        <v>43.77338213125483</v>
+        <v>43773382131.25483</v>
       </c>
       <c r="I57" t="n">
         <v>4.501215454321752</v>
       </c>
       <c r="J57" t="n">
-        <v>13.26861158946421</v>
+        <v>13268611589.4642</v>
       </c>
     </row>
     <row r="58">
@@ -2411,13 +2411,13 @@
         <v>972.1020194564995</v>
       </c>
       <c r="H58" t="n">
-        <v>36.31329731830293</v>
+        <v>36313297318.30293</v>
       </c>
       <c r="I58" t="n">
         <v>5.902583006638714</v>
       </c>
       <c r="J58" t="n">
-        <v>20.72869640241611</v>
+        <v>20728696402.4161</v>
       </c>
     </row>
     <row r="59">
@@ -2445,13 +2445,13 @@
         <v>959.1881075528643</v>
       </c>
       <c r="H59" t="n">
-        <v>19.013587086557</v>
+        <v>19013587086.557</v>
       </c>
       <c r="I59" t="n">
         <v>6.986052180165096</v>
       </c>
       <c r="J59" t="n">
-        <v>38.02840663416204</v>
+        <v>38028406634.16203</v>
       </c>
     </row>
     <row r="60">
@@ -2479,13 +2479,13 @@
         <v>981.2585511697878</v>
       </c>
       <c r="H60" t="n">
-        <v>31.24873738813833</v>
+        <v>31248737388.13833</v>
       </c>
       <c r="I60" t="n">
         <v>6.447267202738331</v>
       </c>
       <c r="J60" t="n">
-        <v>25.7932563325807</v>
+        <v>25793256332.5807</v>
       </c>
     </row>
     <row r="61">
@@ -2513,13 +2513,13 @@
         <v>945.953416583402</v>
       </c>
       <c r="H61" t="n">
-        <v>16.64285267534803</v>
+        <v>16642852675.34803</v>
       </c>
       <c r="I61" t="n">
         <v>7.321904494607857</v>
       </c>
       <c r="J61" t="n">
-        <v>40.399141045371</v>
+        <v>40399141045.371</v>
       </c>
     </row>
     <row r="62">
@@ -2547,13 +2547,13 @@
         <v>1218.045354999942</v>
       </c>
       <c r="H62" t="n">
-        <v>46.49364923537973</v>
+        <v>46493649235.37974</v>
       </c>
       <c r="I62" t="n">
         <v>3.978379158548798</v>
       </c>
       <c r="J62" t="n">
-        <v>10.54834448533931</v>
+        <v>10548344485.33929</v>
       </c>
     </row>
     <row r="63">
@@ -2581,13 +2581,13 @@
         <v>973.3656723439913</v>
       </c>
       <c r="H63" t="n">
-        <v>23.44807638087272</v>
+        <v>23448076380.87272</v>
       </c>
       <c r="I63" t="n">
         <v>6.799805793440534</v>
       </c>
       <c r="J63" t="n">
-        <v>33.59391733984631</v>
+        <v>33593917339.84631</v>
       </c>
     </row>
     <row r="64">
@@ -2615,13 +2615,13 @@
         <v>991.0409381073059</v>
       </c>
       <c r="H64" t="n">
-        <v>37.60062151199935</v>
+        <v>37600621511.99935</v>
       </c>
       <c r="I64" t="n">
         <v>5.801040421203417</v>
       </c>
       <c r="J64" t="n">
-        <v>19.44137220871968</v>
+        <v>19441372208.71968</v>
       </c>
     </row>
     <row r="65">
@@ -2649,13 +2649,13 @@
         <v>981.0977566447966</v>
       </c>
       <c r="H65" t="n">
-        <v>28.56597968498584</v>
+        <v>28565979684.98584</v>
       </c>
       <c r="I65" t="n">
         <v>6.578483106315701</v>
       </c>
       <c r="J65" t="n">
-        <v>28.47601403573319</v>
+        <v>28476014035.73319</v>
       </c>
     </row>
     <row r="66">
@@ -2683,13 +2683,13 @@
         <v>1004.65204507886</v>
       </c>
       <c r="H66" t="n">
-        <v>32.37505812971281</v>
+        <v>32375058129.71281</v>
       </c>
       <c r="I66" t="n">
         <v>6.354615624425797</v>
       </c>
       <c r="J66" t="n">
-        <v>24.66693559100622</v>
+        <v>24666935591.00622</v>
       </c>
     </row>
     <row r="67">
@@ -2717,13 +2717,13 @@
         <v>2007.746532115671</v>
       </c>
       <c r="H67" t="n">
-        <v>52.02066109252408</v>
+        <v>52020661092.52408</v>
       </c>
       <c r="I67" t="n">
         <v>2.033883688972281</v>
       </c>
       <c r="J67" t="n">
-        <v>5.021332628194955</v>
+        <v>5021332628.194954</v>
       </c>
     </row>
     <row r="68">
@@ -2751,13 +2751,13 @@
         <v>950.2273454044395</v>
       </c>
       <c r="H68" t="n">
-        <v>33.5753635717458</v>
+        <v>33575363571.7458</v>
       </c>
       <c r="I68" t="n">
         <v>6.499813095283571</v>
       </c>
       <c r="J68" t="n">
-        <v>23.46663014897324</v>
+        <v>23466630148.97323</v>
       </c>
     </row>
     <row r="69">
@@ -2785,13 +2785,13 @@
         <v>977.0481653370915</v>
       </c>
       <c r="H69" t="n">
-        <v>25.58380141768838</v>
+        <v>25583801417.68838</v>
       </c>
       <c r="I69" t="n">
         <v>6.743426373633447</v>
       </c>
       <c r="J69" t="n">
-        <v>31.45819230303065</v>
+        <v>31458192303.03065</v>
       </c>
     </row>
     <row r="70">
@@ -2819,13 +2819,13 @@
         <v>1102.982829941689</v>
       </c>
       <c r="H70" t="n">
-        <v>41.34604292412611</v>
+        <v>41346042924.12611</v>
       </c>
       <c r="I70" t="n">
         <v>4.617880123861767</v>
       </c>
       <c r="J70" t="n">
-        <v>15.69595079659292</v>
+        <v>15695950796.59293</v>
       </c>
     </row>
     <row r="71">
@@ -2853,13 +2853,13 @@
         <v>2568.620992089419</v>
       </c>
       <c r="H71" t="n">
-        <v>53.48152688311742</v>
+        <v>53481526883.11742</v>
       </c>
       <c r="I71" t="n">
         <v>1.171711604017517</v>
       </c>
       <c r="J71" t="n">
-        <v>3.560466837601616</v>
+        <v>3560466837.601616</v>
       </c>
     </row>
     <row r="72">
@@ -2887,13 +2887,13 @@
         <v>962.1995021923739</v>
       </c>
       <c r="H72" t="n">
-        <v>35.5934993960629</v>
+        <v>35593499396.0629</v>
       </c>
       <c r="I72" t="n">
         <v>6.057552420999293</v>
       </c>
       <c r="J72" t="n">
-        <v>21.44849432465613</v>
+        <v>21448494324.65614</v>
       </c>
     </row>
     <row r="73">
@@ -2921,13 +2921,13 @@
         <v>949.7821164340635</v>
       </c>
       <c r="H73" t="n">
-        <v>15.15008185191754</v>
+        <v>15150081851.91754</v>
       </c>
       <c r="I73" t="n">
         <v>7.267557894961158</v>
       </c>
       <c r="J73" t="n">
-        <v>41.89191186880149</v>
+        <v>41891911868.80149</v>
       </c>
     </row>
     <row r="74">
@@ -2955,13 +2955,13 @@
         <v>974.1603786563011</v>
       </c>
       <c r="H74" t="n">
-        <v>24.03091891560656</v>
+        <v>24030918915.60656</v>
       </c>
       <c r="I74" t="n">
         <v>6.557465365286092</v>
       </c>
       <c r="J74" t="n">
-        <v>33.01107480511247</v>
+        <v>33011074805.11247</v>
       </c>
     </row>
     <row r="75">
@@ -2989,13 +2989,13 @@
         <v>962.9771377752779</v>
       </c>
       <c r="H75" t="n">
-        <v>22.28396300099296</v>
+        <v>22283963000.99296</v>
       </c>
       <c r="I75" t="n">
         <v>6.817014678541057</v>
       </c>
       <c r="J75" t="n">
-        <v>34.75803071972608</v>
+        <v>34758030719.72607</v>
       </c>
     </row>
     <row r="76">
@@ -3023,13 +3023,13 @@
         <v>1174.301274637178</v>
       </c>
       <c r="H76" t="n">
-        <v>45.59307661399068</v>
+        <v>45593076613.99068</v>
       </c>
       <c r="I76" t="n">
         <v>4.241243829924365</v>
       </c>
       <c r="J76" t="n">
-        <v>11.44891710672835</v>
+        <v>11448917106.72836</v>
       </c>
     </row>
     <row r="77">
@@ -3057,13 +3057,13 @@
         <v>1194.160151990671</v>
       </c>
       <c r="H77" t="n">
-        <v>45.73443431110162</v>
+        <v>45734434311.10162</v>
       </c>
       <c r="I77" t="n">
         <v>4.200103518624537</v>
       </c>
       <c r="J77" t="n">
-        <v>11.30755940961741</v>
+        <v>11307559409.61741</v>
       </c>
     </row>
     <row r="78">
@@ -3091,13 +3091,13 @@
         <v>924.2390885663583</v>
       </c>
       <c r="H78" t="n">
-        <v>21.42991712708603</v>
+        <v>21429917127.08603</v>
       </c>
       <c r="I78" t="n">
         <v>7.419822575775868</v>
       </c>
       <c r="J78" t="n">
-        <v>35.61207659363301</v>
+        <v>35612076593.633</v>
       </c>
     </row>
     <row r="79">
@@ -3125,13 +3125,13 @@
         <v>3561.88452329082</v>
       </c>
       <c r="H79" t="n">
-        <v>54.1203706499624</v>
+        <v>54120370649.9624</v>
       </c>
       <c r="I79" t="n">
         <v>0.9341433321801773</v>
       </c>
       <c r="J79" t="n">
-        <v>2.921623070756631</v>
+        <v>2921623070.75663</v>
       </c>
     </row>
     <row r="80">
@@ -3159,13 +3159,13 @@
         <v>1167.636294918511</v>
       </c>
       <c r="H80" t="n">
-        <v>49.2782623139927</v>
+        <v>49278262313.9927</v>
       </c>
       <c r="I80" t="n">
         <v>3.637412338168893</v>
       </c>
       <c r="J80" t="n">
-        <v>7.763731406726336</v>
+        <v>7763731406.726334</v>
       </c>
     </row>
     <row r="81">
@@ -3193,13 +3193,13 @@
         <v>1142.969377915276</v>
       </c>
       <c r="H81" t="n">
-        <v>44.23539327719426</v>
+        <v>44235393277.19426</v>
       </c>
       <c r="I81" t="n">
         <v>4.515716768785197</v>
       </c>
       <c r="J81" t="n">
-        <v>12.80660044352477</v>
+        <v>12806600443.52477</v>
       </c>
     </row>
     <row r="82">
@@ -3227,13 +3227,13 @@
         <v>1020.550943466395</v>
       </c>
       <c r="H82" t="n">
-        <v>36.32981874678777</v>
+        <v>36329818746.78777</v>
       </c>
       <c r="I82" t="n">
         <v>5.526772908917387</v>
       </c>
       <c r="J82" t="n">
-        <v>20.71217497393126</v>
+        <v>20712174973.93126</v>
       </c>
     </row>
     <row r="83">
@@ -3261,13 +3261,13 @@
         <v>936.1449888712615</v>
       </c>
       <c r="H83" t="n">
-        <v>27.91422171656769</v>
+        <v>27914221716.56769</v>
       </c>
       <c r="I83" t="n">
         <v>6.840613267913447</v>
       </c>
       <c r="J83" t="n">
-        <v>29.12777200415135</v>
+        <v>29127772004.15134</v>
       </c>
     </row>
     <row r="84">
@@ -3295,13 +3295,13 @@
         <v>1007.670527120428</v>
       </c>
       <c r="H84" t="n">
-        <v>33.6790692512508</v>
+        <v>33679069251.2508</v>
       </c>
       <c r="I84" t="n">
         <v>6.494959693657357</v>
       </c>
       <c r="J84" t="n">
-        <v>23.36292446946823</v>
+        <v>23362924469.46823</v>
       </c>
     </row>
     <row r="85">
@@ -3329,13 +3329,13 @@
         <v>971.5719499802634</v>
       </c>
       <c r="H85" t="n">
-        <v>25.45871279618905</v>
+        <v>25458712796.18905</v>
       </c>
       <c r="I85" t="n">
         <v>6.645622385542701</v>
       </c>
       <c r="J85" t="n">
-        <v>31.58328092452998</v>
+        <v>31583280924.52998</v>
       </c>
     </row>
     <row r="86">
@@ -3363,13 +3363,13 @@
         <v>2439.566937975329</v>
       </c>
       <c r="H86" t="n">
-        <v>52.90793003652733</v>
+        <v>52907930036.52733</v>
       </c>
       <c r="I86" t="n">
         <v>1.411577972809141</v>
       </c>
       <c r="J86" t="n">
-        <v>4.134063684191702</v>
+        <v>4134063684.191704</v>
       </c>
     </row>
     <row r="87">
@@ -3397,13 +3397,13 @@
         <v>1265.746044100624</v>
       </c>
       <c r="H87" t="n">
-        <v>47.744771123593</v>
+        <v>47744771123.593</v>
       </c>
       <c r="I87" t="n">
         <v>3.882502214434787</v>
       </c>
       <c r="J87" t="n">
-        <v>9.297222597126037</v>
+        <v>9297222597.12603</v>
       </c>
     </row>
     <row r="88">
@@ -3431,13 +3431,13 @@
         <v>3416.235923241381</v>
       </c>
       <c r="H88" t="n">
-        <v>54.83601174477604</v>
+        <v>54836011744.77605</v>
       </c>
       <c r="I88" t="n">
         <v>0.9351753499856414</v>
       </c>
       <c r="J88" t="n">
-        <v>2.205981975942997</v>
+        <v>2205981975.942986</v>
       </c>
     </row>
     <row r="89">
@@ -3465,13 +3465,13 @@
         <v>1086.411606003562</v>
       </c>
       <c r="H89" t="n">
-        <v>40.32069053270197</v>
+        <v>40320690532.70197</v>
       </c>
       <c r="I89" t="n">
         <v>5.001400390035407</v>
       </c>
       <c r="J89" t="n">
-        <v>16.72130318801707</v>
+        <v>16721303188.01706</v>
       </c>
     </row>
     <row r="90">
@@ -3499,13 +3499,13 @@
         <v>1020.098151221488</v>
       </c>
       <c r="H90" t="n">
-        <v>42.95185781811324</v>
+        <v>42951857818.11324</v>
       </c>
       <c r="I90" t="n">
         <v>4.982937087349946</v>
       </c>
       <c r="J90" t="n">
-        <v>14.09013590260579</v>
+        <v>14090135902.60579</v>
       </c>
     </row>
     <row r="91">
@@ -3533,13 +3533,13 @@
         <v>1192.643867069787</v>
       </c>
       <c r="H91" t="n">
-        <v>50.28635088336978</v>
+        <v>50286350883.36978</v>
       </c>
       <c r="I91" t="n">
         <v>3.428253213065872</v>
       </c>
       <c r="J91" t="n">
-        <v>6.755642837349257</v>
+        <v>6755642837.349251</v>
       </c>
     </row>
     <row r="92">
@@ -3567,13 +3567,13 @@
         <v>1837.542930094125</v>
       </c>
       <c r="H92" t="n">
-        <v>51.14490751052708</v>
+        <v>51144907510.52708</v>
       </c>
       <c r="I92" t="n">
         <v>2.137571408134697</v>
       </c>
       <c r="J92" t="n">
-        <v>5.897086210191958</v>
+        <v>5897086210.191956</v>
       </c>
     </row>
     <row r="93">
@@ -3601,13 +3601,13 @@
         <v>1160.503025932125</v>
       </c>
       <c r="H93" t="n">
-        <v>45.3732078070712</v>
+        <v>45373207807.0712</v>
       </c>
       <c r="I93" t="n">
         <v>4.329956144602058</v>
       </c>
       <c r="J93" t="n">
-        <v>11.66878591364783</v>
+        <v>11668785913.64783</v>
       </c>
     </row>
     <row r="94">
@@ -3635,13 +3635,13 @@
         <v>1232.839754681979</v>
       </c>
       <c r="H94" t="n">
-        <v>46.70624180785506</v>
+        <v>46706241807.85506</v>
       </c>
       <c r="I94" t="n">
         <v>3.915289890118927</v>
       </c>
       <c r="J94" t="n">
-        <v>10.33575191286398</v>
+        <v>10335751912.86398</v>
       </c>
     </row>
     <row r="95">
@@ -3669,13 +3669,13 @@
         <v>1515.461962598775</v>
       </c>
       <c r="H95" t="n">
-        <v>49.98820634131714</v>
+        <v>49988206341.31714</v>
       </c>
       <c r="I95" t="n">
         <v>3.107627328661941</v>
       </c>
       <c r="J95" t="n">
-        <v>7.053787379401896</v>
+        <v>7053787379.401894</v>
       </c>
     </row>
     <row r="96">
@@ -3703,13 +3703,13 @@
         <v>977.6171764114453</v>
       </c>
       <c r="H96" t="n">
-        <v>24.64584529791649</v>
+        <v>24645845297.91649</v>
       </c>
       <c r="I96" t="n">
         <v>6.575996844372845</v>
       </c>
       <c r="J96" t="n">
-        <v>32.39614842280254</v>
+        <v>32396148422.80254</v>
       </c>
     </row>
     <row r="97">
@@ -3737,13 +3737,13 @@
         <v>2859.283719157379</v>
       </c>
       <c r="H97" t="n">
-        <v>53.86951322586116</v>
+        <v>53869513225.86115</v>
       </c>
       <c r="I97" t="n">
         <v>1.045228877908954</v>
       </c>
       <c r="J97" t="n">
-        <v>3.172480494857872</v>
+        <v>3172480494.85788</v>
       </c>
     </row>
     <row r="98">
@@ -3771,13 +3771,13 @@
         <v>1364.420775417599</v>
       </c>
       <c r="H98" t="n">
-        <v>49.27136316908135</v>
+        <v>49271363169.08135</v>
       </c>
       <c r="I98" t="n">
         <v>3.202668909473253</v>
       </c>
       <c r="J98" t="n">
-        <v>7.770630551637687</v>
+        <v>7770630551.63768</v>
       </c>
     </row>
     <row r="99">
@@ -3805,13 +3805,13 @@
         <v>1006.678026376586</v>
       </c>
       <c r="H99" t="n">
-        <v>34.19308701212502</v>
+        <v>34193087012.12502</v>
       </c>
       <c r="I99" t="n">
         <v>6.372030423043718</v>
       </c>
       <c r="J99" t="n">
-        <v>22.84890670859401</v>
+        <v>22848906708.59401</v>
       </c>
     </row>
     <row r="100">
@@ -3839,13 +3839,13 @@
         <v>1098.327498881262</v>
       </c>
       <c r="H100" t="n">
-        <v>47.72061031788171</v>
+        <v>47720610317.88171</v>
       </c>
       <c r="I100" t="n">
         <v>4.214293705248707</v>
       </c>
       <c r="J100" t="n">
-        <v>9.321383402837327</v>
+        <v>9321383402.837326</v>
       </c>
     </row>
     <row r="101">
@@ -3873,13 +3873,13 @@
         <v>1033.686066272019</v>
       </c>
       <c r="H101" t="n">
-        <v>38.56044240692709</v>
+        <v>38560442406.92709</v>
       </c>
       <c r="I101" t="n">
         <v>5.407830857248108</v>
       </c>
       <c r="J101" t="n">
-        <v>18.48155131379195</v>
+        <v>18481551313.79194</v>
       </c>
     </row>
     <row r="102">
@@ -3907,13 +3907,13 @@
         <v>977.2083720659995</v>
       </c>
       <c r="H102" t="n">
-        <v>24.82910589470695</v>
+        <v>24829105894.70695</v>
       </c>
       <c r="I102" t="n">
         <v>6.767045341898097</v>
       </c>
       <c r="J102" t="n">
-        <v>32.21288782601209</v>
+        <v>32212887826.01208</v>
       </c>
     </row>
     <row r="103">
@@ -3941,13 +3941,13 @@
         <v>1109.11055549864</v>
       </c>
       <c r="H103" t="n">
-        <v>42.90252747160964</v>
+        <v>42902527471.60964</v>
       </c>
       <c r="I103" t="n">
         <v>5.062742147101062</v>
       </c>
       <c r="J103" t="n">
-        <v>14.1394662491094</v>
+        <v>14139466249.10939</v>
       </c>
     </row>
     <row r="104">
@@ -3975,13 +3975,13 @@
         <v>1380.468738318158</v>
       </c>
       <c r="H104" t="n">
-        <v>48.55208518675315</v>
+        <v>48552085186.75314</v>
       </c>
       <c r="I104" t="n">
         <v>3.097938242836157</v>
       </c>
       <c r="J104" t="n">
-        <v>8.489908533965881</v>
+        <v>8489908533.965889</v>
       </c>
     </row>
     <row r="105">
@@ -4009,13 +4009,13 @@
         <v>1209.702230307506</v>
       </c>
       <c r="H105" t="n">
-        <v>45.72843613724068</v>
+        <v>45728436137.24068</v>
       </c>
       <c r="I105" t="n">
         <v>4.338596402255604</v>
       </c>
       <c r="J105" t="n">
-        <v>11.31355758347836</v>
+        <v>11313557583.47836</v>
       </c>
     </row>
     <row r="106">
@@ -4043,13 +4043,13 @@
         <v>937.2870566472569</v>
       </c>
       <c r="H106" t="n">
-        <v>30.35207387714516</v>
+        <v>30352073877.14516</v>
       </c>
       <c r="I106" t="n">
         <v>6.816203320439065</v>
       </c>
       <c r="J106" t="n">
-        <v>26.68991984357388</v>
+        <v>26689919843.57387</v>
       </c>
     </row>
     <row r="107">
@@ -4077,13 +4077,13 @@
         <v>1850.152713009322</v>
       </c>
       <c r="H107" t="n">
-        <v>51.47419545210434</v>
+        <v>51474195452.10434</v>
       </c>
       <c r="I107" t="n">
         <v>2.126603954823942</v>
       </c>
       <c r="J107" t="n">
-        <v>5.567798268614695</v>
+        <v>5567798268.614693</v>
       </c>
     </row>
     <row r="108">
@@ -4111,13 +4111,13 @@
         <v>946.7543376330365</v>
       </c>
       <c r="H108" t="n">
-        <v>15.83478346676808</v>
+        <v>15834783466.76808</v>
       </c>
       <c r="I108" t="n">
         <v>7.397600966039157</v>
       </c>
       <c r="J108" t="n">
-        <v>41.20721025395095</v>
+        <v>41207210253.95095</v>
       </c>
     </row>
     <row r="109">
@@ -4145,13 +4145,13 @@
         <v>966.079128888859</v>
       </c>
       <c r="H109" t="n">
-        <v>21.36250577550931</v>
+        <v>21362505775.50931</v>
       </c>
       <c r="I109" t="n">
         <v>6.929722746881296</v>
       </c>
       <c r="J109" t="n">
-        <v>35.67948794520973</v>
+        <v>35679487945.20972</v>
       </c>
     </row>
     <row r="110">
@@ -4179,13 +4179,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H110" t="n">
-        <v>18.11799702221794</v>
+        <v>18117997022.21794</v>
       </c>
       <c r="I110" t="n">
         <v>22.62735942184372</v>
       </c>
       <c r="J110" t="n">
-        <v>38.9239966985011</v>
+        <v>38923996698.50109</v>
       </c>
     </row>
     <row r="111">
@@ -4213,13 +4213,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H111" t="n">
-        <v>19.22913139556729</v>
+        <v>19229131395.56729</v>
       </c>
       <c r="I111" t="n">
         <v>22.62735952141033</v>
       </c>
       <c r="J111" t="n">
-        <v>37.81286232515174</v>
+        <v>37812862325.15174</v>
       </c>
     </row>
     <row r="112">
@@ -4247,13 +4247,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H112" t="n">
-        <v>22.56253451561537</v>
+        <v>22562534515.61537</v>
       </c>
       <c r="I112" t="n">
         <v>22.62735982011016</v>
       </c>
       <c r="J112" t="n">
-        <v>34.47945920510367</v>
+        <v>34479459205.10366</v>
       </c>
     </row>
     <row r="113">
@@ -4281,13 +4281,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H113" t="n">
-        <v>-1.512043573620744</v>
+        <v>-1512043573.620744</v>
       </c>
       <c r="I113" t="n">
         <v>22.62735932227712</v>
       </c>
       <c r="J113" t="n">
-        <v>58.55403729433978</v>
+        <v>58554037294.33978</v>
       </c>
     </row>
     <row r="114">
@@ -4315,13 +4315,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.7712873247211709</v>
+        <v>-771287324.7211709</v>
       </c>
       <c r="I114" t="n">
         <v>22.62735972054355</v>
       </c>
       <c r="J114" t="n">
-        <v>57.81328104544021</v>
+        <v>57813281045.4402</v>
       </c>
     </row>
     <row r="115">
@@ -4349,13 +4349,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H115" t="n">
-        <v>14.78459390216986</v>
+        <v>14784593902.16986</v>
       </c>
       <c r="I115" t="n">
         <v>22.62736011880997</v>
       </c>
       <c r="J115" t="n">
-        <v>42.25739981854917</v>
+        <v>42257399818.54917</v>
       </c>
     </row>
     <row r="116">
@@ -4383,13 +4383,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H116" t="n">
-        <v>7.377031413174132</v>
+        <v>7377031413.174132</v>
       </c>
       <c r="I116" t="n">
         <v>22.62736011880998</v>
       </c>
       <c r="J116" t="n">
-        <v>49.6649623075449</v>
+        <v>49664962307.5449</v>
       </c>
     </row>
     <row r="117">
@@ -4417,13 +4417,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H117" t="n">
-        <v>34.32991580571241</v>
+        <v>34329915805.71241</v>
       </c>
       <c r="I117" t="n">
         <v>17.71919546470478</v>
       </c>
       <c r="J117" t="n">
-        <v>22.71207791500662</v>
+        <v>22712077915.00662</v>
       </c>
     </row>
     <row r="118">
@@ -4451,13 +4451,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H118" t="n">
-        <v>16.266106399969</v>
+        <v>16266106399.969</v>
       </c>
       <c r="I118" t="n">
         <v>22.62735991967678</v>
       </c>
       <c r="J118" t="n">
-        <v>40.77588732075003</v>
+        <v>40775887320.75003</v>
       </c>
     </row>
     <row r="119">
@@ -4485,13 +4485,13 @@
         <v>3913.69747315746</v>
       </c>
       <c r="H119" t="n">
-        <v>41.5624767656128</v>
+        <v>41562476765.6128</v>
       </c>
       <c r="I119" t="n">
         <v>7.472303264689621</v>
       </c>
       <c r="J119" t="n">
-        <v>15.47951695510623</v>
+        <v>15479516955.10623</v>
       </c>
     </row>
     <row r="120">
@@ -4519,13 +4519,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H120" t="n">
-        <v>31.94201525220591</v>
+        <v>31942015252.20591</v>
       </c>
       <c r="I120" t="n">
         <v>17.71919505620676</v>
       </c>
       <c r="J120" t="n">
-        <v>25.09997846851313</v>
+        <v>25099978468.51312</v>
       </c>
     </row>
     <row r="121">
@@ -4553,13 +4553,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H121" t="n">
-        <v>1.450981421977548</v>
+        <v>1450981421.977548</v>
       </c>
       <c r="I121" t="n">
         <v>22.62735991967678</v>
       </c>
       <c r="J121" t="n">
-        <v>55.59101229874149</v>
+        <v>55591012298.74149</v>
       </c>
     </row>
     <row r="122">
@@ -4587,13 +4587,13 @@
         <v>6319.405306137946</v>
       </c>
       <c r="H122" t="n">
-        <v>49.56668933308701</v>
+        <v>49566689333.08701</v>
       </c>
       <c r="I122" t="n">
         <v>3.949171017886641</v>
       </c>
       <c r="J122" t="n">
-        <v>7.475304387632022</v>
+        <v>7475304387.632019</v>
       </c>
     </row>
     <row r="123">
@@ -4621,13 +4621,13 @@
         <v>2184.258181218738</v>
       </c>
       <c r="H123" t="n">
-        <v>42.64036064638022</v>
+        <v>42640360646.38022</v>
       </c>
       <c r="I123" t="n">
         <v>7.088928898338423</v>
       </c>
       <c r="J123" t="n">
-        <v>14.40163307433881</v>
+        <v>14401633074.33881</v>
       </c>
     </row>
     <row r="124">
@@ -4655,13 +4655,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H124" t="n">
-        <v>30.20536030420119</v>
+        <v>30205360304.20119</v>
       </c>
       <c r="I124" t="n">
         <v>17.71919528963421</v>
       </c>
       <c r="J124" t="n">
-        <v>26.83663341651785</v>
+        <v>26836633416.51784</v>
       </c>
     </row>
     <row r="125">
@@ -4689,13 +4689,13 @@
         <v>6319.405306137946</v>
       </c>
       <c r="H125" t="n">
-        <v>47.21593185743513</v>
+        <v>47215931857.43513</v>
       </c>
       <c r="I125" t="n">
         <v>3.949172913708267</v>
       </c>
       <c r="J125" t="n">
-        <v>9.826061863283904</v>
+        <v>9826061863.283905</v>
       </c>
     </row>
     <row r="126">
@@ -4723,13 +4723,13 @@
         <v>3913.69747315746</v>
       </c>
       <c r="H126" t="n">
-        <v>43.01833426276189</v>
+        <v>43018334262.76189</v>
       </c>
       <c r="I126" t="n">
         <v>7.472302090580378</v>
       </c>
       <c r="J126" t="n">
-        <v>14.02365945795714</v>
+        <v>14023659457.95715</v>
       </c>
     </row>
     <row r="127">
@@ -4757,13 +4757,13 @@
         <v>3913.69747315746</v>
       </c>
       <c r="H127" t="n">
-        <v>40.10661926846371</v>
+        <v>40106619268.46371</v>
       </c>
       <c r="I127" t="n">
         <v>7.472304438798865</v>
       </c>
       <c r="J127" t="n">
-        <v>16.93537445225532</v>
+        <v>16935374452.25533</v>
       </c>
     </row>
     <row r="128">
@@ -4791,13 +4791,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.4009092002713702</v>
+        <v>-400909200.2713702</v>
       </c>
       <c r="I128" t="n">
         <v>22.62735942184371</v>
       </c>
       <c r="J128" t="n">
-        <v>57.44290292099041</v>
+        <v>57442902920.9904</v>
       </c>
     </row>
     <row r="129">
@@ -4825,13 +4825,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H129" t="n">
-        <v>28.46870535619645</v>
+        <v>28468705356.19645</v>
       </c>
       <c r="I129" t="n">
         <v>17.71919552306166</v>
       </c>
       <c r="J129" t="n">
-        <v>28.57328836452259</v>
+        <v>28573288364.52258</v>
       </c>
     </row>
     <row r="130">
@@ -4859,13 +4859,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H130" t="n">
-        <v>31.07368777820354</v>
+        <v>31073687778.20354</v>
       </c>
       <c r="I130" t="n">
         <v>17.71919575648911</v>
       </c>
       <c r="J130" t="n">
-        <v>25.9683059425155</v>
+        <v>25968305942.51549</v>
       </c>
     </row>
     <row r="131">
@@ -4893,13 +4893,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H131" t="n">
-        <v>11.45119078212178</v>
+        <v>11451190782.12178</v>
       </c>
       <c r="I131" t="n">
         <v>22.62735982011016</v>
       </c>
       <c r="J131" t="n">
-        <v>45.59080293859726</v>
+        <v>45590802938.59725</v>
       </c>
     </row>
     <row r="132">
@@ -4927,13 +4927,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H132" t="n">
-        <v>6.636275164274556</v>
+        <v>6636275164.274556</v>
       </c>
       <c r="I132" t="n">
         <v>22.62735972054355</v>
       </c>
       <c r="J132" t="n">
-        <v>50.40571855644448</v>
+        <v>50405718556.44447</v>
       </c>
     </row>
     <row r="133">
@@ -4961,13 +4961,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H133" t="n">
-        <v>30.85660590970296</v>
+        <v>30856605909.70296</v>
       </c>
       <c r="I133" t="n">
         <v>17.71919593155968</v>
       </c>
       <c r="J133" t="n">
-        <v>26.18538781101607</v>
+        <v>26185387811.01607</v>
       </c>
     </row>
     <row r="134">
@@ -4995,13 +4995,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H134" t="n">
-        <v>-2.252799822520317</v>
+        <v>-2252799822.520317</v>
       </c>
       <c r="I134" t="n">
         <v>22.62735991967678</v>
       </c>
       <c r="J134" t="n">
-        <v>59.29479354323935</v>
+        <v>59294793543.23935</v>
       </c>
     </row>
     <row r="135">
@@ -5029,13 +5029,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H135" t="n">
-        <v>27.60037788219409</v>
+        <v>27600377882.19409</v>
       </c>
       <c r="I135" t="n">
         <v>17.71919505620676</v>
       </c>
       <c r="J135" t="n">
-        <v>29.44161583852495</v>
+        <v>29441615838.52494</v>
       </c>
     </row>
     <row r="136">
@@ -5063,13 +5063,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H136" t="n">
-        <v>17.74761889776814</v>
+        <v>17747618897.76814</v>
       </c>
       <c r="I136" t="n">
         <v>22.62735972054355</v>
       </c>
       <c r="J136" t="n">
-        <v>39.29437482295089</v>
+        <v>39294374822.9509</v>
       </c>
     </row>
     <row r="137">
@@ -5097,13 +5097,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H137" t="n">
-        <v>21.82177826671579</v>
+        <v>21821778266.71579</v>
       </c>
       <c r="I137" t="n">
         <v>22.62735942184372</v>
       </c>
       <c r="J137" t="n">
-        <v>35.22021545400325</v>
+        <v>35220215454.00324</v>
       </c>
     </row>
     <row r="138">
@@ -5131,13 +5131,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H138" t="n">
-        <v>33.02742459470887</v>
+        <v>33027424594.70887</v>
       </c>
       <c r="I138" t="n">
         <v>17.71919534799106</v>
       </c>
       <c r="J138" t="n">
-        <v>24.01456912601017</v>
+        <v>24014569126.01016</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H139" t="n">
-        <v>28.03454161919528</v>
+        <v>28034541619.19528</v>
       </c>
       <c r="I139" t="n">
         <v>17.71919587320282</v>
       </c>
       <c r="J139" t="n">
-        <v>29.00745210152375</v>
+        <v>29007452101.52375</v>
       </c>
     </row>
     <row r="140">
@@ -5199,13 +5199,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H140" t="n">
-        <v>4.784384542025629</v>
+        <v>4784384542.025629</v>
       </c>
       <c r="I140" t="n">
         <v>22.6273592227105</v>
       </c>
       <c r="J140" t="n">
-        <v>52.25760917869341</v>
+        <v>52257609178.69341</v>
       </c>
     </row>
     <row r="141">
@@ -5233,13 +5233,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H141" t="n">
-        <v>15.89572827551921</v>
+        <v>15895728275.51921</v>
       </c>
       <c r="I141" t="n">
         <v>22.62735922271052</v>
       </c>
       <c r="J141" t="n">
-        <v>41.14626544519982</v>
+        <v>41146265445.19982</v>
       </c>
     </row>
     <row r="142">
@@ -5267,13 +5267,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H142" t="n">
-        <v>22.93291264006516</v>
+        <v>22932912640.06516</v>
       </c>
       <c r="I142" t="n">
         <v>22.62735952141033</v>
       </c>
       <c r="J142" t="n">
-        <v>34.10908108065387</v>
+        <v>34109081080.65387</v>
       </c>
     </row>
     <row r="143">
@@ -5301,13 +5301,13 @@
         <v>3913.69747315746</v>
       </c>
       <c r="H143" t="n">
-        <v>39.37869051988916</v>
+        <v>39378690519.88916</v>
       </c>
       <c r="I143" t="n">
         <v>7.472301112156025</v>
       </c>
       <c r="J143" t="n">
-        <v>17.66330320082987</v>
+        <v>17663303200.82987</v>
       </c>
     </row>
     <row r="144">
@@ -5335,13 +5335,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H144" t="n">
-        <v>12.19194703102135</v>
+        <v>12191947031.02135</v>
       </c>
       <c r="I144" t="n">
         <v>22.6273592227105</v>
       </c>
       <c r="J144" t="n">
-        <v>44.85004668969768</v>
+        <v>44850046689.69768</v>
       </c>
     </row>
     <row r="145">
@@ -5369,13 +5369,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H145" t="n">
-        <v>29.33703283019881</v>
+        <v>29337032830.19881</v>
       </c>
       <c r="I145" t="n">
         <v>17.71919598991656</v>
       </c>
       <c r="J145" t="n">
-        <v>27.70496089052022</v>
+        <v>27704960890.52022</v>
       </c>
     </row>
     <row r="146">
@@ -5403,13 +5403,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H146" t="n">
-        <v>34.11283393721183</v>
+        <v>34112833937.21183</v>
       </c>
       <c r="I146" t="n">
         <v>17.71919563977537</v>
       </c>
       <c r="J146" t="n">
-        <v>22.9291597835072</v>
+        <v>22929159783.5072</v>
       </c>
     </row>
     <row r="147">
@@ -5437,13 +5437,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H147" t="n">
-        <v>30.63952404120237</v>
+        <v>30639524041.20237</v>
       </c>
       <c r="I147" t="n">
         <v>17.71919493949302</v>
       </c>
       <c r="J147" t="n">
-        <v>26.40246967951666</v>
+        <v>26402469679.51666</v>
       </c>
     </row>
     <row r="148">
@@ -5471,13 +5471,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H148" t="n">
-        <v>4.414006417575833</v>
+        <v>4414006417.575833</v>
       </c>
       <c r="I148" t="n">
         <v>22.62735952141034</v>
       </c>
       <c r="J148" t="n">
-        <v>52.6279873031432</v>
+        <v>52627987303.1432</v>
       </c>
     </row>
     <row r="149">
@@ -5505,13 +5505,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H149" t="n">
-        <v>0.7102251730779782</v>
+        <v>710225173.0779781</v>
       </c>
       <c r="I149" t="n">
         <v>22.62735952141033</v>
       </c>
       <c r="J149" t="n">
-        <v>56.33176854764105</v>
+        <v>56331768547.64105</v>
       </c>
     </row>
     <row r="150">
@@ -5539,13 +5539,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H150" t="n">
-        <v>9.228922035423068</v>
+        <v>9228922035.423067</v>
       </c>
       <c r="I150" t="n">
         <v>22.62735962097695</v>
       </c>
       <c r="J150" t="n">
-        <v>47.81307168529597</v>
+        <v>47813071685.29597</v>
       </c>
     </row>
     <row r="151">
@@ -5573,13 +5573,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H151" t="n">
-        <v>7.747409537623919</v>
+        <v>7747409537.623919</v>
       </c>
       <c r="I151" t="n">
         <v>22.62735982011016</v>
       </c>
       <c r="J151" t="n">
-        <v>49.29458418309512</v>
+        <v>49294584183.09512</v>
       </c>
     </row>
     <row r="152">
@@ -5607,13 +5607,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H152" t="n">
-        <v>32.15909712070652</v>
+        <v>32159097120.70652</v>
       </c>
       <c r="I152" t="n">
         <v>17.71919604827342</v>
       </c>
       <c r="J152" t="n">
-        <v>24.88289660001251</v>
+        <v>24882896600.01251</v>
       </c>
     </row>
     <row r="153">
@@ -5641,13 +5641,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H153" t="n">
-        <v>8.117787662073702</v>
+        <v>8117787662.073703</v>
       </c>
       <c r="I153" t="n">
         <v>22.62735952141033</v>
       </c>
       <c r="J153" t="n">
-        <v>48.92420605864533</v>
+        <v>48924206058.64533</v>
       </c>
     </row>
     <row r="154">
@@ -5675,13 +5675,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H154" t="n">
-        <v>21.08102201781622</v>
+        <v>21081022017.81622</v>
       </c>
       <c r="I154" t="n">
         <v>22.62736001924336</v>
       </c>
       <c r="J154" t="n">
-        <v>35.96097170290281</v>
+        <v>35960971702.90282</v>
       </c>
     </row>
     <row r="155">
@@ -5709,13 +5709,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H155" t="n">
-        <v>4.043628293126057</v>
+        <v>4043628293.126057</v>
       </c>
       <c r="I155" t="n">
         <v>22.62735982011016</v>
       </c>
       <c r="J155" t="n">
-        <v>52.99836542759298</v>
+        <v>52998365427.59297</v>
       </c>
     </row>
     <row r="156">
@@ -5743,13 +5743,13 @@
         <v>6319.405306137946</v>
       </c>
       <c r="H156" t="n">
-        <v>48.39131059526105</v>
+        <v>48391310595.26105</v>
       </c>
       <c r="I156" t="n">
         <v>3.949171965797476</v>
       </c>
       <c r="J156" t="n">
-        <v>8.650683125457988</v>
+        <v>8650683125.457985</v>
       </c>
     </row>
     <row r="157">
@@ -5777,13 +5777,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H157" t="n">
-        <v>27.16621414519291</v>
+        <v>27166214145.19291</v>
       </c>
       <c r="I157" t="n">
         <v>17.71919540634792</v>
       </c>
       <c r="J157" t="n">
-        <v>29.87577957552612</v>
+        <v>29875779575.52612</v>
       </c>
     </row>
     <row r="158">
@@ -5811,13 +5811,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H158" t="n">
-        <v>33.67867020021063</v>
+        <v>33678670200.21063</v>
       </c>
       <c r="I158" t="n">
         <v>17.71919598991656</v>
       </c>
       <c r="J158" t="n">
-        <v>23.3633235205084</v>
+        <v>23363323520.5084</v>
       </c>
     </row>
     <row r="159">
@@ -5845,13 +5845,13 @@
         <v>3913.69747315746</v>
       </c>
       <c r="H159" t="n">
-        <v>42.29040551418736</v>
+        <v>42290405514.18736</v>
       </c>
       <c r="I159" t="n">
         <v>7.472302677634985</v>
       </c>
       <c r="J159" t="n">
-        <v>14.75158820653167</v>
+        <v>14751588206.53167</v>
       </c>
     </row>
     <row r="160">
@@ -5879,13 +5879,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H160" t="n">
-        <v>1.821359546427339</v>
+        <v>1821359546.427339</v>
       </c>
       <c r="I160" t="n">
         <v>22.62735962097695</v>
       </c>
       <c r="J160" t="n">
-        <v>55.2206341742917</v>
+        <v>55220634174.29169</v>
       </c>
     </row>
     <row r="161">
@@ -5913,13 +5913,13 @@
         <v>2184.258181218738</v>
       </c>
       <c r="H161" t="n">
-        <v>42.23409921832574</v>
+        <v>42234099218.32574</v>
       </c>
       <c r="I161" t="n">
         <v>7.088929225977132</v>
       </c>
       <c r="J161" t="n">
-        <v>14.8078945023933</v>
+        <v>14807894502.3933</v>
       </c>
     </row>
     <row r="162">
@@ -5947,13 +5947,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H162" t="n">
-        <v>14.04383765327028</v>
+        <v>14043837653.27028</v>
       </c>
       <c r="I162" t="n">
         <v>22.62735972054355</v>
       </c>
       <c r="J162" t="n">
-        <v>42.99815606744875</v>
+        <v>42998156067.44875</v>
       </c>
     </row>
     <row r="163">
@@ -5981,13 +5981,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H163" t="n">
-        <v>12.93270327992093</v>
+        <v>12932703279.92093</v>
       </c>
       <c r="I163" t="n">
         <v>22.62735962097695</v>
       </c>
       <c r="J163" t="n">
-        <v>44.10929044079811</v>
+        <v>44109290440.7981</v>
       </c>
     </row>
     <row r="164">
@@ -6015,13 +6015,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H164" t="n">
-        <v>29.7711965672</v>
+        <v>29771196567.2</v>
       </c>
       <c r="I164" t="n">
         <v>17.71919563977537</v>
       </c>
       <c r="J164" t="n">
-        <v>27.27079715351903</v>
+        <v>27270797153.51903</v>
       </c>
     </row>
     <row r="165">
@@ -6049,13 +6049,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H165" t="n">
-        <v>1.080603297527763</v>
+        <v>1080603297.527763</v>
       </c>
       <c r="I165" t="n">
         <v>22.62735922271052</v>
       </c>
       <c r="J165" t="n">
-        <v>55.96139042319127</v>
+        <v>55961390423.19127</v>
       </c>
     </row>
     <row r="166">
@@ -6083,13 +6083,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H166" t="n">
-        <v>5.154762666475415</v>
+        <v>5154762666.475415</v>
       </c>
       <c r="I166" t="n">
         <v>22.62735991967678</v>
       </c>
       <c r="J166" t="n">
-        <v>51.88723105424362</v>
+        <v>51887231054.24361</v>
       </c>
     </row>
     <row r="167">
@@ -6117,13 +6117,13 @@
         <v>3913.69747315746</v>
       </c>
       <c r="H167" t="n">
-        <v>40.83454801703828</v>
+        <v>40834548017.03828</v>
       </c>
       <c r="I167" t="n">
         <v>7.472303851744222</v>
       </c>
       <c r="J167" t="n">
-        <v>16.20744570368075</v>
+        <v>16207445703.68076</v>
       </c>
     </row>
     <row r="168">
@@ -6151,13 +6151,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H168" t="n">
-        <v>19.59950952001707</v>
+        <v>19599509520.01707</v>
       </c>
       <c r="I168" t="n">
         <v>22.62735922271052</v>
       </c>
       <c r="J168" t="n">
-        <v>37.44248420070197</v>
+        <v>37442484200.70197</v>
       </c>
     </row>
     <row r="169">
@@ -6185,13 +6185,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H169" t="n">
-        <v>2.562115795326912</v>
+        <v>2562115795.326912</v>
       </c>
       <c r="I169" t="n">
         <v>22.62736001924336</v>
       </c>
       <c r="J169" t="n">
-        <v>54.47987792539212</v>
+        <v>54479877925.39212</v>
       </c>
     </row>
     <row r="170">
@@ -6219,13 +6219,13 @@
         <v>2184.258181218738</v>
       </c>
       <c r="H170" t="n">
-        <v>47.51549778303428</v>
+        <v>47515497783.03429</v>
       </c>
       <c r="I170" t="n">
         <v>7.088929335190066</v>
       </c>
       <c r="J170" t="n">
-        <v>9.526495937684757</v>
+        <v>9526495937.684746</v>
       </c>
     </row>
     <row r="171">
@@ -6253,13 +6253,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H171" t="n">
-        <v>8.858543910973275</v>
+        <v>8858543910.973274</v>
       </c>
       <c r="I171" t="n">
         <v>22.62735991967678</v>
       </c>
       <c r="J171" t="n">
-        <v>48.18344980974576</v>
+        <v>48183449809.74576</v>
       </c>
     </row>
     <row r="172">
@@ -6287,13 +6287,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H172" t="n">
-        <v>11.82156890657156</v>
+        <v>11821568906.57156</v>
       </c>
       <c r="I172" t="n">
         <v>22.62735952141033</v>
       </c>
       <c r="J172" t="n">
-        <v>45.22042481414748</v>
+        <v>45220424814.14748</v>
       </c>
     </row>
     <row r="173">
@@ -6321,13 +6321,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H173" t="n">
-        <v>15.15497202661964</v>
+        <v>15154972026.61964</v>
       </c>
       <c r="I173" t="n">
         <v>22.62735982011016</v>
       </c>
       <c r="J173" t="n">
-        <v>41.8870216940994</v>
+        <v>41887021694.0994</v>
       </c>
     </row>
     <row r="174">
@@ -6355,13 +6355,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H174" t="n">
-        <v>9.969678284322633</v>
+        <v>9969678284.322634</v>
       </c>
       <c r="I174" t="n">
         <v>22.62736001924336</v>
       </c>
       <c r="J174" t="n">
-        <v>47.0723154363964</v>
+        <v>47072315436.3964</v>
       </c>
     </row>
     <row r="175">
@@ -6389,13 +6389,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H175" t="n">
-        <v>31.29076964670414</v>
+        <v>31290769646.70414</v>
       </c>
       <c r="I175" t="n">
         <v>17.71919558141852</v>
       </c>
       <c r="J175" t="n">
-        <v>25.7512240740149</v>
+        <v>25751224074.01489</v>
       </c>
     </row>
     <row r="176">
@@ -6423,13 +6423,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H176" t="n">
-        <v>32.5932608577077</v>
+        <v>32593260857.7077</v>
       </c>
       <c r="I176" t="n">
         <v>17.71919569813223</v>
       </c>
       <c r="J176" t="n">
-        <v>24.44873286301134</v>
+        <v>24448732863.01133</v>
       </c>
     </row>
     <row r="177">
@@ -6457,13 +6457,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H177" t="n">
-        <v>31.50785151520473</v>
+        <v>31507851515.20473</v>
       </c>
       <c r="I177" t="n">
         <v>17.71919540634794</v>
       </c>
       <c r="J177" t="n">
-        <v>25.5341422055143</v>
+        <v>25534142205.5143</v>
       </c>
     </row>
     <row r="178">
@@ -6491,13 +6491,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H178" t="n">
-        <v>17.37724077331836</v>
+        <v>17377240773.31836</v>
       </c>
       <c r="I178" t="n">
         <v>22.62736001924338</v>
       </c>
       <c r="J178" t="n">
-        <v>39.66475294740067</v>
+        <v>39664752947.40067</v>
       </c>
     </row>
     <row r="179">
@@ -6525,13 +6525,13 @@
         <v>21741.68594864994</v>
       </c>
       <c r="H179" t="n">
-        <v>54.58431692148883</v>
+        <v>54584316921.48884</v>
       </c>
       <c r="I179" t="n">
         <v>2.457676799230207</v>
       </c>
       <c r="J179" t="n">
-        <v>2.457676799230207</v>
+        <v>2457676799.230194</v>
       </c>
     </row>
     <row r="180">
@@ -6559,13 +6559,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H180" t="n">
-        <v>28.90286909319764</v>
+        <v>28902869093.19764</v>
       </c>
       <c r="I180" t="n">
         <v>17.71919517292047</v>
       </c>
       <c r="J180" t="n">
-        <v>28.13912462752139</v>
+        <v>28139124627.52139</v>
       </c>
     </row>
     <row r="181">
@@ -6593,13 +6593,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H181" t="n">
-        <v>-1.141665449170949</v>
+        <v>-1141665449.170949</v>
       </c>
       <c r="I181" t="n">
         <v>22.62736001924336</v>
       </c>
       <c r="J181" t="n">
-        <v>58.18365916988999</v>
+        <v>58183659169.88998</v>
       </c>
     </row>
     <row r="182">
@@ -6627,13 +6627,13 @@
         <v>3913.69747315746</v>
       </c>
       <c r="H182" t="n">
-        <v>44.47419175991097</v>
+        <v>44474191759.91097</v>
       </c>
       <c r="I182" t="n">
         <v>7.472300916471141</v>
       </c>
       <c r="J182" t="n">
-        <v>12.56780196080806</v>
+        <v>12567801960.80806</v>
       </c>
     </row>
     <row r="183">
@@ -6661,13 +6661,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H183" t="n">
-        <v>20.34026576891665</v>
+        <v>20340265768.91665</v>
       </c>
       <c r="I183" t="n">
         <v>22.62735962097695</v>
       </c>
       <c r="J183" t="n">
-        <v>36.70172795180238</v>
+        <v>36701727951.80238</v>
       </c>
     </row>
     <row r="184">
@@ -6695,13 +6695,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H184" t="n">
-        <v>10.34005640877242</v>
+        <v>10340056408.77242</v>
       </c>
       <c r="I184" t="n">
         <v>22.62735972054355</v>
       </c>
       <c r="J184" t="n">
-        <v>46.70193731194662</v>
+        <v>46701937311.94661</v>
       </c>
     </row>
     <row r="185">
@@ -6729,13 +6729,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H185" t="n">
-        <v>13.30308140437071</v>
+        <v>13303081404.37071</v>
       </c>
       <c r="I185" t="n">
         <v>22.62735932227712</v>
       </c>
       <c r="J185" t="n">
-        <v>43.73891231634833</v>
+        <v>43738912316.34832</v>
       </c>
     </row>
     <row r="186">
@@ -6763,13 +6763,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H186" t="n">
-        <v>0.3398470486281841</v>
+        <v>339847048.6281841</v>
       </c>
       <c r="I186" t="n">
         <v>22.62735982011017</v>
       </c>
       <c r="J186" t="n">
-        <v>56.70214667209085</v>
+        <v>56702146672.09085</v>
       </c>
     </row>
     <row r="187">
@@ -6797,13 +6797,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H187" t="n">
-        <v>11.080812657672</v>
+        <v>11080812657.672</v>
       </c>
       <c r="I187" t="n">
         <v>22.62736011880997</v>
       </c>
       <c r="J187" t="n">
-        <v>45.96118106304704</v>
+        <v>45961181063.04703</v>
       </c>
     </row>
     <row r="188">
@@ -6831,13 +6831,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H188" t="n">
-        <v>3.673250168676273</v>
+        <v>3673250168.676273</v>
       </c>
       <c r="I188" t="n">
         <v>22.62736011880997</v>
       </c>
       <c r="J188" t="n">
-        <v>53.36874355204276</v>
+        <v>53368743552.04276</v>
       </c>
     </row>
     <row r="189">
@@ -6865,13 +6865,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H189" t="n">
-        <v>13.6734595288205</v>
+        <v>13673459528.8205</v>
       </c>
       <c r="I189" t="n">
         <v>22.62736001924336</v>
       </c>
       <c r="J189" t="n">
-        <v>43.36853419189853</v>
+        <v>43368534191.89853</v>
       </c>
     </row>
     <row r="190">
@@ -6899,13 +6899,13 @@
         <v>3913.69747315746</v>
       </c>
       <c r="H190" t="n">
-        <v>37.92283302274009</v>
+        <v>37922833022.74009</v>
       </c>
       <c r="I190" t="n">
         <v>7.472302286265254</v>
       </c>
       <c r="J190" t="n">
-        <v>19.11916069797894</v>
+        <v>19119160697.97894</v>
       </c>
     </row>
     <row r="191">
@@ -6933,13 +6933,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H191" t="n">
-        <v>2.19173767087712</v>
+        <v>2191737670.87712</v>
       </c>
       <c r="I191" t="n">
         <v>22.62735932227712</v>
       </c>
       <c r="J191" t="n">
-        <v>54.85025604984192</v>
+        <v>54850256049.84191</v>
       </c>
     </row>
     <row r="192">
@@ -6967,13 +6967,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H192" t="n">
-        <v>3.302872044226478</v>
+        <v>3302872044.226478</v>
       </c>
       <c r="I192" t="n">
         <v>22.62735942184372</v>
       </c>
       <c r="J192" t="n">
-        <v>53.73912167649256</v>
+        <v>53739121676.49255</v>
       </c>
     </row>
     <row r="193">
@@ -7001,13 +7001,13 @@
         <v>6319.405306137946</v>
       </c>
       <c r="H193" t="n">
-        <v>50.74206807091294</v>
+        <v>50742068070.91293</v>
       </c>
       <c r="I193" t="n">
         <v>3.949170069975857</v>
       </c>
       <c r="J193" t="n">
-        <v>6.299925649806092</v>
+        <v>6299925649.806099</v>
       </c>
     </row>
     <row r="194">
@@ -7035,13 +7035,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H194" t="n">
-        <v>8.488165786523487</v>
+        <v>8488165786.523487</v>
       </c>
       <c r="I194" t="n">
         <v>22.62735922271052</v>
       </c>
       <c r="J194" t="n">
-        <v>48.55382793419555</v>
+        <v>48553827934.19554</v>
       </c>
     </row>
     <row r="195">
@@ -7069,13 +7069,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H195" t="n">
-        <v>15.52535015106943</v>
+        <v>15525350151.06943</v>
       </c>
       <c r="I195" t="n">
         <v>22.62735952141033</v>
       </c>
       <c r="J195" t="n">
-        <v>41.5166435696496</v>
+        <v>41516643569.6496</v>
       </c>
     </row>
     <row r="196">
@@ -7103,13 +7103,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H196" t="n">
-        <v>-0.03053107582159597</v>
+        <v>-30531075.82159597</v>
       </c>
       <c r="I196" t="n">
         <v>22.62736011880998</v>
       </c>
       <c r="J196" t="n">
-        <v>57.07252479654063</v>
+        <v>57072524796.54063</v>
       </c>
     </row>
     <row r="197">
@@ -7137,13 +7137,13 @@
         <v>6319.405306137946</v>
       </c>
       <c r="H197" t="n">
-        <v>51.91744680873883</v>
+        <v>51917446808.73883</v>
       </c>
       <c r="I197" t="n">
         <v>3.949169122065072</v>
       </c>
       <c r="J197" t="n">
-        <v>5.124546911980204</v>
+        <v>5124546911.980202</v>
       </c>
     </row>
     <row r="198">
@@ -7171,13 +7171,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H198" t="n">
-        <v>23.30329076451495</v>
+        <v>23303290764.51495</v>
       </c>
       <c r="I198" t="n">
         <v>22.6273592227105</v>
       </c>
       <c r="J198" t="n">
-        <v>33.73870295620408</v>
+        <v>33738702956.20408</v>
       </c>
     </row>
     <row r="199">
@@ -7205,13 +7205,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H199" t="n">
-        <v>9.599300159872854</v>
+        <v>9599300159.872854</v>
       </c>
       <c r="I199" t="n">
         <v>22.6273593222771</v>
       </c>
       <c r="J199" t="n">
-        <v>47.44269356084618</v>
+        <v>47442693560.84618</v>
       </c>
     </row>
     <row r="200">
@@ -7239,13 +7239,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H200" t="n">
-        <v>14.41421577772007</v>
+        <v>14414215777.72007</v>
       </c>
       <c r="I200" t="n">
         <v>22.62735942184372</v>
       </c>
       <c r="J200" t="n">
-        <v>42.62777794299896</v>
+        <v>42627777942.99896</v>
       </c>
     </row>
     <row r="201">
@@ -7273,13 +7273,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H201" t="n">
-        <v>18.85875327111751</v>
+        <v>18858753271.11751</v>
       </c>
       <c r="I201" t="n">
         <v>22.62735982011016</v>
       </c>
       <c r="J201" t="n">
-        <v>38.18324044960153</v>
+        <v>38183240449.60152</v>
       </c>
     </row>
     <row r="202">
@@ -7307,13 +7307,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H202" t="n">
-        <v>18.48837514666772</v>
+        <v>18488375146.66772</v>
       </c>
       <c r="I202" t="n">
         <v>22.62736011880998</v>
       </c>
       <c r="J202" t="n">
-        <v>38.55361857405131</v>
+        <v>38553618574.05132</v>
       </c>
     </row>
     <row r="203">
@@ -7341,13 +7341,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H203" t="n">
-        <v>22.19215639116558</v>
+        <v>22192156391.16558</v>
       </c>
       <c r="I203" t="n">
         <v>22.62736011880998</v>
       </c>
       <c r="J203" t="n">
-        <v>34.84983732955345</v>
+        <v>34849837329.55345</v>
       </c>
     </row>
     <row r="204">
@@ -7375,13 +7375,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H204" t="n">
-        <v>33.46158833171004</v>
+        <v>33461588331.71004</v>
       </c>
       <c r="I204" t="n">
         <v>17.7191949978499</v>
       </c>
       <c r="J204" t="n">
-        <v>23.58040538900899</v>
+        <v>23580405389.00899</v>
       </c>
     </row>
     <row r="205">
@@ -7409,13 +7409,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H205" t="n">
-        <v>17.00686264886858</v>
+        <v>17006862648.86858</v>
       </c>
       <c r="I205" t="n">
         <v>22.6273593222771</v>
       </c>
       <c r="J205" t="n">
-        <v>40.03513107185046</v>
+        <v>40035131071.85045</v>
       </c>
     </row>
     <row r="206">
@@ -7443,13 +7443,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H206" t="n">
-        <v>34.54699767421301</v>
+        <v>34546997674.21301</v>
       </c>
       <c r="I206" t="n">
         <v>17.71919528963419</v>
       </c>
       <c r="J206" t="n">
-        <v>22.49499604650602</v>
+        <v>22494996046.50602</v>
       </c>
     </row>
     <row r="207">
@@ -7477,13 +7477,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H207" t="n">
-        <v>31.72493338370532</v>
+        <v>31724933383.70532</v>
       </c>
       <c r="I207" t="n">
         <v>17.71919523127735</v>
       </c>
       <c r="J207" t="n">
-        <v>25.31706033701371</v>
+        <v>25317060337.01371</v>
       </c>
     </row>
     <row r="208">
@@ -7511,13 +7511,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H208" t="n">
-        <v>5.895518915374986</v>
+        <v>5895518915.374986</v>
       </c>
       <c r="I208" t="n">
         <v>22.62735932227712</v>
       </c>
       <c r="J208" t="n">
-        <v>51.14647480534405</v>
+        <v>51146474805.34405</v>
       </c>
     </row>
     <row r="209">
@@ -7545,13 +7545,13 @@
         <v>3913.69747315746</v>
       </c>
       <c r="H209" t="n">
-        <v>43.74626301133643</v>
+        <v>43746263011.33643</v>
       </c>
       <c r="I209" t="n">
         <v>7.472301503525756</v>
       </c>
       <c r="J209" t="n">
-        <v>13.2957307093826</v>
+        <v>13295730709.3826</v>
       </c>
     </row>
     <row r="210">
@@ -7579,13 +7579,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H210" t="n">
-        <v>20.71064389336644</v>
+        <v>20710643893.36644</v>
       </c>
       <c r="I210" t="n">
         <v>22.62735932227712</v>
       </c>
       <c r="J210" t="n">
-        <v>36.3313498273526</v>
+        <v>36331349827.35259</v>
       </c>
     </row>
     <row r="211">
@@ -7613,13 +7613,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H211" t="n">
-        <v>32.81034272620828</v>
+        <v>32810342726.20828</v>
       </c>
       <c r="I211" t="n">
         <v>17.71919552306166</v>
       </c>
       <c r="J211" t="n">
-        <v>24.23165099451075</v>
+        <v>24231650994.51075</v>
       </c>
     </row>
     <row r="212">
@@ -7647,13 +7647,13 @@
         <v>1551.673899634734</v>
       </c>
       <c r="H212" t="n">
-        <v>38.03757772157646</v>
+        <v>38037577721.57646</v>
       </c>
       <c r="I212" t="n">
         <v>12.94373601790706</v>
       </c>
       <c r="J212" t="n">
-        <v>19.00441599914257</v>
+        <v>19004415999.14257</v>
       </c>
     </row>
     <row r="213">
@@ -7681,13 +7681,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H213" t="n">
-        <v>33.24450646320947</v>
+        <v>33244506463.20947</v>
       </c>
       <c r="I213" t="n">
         <v>17.71919517292046</v>
       </c>
       <c r="J213" t="n">
-        <v>23.79748725750957</v>
+        <v>23797487257.50956</v>
       </c>
     </row>
     <row r="214">
@@ -7715,13 +7715,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H214" t="n">
-        <v>16.63648452441879</v>
+        <v>16636484524.41879</v>
       </c>
       <c r="I214" t="n">
         <v>22.62735962097695</v>
       </c>
       <c r="J214" t="n">
-        <v>40.40550919630024</v>
+        <v>40405509196.30024</v>
       </c>
     </row>
     <row r="215">
@@ -7749,13 +7749,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H215" t="n">
-        <v>5.525140790925199</v>
+        <v>5525140790.925199</v>
       </c>
       <c r="I215" t="n">
         <v>22.62735962097695</v>
       </c>
       <c r="J215" t="n">
-        <v>51.51685292979383</v>
+        <v>51516852929.79383</v>
       </c>
     </row>
     <row r="216">
@@ -7783,13 +7783,13 @@
         <v>3913.69747315746</v>
       </c>
       <c r="H216" t="n">
-        <v>38.65076177131463</v>
+        <v>38650761771.31464</v>
       </c>
       <c r="I216" t="n">
         <v>7.472301699210625</v>
       </c>
       <c r="J216" t="n">
-        <v>18.39123194940441</v>
+        <v>18391231949.4044</v>
       </c>
     </row>
     <row r="217">
@@ -7817,13 +7817,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H217" t="n">
-        <v>21.45140014226601</v>
+        <v>21451400142.26601</v>
       </c>
       <c r="I217" t="n">
         <v>22.62735972054355</v>
       </c>
       <c r="J217" t="n">
-        <v>35.59059357845302</v>
+        <v>35590593578.45302</v>
       </c>
     </row>
     <row r="218">
@@ -7851,13 +7851,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H218" t="n">
-        <v>19.96988764446686</v>
+        <v>19969887644.46686</v>
       </c>
       <c r="I218" t="n">
         <v>22.62735991967678</v>
       </c>
       <c r="J218" t="n">
-        <v>37.07210607625218</v>
+        <v>37072106076.25217</v>
       </c>
     </row>
     <row r="219">
@@ -7885,13 +7885,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H219" t="n">
-        <v>10.71043453322221</v>
+        <v>10710434533.22221</v>
       </c>
       <c r="I219" t="n">
         <v>22.62735942184372</v>
       </c>
       <c r="J219" t="n">
-        <v>46.33155918749682</v>
+        <v>46331559187.49683</v>
       </c>
     </row>
     <row r="220">
@@ -7919,13 +7919,13 @@
         <v>2184.258181218738</v>
       </c>
       <c r="H220" t="n">
-        <v>43.04662207443474</v>
+        <v>43046622074.43474</v>
       </c>
       <c r="I220" t="n">
         <v>7.088928570699686</v>
       </c>
       <c r="J220" t="n">
-        <v>13.9953716462843</v>
+        <v>13995371646.28429</v>
       </c>
     </row>
     <row r="221">
@@ -7953,13 +7953,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H221" t="n">
-        <v>2.9324939197767</v>
+        <v>2932493919.7767</v>
       </c>
       <c r="I221" t="n">
         <v>22.62735972054355</v>
       </c>
       <c r="J221" t="n">
-        <v>54.10949980094233</v>
+        <v>54109499800.94233</v>
       </c>
     </row>
     <row r="222">
@@ -7987,13 +7987,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H222" t="n">
-        <v>-1.882421698070527</v>
+        <v>-1882421698.070527</v>
       </c>
       <c r="I222" t="n">
         <v>22.62735962097695</v>
       </c>
       <c r="J222" t="n">
-        <v>58.92441541878956</v>
+        <v>58924415418.78956</v>
       </c>
     </row>
     <row r="223">
@@ -8021,13 +8021,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H223" t="n">
-        <v>6.265897039824774</v>
+        <v>6265897039.824774</v>
       </c>
       <c r="I223" t="n">
         <v>22.62736001924336</v>
       </c>
       <c r="J223" t="n">
-        <v>50.77609668089426</v>
+        <v>50776096680.89426</v>
       </c>
     </row>
     <row r="224">
@@ -8055,13 +8055,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H224" t="n">
-        <v>12.56232515547114</v>
+        <v>12562325155.47114</v>
       </c>
       <c r="I224" t="n">
         <v>22.62735991967678</v>
       </c>
       <c r="J224" t="n">
-        <v>44.47966856524789</v>
+        <v>44479668565.24789</v>
       </c>
     </row>
     <row r="225">
@@ -8089,13 +8089,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H225" t="n">
-        <v>32.3761789892071</v>
+        <v>32376178989.2071</v>
       </c>
       <c r="I225" t="n">
         <v>17.71919587320282</v>
       </c>
       <c r="J225" t="n">
-        <v>24.66581473151194</v>
+        <v>24665814731.51193</v>
       </c>
     </row>
     <row r="226">
@@ -8123,13 +8123,13 @@
         <v>1551.673899634734</v>
       </c>
       <c r="H226" t="n">
-        <v>38.32618154129015</v>
+        <v>38326181541.29015</v>
       </c>
       <c r="I226" t="n">
         <v>12.94373578515594</v>
       </c>
       <c r="J226" t="n">
-        <v>18.71581217942889</v>
+        <v>18715812179.42888</v>
       </c>
     </row>
     <row r="227">
@@ -8157,13 +8157,13 @@
         <v>995.6660817494064</v>
       </c>
       <c r="H227" t="n">
-        <v>7.006653288724345</v>
+        <v>7006653288.724345</v>
       </c>
       <c r="I227" t="n">
         <v>22.62735942184372</v>
       </c>
       <c r="J227" t="n">
-        <v>50.03534043199469</v>
+        <v>50035340431.99469</v>
       </c>
     </row>
     <row r="228">
@@ -8191,13 +8191,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H228" t="n">
-        <v>26.73205040819173</v>
+        <v>26732050408.19173</v>
       </c>
       <c r="I228" t="n">
         <v>17.71919575648911</v>
       </c>
       <c r="J228" t="n">
-        <v>30.30994331252731</v>
+        <v>30309943312.5273</v>
       </c>
     </row>
     <row r="229">
@@ -8225,13 +8225,13 @@
         <v>1167.137253313277</v>
       </c>
       <c r="H229" t="n">
-        <v>33.89575206871122</v>
+        <v>33895752068.71122</v>
       </c>
       <c r="I229" t="n">
         <v>17.71919581484597</v>
       </c>
       <c r="J229" t="n">
-        <v>23.14624165200782</v>
+        <v>23146241652.00781</v>
       </c>
     </row>
     <row r="230">
@@ -8259,13 +8259,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H230" t="n">
-        <v>22.49529191499209</v>
+        <v>22495291914.99209</v>
       </c>
       <c r="I230" t="n">
         <v>18.80239266196423</v>
       </c>
       <c r="J230" t="n">
-        <v>34.54670180572694</v>
+        <v>34546701805.72694</v>
       </c>
     </row>
     <row r="231">
@@ -8293,13 +8293,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H231" t="n">
-        <v>23.56876755154756</v>
+        <v>23568767551.54756</v>
       </c>
       <c r="I231" t="n">
         <v>18.8023927581563</v>
       </c>
       <c r="J231" t="n">
-        <v>33.47322616917148</v>
+        <v>33473226169.17147</v>
       </c>
     </row>
     <row r="232">
@@ -8327,13 +8327,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H232" t="n">
-        <v>29.80440236521104</v>
+        <v>29804402365.21104</v>
       </c>
       <c r="I232" t="n">
         <v>14.37767456734859</v>
       </c>
       <c r="J232" t="n">
-        <v>27.23759135550799</v>
+        <v>27237591355.50799</v>
       </c>
     </row>
     <row r="233">
@@ -8361,13 +8361,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H233" t="n">
-        <v>0.8264083095641029</v>
+        <v>826408309.5641029</v>
       </c>
       <c r="I233" t="n">
         <v>23.23084594725715</v>
       </c>
       <c r="J233" t="n">
-        <v>56.21558541115493</v>
+        <v>56215585411.15493</v>
       </c>
     </row>
     <row r="234">
@@ -8395,13 +8395,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H234" t="n">
-        <v>1.506506032354017</v>
+        <v>1506506032.354017</v>
       </c>
       <c r="I234" t="n">
         <v>23.23084631291062</v>
       </c>
       <c r="J234" t="n">
-        <v>55.53548768836502</v>
+        <v>55535487688.36501</v>
       </c>
     </row>
     <row r="235">
@@ -8429,13 +8429,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H235" t="n">
-        <v>19.27486500532568</v>
+        <v>19274865005.32568</v>
       </c>
       <c r="I235" t="n">
         <v>18.80239333530879</v>
       </c>
       <c r="J235" t="n">
-        <v>37.76712871539335</v>
+        <v>37767128715.39336</v>
       </c>
     </row>
     <row r="236">
@@ -8463,13 +8463,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H236" t="n">
-        <v>8.987580983043152</v>
+        <v>8987580983.043152</v>
       </c>
       <c r="I236" t="n">
         <v>23.23084667856409</v>
       </c>
       <c r="J236" t="n">
-        <v>48.05441273767588</v>
+        <v>48054412737.67588</v>
       </c>
     </row>
     <row r="237">
@@ -8497,13 +8497,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H237" t="n">
-        <v>40.65435144521875</v>
+        <v>40654351445.21875</v>
       </c>
       <c r="I237" t="n">
         <v>10.98779857065323</v>
       </c>
       <c r="J237" t="n">
-        <v>16.38764227550028</v>
+        <v>16387642275.50028</v>
       </c>
     </row>
     <row r="238">
@@ -8531,13 +8531,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H238" t="n">
-        <v>20.7061658540663</v>
+        <v>20706165854.0663</v>
       </c>
       <c r="I238" t="n">
         <v>18.80239314292462</v>
       </c>
       <c r="J238" t="n">
-        <v>36.33582786665274</v>
+        <v>36335827866.65273</v>
       </c>
     </row>
     <row r="239">
@@ -8565,13 +8565,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H239" t="n">
-        <v>43.47166150062809</v>
+        <v>43471661500.6281</v>
       </c>
       <c r="I239" t="n">
         <v>10.98779882310696</v>
       </c>
       <c r="J239" t="n">
-        <v>13.57033222009095</v>
+        <v>13570332220.09093</v>
       </c>
     </row>
     <row r="240">
@@ -8599,13 +8599,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H240" t="n">
-        <v>38.07181722776017</v>
+        <v>38071817227.76017</v>
       </c>
       <c r="I240" t="n">
         <v>10.98779812885921</v>
       </c>
       <c r="J240" t="n">
-        <v>18.97017649295886</v>
+        <v>18970176492.95886</v>
       </c>
     </row>
     <row r="241">
@@ -8633,13 +8633,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H241" t="n">
-        <v>3.54679920072378</v>
+        <v>3546799200.72378</v>
       </c>
       <c r="I241" t="n">
         <v>23.23084649573737</v>
       </c>
       <c r="J241" t="n">
-        <v>53.49519451999525</v>
+        <v>53495194519.99525</v>
       </c>
     </row>
     <row r="242">
@@ -8667,13 +8667,13 @@
         <v>1989.361481219216</v>
       </c>
       <c r="H242" t="n">
-        <v>46.42637434503645</v>
+        <v>46426374345.03645</v>
       </c>
       <c r="I242" t="n">
         <v>9.505585509584478</v>
       </c>
       <c r="J242" t="n">
-        <v>10.61561937568258</v>
+        <v>10615619375.68258</v>
       </c>
     </row>
     <row r="243">
@@ -8701,13 +8701,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H243" t="n">
-        <v>41.82823063497266</v>
+        <v>41828230634.97266</v>
       </c>
       <c r="I243" t="n">
         <v>10.98779888622037</v>
       </c>
       <c r="J243" t="n">
-        <v>15.21376308574637</v>
+        <v>15213763085.74638</v>
       </c>
     </row>
     <row r="244">
@@ -8735,13 +8735,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H244" t="n">
-        <v>36.19361052415395</v>
+        <v>36193610524.15395</v>
       </c>
       <c r="I244" t="n">
         <v>10.98779838131293</v>
       </c>
       <c r="J244" t="n">
-        <v>20.84838319656509</v>
+        <v>20848383196.56508</v>
       </c>
     </row>
     <row r="245">
@@ -8769,13 +8769,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H245" t="n">
-        <v>44.88031652833278</v>
+        <v>44880316528.33279</v>
       </c>
       <c r="I245" t="n">
         <v>10.98779894933381</v>
       </c>
       <c r="J245" t="n">
-        <v>12.16167719238626</v>
+        <v>12161677192.38625</v>
       </c>
     </row>
     <row r="246">
@@ -8803,13 +8803,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H246" t="n">
-        <v>43.94121317652967</v>
+        <v>43941213176.52967</v>
       </c>
       <c r="I246" t="n">
         <v>10.98779844442635</v>
       </c>
       <c r="J246" t="n">
-        <v>13.10078054418936</v>
+        <v>13100780544.18936</v>
       </c>
     </row>
     <row r="247">
@@ -8837,13 +8837,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H247" t="n">
-        <v>43.00210982472654</v>
+        <v>43002109824.72654</v>
       </c>
       <c r="I247" t="n">
         <v>10.98779920178753</v>
       </c>
       <c r="J247" t="n">
-        <v>14.0398838959925</v>
+        <v>14039883895.99249</v>
       </c>
     </row>
     <row r="248">
@@ -8871,13 +8871,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H248" t="n">
-        <v>1.846554893748986</v>
+        <v>1846554893.748986</v>
       </c>
       <c r="I248" t="n">
         <v>23.23084603867051</v>
       </c>
       <c r="J248" t="n">
-        <v>55.19543882697005</v>
+        <v>55195438826.97005</v>
       </c>
     </row>
     <row r="249">
@@ -8905,13 +8905,13 @@
         <v>1989.361481219216</v>
       </c>
       <c r="H249" t="n">
-        <v>46.74066451385955</v>
+        <v>46740664513.85955</v>
       </c>
       <c r="I249" t="n">
         <v>9.505584614371791</v>
       </c>
       <c r="J249" t="n">
-        <v>10.30132920685949</v>
+        <v>10301329206.85948</v>
       </c>
     </row>
     <row r="250">
@@ -8939,13 +8939,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H250" t="n">
-        <v>32.61750930441427</v>
+        <v>32617509304.41427</v>
       </c>
       <c r="I250" t="n">
         <v>14.37767445931554</v>
       </c>
       <c r="J250" t="n">
-        <v>24.42448441630476</v>
+        <v>24424484416.30476</v>
       </c>
     </row>
     <row r="251">
@@ -8973,13 +8973,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H251" t="n">
-        <v>37.13271387595704</v>
+        <v>37132713875.95704</v>
       </c>
       <c r="I251" t="n">
         <v>10.98779888622038</v>
       </c>
       <c r="J251" t="n">
-        <v>19.909279844762</v>
+        <v>19909279844.76199</v>
       </c>
     </row>
     <row r="252">
@@ -9007,13 +9007,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H252" t="n">
-        <v>16.05443809565927</v>
+        <v>16054438095.65927</v>
       </c>
       <c r="I252" t="n">
         <v>18.80239304673255</v>
       </c>
       <c r="J252" t="n">
-        <v>40.98755562505977</v>
+        <v>40987555625.05976</v>
       </c>
     </row>
     <row r="253">
@@ -9041,13 +9041,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H253" t="n">
-        <v>8.307483260253226</v>
+        <v>8307483260.253226</v>
       </c>
       <c r="I253" t="n">
         <v>23.23084631291062</v>
       </c>
       <c r="J253" t="n">
-        <v>48.73451046046581</v>
+        <v>48734510460.46581</v>
       </c>
     </row>
     <row r="254">
@@ -9075,13 +9075,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H254" t="n">
-        <v>36.89793803800629</v>
+        <v>36897938038.00629</v>
       </c>
       <c r="I254" t="n">
         <v>10.98779907556064</v>
       </c>
       <c r="J254" t="n">
-        <v>20.14405568271275</v>
+        <v>20144055682.71275</v>
       </c>
     </row>
     <row r="255">
@@ -9109,13 +9109,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H255" t="n">
-        <v>0.1463105867741867</v>
+        <v>146310586.7741867</v>
       </c>
       <c r="I255" t="n">
         <v>23.23084649573735</v>
       </c>
       <c r="J255" t="n">
-        <v>56.89568313394485</v>
+        <v>56895683133.94485</v>
       </c>
     </row>
     <row r="256">
@@ -9143,13 +9143,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H256" t="n">
-        <v>31.81376446464191</v>
+        <v>31813764464.64191</v>
       </c>
       <c r="I256" t="n">
         <v>14.3776740271834</v>
       </c>
       <c r="J256" t="n">
-        <v>25.22822925607712</v>
+        <v>25228229256.07712</v>
       </c>
     </row>
     <row r="257">
@@ -9177,13 +9177,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H257" t="n">
-        <v>22.13746670280694</v>
+        <v>22137466702.80694</v>
       </c>
       <c r="I257" t="n">
         <v>18.80239295054045</v>
       </c>
       <c r="J257" t="n">
-        <v>34.90452701791209</v>
+        <v>34904527017.91209</v>
       </c>
     </row>
     <row r="258">
@@ -9211,13 +9211,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H258" t="n">
-        <v>26.07354403684365</v>
+        <v>26073544036.84365</v>
       </c>
       <c r="I258" t="n">
         <v>18.80239266196423</v>
       </c>
       <c r="J258" t="n">
-        <v>30.96844968387538</v>
+        <v>30968449683.87538</v>
       </c>
     </row>
     <row r="259">
@@ -9245,13 +9245,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H259" t="n">
-        <v>39.24569641751408</v>
+        <v>39245696417.51408</v>
       </c>
       <c r="I259" t="n">
         <v>10.98779844442635</v>
       </c>
       <c r="J259" t="n">
-        <v>17.79629730320495</v>
+        <v>17796297303.20496</v>
       </c>
     </row>
     <row r="260">
@@ -9279,13 +9279,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H260" t="n">
-        <v>32.2156368845281</v>
+        <v>32215636884.5281</v>
       </c>
       <c r="I260" t="n">
         <v>14.37767478341466</v>
       </c>
       <c r="J260" t="n">
-        <v>24.82635683619093</v>
+        <v>24826356836.19093</v>
       </c>
     </row>
     <row r="261">
@@ -9313,13 +9313,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H261" t="n">
-        <v>6.607238953278423</v>
+        <v>6607238953.278423</v>
       </c>
       <c r="I261" t="n">
         <v>23.23084585584378</v>
       </c>
       <c r="J261" t="n">
-        <v>50.43475476744061</v>
+        <v>50434754767.44061</v>
       </c>
     </row>
     <row r="262">
@@ -9347,13 +9347,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H262" t="n">
-        <v>20.34834064188115</v>
+        <v>20348340641.88115</v>
       </c>
       <c r="I262" t="n">
         <v>18.80239246958006</v>
       </c>
       <c r="J262" t="n">
-        <v>36.69365307883788</v>
+        <v>36693653078.83788</v>
       </c>
     </row>
     <row r="263">
@@ -9381,13 +9381,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H263" t="n">
-        <v>30.20627478509723</v>
+        <v>30206274785.09723</v>
       </c>
       <c r="I263" t="n">
         <v>14.37767424324945</v>
       </c>
       <c r="J263" t="n">
-        <v>26.83571893562181</v>
+        <v>26835718935.6218</v>
       </c>
     </row>
     <row r="264">
@@ -9415,13 +9415,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H264" t="n">
-        <v>42.76733398677575</v>
+        <v>42767333986.77576</v>
       </c>
       <c r="I264" t="n">
         <v>10.98779812885921</v>
       </c>
       <c r="J264" t="n">
-        <v>14.27465973394328</v>
+        <v>14274659733.94328</v>
       </c>
     </row>
     <row r="265">
@@ -9449,13 +9449,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H265" t="n">
-        <v>16.77008852002958</v>
+        <v>16770088520.02958</v>
       </c>
       <c r="I265" t="n">
         <v>18.80239246958006</v>
       </c>
       <c r="J265" t="n">
-        <v>40.27190520068945</v>
+        <v>40271905200.68945</v>
       </c>
     </row>
     <row r="266">
@@ -9483,13 +9483,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H266" t="n">
-        <v>33.42125414418663</v>
+        <v>33421254144.18663</v>
       </c>
       <c r="I266" t="n">
         <v>14.3776748914477</v>
       </c>
       <c r="J266" t="n">
-        <v>23.6207395765324</v>
+        <v>23620739576.5324</v>
       </c>
     </row>
     <row r="267">
@@ -9517,13 +9517,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H267" t="n">
-        <v>40.41957560726797</v>
+        <v>40419575607.26797</v>
       </c>
       <c r="I267" t="n">
         <v>10.98779875999352</v>
       </c>
       <c r="J267" t="n">
-        <v>16.62241811345106</v>
+        <v>16622418113.45107</v>
       </c>
     </row>
     <row r="268">
@@ -9551,13 +9551,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H268" t="n">
-        <v>36.6631622000555</v>
+        <v>36663162200.0555</v>
       </c>
       <c r="I268" t="n">
         <v>10.98779800263233</v>
       </c>
       <c r="J268" t="n">
-        <v>20.37883152066353</v>
+        <v>20378831520.66354</v>
       </c>
     </row>
     <row r="269">
@@ -9585,13 +9585,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H269" t="n">
-        <v>6.267190091883459</v>
+        <v>6267190091.883459</v>
       </c>
       <c r="I269" t="n">
         <v>23.2308461300839</v>
       </c>
       <c r="J269" t="n">
-        <v>50.77480362883558</v>
+        <v>50774803628.83557</v>
       </c>
     </row>
     <row r="270">
@@ -9619,13 +9619,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H270" t="n">
-        <v>2.866701477933868</v>
+        <v>2866701477.933868</v>
       </c>
       <c r="I270" t="n">
         <v>23.23084613008388</v>
       </c>
       <c r="J270" t="n">
-        <v>54.17529224278517</v>
+        <v>54175292242.78516</v>
       </c>
     </row>
     <row r="271">
@@ -9653,13 +9653,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H271" t="n">
-        <v>13.90748682254833</v>
+        <v>13907486822.54833</v>
       </c>
       <c r="I271" t="n">
         <v>18.8023928543484</v>
       </c>
       <c r="J271" t="n">
-        <v>43.13450689817071</v>
+        <v>43134506898.1707</v>
       </c>
     </row>
     <row r="272">
@@ -9687,13 +9687,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H272" t="n">
-        <v>12.47618597380771</v>
+        <v>12476185973.80771</v>
       </c>
       <c r="I272" t="n">
         <v>18.80239304673255</v>
       </c>
       <c r="J272" t="n">
-        <v>44.56580774691133</v>
+        <v>44565807746.91132</v>
       </c>
     </row>
     <row r="273">
@@ -9721,13 +9721,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H273" t="n">
-        <v>38.30659306571097</v>
+        <v>38306593065.71097</v>
       </c>
       <c r="I273" t="n">
         <v>10.98779920178752</v>
       </c>
       <c r="J273" t="n">
-        <v>18.73540065500806</v>
+        <v>18735400655.00806</v>
       </c>
     </row>
     <row r="274">
@@ -9755,13 +9755,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H274" t="n">
-        <v>12.83401118599287</v>
+        <v>12834011185.99287</v>
       </c>
       <c r="I274" t="n">
         <v>18.8023927581563</v>
       </c>
       <c r="J274" t="n">
-        <v>44.20798253472616</v>
+        <v>44207982534.72617</v>
       </c>
     </row>
     <row r="275">
@@ -9789,13 +9789,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H275" t="n">
-        <v>25.35789361247334</v>
+        <v>25357893612.47334</v>
       </c>
       <c r="I275" t="n">
         <v>18.80239323911672</v>
       </c>
       <c r="J275" t="n">
-        <v>31.68410010824569</v>
+        <v>31684100108.24569</v>
       </c>
     </row>
     <row r="276">
@@ -9823,13 +9823,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H276" t="n">
-        <v>5.927141230488508</v>
+        <v>5927141230.488508</v>
       </c>
       <c r="I276" t="n">
         <v>23.23084640432398</v>
       </c>
       <c r="J276" t="n">
-        <v>51.11485249023053</v>
+        <v>51114852490.23052</v>
       </c>
     </row>
     <row r="277">
@@ -9857,13 +9857,13 @@
         <v>1989.361481219216</v>
       </c>
       <c r="H277" t="n">
-        <v>46.05636275793286</v>
+        <v>46056362757.93286</v>
       </c>
       <c r="I277" t="n">
         <v>9.505585807988702</v>
       </c>
       <c r="J277" t="n">
-        <v>10.98563096278617</v>
+        <v>10985630962.78617</v>
       </c>
     </row>
     <row r="278">
@@ -9891,13 +9891,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H278" t="n">
-        <v>31.41189204475574</v>
+        <v>31411892044.75574</v>
       </c>
       <c r="I278" t="n">
         <v>14.37767435128251</v>
       </c>
       <c r="J278" t="n">
-        <v>25.6301016759633</v>
+        <v>25630101675.96329</v>
       </c>
     </row>
     <row r="279">
@@ -9925,13 +9925,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H279" t="n">
-        <v>39.95002393136641</v>
+        <v>39950023931.36641</v>
       </c>
       <c r="I279" t="n">
         <v>10.98779913867409</v>
       </c>
       <c r="J279" t="n">
-        <v>17.09196978935262</v>
+        <v>17091969789.35262</v>
       </c>
     </row>
     <row r="280">
@@ -9959,13 +9959,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H280" t="n">
-        <v>43.7064373385789</v>
+        <v>43706437338.5789</v>
       </c>
       <c r="I280" t="n">
         <v>10.98779863376664</v>
       </c>
       <c r="J280" t="n">
-        <v>13.33555638214013</v>
+        <v>13335556382.14013</v>
       </c>
     </row>
     <row r="281">
@@ -9993,13 +9993,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H281" t="n">
-        <v>3.886848062118744</v>
+        <v>3886848062.118744</v>
       </c>
       <c r="I281" t="n">
         <v>23.23084622149725</v>
       </c>
       <c r="J281" t="n">
-        <v>53.15514565860029</v>
+        <v>53155145658.60029</v>
       </c>
     </row>
     <row r="282">
@@ -10027,13 +10027,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H282" t="n">
-        <v>41.59345479702186</v>
+        <v>41593454797.02186</v>
       </c>
       <c r="I282" t="n">
         <v>10.98779907556067</v>
       </c>
       <c r="J282" t="n">
-        <v>15.44853892369717</v>
+        <v>15448538923.69717</v>
       </c>
     </row>
     <row r="283">
@@ -10061,13 +10061,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H283" t="n">
-        <v>18.55921458095537</v>
+        <v>18559214580.95537</v>
       </c>
       <c r="I283" t="n">
         <v>18.80239295054045</v>
       </c>
       <c r="J283" t="n">
-        <v>38.48277913976366</v>
+        <v>38482779139.76366</v>
       </c>
     </row>
     <row r="284">
@@ -10095,13 +10095,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H284" t="n">
-        <v>17.4857389443999</v>
+        <v>17485738944.3999</v>
       </c>
       <c r="I284" t="n">
         <v>18.80239285434838</v>
       </c>
       <c r="J284" t="n">
-        <v>39.55625477631914</v>
+        <v>39556254776.31914</v>
       </c>
     </row>
     <row r="285">
@@ -10129,13 +10129,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H285" t="n">
-        <v>33.82312656407281</v>
+        <v>33823126564.07281</v>
       </c>
       <c r="I285" t="n">
         <v>14.37767456734856</v>
       </c>
       <c r="J285" t="n">
-        <v>23.21886715664623</v>
+        <v>23218867156.64622</v>
       </c>
     </row>
     <row r="286">
@@ -10163,13 +10163,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H286" t="n">
-        <v>3.206750339328827</v>
+        <v>3206750339.328827</v>
       </c>
       <c r="I286" t="n">
         <v>23.23084585584378</v>
       </c>
       <c r="J286" t="n">
-        <v>53.83524338139021</v>
+        <v>53835243381.39021</v>
       </c>
     </row>
     <row r="287">
@@ -10197,13 +10197,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H287" t="n">
-        <v>6.947287814673388</v>
+        <v>6947287814.673388</v>
       </c>
       <c r="I287" t="n">
         <v>23.23084649573737</v>
       </c>
       <c r="J287" t="n">
-        <v>50.09470590604565</v>
+        <v>50094705906.04565</v>
       </c>
     </row>
     <row r="288">
@@ -10231,13 +10231,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H288" t="n">
-        <v>43.23688566267732</v>
+        <v>43236885662.67732</v>
       </c>
       <c r="I288" t="n">
         <v>10.98779901244725</v>
       </c>
       <c r="J288" t="n">
-        <v>13.80510805804172</v>
+        <v>13805108058.04171</v>
       </c>
     </row>
     <row r="289">
@@ -10265,13 +10265,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H289" t="n">
-        <v>23.92659276373272</v>
+        <v>23926592763.73272</v>
       </c>
       <c r="I289" t="n">
         <v>18.80239246958006</v>
       </c>
       <c r="J289" t="n">
-        <v>33.11540095698631</v>
+        <v>33115400956.98631</v>
       </c>
     </row>
     <row r="290">
@@ -10299,13 +10299,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H290" t="n">
-        <v>4.566945784908664</v>
+        <v>4566945784.908664</v>
       </c>
       <c r="I290" t="n">
         <v>23.23084658715072</v>
       </c>
       <c r="J290" t="n">
-        <v>52.47504793581037</v>
+        <v>52475047935.81037</v>
       </c>
     </row>
     <row r="291">
@@ -10333,13 +10333,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H291" t="n">
-        <v>44.64554069038201</v>
+        <v>44645540690.38201</v>
       </c>
       <c r="I291" t="n">
         <v>10.98779913867409</v>
       </c>
       <c r="J291" t="n">
-        <v>12.39645303033702</v>
+        <v>12396453030.33702</v>
       </c>
     </row>
     <row r="292">
@@ -10367,13 +10367,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H292" t="n">
-        <v>13.54966161036318</v>
+        <v>13549661610.36318</v>
       </c>
       <c r="I292" t="n">
         <v>18.80239314292462</v>
       </c>
       <c r="J292" t="n">
-        <v>43.49233211035585</v>
+        <v>43492332110.35585</v>
       </c>
     </row>
     <row r="293">
@@ -10401,13 +10401,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H293" t="n">
-        <v>16.41226330784443</v>
+        <v>16412263307.84443</v>
       </c>
       <c r="I293" t="n">
         <v>18.8023927581563</v>
       </c>
       <c r="J293" t="n">
-        <v>40.62973041287461</v>
+        <v>40629730412.8746</v>
       </c>
     </row>
     <row r="294">
@@ -10435,13 +10435,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H294" t="n">
-        <v>19.63269021751083</v>
+        <v>19632690217.51083</v>
       </c>
       <c r="I294" t="n">
         <v>18.80239304673255</v>
       </c>
       <c r="J294" t="n">
-        <v>37.40930350320821</v>
+        <v>37409303503.20821</v>
       </c>
     </row>
     <row r="295">
@@ -10469,13 +10469,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H295" t="n">
-        <v>14.62313724691864</v>
+        <v>14623137246.91864</v>
       </c>
       <c r="I295" t="n">
         <v>18.80239323911672</v>
       </c>
       <c r="J295" t="n">
-        <v>42.4188564738004</v>
+        <v>42418856473.80039</v>
       </c>
     </row>
     <row r="296">
@@ -10503,13 +10503,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H296" t="n">
-        <v>37.36748971390783</v>
+        <v>37367489713.90783</v>
       </c>
       <c r="I296" t="n">
         <v>10.98779869688008</v>
       </c>
       <c r="J296" t="n">
-        <v>19.6745040068112</v>
+        <v>19674504006.8112</v>
       </c>
     </row>
     <row r="297">
@@ -10537,13 +10537,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H297" t="n">
-        <v>38.77614474161252</v>
+        <v>38776144741.61252</v>
       </c>
       <c r="I297" t="n">
         <v>10.98779882310694</v>
       </c>
       <c r="J297" t="n">
-        <v>18.26584897910652</v>
+        <v>18265848979.10651</v>
       </c>
     </row>
     <row r="298">
@@ -10571,13 +10571,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H298" t="n">
-        <v>37.60226555185859</v>
+        <v>37602265551.8586</v>
       </c>
       <c r="I298" t="n">
         <v>10.98779850753981</v>
       </c>
       <c r="J298" t="n">
-        <v>19.43972816886044</v>
+        <v>19439728168.86044</v>
       </c>
     </row>
     <row r="299">
@@ -10605,13 +10605,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H299" t="n">
-        <v>21.77964149062178</v>
+        <v>21779641490.62178</v>
       </c>
       <c r="I299" t="n">
         <v>18.80239323911672</v>
       </c>
       <c r="J299" t="n">
-        <v>35.26235223009725</v>
+        <v>35262352230.09725</v>
       </c>
     </row>
     <row r="300">
@@ -10639,13 +10639,13 @@
         <v>2281.804968235886</v>
       </c>
       <c r="H300" t="n">
-        <v>48.12906715088944</v>
+        <v>48129067150.88944</v>
       </c>
       <c r="I300" t="n">
         <v>8.912926569829594</v>
       </c>
       <c r="J300" t="n">
-        <v>8.912926569829594</v>
+        <v>8912926569.82959</v>
       </c>
     </row>
     <row r="301">
@@ -10673,13 +10673,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H301" t="n">
-        <v>33.01938172430045</v>
+        <v>33019381724.30045</v>
       </c>
       <c r="I301" t="n">
         <v>14.37767413521644</v>
       </c>
       <c r="J301" t="n">
-        <v>24.02261199641858</v>
+        <v>24022611996.41858</v>
       </c>
     </row>
     <row r="302">
@@ -10707,13 +10707,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H302" t="n">
-        <v>1.166457170959064</v>
+        <v>1166457170.959064</v>
       </c>
       <c r="I302" t="n">
         <v>23.23084658715072</v>
       </c>
       <c r="J302" t="n">
-        <v>55.87553654975997</v>
+        <v>55875536549.75997</v>
       </c>
     </row>
     <row r="303">
@@ -10741,13 +10741,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H303" t="n">
-        <v>44.41076485243124</v>
+        <v>44410764852.43124</v>
       </c>
       <c r="I303" t="n">
         <v>10.98779806574577</v>
       </c>
       <c r="J303" t="n">
-        <v>12.63122886828779</v>
+        <v>12631228868.2878</v>
       </c>
     </row>
     <row r="304">
@@ -10775,13 +10775,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H304" t="n">
-        <v>24.64224318810304</v>
+        <v>24642243188.10304</v>
       </c>
       <c r="I304" t="n">
         <v>18.80239285434838</v>
       </c>
       <c r="J304" t="n">
-        <v>32.399750532616</v>
+        <v>32399750532.61599</v>
       </c>
     </row>
     <row r="305">
@@ -10809,13 +10809,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H305" t="n">
-        <v>14.98096245910381</v>
+        <v>14980962459.10381</v>
       </c>
       <c r="I305" t="n">
         <v>18.80239295054047</v>
       </c>
       <c r="J305" t="n">
-        <v>42.06103126161523</v>
+        <v>42061031261.61522</v>
       </c>
     </row>
     <row r="306">
@@ -10843,13 +10843,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H306" t="n">
-        <v>17.84356415658506</v>
+        <v>17843564156.58506</v>
       </c>
       <c r="I306" t="n">
         <v>18.80239256577214</v>
       </c>
       <c r="J306" t="n">
-        <v>39.19842956413397</v>
+        <v>39198429564.13397</v>
       </c>
     </row>
     <row r="307">
@@ -10877,13 +10877,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H307" t="n">
-        <v>2.526652616538904</v>
+        <v>2526652616.538904</v>
       </c>
       <c r="I307" t="n">
         <v>23.230846404324</v>
       </c>
       <c r="J307" t="n">
-        <v>54.51534110418013</v>
+        <v>54515341104.18013</v>
       </c>
     </row>
     <row r="308">
@@ -10911,13 +10911,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H308" t="n">
-        <v>15.69661288347412</v>
+        <v>15696612883.47412</v>
       </c>
       <c r="I308" t="n">
         <v>18.80239333530879</v>
       </c>
       <c r="J308" t="n">
-        <v>41.34538083724492</v>
+        <v>41345380837.24491</v>
       </c>
     </row>
     <row r="309">
@@ -10945,13 +10945,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H309" t="n">
-        <v>5.587092369093546</v>
+        <v>5587092369.093546</v>
       </c>
       <c r="I309" t="n">
         <v>23.23084667856409</v>
       </c>
       <c r="J309" t="n">
-        <v>51.45490135162549</v>
+        <v>51454901351.62549</v>
       </c>
     </row>
     <row r="310">
@@ -10979,13 +10979,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H310" t="n">
-        <v>18.20138936877021</v>
+        <v>18201389368.77021</v>
       </c>
       <c r="I310" t="n">
         <v>18.80239323911672</v>
       </c>
       <c r="J310" t="n">
-        <v>38.84060435194883</v>
+        <v>38840604351.94882</v>
       </c>
     </row>
     <row r="311">
@@ -11013,13 +11013,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H311" t="n">
-        <v>42.2977823108742</v>
+        <v>42297782310.87421</v>
       </c>
       <c r="I311" t="n">
         <v>10.98779850753977</v>
       </c>
       <c r="J311" t="n">
-        <v>14.74421140984484</v>
+        <v>14744211409.84483</v>
       </c>
     </row>
     <row r="312">
@@ -11047,13 +11047,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H312" t="n">
-        <v>4.226896923513704</v>
+        <v>4226896923.513704</v>
       </c>
       <c r="I312" t="n">
         <v>23.23084594725715</v>
       </c>
       <c r="J312" t="n">
-        <v>52.81509679720533</v>
+        <v>52815096797.20533</v>
       </c>
     </row>
     <row r="313">
@@ -11081,13 +11081,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H313" t="n">
-        <v>5.247043507698584</v>
+        <v>5247043507.698585</v>
       </c>
       <c r="I313" t="n">
         <v>23.23084603867053</v>
       </c>
       <c r="J313" t="n">
-        <v>51.79495021302045</v>
+        <v>51794950213.02045</v>
       </c>
     </row>
     <row r="314">
@@ -11115,13 +11115,13 @@
         <v>1989.361481219216</v>
       </c>
       <c r="H314" t="n">
-        <v>46.79638593214005</v>
+        <v>46796385932.14005</v>
       </c>
       <c r="I314" t="n">
         <v>9.505585211180247</v>
       </c>
       <c r="J314" t="n">
-        <v>10.24560778857899</v>
+        <v>10245607788.57898</v>
       </c>
     </row>
     <row r="315">
@@ -11149,13 +11149,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H315" t="n">
-        <v>13.19183639817803</v>
+        <v>13191836398.17803</v>
       </c>
       <c r="I315" t="n">
         <v>18.80239246958006</v>
       </c>
       <c r="J315" t="n">
-        <v>43.85015732254101</v>
+        <v>43850157322.541</v>
       </c>
     </row>
     <row r="316">
@@ -11183,13 +11183,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H316" t="n">
-        <v>19.99051542969599</v>
+        <v>19990515429.69599</v>
       </c>
       <c r="I316" t="n">
         <v>18.80239275815632</v>
       </c>
       <c r="J316" t="n">
-        <v>37.05147829102305</v>
+        <v>37051478291.02304</v>
       </c>
     </row>
     <row r="317">
@@ -11217,13 +11217,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H317" t="n">
-        <v>2.18660375514395</v>
+        <v>2186603755.14395</v>
       </c>
       <c r="I317" t="n">
         <v>23.23084667856409</v>
       </c>
       <c r="J317" t="n">
-        <v>54.85538996557509</v>
+        <v>54855389965.57508</v>
       </c>
     </row>
     <row r="318">
@@ -11251,13 +11251,13 @@
         <v>1989.361481219216</v>
       </c>
       <c r="H318" t="n">
-        <v>47.16639751924362</v>
+        <v>47166397519.24362</v>
       </c>
       <c r="I318" t="n">
         <v>9.505584912776044</v>
       </c>
       <c r="J318" t="n">
-        <v>9.875596201475418</v>
+        <v>9875596201.47541</v>
       </c>
     </row>
     <row r="319">
@@ -11285,13 +11285,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H319" t="n">
-        <v>30.6081472049834</v>
+        <v>30608147204.9834</v>
       </c>
       <c r="I319" t="n">
         <v>14.37767391915035</v>
       </c>
       <c r="J319" t="n">
-        <v>26.43384651573563</v>
+        <v>26433846515.73563</v>
       </c>
     </row>
     <row r="320">
@@ -11319,13 +11319,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H320" t="n">
-        <v>14.26531203473349</v>
+        <v>14265312034.73349</v>
       </c>
       <c r="I320" t="n">
         <v>18.80239256577214</v>
       </c>
       <c r="J320" t="n">
-        <v>42.77668168598554</v>
+        <v>42776681685.98554</v>
       </c>
     </row>
     <row r="321">
@@ -11353,13 +11353,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H321" t="n">
-        <v>18.91703979314053</v>
+        <v>18917039793.14053</v>
       </c>
       <c r="I321" t="n">
         <v>18.80239266196423</v>
       </c>
       <c r="J321" t="n">
-        <v>38.1249539275785</v>
+        <v>38124953927.57851</v>
       </c>
     </row>
     <row r="322">
@@ -11387,13 +11387,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H322" t="n">
-        <v>23.21094233936241</v>
+        <v>23210942339.36241</v>
       </c>
       <c r="I322" t="n">
         <v>18.80239304673255</v>
       </c>
       <c r="J322" t="n">
-        <v>33.83105138135662</v>
+        <v>33831051381.35662</v>
       </c>
     </row>
     <row r="323">
@@ -11421,13 +11421,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H323" t="n">
-        <v>22.85311712717725</v>
+        <v>22853117127.17725</v>
       </c>
       <c r="I323" t="n">
         <v>18.80239333530879</v>
       </c>
       <c r="J323" t="n">
-        <v>34.18887659354179</v>
+        <v>34188876593.54178</v>
       </c>
     </row>
     <row r="324">
@@ -11455,13 +11455,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H324" t="n">
-        <v>29.40252994532487</v>
+        <v>29402529945.32487</v>
       </c>
       <c r="I324" t="n">
         <v>14.3776748914477</v>
       </c>
       <c r="J324" t="n">
-        <v>27.63946377539417</v>
+        <v>27639463775.39416</v>
       </c>
     </row>
     <row r="325">
@@ -11489,13 +11489,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H325" t="n">
-        <v>39.71524809341564</v>
+        <v>39715248093.41564</v>
       </c>
       <c r="I325" t="n">
         <v>10.98779806574577</v>
       </c>
       <c r="J325" t="n">
-        <v>17.3267456273034</v>
+        <v>17326745627.30339</v>
       </c>
     </row>
     <row r="326">
@@ -11523,13 +11523,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H326" t="n">
-        <v>21.42181627843662</v>
+        <v>21421816278.43662</v>
       </c>
       <c r="I326" t="n">
         <v>18.80239256577214</v>
       </c>
       <c r="J326" t="n">
-        <v>35.62017744228241</v>
+        <v>35620177442.28241</v>
       </c>
     </row>
     <row r="327">
@@ -11557,13 +11557,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H327" t="n">
-        <v>40.88912728316954</v>
+        <v>40889127283.16953</v>
       </c>
       <c r="I327" t="n">
         <v>10.98779838131293</v>
       </c>
       <c r="J327" t="n">
-        <v>16.15286643754949</v>
+        <v>16152866437.5495</v>
       </c>
     </row>
     <row r="328">
@@ -11591,13 +11591,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H328" t="n">
-        <v>37.8370413898094</v>
+        <v>37837041389.8094</v>
       </c>
       <c r="I328" t="n">
         <v>10.98779831819949</v>
       </c>
       <c r="J328" t="n">
-        <v>19.20495233090963</v>
+        <v>19204952330.90963</v>
       </c>
     </row>
     <row r="329">
@@ -11625,13 +11625,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H329" t="n">
-        <v>7.627385537463311</v>
+        <v>7627385537.463311</v>
       </c>
       <c r="I329" t="n">
         <v>23.23084594725714</v>
       </c>
       <c r="J329" t="n">
-        <v>49.41460818325572</v>
+        <v>49414608183.25572</v>
       </c>
     </row>
     <row r="330">
@@ -11659,13 +11659,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H330" t="n">
-        <v>44.17598901448045</v>
+        <v>44175989014.48045</v>
       </c>
       <c r="I330" t="n">
         <v>10.98779825508606</v>
       </c>
       <c r="J330" t="n">
-        <v>12.86600470623858</v>
+        <v>12866004706.23858</v>
       </c>
     </row>
     <row r="331">
@@ -11693,13 +11693,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H331" t="n">
-        <v>25.00006840028819</v>
+        <v>25000068400.28819</v>
       </c>
       <c r="I331" t="n">
         <v>18.80239256577214</v>
       </c>
       <c r="J331" t="n">
-        <v>32.04192532043085</v>
+        <v>32041925320.43084</v>
       </c>
     </row>
     <row r="332">
@@ -11727,13 +11727,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H332" t="n">
-        <v>39.01092057956329</v>
+        <v>39010920579.56329</v>
       </c>
       <c r="I332" t="n">
         <v>10.98779863376665</v>
       </c>
       <c r="J332" t="n">
-        <v>18.03107314115574</v>
+        <v>18031073141.15574</v>
       </c>
     </row>
     <row r="333">
@@ -11761,13 +11761,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H333" t="n">
-        <v>41.12390312112032</v>
+        <v>41123903121.12032</v>
       </c>
       <c r="I333" t="n">
         <v>10.98779819197264</v>
       </c>
       <c r="J333" t="n">
-        <v>15.91809059959871</v>
+        <v>15918090599.59871</v>
       </c>
     </row>
     <row r="334">
@@ -11795,13 +11795,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H334" t="n">
-        <v>39.48047225546486</v>
+        <v>39480472255.46486</v>
       </c>
       <c r="I334" t="n">
         <v>10.98779825508606</v>
       </c>
       <c r="J334" t="n">
-        <v>17.56152146525417</v>
+        <v>17561521465.25417</v>
       </c>
     </row>
     <row r="335">
@@ -11829,13 +11829,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H335" t="n">
-        <v>21.06399106625146</v>
+        <v>21063991066.25146</v>
       </c>
       <c r="I335" t="n">
         <v>18.80239285434838</v>
       </c>
       <c r="J335" t="n">
-        <v>35.97800265446757</v>
+        <v>35978002654.46758</v>
       </c>
     </row>
     <row r="336">
@@ -11863,13 +11863,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H336" t="n">
-        <v>7.28733667606835</v>
+        <v>7287336676.068351</v>
       </c>
       <c r="I336" t="n">
         <v>23.23084622149725</v>
       </c>
       <c r="J336" t="n">
-        <v>49.75465704465068</v>
+        <v>49754657044.65068</v>
       </c>
     </row>
     <row r="337">
@@ -11897,13 +11897,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H337" t="n">
-        <v>42.53255814882499</v>
+        <v>42532558148.82499</v>
       </c>
       <c r="I337" t="n">
         <v>10.9877983181995</v>
       </c>
       <c r="J337" t="n">
-        <v>14.50943557189404</v>
+        <v>14509435571.89404</v>
       </c>
     </row>
     <row r="338">
@@ -11931,13 +11931,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H338" t="n">
-        <v>25.7157188246585</v>
+        <v>25715718824.6585</v>
       </c>
       <c r="I338" t="n">
         <v>18.80239295054045</v>
       </c>
       <c r="J338" t="n">
-        <v>31.32627489606054</v>
+        <v>31326274896.06053</v>
       </c>
     </row>
     <row r="339">
@@ -11965,13 +11965,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H339" t="n">
-        <v>24.28441797591787</v>
+        <v>24284417975.91787</v>
       </c>
       <c r="I339" t="n">
         <v>18.80239314292462</v>
       </c>
       <c r="J339" t="n">
-        <v>32.75757574480117</v>
+        <v>32757575744.80116</v>
       </c>
     </row>
     <row r="340">
@@ -11999,13 +11999,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H340" t="n">
-        <v>15.33878767128896</v>
+        <v>15338787671.28896</v>
       </c>
       <c r="I340" t="n">
         <v>18.80239266196423</v>
       </c>
       <c r="J340" t="n">
-        <v>41.70320604943007</v>
+        <v>41703206049.43007</v>
       </c>
     </row>
     <row r="341">
@@ -12033,13 +12033,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H341" t="n">
-        <v>42.06300647292344</v>
+        <v>42063006472.92344</v>
       </c>
       <c r="I341" t="n">
         <v>10.98779869688008</v>
       </c>
       <c r="J341" t="n">
-        <v>14.97898724779559</v>
+        <v>14978987247.79559</v>
       </c>
     </row>
     <row r="342">
@@ -12067,13 +12067,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H342" t="n">
-        <v>4.906994646303631</v>
+        <v>4906994646.303631</v>
       </c>
       <c r="I342" t="n">
         <v>23.23084631291061</v>
       </c>
       <c r="J342" t="n">
-        <v>52.1349990744154</v>
+        <v>52134999074.41541</v>
       </c>
     </row>
     <row r="343">
@@ -12101,13 +12101,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H343" t="n">
-        <v>0.4863594481691473</v>
+        <v>486359448.1691473</v>
       </c>
       <c r="I343" t="n">
         <v>23.23084622149725</v>
       </c>
       <c r="J343" t="n">
-        <v>56.55563427254989</v>
+        <v>56555634272.54989</v>
       </c>
     </row>
     <row r="344">
@@ -12135,13 +12135,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H344" t="n">
-        <v>7.967434398858269</v>
+        <v>7967434398.858269</v>
       </c>
       <c r="I344" t="n">
         <v>23.23084658715072</v>
       </c>
       <c r="J344" t="n">
-        <v>49.07455932186077</v>
+        <v>49074559321.86076</v>
       </c>
     </row>
     <row r="345">
@@ -12169,13 +12169,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H345" t="n">
-        <v>17.12791373221474</v>
+        <v>17127913732.21474</v>
       </c>
       <c r="I345" t="n">
         <v>18.80239314292462</v>
       </c>
       <c r="J345" t="n">
-        <v>39.9140799885043</v>
+        <v>39914079988.50429</v>
       </c>
     </row>
     <row r="346">
@@ -12203,13 +12203,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H346" t="n">
-        <v>38.54136890366174</v>
+        <v>38541368903.66174</v>
       </c>
       <c r="I346" t="n">
         <v>10.98779901244723</v>
       </c>
       <c r="J346" t="n">
-        <v>18.50062481705729</v>
+        <v>18500624817.05729</v>
       </c>
     </row>
     <row r="347">
@@ -12237,13 +12237,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H347" t="n">
-        <v>41.3586789590711</v>
+        <v>41358678959.0711</v>
       </c>
       <c r="I347" t="n">
         <v>10.98779800263233</v>
       </c>
       <c r="J347" t="n">
-        <v>15.68331476164794</v>
+        <v>15683314761.64793</v>
       </c>
     </row>
     <row r="348">
@@ -12271,13 +12271,13 @@
         <v>914.1336787409788</v>
       </c>
       <c r="H348" t="n">
-        <v>8.647532121648192</v>
+        <v>8647532121.648191</v>
       </c>
       <c r="I348" t="n">
         <v>23.23084603867051</v>
       </c>
       <c r="J348" t="n">
-        <v>48.39446159907084</v>
+        <v>48394461599.07084</v>
       </c>
     </row>
     <row r="349">
@@ -12305,13 +12305,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H349" t="n">
-        <v>31.01001962486958</v>
+        <v>31010019624.86958</v>
       </c>
       <c r="I349" t="n">
         <v>14.37767467538163</v>
       </c>
       <c r="J349" t="n">
-        <v>26.03197409584945</v>
+        <v>26031974095.84945</v>
       </c>
     </row>
     <row r="350">
@@ -12339,13 +12339,13 @@
         <v>1262.268601900532</v>
       </c>
       <c r="H350" t="n">
-        <v>40.18479976931719</v>
+        <v>40184799769.31719</v>
       </c>
       <c r="I350" t="n">
         <v>10.98779894933379</v>
       </c>
       <c r="J350" t="n">
-        <v>16.85719395140185</v>
+        <v>16857193951.40184</v>
       </c>
     </row>
     <row r="351">
@@ -12373,13 +12373,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H351" t="n">
-        <v>24.98193332657693</v>
+        <v>24981933326.57693</v>
       </c>
       <c r="I351" t="n">
         <v>14.37767413521644</v>
       </c>
       <c r="J351" t="n">
-        <v>32.06006039414211</v>
+        <v>32060060394.1421</v>
       </c>
     </row>
     <row r="352">
@@ -12407,13 +12407,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H352" t="n">
-        <v>26.18755058623547</v>
+        <v>26187550586.23547</v>
       </c>
       <c r="I352" t="n">
         <v>14.37767424324945</v>
       </c>
       <c r="J352" t="n">
-        <v>30.85444313448356</v>
+        <v>30854443134.48356</v>
       </c>
     </row>
     <row r="353">
@@ -12441,13 +12441,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H353" t="n">
-        <v>30.65443710530693</v>
+        <v>30654437105.30693</v>
       </c>
       <c r="I353" t="n">
         <v>10.98925431859293</v>
       </c>
       <c r="J353" t="n">
-        <v>26.38755661541211</v>
+        <v>26387556615.4121</v>
       </c>
     </row>
     <row r="354">
@@ -12475,13 +12475,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H354" t="n">
-        <v>3.530555669178797</v>
+        <v>3530555669.178797</v>
       </c>
       <c r="I354" t="n">
         <v>18.80239256577214</v>
       </c>
       <c r="J354" t="n">
-        <v>53.51143805154024</v>
+        <v>53511438051.54024</v>
       </c>
     </row>
     <row r="355">
@@ -12509,13 +12509,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H355" t="n">
-        <v>4.246206093549111</v>
+        <v>4246206093.549111</v>
       </c>
       <c r="I355" t="n">
         <v>18.80239295054047</v>
       </c>
       <c r="J355" t="n">
-        <v>52.79578762716992</v>
+        <v>52795787627.16992</v>
       </c>
     </row>
     <row r="356">
@@ -12543,13 +12543,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H356" t="n">
-        <v>21.36508154760135</v>
+        <v>21365081547.60135</v>
       </c>
       <c r="I356" t="n">
         <v>14.3776748914477</v>
       </c>
       <c r="J356" t="n">
-        <v>35.67691217311769</v>
+        <v>35676912173.11768</v>
       </c>
     </row>
     <row r="357">
@@ -12577,13 +12577,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H357" t="n">
-        <v>13.32763314987783</v>
+        <v>13327633149.87783</v>
       </c>
       <c r="I357" t="n">
         <v>14.3776748914477</v>
       </c>
       <c r="J357" t="n">
-        <v>43.71436057084121</v>
+        <v>43714360570.8412</v>
       </c>
     </row>
     <row r="358">
@@ -12611,13 +12611,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H358" t="n">
-        <v>40.51897501142419</v>
+        <v>40518975011.42419</v>
       </c>
       <c r="I358" t="n">
         <v>10.98925412455685</v>
       </c>
       <c r="J358" t="n">
-        <v>16.52301870929485</v>
+        <v>16523018709.29485</v>
       </c>
     </row>
     <row r="359">
@@ -12645,13 +12645,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H359" t="n">
-        <v>22.97257122714606</v>
+        <v>22972571227.14606</v>
       </c>
       <c r="I359" t="n">
         <v>14.37767467538163</v>
       </c>
       <c r="J359" t="n">
-        <v>34.06942249357297</v>
+        <v>34069422493.57297</v>
       </c>
     </row>
     <row r="360">
@@ -12679,13 +12679,13 @@
         <v>2399.316675060429</v>
       </c>
       <c r="H360" t="n">
-        <v>45.64116437407758</v>
+        <v>45641164374.07758</v>
       </c>
       <c r="I360" t="n">
         <v>6.491956992568277</v>
       </c>
       <c r="J360" t="n">
-        <v>11.40082934664145</v>
+        <v>11400829346.64145</v>
       </c>
     </row>
     <row r="361">
@@ -12713,13 +12713,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H361" t="n">
-        <v>37.87239167075858</v>
+        <v>37872391670.75858</v>
       </c>
       <c r="I361" t="n">
         <v>10.98925367180596</v>
       </c>
       <c r="J361" t="n">
-        <v>19.16960204996045</v>
+        <v>19169602049.96045</v>
       </c>
     </row>
     <row r="362">
@@ -12747,13 +12747,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H362" t="n">
-        <v>6.897674431699013</v>
+        <v>6897674431.699013</v>
       </c>
       <c r="I362" t="n">
         <v>14.37767467538163</v>
       </c>
       <c r="J362" t="n">
-        <v>50.14431928902002</v>
+        <v>50144319289.02002</v>
       </c>
     </row>
     <row r="363">
@@ -12781,13 +12781,13 @@
         <v>4010.631100056018</v>
       </c>
       <c r="H363" t="n">
-        <v>49.74969948247139</v>
+        <v>49749699482.47138</v>
       </c>
       <c r="I363" t="n">
         <v>5.054422243882897</v>
       </c>
       <c r="J363" t="n">
-        <v>7.292294238247642</v>
+        <v>7292294238.24765</v>
       </c>
     </row>
     <row r="364">
@@ -12815,13 +12815,13 @@
         <v>2399.316675060429</v>
       </c>
       <c r="H364" t="n">
-        <v>42.51733551995004</v>
+        <v>42517335519.95004</v>
       </c>
       <c r="I364" t="n">
         <v>6.491957112534081</v>
       </c>
       <c r="J364" t="n">
-        <v>14.524658200769</v>
+        <v>14524658200.76899</v>
       </c>
     </row>
     <row r="365">
@@ -12849,13 +12849,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H365" t="n">
-        <v>35.94760378663813</v>
+        <v>35947603786.63813</v>
       </c>
       <c r="I365" t="n">
         <v>10.98925393052077</v>
       </c>
       <c r="J365" t="n">
-        <v>21.0943899340809</v>
+        <v>21094389934.0809</v>
       </c>
     </row>
     <row r="366">
@@ -12883,13 +12883,13 @@
         <v>4010.631100056018</v>
       </c>
       <c r="H366" t="n">
-        <v>48.25778361637225</v>
+        <v>48257783616.37225</v>
       </c>
       <c r="I366" t="n">
         <v>5.054423447072182</v>
       </c>
       <c r="J366" t="n">
-        <v>8.784210104346784</v>
+        <v>8784210104.346779</v>
       </c>
     </row>
     <row r="367">
@@ -12917,13 +12917,13 @@
         <v>2399.316675060429</v>
       </c>
       <c r="H367" t="n">
-        <v>46.53368690382831</v>
+        <v>46533686903.82831</v>
       </c>
       <c r="I367" t="n">
         <v>6.491956272773272</v>
       </c>
       <c r="J367" t="n">
-        <v>10.50830681689072</v>
+        <v>10508306816.89072</v>
       </c>
     </row>
     <row r="368">
@@ -12951,13 +12951,13 @@
         <v>2399.316675060429</v>
       </c>
       <c r="H368" t="n">
-        <v>44.74864184432686</v>
+        <v>44748641844.32686</v>
       </c>
       <c r="I368" t="n">
         <v>6.491957712363252</v>
       </c>
       <c r="J368" t="n">
-        <v>12.29335187639217</v>
+        <v>12293351876.39217</v>
       </c>
     </row>
     <row r="369">
@@ -12985,13 +12985,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H369" t="n">
-        <v>4.888312332268147</v>
+        <v>4888312332.268147</v>
       </c>
       <c r="I369" t="n">
         <v>14.37767413521642</v>
       </c>
       <c r="J369" t="n">
-        <v>52.15368138845088</v>
+        <v>52153681388.45088</v>
       </c>
     </row>
     <row r="370">
@@ -13019,13 +13019,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H370" t="n">
-        <v>34.0228159025177</v>
+        <v>34022815902.5177</v>
       </c>
       <c r="I370" t="n">
         <v>10.98925418923555</v>
       </c>
       <c r="J370" t="n">
-        <v>23.01917781820134</v>
+        <v>23019177818.20133</v>
       </c>
     </row>
     <row r="371">
@@ -13053,13 +13053,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H371" t="n">
-        <v>36.90999772869836</v>
+        <v>36909997728.69836</v>
       </c>
       <c r="I371" t="n">
         <v>10.98925444795034</v>
       </c>
       <c r="J371" t="n">
-        <v>20.13199599202068</v>
+        <v>20131995992.02068</v>
       </c>
     </row>
     <row r="372">
@@ -13087,13 +13087,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H372" t="n">
-        <v>17.74822976862577</v>
+        <v>17748229768.62577</v>
       </c>
       <c r="I372" t="n">
         <v>14.37767456734858</v>
       </c>
       <c r="J372" t="n">
-        <v>39.29376395209326</v>
+        <v>39293763952.09326</v>
       </c>
     </row>
     <row r="373">
@@ -13121,13 +13121,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H373" t="n">
-        <v>12.52388831010548</v>
+        <v>12523888310.10548</v>
       </c>
       <c r="I373" t="n">
         <v>14.37767445931554</v>
       </c>
       <c r="J373" t="n">
-        <v>44.51810541061356</v>
+        <v>44518105410.61356</v>
       </c>
     </row>
     <row r="374">
@@ -13155,13 +13155,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H374" t="n">
-        <v>36.66939924318331</v>
+        <v>36669399243.18331</v>
       </c>
       <c r="I374" t="n">
         <v>10.98925464198643</v>
       </c>
       <c r="J374" t="n">
-        <v>20.37259447753573</v>
+        <v>20372594477.53572</v>
       </c>
     </row>
     <row r="375">
@@ -13189,13 +13189,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H375" t="n">
-        <v>2.814905244808493</v>
+        <v>2814905244.808493</v>
       </c>
       <c r="I375" t="n">
         <v>18.80239314292462</v>
       </c>
       <c r="J375" t="n">
-        <v>54.22708847591054</v>
+        <v>54227088475.91054</v>
       </c>
     </row>
     <row r="376">
@@ -13223,13 +13223,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H376" t="n">
-        <v>33.06042196045748</v>
+        <v>33060421960.45748</v>
       </c>
       <c r="I376" t="n">
         <v>10.98925367180595</v>
       </c>
       <c r="J376" t="n">
-        <v>23.98157176026155</v>
+        <v>23981571760.26155</v>
       </c>
     </row>
     <row r="377">
@@ -13257,13 +13257,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H377" t="n">
-        <v>24.58006090669076</v>
+        <v>24580060906.69076</v>
       </c>
       <c r="I377" t="n">
         <v>14.37767445931554</v>
       </c>
       <c r="J377" t="n">
-        <v>32.46193281402827</v>
+        <v>32461932814.02827</v>
       </c>
     </row>
     <row r="378">
@@ -13291,13 +13291,13 @@
         <v>1258.907673175854</v>
       </c>
       <c r="H378" t="n">
-        <v>29.4643944224053</v>
+        <v>29464394422.4053</v>
       </c>
       <c r="I378" t="n">
         <v>11.65535048751769</v>
       </c>
       <c r="J378" t="n">
-        <v>27.57759929831374</v>
+        <v>27577599298.31373</v>
       </c>
     </row>
     <row r="379">
@@ -13325,13 +13325,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H379" t="n">
-        <v>39.07538409833385</v>
+        <v>39075384098.33385</v>
       </c>
       <c r="I379" t="n">
         <v>10.98925399519946</v>
       </c>
       <c r="J379" t="n">
-        <v>17.96660962238519</v>
+        <v>17966609622.38519</v>
       </c>
     </row>
     <row r="380">
@@ -13359,13 +13359,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H380" t="n">
-        <v>33.54161893148759</v>
+        <v>33541618931.48759</v>
       </c>
       <c r="I380" t="n">
         <v>10.98925457730773</v>
       </c>
       <c r="J380" t="n">
-        <v>23.50037478923144</v>
+        <v>23500374789.23144</v>
       </c>
     </row>
     <row r="381">
@@ -13393,13 +13393,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H381" t="n">
-        <v>10.51452621067459</v>
+        <v>10514526210.67459</v>
       </c>
       <c r="I381" t="n">
         <v>14.37767391915035</v>
       </c>
       <c r="J381" t="n">
-        <v>46.52746751004445</v>
+        <v>46527467510.04444</v>
       </c>
     </row>
     <row r="382">
@@ -13427,13 +13427,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H382" t="n">
-        <v>22.57069880725988</v>
+        <v>22570698807.25988</v>
       </c>
       <c r="I382" t="n">
         <v>14.37767391915035</v>
       </c>
       <c r="J382" t="n">
-        <v>34.47129491345915</v>
+        <v>34471294913.45915</v>
       </c>
     </row>
     <row r="383">
@@ -13461,13 +13461,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H383" t="n">
-        <v>31.13563407633704</v>
+        <v>31135634076.33704</v>
       </c>
       <c r="I383" t="n">
         <v>10.98925393052075</v>
       </c>
       <c r="J383" t="n">
-        <v>25.90635964438199</v>
+        <v>25906359644.38199</v>
       </c>
     </row>
     <row r="384">
@@ -13495,13 +13495,13 @@
         <v>2399.316675060429</v>
       </c>
       <c r="H384" t="n">
-        <v>44.30238057945149</v>
+        <v>44302380579.45149</v>
       </c>
       <c r="I384" t="n">
         <v>6.491955672944087</v>
       </c>
       <c r="J384" t="n">
-        <v>12.73961314126755</v>
+        <v>12739613141.26754</v>
       </c>
     </row>
     <row r="385">
@@ -13529,13 +13529,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H385" t="n">
-        <v>18.55197460839812</v>
+        <v>18551974608.39812</v>
       </c>
       <c r="I385" t="n">
         <v>14.37767391915035</v>
       </c>
       <c r="J385" t="n">
-        <v>38.49001911232092</v>
+        <v>38490019112.32091</v>
       </c>
     </row>
     <row r="386">
@@ -13563,13 +13563,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H386" t="n">
-        <v>34.98520984457792</v>
+        <v>34985209844.57792</v>
       </c>
       <c r="I386" t="n">
         <v>10.98925470666514</v>
       </c>
       <c r="J386" t="n">
-        <v>22.05678387614111</v>
+        <v>22056783876.14111</v>
       </c>
     </row>
     <row r="387">
@@ -13597,13 +13597,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H387" t="n">
-        <v>40.27837652590914</v>
+        <v>40278376525.90914</v>
       </c>
       <c r="I387" t="n">
         <v>10.98925431859294</v>
       </c>
       <c r="J387" t="n">
-        <v>16.7636171948099</v>
+        <v>16763617194.80989</v>
       </c>
     </row>
     <row r="388">
@@ -13631,13 +13631,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H388" t="n">
-        <v>36.42880075766826</v>
+        <v>36428800757.66826</v>
       </c>
       <c r="I388" t="n">
         <v>10.98925354244855</v>
       </c>
       <c r="J388" t="n">
-        <v>20.61319296305077</v>
+        <v>20613192963.05077</v>
       </c>
     </row>
     <row r="389">
@@ -13665,13 +13665,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H389" t="n">
-        <v>10.11265379078842</v>
+        <v>10112653790.78842</v>
       </c>
       <c r="I389" t="n">
         <v>14.37767424324945</v>
       </c>
       <c r="J389" t="n">
-        <v>46.92933992993061</v>
+        <v>46929339929.93061</v>
       </c>
     </row>
     <row r="390">
@@ -13699,13 +13699,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H390" t="n">
-        <v>6.093929591926661</v>
+        <v>6093929591.926661</v>
       </c>
       <c r="I390" t="n">
         <v>14.37767424324947</v>
       </c>
       <c r="J390" t="n">
-        <v>50.94806412879237</v>
+        <v>50948064128.79237</v>
       </c>
     </row>
     <row r="391">
@@ -13733,13 +13733,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H391" t="n">
-        <v>15.33699524930871</v>
+        <v>15336995249.30871</v>
       </c>
       <c r="I391" t="n">
         <v>14.37767435128249</v>
       </c>
       <c r="J391" t="n">
-        <v>41.70499847141032</v>
+        <v>41704998471.41032</v>
       </c>
     </row>
     <row r="392">
@@ -13767,13 +13767,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H392" t="n">
-        <v>13.72950556976401</v>
+        <v>13729505569.76401</v>
       </c>
       <c r="I392" t="n">
         <v>14.37767456734858</v>
       </c>
       <c r="J392" t="n">
-        <v>43.31248815095503</v>
+        <v>43312488150.95502</v>
       </c>
     </row>
     <row r="393">
@@ -13801,13 +13801,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H393" t="n">
-        <v>38.11299015627367</v>
+        <v>38112990156.27367</v>
       </c>
       <c r="I393" t="n">
         <v>10.98925477134382</v>
       </c>
       <c r="J393" t="n">
-        <v>18.92900356444537</v>
+        <v>18929003564.44537</v>
       </c>
     </row>
     <row r="394">
@@ -13835,13 +13835,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H394" t="n">
-        <v>14.13137798965018</v>
+        <v>14131377989.65018</v>
       </c>
       <c r="I394" t="n">
         <v>14.37767424324945</v>
       </c>
       <c r="J394" t="n">
-        <v>42.91061573106886</v>
+        <v>42910615731.06885</v>
       </c>
     </row>
     <row r="395">
@@ -13869,13 +13869,13 @@
         <v>1258.907673175854</v>
       </c>
       <c r="H395" t="n">
-        <v>28.52779153637132</v>
+        <v>28527791536.37132</v>
       </c>
       <c r="I395" t="n">
         <v>11.65535124286228</v>
       </c>
       <c r="J395" t="n">
-        <v>28.51420218434771</v>
+        <v>28514202184.34771</v>
       </c>
     </row>
     <row r="396">
@@ -13903,13 +13903,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H396" t="n">
-        <v>9.710781370902247</v>
+        <v>9710781370.902246</v>
       </c>
       <c r="I396" t="n">
         <v>14.37767456734858</v>
       </c>
       <c r="J396" t="n">
-        <v>47.33121234981679</v>
+        <v>47331212349.81679</v>
       </c>
     </row>
     <row r="397">
@@ -13937,13 +13937,13 @@
         <v>4010.631100056018</v>
       </c>
       <c r="H397" t="n">
-        <v>49.0037415494218</v>
+        <v>49003741549.42181</v>
       </c>
       <c r="I397" t="n">
         <v>5.054422845477532</v>
       </c>
       <c r="J397" t="n">
-        <v>8.038252171297238</v>
+        <v>8038252171.297226</v>
       </c>
     </row>
     <row r="398">
@@ -13971,13 +13971,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H398" t="n">
-        <v>32.57922498942736</v>
+        <v>32579224989.42736</v>
       </c>
       <c r="I398" t="n">
         <v>10.98925405987816</v>
       </c>
       <c r="J398" t="n">
-        <v>24.46276873129167</v>
+        <v>24462768731.29167</v>
       </c>
     </row>
     <row r="399">
@@ -14005,13 +14005,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H399" t="n">
-        <v>39.79717955487904</v>
+        <v>39797179554.87904</v>
       </c>
       <c r="I399" t="n">
         <v>10.98925470666512</v>
       </c>
       <c r="J399" t="n">
-        <v>17.24481416584</v>
+        <v>17244814165.83999</v>
       </c>
     </row>
     <row r="400">
@@ -14039,13 +14039,13 @@
         <v>2399.316675060429</v>
       </c>
       <c r="H400" t="n">
-        <v>46.08742563895296</v>
+        <v>46087425638.95296</v>
       </c>
       <c r="I400" t="n">
         <v>6.491956632670757</v>
       </c>
       <c r="J400" t="n">
-        <v>10.95456808176608</v>
+        <v>10954568081.76608</v>
       </c>
     </row>
     <row r="401">
@@ -14073,13 +14073,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H401" t="n">
-        <v>7.299546851585191</v>
+        <v>7299546851.585191</v>
       </c>
       <c r="I401" t="n">
         <v>14.37767435128251</v>
       </c>
       <c r="J401" t="n">
-        <v>49.74244686913384</v>
+        <v>49742446869.13384</v>
       </c>
     </row>
     <row r="402">
@@ -14107,13 +14107,13 @@
         <v>2399.316675060429</v>
       </c>
       <c r="H402" t="n">
-        <v>42.07107425507466</v>
+        <v>42071074255.07466</v>
       </c>
       <c r="I402" t="n">
         <v>6.491957472431594</v>
       </c>
       <c r="J402" t="n">
-        <v>14.97091946564437</v>
+        <v>14970919465.64437</v>
       </c>
     </row>
     <row r="403">
@@ -14141,13 +14141,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H403" t="n">
-        <v>20.56133670782899</v>
+        <v>20561336707.82899</v>
       </c>
       <c r="I403" t="n">
         <v>14.37767445931554</v>
       </c>
       <c r="J403" t="n">
-        <v>36.48065701289005</v>
+        <v>36480657012.89005</v>
       </c>
     </row>
     <row r="404">
@@ -14175,13 +14175,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H404" t="n">
-        <v>19.35571944817046</v>
+        <v>19355719448.17046</v>
       </c>
       <c r="I404" t="n">
         <v>14.37767435128251</v>
       </c>
       <c r="J404" t="n">
-        <v>37.68627427254857</v>
+        <v>37686274272.54857</v>
       </c>
     </row>
     <row r="405">
@@ -14209,13 +14209,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H405" t="n">
-        <v>35.46640681560804</v>
+        <v>35466406815.60804</v>
       </c>
       <c r="I405" t="n">
         <v>10.98925431859293</v>
       </c>
       <c r="J405" t="n">
-        <v>21.575586905111</v>
+        <v>21575586905.11099</v>
       </c>
     </row>
     <row r="406">
@@ -14243,13 +14243,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H406" t="n">
-        <v>6.495802011812842</v>
+        <v>6495802011.812841</v>
       </c>
       <c r="I406" t="n">
         <v>14.37767391915035</v>
       </c>
       <c r="J406" t="n">
-        <v>50.54619170890619</v>
+        <v>50546191708.90619</v>
       </c>
     </row>
     <row r="407">
@@ -14277,13 +14277,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H407" t="n">
-        <v>10.91639863056078</v>
+        <v>10916398630.56078</v>
       </c>
       <c r="I407" t="n">
         <v>14.37767467538163</v>
       </c>
       <c r="J407" t="n">
-        <v>46.12559509015826</v>
+        <v>46125595090.15825</v>
       </c>
     </row>
     <row r="408">
@@ -14311,13 +14311,13 @@
         <v>2399.316675060429</v>
       </c>
       <c r="H408" t="n">
-        <v>45.19490310920222</v>
+        <v>45194903109.20222</v>
       </c>
       <c r="I408" t="n">
         <v>6.491957352465768</v>
       </c>
       <c r="J408" t="n">
-        <v>11.84709061151681</v>
+        <v>11847090611.51682</v>
       </c>
     </row>
     <row r="409">
@@ -14345,13 +14345,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H409" t="n">
-        <v>26.58942300612164</v>
+        <v>26589423006.12164</v>
       </c>
       <c r="I409" t="n">
         <v>14.37767391915035</v>
       </c>
       <c r="J409" t="n">
-        <v>30.4525707145974</v>
+        <v>30452570714.59739</v>
       </c>
     </row>
     <row r="410">
@@ -14379,13 +14379,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H410" t="n">
-        <v>8.103291691357539</v>
+        <v>8103291691.357538</v>
       </c>
       <c r="I410" t="n">
         <v>14.37767478341466</v>
       </c>
       <c r="J410" t="n">
-        <v>48.93870202936149</v>
+        <v>48938702029.3615</v>
       </c>
     </row>
     <row r="411">
@@ -14413,13 +14413,13 @@
         <v>2399.316675060429</v>
       </c>
       <c r="H411" t="n">
-        <v>47.87247069845441</v>
+        <v>47872470698.45441</v>
       </c>
       <c r="I411" t="n">
         <v>6.491957592397448</v>
       </c>
       <c r="J411" t="n">
-        <v>9.169523022264627</v>
+        <v>9169523022.264626</v>
       </c>
     </row>
     <row r="412">
@@ -14447,13 +14447,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H412" t="n">
-        <v>14.93512282942253</v>
+        <v>14935122829.42253</v>
       </c>
       <c r="I412" t="n">
         <v>14.37767467538163</v>
       </c>
       <c r="J412" t="n">
-        <v>42.1068708912965</v>
+        <v>42106870891.2965</v>
       </c>
     </row>
     <row r="413">
@@ -14481,13 +14481,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H413" t="n">
-        <v>18.15010218851194</v>
+        <v>18150102188.51194</v>
       </c>
       <c r="I413" t="n">
         <v>14.37767424324947</v>
       </c>
       <c r="J413" t="n">
-        <v>38.8918915322071</v>
+        <v>38891891532.20709</v>
       </c>
     </row>
     <row r="414">
@@ -14515,13 +14515,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H414" t="n">
-        <v>21.76695396748752</v>
+        <v>21766953967.48752</v>
       </c>
       <c r="I414" t="n">
         <v>14.37767456734858</v>
       </c>
       <c r="J414" t="n">
-        <v>35.27503975323151</v>
+        <v>35275039753.23151</v>
       </c>
     </row>
     <row r="415">
@@ -14549,13 +14549,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H415" t="n">
-        <v>16.14074008908107</v>
+        <v>16140740089.08107</v>
       </c>
       <c r="I415" t="n">
         <v>14.37767478341465</v>
       </c>
       <c r="J415" t="n">
-        <v>40.90125363163796</v>
+        <v>40901253631.63796</v>
       </c>
     </row>
     <row r="416">
@@ -14583,13 +14583,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H416" t="n">
-        <v>37.15059621421342</v>
+        <v>37150596214.21342</v>
       </c>
       <c r="I416" t="n">
         <v>10.98925425391425</v>
       </c>
       <c r="J416" t="n">
-        <v>19.89139750650561</v>
+        <v>19891397506.50562</v>
       </c>
     </row>
     <row r="417">
@@ -14617,13 +14617,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H417" t="n">
-        <v>38.59418712730375</v>
+        <v>38594187127.30375</v>
       </c>
       <c r="I417" t="n">
         <v>10.98925438327166</v>
       </c>
       <c r="J417" t="n">
-        <v>18.44780659341529</v>
+        <v>18447806593.41528</v>
       </c>
     </row>
     <row r="418">
@@ -14651,13 +14651,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H418" t="n">
-        <v>37.39119469972849</v>
+        <v>37391194699.72849</v>
       </c>
       <c r="I418" t="n">
         <v>10.98925405987814</v>
       </c>
       <c r="J418" t="n">
-        <v>19.65079902099055</v>
+        <v>19650799020.99054</v>
       </c>
     </row>
     <row r="419">
@@ -14685,13 +14685,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H419" t="n">
-        <v>24.17818848680458</v>
+        <v>24178188486.80458</v>
       </c>
       <c r="I419" t="n">
         <v>14.37767478341466</v>
       </c>
       <c r="J419" t="n">
-        <v>32.86380523391446</v>
+        <v>32863805233.91445</v>
       </c>
     </row>
     <row r="420">
@@ -14719,13 +14719,13 @@
         <v>9201.378139838229</v>
       </c>
       <c r="H420" t="n">
-        <v>54.09913142465374</v>
+        <v>54099131424.65374</v>
       </c>
       <c r="I420" t="n">
         <v>2.942862296065293</v>
       </c>
       <c r="J420" t="n">
-        <v>2.942862296065293</v>
+        <v>2942862296.065292</v>
       </c>
     </row>
     <row r="421">
@@ -14753,13 +14753,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H421" t="n">
-        <v>34.5040128735478</v>
+        <v>34504012873.5478</v>
       </c>
       <c r="I421" t="n">
         <v>10.98925380116336</v>
       </c>
       <c r="J421" t="n">
-        <v>22.53798084717123</v>
+        <v>22537980847.17123</v>
       </c>
     </row>
     <row r="422">
@@ -14787,13 +14787,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H422" t="n">
-        <v>3.888380881363958</v>
+        <v>3888380881.363958</v>
       </c>
       <c r="I422" t="n">
         <v>18.80239323911672</v>
       </c>
       <c r="J422" t="n">
-        <v>53.15361283935508</v>
+        <v>53153612839.35507</v>
       </c>
     </row>
     <row r="423">
@@ -14821,13 +14821,13 @@
         <v>2399.316675060429</v>
       </c>
       <c r="H423" t="n">
-        <v>47.42620943357904</v>
+        <v>47426209433.57904</v>
       </c>
       <c r="I423" t="n">
         <v>6.491955552978261</v>
       </c>
       <c r="J423" t="n">
-        <v>9.615784287139995</v>
+        <v>9615784287.139992</v>
       </c>
     </row>
     <row r="424">
@@ -14855,13 +14855,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H424" t="n">
-        <v>27.39316784589398</v>
+        <v>27393167845.89398</v>
       </c>
       <c r="I424" t="n">
         <v>14.37767435128251</v>
       </c>
       <c r="J424" t="n">
-        <v>29.64882587482505</v>
+        <v>29648825874.82505</v>
       </c>
     </row>
     <row r="425">
@@ -14889,13 +14889,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H425" t="n">
-        <v>16.54261250896723</v>
+        <v>16542612508.96723</v>
       </c>
       <c r="I425" t="n">
         <v>14.37767445931554</v>
       </c>
       <c r="J425" t="n">
-        <v>40.4993812117518</v>
+        <v>40499381211.7518</v>
       </c>
     </row>
     <row r="426">
@@ -14923,13 +14923,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H426" t="n">
-        <v>19.75759186805665</v>
+        <v>19757591868.05665</v>
       </c>
       <c r="I426" t="n">
         <v>14.37767402718338</v>
       </c>
       <c r="J426" t="n">
-        <v>37.28440185266238</v>
+        <v>37284401852.66238</v>
       </c>
     </row>
     <row r="427">
@@ -14957,13 +14957,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H427" t="n">
-        <v>5.692057172040493</v>
+        <v>5692057172.040493</v>
       </c>
       <c r="I427" t="n">
         <v>14.37767456734856</v>
       </c>
       <c r="J427" t="n">
-        <v>51.34993654867854</v>
+        <v>51349936548.67854</v>
       </c>
     </row>
     <row r="428">
@@ -14991,13 +14991,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H428" t="n">
-        <v>17.34635734873959</v>
+        <v>17346357348.73959</v>
       </c>
       <c r="I428" t="n">
         <v>14.3776748914477</v>
       </c>
       <c r="J428" t="n">
-        <v>39.69563637197945</v>
+        <v>39695636371.97945</v>
       </c>
     </row>
     <row r="429">
@@ -15025,13 +15025,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H429" t="n">
-        <v>9.30890895101607</v>
+        <v>9308908951.016069</v>
       </c>
       <c r="I429" t="n">
         <v>14.3776748914477</v>
       </c>
       <c r="J429" t="n">
-        <v>47.73308476970296</v>
+        <v>47733084769.70296</v>
       </c>
     </row>
     <row r="430">
@@ -15059,13 +15059,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H430" t="n">
-        <v>20.15946428794282</v>
+        <v>20159464287.94282</v>
       </c>
       <c r="I430" t="n">
         <v>14.37767478341465</v>
       </c>
       <c r="J430" t="n">
-        <v>36.88252943277621</v>
+        <v>36882529432.77621</v>
       </c>
     </row>
     <row r="431">
@@ -15093,13 +15093,13 @@
         <v>2399.316675060429</v>
       </c>
       <c r="H431" t="n">
-        <v>43.40985804970074</v>
+        <v>43409858049.70074</v>
       </c>
       <c r="I431" t="n">
         <v>6.491956392739112</v>
       </c>
       <c r="J431" t="n">
-        <v>13.6321356710183</v>
+        <v>13632135671.0183</v>
       </c>
     </row>
     <row r="432">
@@ -15127,13 +15127,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H432" t="n">
-        <v>7.701419271471367</v>
+        <v>7701419271.471367</v>
       </c>
       <c r="I432" t="n">
         <v>14.37767402718338</v>
       </c>
       <c r="J432" t="n">
-        <v>49.34057444924767</v>
+        <v>49340574449.24767</v>
       </c>
     </row>
     <row r="433">
@@ -15161,13 +15161,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H433" t="n">
-        <v>8.907036531129894</v>
+        <v>8907036531.129894</v>
       </c>
       <c r="I433" t="n">
         <v>14.37767413521642</v>
       </c>
       <c r="J433" t="n">
-        <v>48.13495718958914</v>
+        <v>48134957189.58914</v>
       </c>
     </row>
     <row r="434">
@@ -15195,13 +15195,13 @@
         <v>7530.497893194137</v>
       </c>
       <c r="H434" t="n">
-        <v>51.14204303414726</v>
+        <v>51142043034.14726</v>
       </c>
       <c r="I434" t="n">
         <v>3.098680775282482</v>
       </c>
       <c r="J434" t="n">
-        <v>5.899950686571778</v>
+        <v>5899950686.57177</v>
       </c>
     </row>
     <row r="435">
@@ -15229,13 +15229,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H435" t="n">
-        <v>14.53325040953635</v>
+        <v>14533250409.53635</v>
       </c>
       <c r="I435" t="n">
         <v>14.37767391915035</v>
       </c>
       <c r="J435" t="n">
-        <v>42.50874331118268</v>
+        <v>42508743311.18268</v>
       </c>
     </row>
     <row r="436">
@@ -15263,13 +15263,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H436" t="n">
-        <v>22.1688263873737</v>
+        <v>22168826387.3737</v>
       </c>
       <c r="I436" t="n">
         <v>14.37767424324947</v>
       </c>
       <c r="J436" t="n">
-        <v>34.87316733334534</v>
+        <v>34873167333.34534</v>
       </c>
     </row>
     <row r="437">
@@ -15297,13 +15297,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H437" t="n">
-        <v>5.290184752154318</v>
+        <v>5290184752.154319</v>
       </c>
       <c r="I437" t="n">
         <v>14.37767489144768</v>
       </c>
       <c r="J437" t="n">
-        <v>51.75180896856472</v>
+        <v>51751808968.56471</v>
       </c>
     </row>
     <row r="438">
@@ -15331,13 +15331,13 @@
         <v>7530.497893194137</v>
       </c>
       <c r="H438" t="n">
-        <v>52.54267911936657</v>
+        <v>52542679119.36658</v>
       </c>
       <c r="I438" t="n">
         <v>3.098679645707804</v>
       </c>
       <c r="J438" t="n">
-        <v>4.499314601352467</v>
+        <v>4499314601.352455</v>
       </c>
     </row>
     <row r="439">
@@ -15365,13 +15365,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H439" t="n">
-        <v>31.61683104736715</v>
+        <v>31616831047.36715</v>
       </c>
       <c r="I439" t="n">
         <v>10.98925354244855</v>
       </c>
       <c r="J439" t="n">
-        <v>25.42516267335188</v>
+        <v>25425162673.35188</v>
       </c>
     </row>
     <row r="440">
@@ -15399,13 +15399,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H440" t="n">
-        <v>15.73886766919489</v>
+        <v>15738867669.19489</v>
       </c>
       <c r="I440" t="n">
         <v>14.37767402718338</v>
       </c>
       <c r="J440" t="n">
-        <v>41.30312605152415</v>
+        <v>41303126051.52414</v>
       </c>
     </row>
     <row r="441">
@@ -15433,13 +15433,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H441" t="n">
-        <v>20.96320912771518</v>
+        <v>20963209127.71518</v>
       </c>
       <c r="I441" t="n">
         <v>14.37767413521642</v>
       </c>
       <c r="J441" t="n">
-        <v>36.07878459300385</v>
+        <v>36078784593.00385</v>
       </c>
     </row>
     <row r="442">
@@ -15467,13 +15467,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H442" t="n">
-        <v>25.78567816634929</v>
+        <v>25785678166.34929</v>
       </c>
       <c r="I442" t="n">
         <v>14.37767456734858</v>
       </c>
       <c r="J442" t="n">
-        <v>31.25631555436975</v>
+        <v>31256315554.36974</v>
       </c>
     </row>
     <row r="443">
@@ -15501,13 +15501,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H443" t="n">
-        <v>25.3838057464631</v>
+        <v>25383805746.4631</v>
       </c>
       <c r="I443" t="n">
         <v>14.3776748914477</v>
       </c>
       <c r="J443" t="n">
-        <v>31.65818797425593</v>
+        <v>31658187974.25593</v>
       </c>
     </row>
     <row r="444">
@@ -15535,13 +15535,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H444" t="n">
-        <v>30.1732401342768</v>
+        <v>30173240134.2768</v>
       </c>
       <c r="I444" t="n">
         <v>10.98925470666514</v>
       </c>
       <c r="J444" t="n">
-        <v>26.86875358644224</v>
+        <v>26868753586.44223</v>
       </c>
     </row>
     <row r="445">
@@ -15569,13 +15569,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H445" t="n">
-        <v>39.55658106936399</v>
+        <v>39556581069.36398</v>
       </c>
       <c r="I445" t="n">
         <v>10.98925360712725</v>
       </c>
       <c r="J445" t="n">
-        <v>17.48541265135504</v>
+        <v>17485412651.35505</v>
       </c>
     </row>
     <row r="446">
@@ -15603,13 +15603,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H446" t="n">
-        <v>23.77631606691841</v>
+        <v>23776316066.91841</v>
       </c>
       <c r="I446" t="n">
         <v>14.37767402718338</v>
       </c>
       <c r="J446" t="n">
-        <v>33.26567765380062</v>
+        <v>33265677653.80062</v>
       </c>
     </row>
     <row r="447">
@@ -15637,13 +15637,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H447" t="n">
-        <v>40.75957349693927</v>
+        <v>40759573496.93927</v>
       </c>
       <c r="I447" t="n">
         <v>10.98925393052073</v>
       </c>
       <c r="J447" t="n">
-        <v>16.28242022377977</v>
+        <v>16282420223.77976</v>
       </c>
     </row>
     <row r="448">
@@ -15671,13 +15671,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H448" t="n">
-        <v>37.63179318524352</v>
+        <v>37631793185.24352</v>
       </c>
       <c r="I448" t="n">
         <v>10.98925386584207</v>
       </c>
       <c r="J448" t="n">
-        <v>19.41020053547552</v>
+        <v>19410200535.47551</v>
       </c>
     </row>
     <row r="449">
@@ -15705,13 +15705,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H449" t="n">
-        <v>11.72014347033313</v>
+        <v>11720143470.33313</v>
       </c>
       <c r="I449" t="n">
         <v>14.37767402718338</v>
       </c>
       <c r="J449" t="n">
-        <v>45.32185025038591</v>
+        <v>45321850250.3859</v>
       </c>
     </row>
     <row r="450">
@@ -15739,13 +15739,13 @@
         <v>2399.316675060429</v>
       </c>
       <c r="H450" t="n">
-        <v>46.97994816870368</v>
+        <v>46979948168.70368</v>
       </c>
       <c r="I450" t="n">
         <v>6.491955912875767</v>
       </c>
       <c r="J450" t="n">
-        <v>10.06204555201536</v>
+        <v>10062045552.01535</v>
       </c>
     </row>
     <row r="451">
@@ -15773,13 +15773,13 @@
         <v>1258.907673175854</v>
       </c>
       <c r="H451" t="n">
-        <v>28.05949009335432</v>
+        <v>28059490093.35432</v>
       </c>
       <c r="I451" t="n">
         <v>11.65535036162694</v>
       </c>
       <c r="J451" t="n">
-        <v>28.98250362736471</v>
+        <v>28982503627.36471</v>
       </c>
     </row>
     <row r="452">
@@ -15807,13 +15807,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H452" t="n">
-        <v>38.83478561281881</v>
+        <v>38834785612.81881</v>
       </c>
       <c r="I452" t="n">
         <v>10.98925418923555</v>
       </c>
       <c r="J452" t="n">
-        <v>18.20720810790022</v>
+        <v>18207208107.90022</v>
       </c>
     </row>
     <row r="453">
@@ -15841,13 +15841,13 @@
         <v>2399.316675060429</v>
       </c>
       <c r="H453" t="n">
-        <v>41.17855172532391</v>
+        <v>41178551725.32391</v>
       </c>
       <c r="I453" t="n">
         <v>6.491955792909941</v>
       </c>
       <c r="J453" t="n">
-        <v>15.86344199539512</v>
+        <v>15863441995.39512</v>
       </c>
     </row>
     <row r="454">
@@ -15875,13 +15875,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H454" t="n">
-        <v>39.31598258384892</v>
+        <v>39315982583.84892</v>
       </c>
       <c r="I454" t="n">
         <v>10.98925380116336</v>
       </c>
       <c r="J454" t="n">
-        <v>17.72601113687011</v>
+        <v>17726011136.87011</v>
       </c>
     </row>
     <row r="455">
@@ -15909,13 +15909,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H455" t="n">
-        <v>23.37444364703222</v>
+        <v>23374443647.03222</v>
       </c>
       <c r="I455" t="n">
         <v>14.37767435128251</v>
       </c>
       <c r="J455" t="n">
-        <v>33.66755007368681</v>
+        <v>33667550073.68681</v>
       </c>
     </row>
     <row r="456">
@@ -15943,13 +15943,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H456" t="n">
-        <v>11.31827105044695</v>
+        <v>11318271050.44695</v>
       </c>
       <c r="I456" t="n">
         <v>14.37767435128249</v>
       </c>
       <c r="J456" t="n">
-        <v>45.72372267027208</v>
+        <v>45723722670.27208</v>
       </c>
     </row>
     <row r="457">
@@ -15977,13 +15977,13 @@
         <v>2399.316675060429</v>
       </c>
       <c r="H457" t="n">
-        <v>43.85611931457612</v>
+        <v>43856119314.57612</v>
       </c>
       <c r="I457" t="n">
         <v>6.491956032841607</v>
       </c>
       <c r="J457" t="n">
-        <v>13.18587440614291</v>
+        <v>13185874406.14291</v>
       </c>
     </row>
     <row r="458">
@@ -16011,13 +16011,13 @@
         <v>1258.907673175854</v>
       </c>
       <c r="H458" t="n">
-        <v>28.99609297938832</v>
+        <v>28996092979.38832</v>
       </c>
       <c r="I458" t="n">
         <v>11.65535086518997</v>
       </c>
       <c r="J458" t="n">
-        <v>28.04590074133072</v>
+        <v>28045900741.33071</v>
       </c>
     </row>
     <row r="459">
@@ -16045,13 +16045,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H459" t="n">
-        <v>26.99129542600782</v>
+        <v>26991295426.00782</v>
       </c>
       <c r="I459" t="n">
         <v>14.37767467538159</v>
       </c>
       <c r="J459" t="n">
-        <v>30.05069829471121</v>
+        <v>30050698294.71121</v>
       </c>
     </row>
     <row r="460">
@@ -16079,13 +16079,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H460" t="n">
-        <v>16.94448492885342</v>
+        <v>16944484928.85342</v>
       </c>
       <c r="I460" t="n">
         <v>14.37767413521642</v>
       </c>
       <c r="J460" t="n">
-        <v>40.09750879186561</v>
+        <v>40097508791.86562</v>
       </c>
     </row>
     <row r="461">
@@ -16113,13 +16113,13 @@
         <v>2399.316675060429</v>
       </c>
       <c r="H461" t="n">
-        <v>42.96359678482541</v>
+        <v>42963596784.82541</v>
       </c>
       <c r="I461" t="n">
         <v>6.491956752636575</v>
       </c>
       <c r="J461" t="n">
-        <v>14.07839693589362</v>
+        <v>14078396935.89362</v>
       </c>
     </row>
     <row r="462">
@@ -16147,13 +16147,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H462" t="n">
-        <v>8.505164111243721</v>
+        <v>8505164111.243721</v>
       </c>
       <c r="I462" t="n">
         <v>14.37767445931552</v>
       </c>
       <c r="J462" t="n">
-        <v>48.53682960947531</v>
+        <v>48536829609.47531</v>
       </c>
     </row>
     <row r="463">
@@ -16181,13 +16181,13 @@
         <v>961.9208140243346</v>
       </c>
       <c r="H463" t="n">
-        <v>3.172730456993646</v>
+        <v>3172730456.993646</v>
       </c>
       <c r="I463" t="n">
         <v>18.80239285434838</v>
       </c>
       <c r="J463" t="n">
-        <v>53.86926326372539</v>
+        <v>53869263263.72539</v>
       </c>
     </row>
     <row r="464">
@@ -16215,13 +16215,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H464" t="n">
-        <v>12.12201589021931</v>
+        <v>12122015890.21931</v>
       </c>
       <c r="I464" t="n">
         <v>14.37767478341465</v>
       </c>
       <c r="J464" t="n">
-        <v>44.91997783049973</v>
+        <v>44919977830.49973</v>
       </c>
     </row>
     <row r="465">
@@ -16249,13 +16249,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H465" t="n">
-        <v>18.95384702828429</v>
+        <v>18953847028.28429</v>
       </c>
       <c r="I465" t="n">
         <v>14.37767467538163</v>
       </c>
       <c r="J465" t="n">
-        <v>38.08814669243475</v>
+        <v>38088146692.43474</v>
       </c>
     </row>
     <row r="466">
@@ -16283,13 +16283,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H466" t="n">
-        <v>38.3535886417887</v>
+        <v>38353588641.7887</v>
       </c>
       <c r="I466" t="n">
         <v>10.98925457730773</v>
       </c>
       <c r="J466" t="n">
-        <v>18.68840507893034</v>
+        <v>18688405078.93034</v>
       </c>
     </row>
     <row r="467">
@@ -16317,13 +16317,13 @@
         <v>2399.316675060429</v>
       </c>
       <c r="H467" t="n">
-        <v>41.62481299019927</v>
+        <v>41624812990.19927</v>
       </c>
       <c r="I467" t="n">
         <v>6.491955433012443</v>
       </c>
       <c r="J467" t="n">
-        <v>15.41718073051977</v>
+        <v>15417180730.51976</v>
       </c>
     </row>
     <row r="468">
@@ -16351,13 +16351,13 @@
         <v>1080.330373900008</v>
       </c>
       <c r="H468" t="n">
-        <v>12.92576072999166</v>
+        <v>12925760729.99166</v>
       </c>
       <c r="I468" t="n">
         <v>14.37767413521642</v>
       </c>
       <c r="J468" t="n">
-        <v>44.11623299072738</v>
+        <v>44116232990.72737</v>
       </c>
     </row>
     <row r="469">
@@ -16385,13 +16385,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H469" t="n">
-        <v>32.09802801839726</v>
+        <v>32098028018.39726</v>
       </c>
       <c r="I469" t="n">
         <v>10.98925444795034</v>
       </c>
       <c r="J469" t="n">
-        <v>24.94396570232178</v>
+        <v>24943965702.32177</v>
       </c>
     </row>
     <row r="470">
@@ -16419,13 +16419,13 @@
         <v>1293.573974993733</v>
       </c>
       <c r="H470" t="n">
-        <v>40.03777804039409</v>
+        <v>40037778040.3941</v>
       </c>
       <c r="I470" t="n">
         <v>10.98925451262903</v>
       </c>
       <c r="J470" t="n">
-        <v>17.00421568032495</v>
+        <v>17004215680.32494</v>
       </c>
     </row>
     <row r="471">
@@ -16453,13 +16453,13 @@
         <v>21741.68594864994</v>
       </c>
       <c r="H471" t="n">
-        <v>-26.2926458639519</v>
+        <v>-26292645863.9519</v>
       </c>
       <c r="I471" t="n">
         <v>2.457676799230185</v>
       </c>
       <c r="J471" t="n">
-        <v>83.33463958467094</v>
+        <v>83334639584.67093</v>
       </c>
     </row>
     <row r="472">
@@ -16487,13 +16487,13 @@
         <v>21741.68594864994</v>
       </c>
       <c r="H472" t="n">
-        <v>46.49662064294477</v>
+        <v>46496620642.94477</v>
       </c>
       <c r="I472" t="n">
         <v>2.457683321735978</v>
       </c>
       <c r="J472" t="n">
-        <v>10.54537307777426</v>
+        <v>10545373077.77426</v>
       </c>
     </row>
     <row r="473">
@@ -16521,13 +16521,13 @@
         <v>21741.68594864994</v>
       </c>
       <c r="H473" t="n">
-        <v>54.58431692148883</v>
+        <v>54584316921.48884</v>
       </c>
       <c r="I473" t="n">
         <v>2.457676799230207</v>
       </c>
       <c r="J473" t="n">
-        <v>2.457676799230207</v>
+        <v>2457676799.230194</v>
       </c>
     </row>
     <row r="474">
@@ -16555,13 +16555,13 @@
         <v>21741.68594864994</v>
       </c>
       <c r="H474" t="n">
-        <v>-66.73112725667228</v>
+        <v>-66731127256.67229</v>
       </c>
       <c r="I474" t="n">
         <v>2.457687670073177</v>
       </c>
       <c r="J474" t="n">
-        <v>123.7731209773913</v>
+        <v>123773120977.3913</v>
       </c>
     </row>
     <row r="475">
@@ -16589,13 +16589,13 @@
         <v>21741.68594864994</v>
       </c>
       <c r="H475" t="n">
-        <v>14.14583552876845</v>
+        <v>14145835528.76845</v>
       </c>
       <c r="I475" t="n">
         <v>2.457687670073177</v>
       </c>
       <c r="J475" t="n">
-        <v>42.89615819195058</v>
+        <v>42896158191.95058</v>
       </c>
     </row>
     <row r="476">
@@ -16623,13 +16623,13 @@
         <v>21741.68594864994</v>
       </c>
       <c r="H476" t="n">
-        <v>34.36507622512864</v>
+        <v>34365076225.12864</v>
       </c>
       <c r="I476" t="n">
         <v>2.457693105494677</v>
       </c>
       <c r="J476" t="n">
-        <v>22.67691749559039</v>
+        <v>22676917495.59039</v>
       </c>
     </row>
     <row r="477">
@@ -16657,13 +16657,13 @@
         <v>889.6259531912921</v>
       </c>
       <c r="H477" t="n">
-        <v>26.07215435105789</v>
+        <v>26072154351.05789</v>
       </c>
       <c r="I477" t="n">
         <v>27.66051711750699</v>
       </c>
       <c r="J477" t="n">
-        <v>30.96983936966114</v>
+        <v>30969839369.66114</v>
       </c>
     </row>
     <row r="478">
@@ -16691,13 +16691,13 @@
         <v>889.6259531912921</v>
       </c>
       <c r="H478" t="n">
-        <v>29.05054437799662</v>
+        <v>29050544377.99662</v>
       </c>
       <c r="I478" t="n">
         <v>27.66051738439479</v>
       </c>
       <c r="J478" t="n">
-        <v>27.99144934272242</v>
+        <v>27991449342.72241</v>
       </c>
     </row>
     <row r="479">
@@ -16725,13 +16725,13 @@
         <v>889.6259531912921</v>
       </c>
       <c r="H479" t="n">
-        <v>29.38147660321204</v>
+        <v>29381476603.21204</v>
       </c>
       <c r="I479" t="n">
         <v>27.66051711750699</v>
       </c>
       <c r="J479" t="n">
-        <v>27.66051711750699</v>
+        <v>27660517117.50699</v>
       </c>
     </row>
     <row r="480">
@@ -16759,13 +16759,13 @@
         <v>889.6259531912921</v>
       </c>
       <c r="H480" t="n">
-        <v>24.41749322498081</v>
+        <v>24417493224.98081</v>
       </c>
       <c r="I480" t="n">
         <v>27.66051756231998</v>
       </c>
       <c r="J480" t="n">
-        <v>32.62450049573822</v>
+        <v>32624500495.73822</v>
       </c>
     </row>
     <row r="481">
@@ -16793,13 +16793,13 @@
         <v>889.6259531912921</v>
       </c>
       <c r="H481" t="n">
-        <v>27.72681547713496</v>
+        <v>27726815477.13496</v>
       </c>
       <c r="I481" t="n">
         <v>27.66051756231997</v>
       </c>
       <c r="J481" t="n">
-        <v>29.31517824358408</v>
+        <v>29315178243.58407</v>
       </c>
     </row>
     <row r="482">
@@ -16827,13 +16827,13 @@
         <v>889.6259531912921</v>
       </c>
       <c r="H482" t="n">
-        <v>28.5541460401735</v>
+        <v>28554146040.1735</v>
       </c>
       <c r="I482" t="n">
         <v>27.66051778472645</v>
       </c>
       <c r="J482" t="n">
-        <v>28.48784768054553</v>
+        <v>28487847680.54553</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/results/plots/results-Fig1.xlsx
+++ b/benchmarks/results/plots/results-Fig1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J482"/>
+  <dimension ref="A1:J603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16836,6 +16836,4120 @@
         <v>28487847680.54553</v>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>260</v>
+      </c>
+      <c r="C483" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0</v>
+      </c>
+      <c r="E483" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F483" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G483" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H483" t="n">
+        <v>37858225820.73282</v>
+      </c>
+      <c r="I483" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J483" t="n">
+        <v>19183767899.98621</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>150</v>
+      </c>
+      <c r="C484" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0</v>
+      </c>
+      <c r="E484" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F484" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G484" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H484" t="n">
+        <v>42228262356.56921</v>
+      </c>
+      <c r="I484" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J484" t="n">
+        <v>14813731364.14983</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>910</v>
+      </c>
+      <c r="C485" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F485" t="n">
+        <v>45.00812260155543</v>
+      </c>
+      <c r="G485" t="n">
+        <v>933.627126533685</v>
+      </c>
+      <c r="H485" t="n">
+        <v>13403801226.80173</v>
+      </c>
+      <c r="I485" t="n">
+        <v>12.03387111916361</v>
+      </c>
+      <c r="J485" t="n">
+        <v>43638192493.9173</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0</v>
+      </c>
+      <c r="C486" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D486" t="n">
+        <v>0</v>
+      </c>
+      <c r="E486" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F486" t="n">
+        <v>54.58431692148883</v>
+      </c>
+      <c r="G486" t="n">
+        <v>21741.68594864994</v>
+      </c>
+      <c r="H486" t="n">
+        <v>54584316921.48884</v>
+      </c>
+      <c r="I486" t="n">
+        <v>2.457676799230207</v>
+      </c>
+      <c r="J486" t="n">
+        <v>2457676799.230194</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>190</v>
+      </c>
+      <c r="C487" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F487" t="n">
+        <v>48.18740308725523</v>
+      </c>
+      <c r="G487" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H487" t="n">
+        <v>40639158161.71964</v>
+      </c>
+      <c r="I487" t="n">
+        <v>8.854590633463808</v>
+      </c>
+      <c r="J487" t="n">
+        <v>16402835558.99939</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>560</v>
+      </c>
+      <c r="C488" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F488" t="n">
+        <v>47.30678968590306</v>
+      </c>
+      <c r="G488" t="n">
+        <v>1022.405932175994</v>
+      </c>
+      <c r="H488" t="n">
+        <v>26008584677.71512</v>
+      </c>
+      <c r="I488" t="n">
+        <v>9.735204034815972</v>
+      </c>
+      <c r="J488" t="n">
+        <v>31033409043.00391</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>80</v>
+      </c>
+      <c r="C489" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D489" t="n">
+        <v>0</v>
+      </c>
+      <c r="E489" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F489" t="n">
+        <v>48.18740308725518</v>
+      </c>
+      <c r="G489" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H489" t="n">
+        <v>45009194697.55598</v>
+      </c>
+      <c r="I489" t="n">
+        <v>8.854590633463857</v>
+      </c>
+      <c r="J489" t="n">
+        <v>12032799023.16306</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>45</v>
+      </c>
+      <c r="C490" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F490" t="n">
+        <v>52.128190030409</v>
+      </c>
+      <c r="G490" t="n">
+        <v>2889.187285545953</v>
+      </c>
+      <c r="H490" t="n">
+        <v>47291816627.43009</v>
+      </c>
+      <c r="I490" t="n">
+        <v>4.913803690310033</v>
+      </c>
+      <c r="J490" t="n">
+        <v>9750177093.28894</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>185</v>
+      </c>
+      <c r="C491" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0</v>
+      </c>
+      <c r="E491" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F491" t="n">
+        <v>48.1874030872552</v>
+      </c>
+      <c r="G491" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H491" t="n">
+        <v>40837796186.07581</v>
+      </c>
+      <c r="I491" t="n">
+        <v>8.854590633463836</v>
+      </c>
+      <c r="J491" t="n">
+        <v>16204197534.64322</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>175</v>
+      </c>
+      <c r="C492" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D492" t="n">
+        <v>0</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F492" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G492" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H492" t="n">
+        <v>41235072234.78822</v>
+      </c>
+      <c r="I492" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J492" t="n">
+        <v>15806921485.93081</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>310</v>
+      </c>
+      <c r="C493" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F493" t="n">
+        <v>48.1874030872552</v>
+      </c>
+      <c r="G493" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H493" t="n">
+        <v>35871845577.17081</v>
+      </c>
+      <c r="I493" t="n">
+        <v>8.854590633463836</v>
+      </c>
+      <c r="J493" t="n">
+        <v>21170148143.54823</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>330</v>
+      </c>
+      <c r="C494" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F494" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G494" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H494" t="n">
+        <v>35077293479.74602</v>
+      </c>
+      <c r="I494" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J494" t="n">
+        <v>21964700240.97301</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>130</v>
+      </c>
+      <c r="C495" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F495" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G495" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H495" t="n">
+        <v>43022814453.99401</v>
+      </c>
+      <c r="I495" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J495" t="n">
+        <v>14019179266.72502</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>900</v>
+      </c>
+      <c r="C496" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F496" t="n">
+        <v>44.95748697429391</v>
+      </c>
+      <c r="G496" t="n">
+        <v>932.1067610189702</v>
+      </c>
+      <c r="H496" t="n">
+        <v>13751366344.58115</v>
+      </c>
+      <c r="I496" t="n">
+        <v>12.08450674642513</v>
+      </c>
+      <c r="J496" t="n">
+        <v>43290627376.13788</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>660</v>
+      </c>
+      <c r="C497" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F497" t="n">
+        <v>46.47684084159079</v>
+      </c>
+      <c r="G497" t="n">
+        <v>985.5743085323621</v>
+      </c>
+      <c r="H497" t="n">
+        <v>22279651383.17656</v>
+      </c>
+      <c r="I497" t="n">
+        <v>10.56515287912824</v>
+      </c>
+      <c r="J497" t="n">
+        <v>34762342337.54247</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>540</v>
+      </c>
+      <c r="C498" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D498" t="n">
+        <v>0</v>
+      </c>
+      <c r="E498" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F498" t="n">
+        <v>47.52609057388977</v>
+      </c>
+      <c r="G498" t="n">
+        <v>1033.112987694001</v>
+      </c>
+      <c r="H498" t="n">
+        <v>26773458021.67564</v>
+      </c>
+      <c r="I498" t="n">
+        <v>9.515903146829267</v>
+      </c>
+      <c r="J498" t="n">
+        <v>30268535699.04339</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>230</v>
+      </c>
+      <c r="C499" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0</v>
+      </c>
+      <c r="E499" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F499" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G499" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H499" t="n">
+        <v>39050053966.87001</v>
+      </c>
+      <c r="I499" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J499" t="n">
+        <v>17991939753.84902</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>85</v>
+      </c>
+      <c r="C500" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F500" t="n">
+        <v>48.18740308725519</v>
+      </c>
+      <c r="G500" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H500" t="n">
+        <v>44810556673.19979</v>
+      </c>
+      <c r="I500" t="n">
+        <v>8.854590633463843</v>
+      </c>
+      <c r="J500" t="n">
+        <v>12231437047.51924</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>180</v>
+      </c>
+      <c r="C501" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F501" t="n">
+        <v>48.18740308725519</v>
+      </c>
+      <c r="G501" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H501" t="n">
+        <v>41036434210.432</v>
+      </c>
+      <c r="I501" t="n">
+        <v>8.854590633463843</v>
+      </c>
+      <c r="J501" t="n">
+        <v>16005559510.28703</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>100</v>
+      </c>
+      <c r="C502" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F502" t="n">
+        <v>48.18740308725519</v>
+      </c>
+      <c r="G502" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H502" t="n">
+        <v>44214642600.1312</v>
+      </c>
+      <c r="I502" t="n">
+        <v>8.854590633463843</v>
+      </c>
+      <c r="J502" t="n">
+        <v>12827351120.58783</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>590</v>
+      </c>
+      <c r="C503" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0</v>
+      </c>
+      <c r="E503" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F503" t="n">
+        <v>47.03169144831563</v>
+      </c>
+      <c r="G503" t="n">
+        <v>1009.559197869593</v>
+      </c>
+      <c r="H503" t="n">
+        <v>24874463944.20275</v>
+      </c>
+      <c r="I503" t="n">
+        <v>10.01030227240341</v>
+      </c>
+      <c r="J503" t="n">
+        <v>32167529776.51628</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>930</v>
+      </c>
+      <c r="C504" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0</v>
+      </c>
+      <c r="E504" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F504" t="n">
+        <v>44.78804499993424</v>
+      </c>
+      <c r="G504" t="n">
+        <v>927.1312310502914</v>
+      </c>
+      <c r="H504" t="n">
+        <v>12713849295.60189</v>
+      </c>
+      <c r="I504" t="n">
+        <v>12.25394872078479</v>
+      </c>
+      <c r="J504" t="n">
+        <v>44328144425.11714</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>110</v>
+      </c>
+      <c r="C505" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D505" t="n">
+        <v>0</v>
+      </c>
+      <c r="E505" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F505" t="n">
+        <v>48.18740308725522</v>
+      </c>
+      <c r="G505" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H505" t="n">
+        <v>43817366551.41882</v>
+      </c>
+      <c r="I505" t="n">
+        <v>8.854590633463815</v>
+      </c>
+      <c r="J505" t="n">
+        <v>13224627169.30021</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>770</v>
+      </c>
+      <c r="C506" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D506" t="n">
+        <v>0</v>
+      </c>
+      <c r="E506" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F506" t="n">
+        <v>45.69316762601908</v>
+      </c>
+      <c r="G506" t="n">
+        <v>955.8808641278732</v>
+      </c>
+      <c r="H506" t="n">
+        <v>18313630101.35769</v>
+      </c>
+      <c r="I506" t="n">
+        <v>11.34882609469995</v>
+      </c>
+      <c r="J506" t="n">
+        <v>38728363619.36134</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>470</v>
+      </c>
+      <c r="C507" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0</v>
+      </c>
+      <c r="E507" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F507" t="n">
+        <v>48.1874030872552</v>
+      </c>
+      <c r="G507" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H507" t="n">
+        <v>29515428797.77243</v>
+      </c>
+      <c r="I507" t="n">
+        <v>8.854590633463836</v>
+      </c>
+      <c r="J507" t="n">
+        <v>27526564922.9466</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>280</v>
+      </c>
+      <c r="C508" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0</v>
+      </c>
+      <c r="E508" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F508" t="n">
+        <v>48.1874030872552</v>
+      </c>
+      <c r="G508" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H508" t="n">
+        <v>37063673723.30801</v>
+      </c>
+      <c r="I508" t="n">
+        <v>8.854590633463836</v>
+      </c>
+      <c r="J508" t="n">
+        <v>19978319997.41103</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>670</v>
+      </c>
+      <c r="C509" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0</v>
+      </c>
+      <c r="E509" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F509" t="n">
+        <v>46.42024151554588</v>
+      </c>
+      <c r="G509" t="n">
+        <v>983.268858653809</v>
+      </c>
+      <c r="H509" t="n">
+        <v>21913887508.88958</v>
+      </c>
+      <c r="I509" t="n">
+        <v>10.62175220517315</v>
+      </c>
+      <c r="J509" t="n">
+        <v>35128106211.82945</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>750</v>
+      </c>
+      <c r="C510" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0</v>
+      </c>
+      <c r="E510" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F510" t="n">
+        <v>45.82776324333641</v>
+      </c>
+      <c r="G510" t="n">
+        <v>960.6464512101176</v>
+      </c>
+      <c r="H510" t="n">
+        <v>19026426124.86738</v>
+      </c>
+      <c r="I510" t="n">
+        <v>11.21423047738262</v>
+      </c>
+      <c r="J510" t="n">
+        <v>38015567595.85165</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>250</v>
+      </c>
+      <c r="C511" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F511" t="n">
+        <v>48.1874030872552</v>
+      </c>
+      <c r="G511" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H511" t="n">
+        <v>38255501869.44521</v>
+      </c>
+      <c r="I511" t="n">
+        <v>8.854590633463836</v>
+      </c>
+      <c r="J511" t="n">
+        <v>18786491851.27382</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>120</v>
+      </c>
+      <c r="C512" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0</v>
+      </c>
+      <c r="E512" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F512" t="n">
+        <v>48.1874030872552</v>
+      </c>
+      <c r="G512" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H512" t="n">
+        <v>43420090502.7064</v>
+      </c>
+      <c r="I512" t="n">
+        <v>8.854590633463836</v>
+      </c>
+      <c r="J512" t="n">
+        <v>13621903218.01263</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>460</v>
+      </c>
+      <c r="C513" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0</v>
+      </c>
+      <c r="E513" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F513" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G513" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H513" t="n">
+        <v>29912704846.48483</v>
+      </c>
+      <c r="I513" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J513" t="n">
+        <v>27129288874.2342</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>520</v>
+      </c>
+      <c r="C514" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0</v>
+      </c>
+      <c r="E514" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F514" t="n">
+        <v>47.74462280912575</v>
+      </c>
+      <c r="G514" t="n">
+        <v>1044.20097163522</v>
+      </c>
+      <c r="H514" t="n">
+        <v>27546125908.78413</v>
+      </c>
+      <c r="I514" t="n">
+        <v>9.297370911593283</v>
+      </c>
+      <c r="J514" t="n">
+        <v>29495867811.9349</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>720</v>
+      </c>
+      <c r="C515" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0</v>
+      </c>
+      <c r="E515" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F515" t="n">
+        <v>46.01807841455838</v>
+      </c>
+      <c r="G515" t="n">
+        <v>967.6172712062248</v>
+      </c>
+      <c r="H515" t="n">
+        <v>20102093206.47307</v>
+      </c>
+      <c r="I515" t="n">
+        <v>11.02391530616065</v>
+      </c>
+      <c r="J515" t="n">
+        <v>36939900514.24596</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>360</v>
+      </c>
+      <c r="C516" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0</v>
+      </c>
+      <c r="E516" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F516" t="n">
+        <v>48.18740308725519</v>
+      </c>
+      <c r="G516" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H516" t="n">
+        <v>33885465333.60881</v>
+      </c>
+      <c r="I516" t="n">
+        <v>8.854590633463843</v>
+      </c>
+      <c r="J516" t="n">
+        <v>23156528387.11022</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>970</v>
+      </c>
+      <c r="C517" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0</v>
+      </c>
+      <c r="E517" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F517" t="n">
+        <v>43.94760527428604</v>
+      </c>
+      <c r="G517" t="n">
+        <v>902.8706877137992</v>
+      </c>
+      <c r="H517" t="n">
+        <v>11369268889.85138</v>
+      </c>
+      <c r="I517" t="n">
+        <v>13.09438844643299</v>
+      </c>
+      <c r="J517" t="n">
+        <v>45672724830.86765</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>320</v>
+      </c>
+      <c r="C518" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0</v>
+      </c>
+      <c r="E518" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F518" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G518" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H518" t="n">
+        <v>35474569528.45842</v>
+      </c>
+      <c r="I518" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J518" t="n">
+        <v>21567424192.26061</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>550</v>
+      </c>
+      <c r="C519" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0</v>
+      </c>
+      <c r="E519" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F519" t="n">
+        <v>47.51714075165781</v>
+      </c>
+      <c r="G519" t="n">
+        <v>1032.667836630218</v>
+      </c>
+      <c r="H519" t="n">
+        <v>26389307742.49439</v>
+      </c>
+      <c r="I519" t="n">
+        <v>9.524852969061222</v>
+      </c>
+      <c r="J519" t="n">
+        <v>30652685978.22464</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>650</v>
+      </c>
+      <c r="C520" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0</v>
+      </c>
+      <c r="E520" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F520" t="n">
+        <v>46.55107093092365</v>
+      </c>
+      <c r="G520" t="n">
+        <v>988.6369765407708</v>
+      </c>
+      <c r="H520" t="n">
+        <v>22646452173.78152</v>
+      </c>
+      <c r="I520" t="n">
+        <v>10.49092278979538</v>
+      </c>
+      <c r="J520" t="n">
+        <v>34395541546.93752</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>350</v>
+      </c>
+      <c r="C521" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0</v>
+      </c>
+      <c r="E521" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F521" t="n">
+        <v>48.18740308725519</v>
+      </c>
+      <c r="G521" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H521" t="n">
+        <v>34282741382.32121</v>
+      </c>
+      <c r="I521" t="n">
+        <v>8.854590633463843</v>
+      </c>
+      <c r="J521" t="n">
+        <v>22759252338.39782</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>300</v>
+      </c>
+      <c r="C522" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0</v>
+      </c>
+      <c r="E522" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F522" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G522" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H522" t="n">
+        <v>36269121625.88322</v>
+      </c>
+      <c r="I522" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J522" t="n">
+        <v>20772872094.83582</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>5</v>
+      </c>
+      <c r="C523" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0</v>
+      </c>
+      <c r="E523" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F523" t="n">
+        <v>53.75126795784135</v>
+      </c>
+      <c r="G523" t="n">
+        <v>9191.689770191095</v>
+      </c>
+      <c r="H523" t="n">
+        <v>52041658240.28119</v>
+      </c>
+      <c r="I523" t="n">
+        <v>3.290725762877685</v>
+      </c>
+      <c r="J523" t="n">
+        <v>5000335480.437843</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>200</v>
+      </c>
+      <c r="C524" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0</v>
+      </c>
+      <c r="E524" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F524" t="n">
+        <v>48.18740308725522</v>
+      </c>
+      <c r="G524" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H524" t="n">
+        <v>40241882113.00723</v>
+      </c>
+      <c r="I524" t="n">
+        <v>8.854590633463815</v>
+      </c>
+      <c r="J524" t="n">
+        <v>16800111607.7118</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>760</v>
+      </c>
+      <c r="C525" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0</v>
+      </c>
+      <c r="E525" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F525" t="n">
+        <v>45.7770914760526</v>
+      </c>
+      <c r="G525" t="n">
+        <v>958.836515304565</v>
+      </c>
+      <c r="H525" t="n">
+        <v>18669572369.64102</v>
+      </c>
+      <c r="I525" t="n">
+        <v>11.26490224466644</v>
+      </c>
+      <c r="J525" t="n">
+        <v>38372421351.07801</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>135</v>
+      </c>
+      <c r="C526" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0</v>
+      </c>
+      <c r="E526" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F526" t="n">
+        <v>48.18740308725518</v>
+      </c>
+      <c r="G526" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H526" t="n">
+        <v>42824176429.63779</v>
+      </c>
+      <c r="I526" t="n">
+        <v>8.854590633463857</v>
+      </c>
+      <c r="J526" t="n">
+        <v>14217817291.08125</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>35</v>
+      </c>
+      <c r="C527" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0</v>
+      </c>
+      <c r="E527" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F527" t="n">
+        <v>52.33410370253717</v>
+      </c>
+      <c r="G527" t="n">
+        <v>3016.023393993301</v>
+      </c>
+      <c r="H527" t="n">
+        <v>48407343637.55212</v>
+      </c>
+      <c r="I527" t="n">
+        <v>4.707890018181864</v>
+      </c>
+      <c r="J527" t="n">
+        <v>8634650083.166916</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>810</v>
+      </c>
+      <c r="C528" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0</v>
+      </c>
+      <c r="E528" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F528" t="n">
+        <v>45.40295675333989</v>
+      </c>
+      <c r="G528" t="n">
+        <v>946.0556018081426</v>
+      </c>
+      <c r="H528" t="n">
+        <v>16897152675.54328</v>
+      </c>
+      <c r="I528" t="n">
+        <v>11.63903696737914</v>
+      </c>
+      <c r="J528" t="n">
+        <v>40144841045.17575</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>210</v>
+      </c>
+      <c r="C529" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0</v>
+      </c>
+      <c r="E529" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F529" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G529" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H529" t="n">
+        <v>39844606064.29482</v>
+      </c>
+      <c r="I529" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J529" t="n">
+        <v>17197387656.42421</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>870</v>
+      </c>
+      <c r="C530" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0</v>
+      </c>
+      <c r="E530" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F530" t="n">
+        <v>45.11748478207387</v>
+      </c>
+      <c r="G530" t="n">
+        <v>936.966075159965</v>
+      </c>
+      <c r="H530" t="n">
+        <v>14794305431.26759</v>
+      </c>
+      <c r="I530" t="n">
+        <v>11.92450893864516</v>
+      </c>
+      <c r="J530" t="n">
+        <v>42247688289.45145</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>950</v>
+      </c>
+      <c r="C531" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0</v>
+      </c>
+      <c r="E531" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F531" t="n">
+        <v>43.94760527428604</v>
+      </c>
+      <c r="G531" t="n">
+        <v>902.8706877137992</v>
+      </c>
+      <c r="H531" t="n">
+        <v>12040987165.81911</v>
+      </c>
+      <c r="I531" t="n">
+        <v>13.09438844643299</v>
+      </c>
+      <c r="J531" t="n">
+        <v>45001006554.89992</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>530</v>
+      </c>
+      <c r="C532" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0</v>
+      </c>
+      <c r="E532" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F532" t="n">
+        <v>47.63342730558978</v>
+      </c>
+      <c r="G532" t="n">
+        <v>1038.506479308083</v>
+      </c>
+      <c r="H532" t="n">
+        <v>27158767455.73264</v>
+      </c>
+      <c r="I532" t="n">
+        <v>9.408566415129258</v>
+      </c>
+      <c r="J532" t="n">
+        <v>29883226264.98639</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>940</v>
+      </c>
+      <c r="C533" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0</v>
+      </c>
+      <c r="E533" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F533" t="n">
+        <v>43.94760527428604</v>
+      </c>
+      <c r="G533" t="n">
+        <v>902.8706877137992</v>
+      </c>
+      <c r="H533" t="n">
+        <v>12376846303.80298</v>
+      </c>
+      <c r="I533" t="n">
+        <v>13.09438844643299</v>
+      </c>
+      <c r="J533" t="n">
+        <v>44665147416.91605</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>860</v>
+      </c>
+      <c r="C534" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0</v>
+      </c>
+      <c r="E534" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F534" t="n">
+        <v>45.14327988516957</v>
+      </c>
+      <c r="G534" t="n">
+        <v>937.7648956956422</v>
+      </c>
+      <c r="H534" t="n">
+        <v>15143087625.55058</v>
+      </c>
+      <c r="I534" t="n">
+        <v>11.89871383554947</v>
+      </c>
+      <c r="J534" t="n">
+        <v>41898906095.16846</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>490</v>
+      </c>
+      <c r="C535" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0</v>
+      </c>
+      <c r="E535" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F535" t="n">
+        <v>48.07425736409544</v>
+      </c>
+      <c r="G535" t="n">
+        <v>1061.73073582914</v>
+      </c>
+      <c r="H535" t="n">
+        <v>28721534152.02061</v>
+      </c>
+      <c r="I535" t="n">
+        <v>8.967736356623597</v>
+      </c>
+      <c r="J535" t="n">
+        <v>28320459568.69842</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>40</v>
+      </c>
+      <c r="C536" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0</v>
+      </c>
+      <c r="E536" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F536" t="n">
+        <v>52.33410370253716</v>
+      </c>
+      <c r="G536" t="n">
+        <v>3016.023393993301</v>
+      </c>
+      <c r="H536" t="n">
+        <v>47846377913.98282</v>
+      </c>
+      <c r="I536" t="n">
+        <v>4.707890018181871</v>
+      </c>
+      <c r="J536" t="n">
+        <v>9195615806.736214</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>480</v>
+      </c>
+      <c r="C537" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0</v>
+      </c>
+      <c r="E537" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F537" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G537" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H537" t="n">
+        <v>29118152749.06003</v>
+      </c>
+      <c r="I537" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J537" t="n">
+        <v>27923840971.659</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>270</v>
+      </c>
+      <c r="C538" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0</v>
+      </c>
+      <c r="E538" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F538" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G538" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H538" t="n">
+        <v>37460949772.02042</v>
+      </c>
+      <c r="I538" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J538" t="n">
+        <v>19581043948.69862</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>25</v>
+      </c>
+      <c r="C539" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0</v>
+      </c>
+      <c r="E539" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F539" t="n">
+        <v>52.33410370253718</v>
+      </c>
+      <c r="G539" t="n">
+        <v>3016.023393993301</v>
+      </c>
+      <c r="H539" t="n">
+        <v>49529275084.69071</v>
+      </c>
+      <c r="I539" t="n">
+        <v>4.707890018181857</v>
+      </c>
+      <c r="J539" t="n">
+        <v>7512718636.02832</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>980</v>
+      </c>
+      <c r="C540" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0</v>
+      </c>
+      <c r="E540" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F540" t="n">
+        <v>43.94760527428603</v>
+      </c>
+      <c r="G540" t="n">
+        <v>902.8706877137992</v>
+      </c>
+      <c r="H540" t="n">
+        <v>11033409751.86751</v>
+      </c>
+      <c r="I540" t="n">
+        <v>13.094388446433</v>
+      </c>
+      <c r="J540" t="n">
+        <v>46008583968.85152</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>780</v>
+      </c>
+      <c r="C541" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0</v>
+      </c>
+      <c r="E541" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F541" t="n">
+        <v>45.64686660303017</v>
+      </c>
+      <c r="G541" t="n">
+        <v>954.2724595143153</v>
+      </c>
+      <c r="H541" t="n">
+        <v>17958418920.30566</v>
+      </c>
+      <c r="I541" t="n">
+        <v>11.39512711768887</v>
+      </c>
+      <c r="J541" t="n">
+        <v>39083574800.41338</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>160</v>
+      </c>
+      <c r="C542" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0</v>
+      </c>
+      <c r="E542" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F542" t="n">
+        <v>48.18740308725518</v>
+      </c>
+      <c r="G542" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H542" t="n">
+        <v>41830986307.85679</v>
+      </c>
+      <c r="I542" t="n">
+        <v>8.854590633463857</v>
+      </c>
+      <c r="J542" t="n">
+        <v>15211007412.86224</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>820</v>
+      </c>
+      <c r="C543" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0</v>
+      </c>
+      <c r="E543" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F543" t="n">
+        <v>45.39721650546879</v>
+      </c>
+      <c r="G543" t="n">
+        <v>945.8673215735985</v>
+      </c>
+      <c r="H543" t="n">
+        <v>16545232071.05532</v>
+      </c>
+      <c r="I543" t="n">
+        <v>11.64477721525024</v>
+      </c>
+      <c r="J543" t="n">
+        <v>40496761649.66371</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>15</v>
+      </c>
+      <c r="C544" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0</v>
+      </c>
+      <c r="E544" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F544" t="n">
+        <v>53.2097806522166</v>
+      </c>
+      <c r="G544" t="n">
+        <v>6742.805072015171</v>
+      </c>
+      <c r="H544" t="n">
+        <v>49447393529.84593</v>
+      </c>
+      <c r="I544" t="n">
+        <v>3.832213068502433</v>
+      </c>
+      <c r="J544" t="n">
+        <v>7594600190.8731</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>95</v>
+      </c>
+      <c r="C545" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D545" t="n">
+        <v>0</v>
+      </c>
+      <c r="E545" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F545" t="n">
+        <v>48.18740308725522</v>
+      </c>
+      <c r="G545" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H545" t="n">
+        <v>44413280624.48743</v>
+      </c>
+      <c r="I545" t="n">
+        <v>8.854590633463815</v>
+      </c>
+      <c r="J545" t="n">
+        <v>12628713096.23161</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>195</v>
+      </c>
+      <c r="C546" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0</v>
+      </c>
+      <c r="E546" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F546" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G546" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H546" t="n">
+        <v>40440520137.36341</v>
+      </c>
+      <c r="I546" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J546" t="n">
+        <v>16601473583.35562</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>450</v>
+      </c>
+      <c r="C547" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D547" t="n">
+        <v>0</v>
+      </c>
+      <c r="E547" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F547" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G547" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H547" t="n">
+        <v>30309980895.19722</v>
+      </c>
+      <c r="I547" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J547" t="n">
+        <v>26732012825.52181</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>690</v>
+      </c>
+      <c r="C548" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D548" t="n">
+        <v>0</v>
+      </c>
+      <c r="E548" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F548" t="n">
+        <v>46.28649407640326</v>
+      </c>
+      <c r="G548" t="n">
+        <v>977.922521924331</v>
+      </c>
+      <c r="H548" t="n">
+        <v>21185833307.19346</v>
+      </c>
+      <c r="I548" t="n">
+        <v>10.75549964431578</v>
+      </c>
+      <c r="J548" t="n">
+        <v>35856160413.52557</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>990</v>
+      </c>
+      <c r="C549" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D549" t="n">
+        <v>0</v>
+      </c>
+      <c r="E549" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F549" t="n">
+        <v>43.94760527428604</v>
+      </c>
+      <c r="G549" t="n">
+        <v>902.8706877137992</v>
+      </c>
+      <c r="H549" t="n">
+        <v>10697550613.88366</v>
+      </c>
+      <c r="I549" t="n">
+        <v>13.09438844643299</v>
+      </c>
+      <c r="J549" t="n">
+        <v>46344443106.83537</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>30</v>
+      </c>
+      <c r="C550" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D550" t="n">
+        <v>0</v>
+      </c>
+      <c r="E550" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F550" t="n">
+        <v>52.33410370253717</v>
+      </c>
+      <c r="G550" t="n">
+        <v>3016.023393993301</v>
+      </c>
+      <c r="H550" t="n">
+        <v>48968309361.12141</v>
+      </c>
+      <c r="I550" t="n">
+        <v>4.707890018181864</v>
+      </c>
+      <c r="J550" t="n">
+        <v>8073684359.597626</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>115</v>
+      </c>
+      <c r="C551" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D551" t="n">
+        <v>0</v>
+      </c>
+      <c r="E551" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F551" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G551" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H551" t="n">
+        <v>43618728527.06261</v>
+      </c>
+      <c r="I551" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J551" t="n">
+        <v>13423265193.65643</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>10</v>
+      </c>
+      <c r="C552" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D552" t="n">
+        <v>0</v>
+      </c>
+      <c r="E552" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F552" t="n">
+        <v>53.80694741326657</v>
+      </c>
+      <c r="G552" t="n">
+        <v>9520.765188622117</v>
+      </c>
+      <c r="H552" t="n">
+        <v>50265315114.52147</v>
+      </c>
+      <c r="I552" t="n">
+        <v>3.235046307452464</v>
+      </c>
+      <c r="J552" t="n">
+        <v>6776678606.197563</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>290</v>
+      </c>
+      <c r="C553" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D553" t="n">
+        <v>0</v>
+      </c>
+      <c r="E553" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F553" t="n">
+        <v>48.1874030872552</v>
+      </c>
+      <c r="G553" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H553" t="n">
+        <v>36666397674.59561</v>
+      </c>
+      <c r="I553" t="n">
+        <v>8.854590633463836</v>
+      </c>
+      <c r="J553" t="n">
+        <v>20375596046.12342</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>240</v>
+      </c>
+      <c r="C554" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D554" t="n">
+        <v>0</v>
+      </c>
+      <c r="E554" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F554" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G554" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H554" t="n">
+        <v>38652777918.15762</v>
+      </c>
+      <c r="I554" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J554" t="n">
+        <v>18389215802.56141</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>170</v>
+      </c>
+      <c r="C555" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D555" t="n">
+        <v>0</v>
+      </c>
+      <c r="E555" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F555" t="n">
+        <v>48.18740308725519</v>
+      </c>
+      <c r="G555" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H555" t="n">
+        <v>41433710259.14439</v>
+      </c>
+      <c r="I555" t="n">
+        <v>8.854590633463843</v>
+      </c>
+      <c r="J555" t="n">
+        <v>15608283461.57465</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>140</v>
+      </c>
+      <c r="C556" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0</v>
+      </c>
+      <c r="E556" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F556" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G556" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H556" t="n">
+        <v>42625538405.28161</v>
+      </c>
+      <c r="I556" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J556" t="n">
+        <v>14416455315.43742</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>70</v>
+      </c>
+      <c r="C557" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0</v>
+      </c>
+      <c r="E557" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F557" t="n">
+        <v>49.22909870616394</v>
+      </c>
+      <c r="G557" t="n">
+        <v>1453.342126713483</v>
+      </c>
+      <c r="H557" t="n">
+        <v>45444694490.13243</v>
+      </c>
+      <c r="I557" t="n">
+        <v>7.812895014555096</v>
+      </c>
+      <c r="J557" t="n">
+        <v>11597299230.5866</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>850</v>
+      </c>
+      <c r="C558" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0</v>
+      </c>
+      <c r="E558" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F558" t="n">
+        <v>45.19457179667927</v>
+      </c>
+      <c r="G558" t="n">
+        <v>939.3663359312875</v>
+      </c>
+      <c r="H558" t="n">
+        <v>15492582762.07593</v>
+      </c>
+      <c r="I558" t="n">
+        <v>11.84742192403976</v>
+      </c>
+      <c r="J558" t="n">
+        <v>41549410958.6431</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>710</v>
+      </c>
+      <c r="C559" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0</v>
+      </c>
+      <c r="E559" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F559" t="n">
+        <v>46.15993832506807</v>
+      </c>
+      <c r="G559" t="n">
+        <v>972.9937520678044</v>
+      </c>
+      <c r="H559" t="n">
+        <v>20461897446.25027</v>
+      </c>
+      <c r="I559" t="n">
+        <v>10.88205539565097</v>
+      </c>
+      <c r="J559" t="n">
+        <v>36580096274.46877</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>20</v>
+      </c>
+      <c r="C560" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0</v>
+      </c>
+      <c r="E560" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F560" t="n">
+        <v>52.33410370253718</v>
+      </c>
+      <c r="G560" t="n">
+        <v>3016.023393993301</v>
+      </c>
+      <c r="H560" t="n">
+        <v>50090240808.26</v>
+      </c>
+      <c r="I560" t="n">
+        <v>4.707890018181857</v>
+      </c>
+      <c r="J560" t="n">
+        <v>6951752912.45903</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>90</v>
+      </c>
+      <c r="C561" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0</v>
+      </c>
+      <c r="E561" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F561" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G561" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H561" t="n">
+        <v>44611918648.84361</v>
+      </c>
+      <c r="I561" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J561" t="n">
+        <v>12430075071.87542</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>440</v>
+      </c>
+      <c r="C562" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D562" t="n">
+        <v>0</v>
+      </c>
+      <c r="E562" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F562" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G562" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H562" t="n">
+        <v>30707256943.90963</v>
+      </c>
+      <c r="I562" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J562" t="n">
+        <v>26334736776.8094</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>340</v>
+      </c>
+      <c r="C563" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D563" t="n">
+        <v>0</v>
+      </c>
+      <c r="E563" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F563" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G563" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H563" t="n">
+        <v>34680017431.03362</v>
+      </c>
+      <c r="I563" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J563" t="n">
+        <v>22361976289.68541</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>700</v>
+      </c>
+      <c r="C564" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0</v>
+      </c>
+      <c r="E564" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F564" t="n">
+        <v>46.22236004795548</v>
+      </c>
+      <c r="G564" t="n">
+        <v>975.409088645615</v>
+      </c>
+      <c r="H564" t="n">
+        <v>20823369682.39485</v>
+      </c>
+      <c r="I564" t="n">
+        <v>10.81963367276355</v>
+      </c>
+      <c r="J564" t="n">
+        <v>36218624038.32418</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>840</v>
+      </c>
+      <c r="C565" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0</v>
+      </c>
+      <c r="E565" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F565" t="n">
+        <v>45.34498911316554</v>
+      </c>
+      <c r="G565" t="n">
+        <v>944.1648281733483</v>
+      </c>
+      <c r="H565" t="n">
+        <v>15842495867.90676</v>
+      </c>
+      <c r="I565" t="n">
+        <v>11.6970046075535</v>
+      </c>
+      <c r="J565" t="n">
+        <v>41199497852.81227</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>220</v>
+      </c>
+      <c r="C566" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D566" t="n">
+        <v>0</v>
+      </c>
+      <c r="E566" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F566" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G566" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H566" t="n">
+        <v>39447330015.58241</v>
+      </c>
+      <c r="I566" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J566" t="n">
+        <v>17594663705.13662</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>155</v>
+      </c>
+      <c r="C567" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D567" t="n">
+        <v>0</v>
+      </c>
+      <c r="E567" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F567" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G567" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H567" t="n">
+        <v>42029624332.21301</v>
+      </c>
+      <c r="I567" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J567" t="n">
+        <v>15012369388.50602</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>570</v>
+      </c>
+      <c r="C568" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D568" t="n">
+        <v>0</v>
+      </c>
+      <c r="E568" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F568" t="n">
+        <v>47.20672329414855</v>
+      </c>
+      <c r="G568" t="n">
+        <v>1017.658285089161</v>
+      </c>
+      <c r="H568" t="n">
+        <v>25628859680.38382</v>
+      </c>
+      <c r="I568" t="n">
+        <v>9.835270426570482</v>
+      </c>
+      <c r="J568" t="n">
+        <v>31413134040.33521</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>50</v>
+      </c>
+      <c r="C569" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0</v>
+      </c>
+      <c r="E569" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F569" t="n">
+        <v>51.17530426277683</v>
+      </c>
+      <c r="G569" t="n">
+        <v>2343.774910286157</v>
+      </c>
+      <c r="H569" t="n">
+        <v>46815996602.72773</v>
+      </c>
+      <c r="I569" t="n">
+        <v>5.866689457942208</v>
+      </c>
+      <c r="J569" t="n">
+        <v>10225997117.9913</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>960</v>
+      </c>
+      <c r="C570" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0</v>
+      </c>
+      <c r="E570" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F570" t="n">
+        <v>43.94760527428604</v>
+      </c>
+      <c r="G570" t="n">
+        <v>902.8706877137992</v>
+      </c>
+      <c r="H570" t="n">
+        <v>11705128027.83524</v>
+      </c>
+      <c r="I570" t="n">
+        <v>13.09438844643299</v>
+      </c>
+      <c r="J570" t="n">
+        <v>45336865692.88379</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>800</v>
+      </c>
+      <c r="C571" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D571" t="n">
+        <v>0</v>
+      </c>
+      <c r="E571" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F571" t="n">
+        <v>45.49912124079064</v>
+      </c>
+      <c r="G571" t="n">
+        <v>949.2443491438039</v>
+      </c>
+      <c r="H571" t="n">
+        <v>17250346023.88597</v>
+      </c>
+      <c r="I571" t="n">
+        <v>11.54287247992839</v>
+      </c>
+      <c r="J571" t="n">
+        <v>39791647696.83306</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>500</v>
+      </c>
+      <c r="C572" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D572" t="n">
+        <v>0</v>
+      </c>
+      <c r="E572" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F572" t="n">
+        <v>47.97993275550777</v>
+      </c>
+      <c r="G572" t="n">
+        <v>1056.614746349956</v>
+      </c>
+      <c r="H572" t="n">
+        <v>28327410931.55056</v>
+      </c>
+      <c r="I572" t="n">
+        <v>9.062060965211266</v>
+      </c>
+      <c r="J572" t="n">
+        <v>28714582789.16847</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>65</v>
+      </c>
+      <c r="C573" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D573" t="n">
+        <v>0</v>
+      </c>
+      <c r="E573" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F573" t="n">
+        <v>49.65609781879013</v>
+      </c>
+      <c r="G573" t="n">
+        <v>1622.896866179913</v>
+      </c>
+      <c r="H573" t="n">
+        <v>45732035520.01451</v>
+      </c>
+      <c r="I573" t="n">
+        <v>7.385895901928905</v>
+      </c>
+      <c r="J573" t="n">
+        <v>11309958200.70452</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>580</v>
+      </c>
+      <c r="C574" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D574" t="n">
+        <v>0</v>
+      </c>
+      <c r="E574" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F574" t="n">
+        <v>47.11642464565518</v>
+      </c>
+      <c r="G574" t="n">
+        <v>1013.447515844847</v>
+      </c>
+      <c r="H574" t="n">
+        <v>25250851209.35917</v>
+      </c>
+      <c r="I574" t="n">
+        <v>9.925569075063855</v>
+      </c>
+      <c r="J574" t="n">
+        <v>31791142511.35986</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>60</v>
+      </c>
+      <c r="C575" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0</v>
+      </c>
+      <c r="E575" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F575" t="n">
+        <v>50.08872597113812</v>
+      </c>
+      <c r="G575" t="n">
+        <v>1809.243007695047</v>
+      </c>
+      <c r="H575" t="n">
+        <v>46050600875.90582</v>
+      </c>
+      <c r="I575" t="n">
+        <v>6.953267749580917</v>
+      </c>
+      <c r="J575" t="n">
+        <v>10991392844.81321</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>420</v>
+      </c>
+      <c r="C576" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D576" t="n">
+        <v>0</v>
+      </c>
+      <c r="E576" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F576" t="n">
+        <v>48.1874030872552</v>
+      </c>
+      <c r="G576" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H576" t="n">
+        <v>31501809041.33442</v>
+      </c>
+      <c r="I576" t="n">
+        <v>8.854590633463836</v>
+      </c>
+      <c r="J576" t="n">
+        <v>25540184679.38461</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>3</v>
+      </c>
+      <c r="C577" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D577" t="n">
+        <v>0</v>
+      </c>
+      <c r="E577" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F577" t="n">
+        <v>53.87595673098347</v>
+      </c>
+      <c r="G577" t="n">
+        <v>10385.36486245873</v>
+      </c>
+      <c r="H577" t="n">
+        <v>52716980233.74482</v>
+      </c>
+      <c r="I577" t="n">
+        <v>3.166036989735566</v>
+      </c>
+      <c r="J577" t="n">
+        <v>4325013486.974213</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+      <c r="C578" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D578" t="n">
+        <v>0</v>
+      </c>
+      <c r="E578" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F578" t="n">
+        <v>54.58431692148883</v>
+      </c>
+      <c r="G578" t="n">
+        <v>21741.68594864994</v>
+      </c>
+      <c r="H578" t="n">
+        <v>53775547293.63442</v>
+      </c>
+      <c r="I578" t="n">
+        <v>2.457676799230207</v>
+      </c>
+      <c r="J578" t="n">
+        <v>3266446427.08461</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>8</v>
+      </c>
+      <c r="C579" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D579" t="n">
+        <v>0</v>
+      </c>
+      <c r="E579" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F579" t="n">
+        <v>53.65701634015197</v>
+      </c>
+      <c r="G579" t="n">
+        <v>8747.874059747004</v>
+      </c>
+      <c r="H579" t="n">
+        <v>51053716903.47397</v>
+      </c>
+      <c r="I579" t="n">
+        <v>3.384977380567065</v>
+      </c>
+      <c r="J579" t="n">
+        <v>5988276817.245064</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>6</v>
+      </c>
+      <c r="C580" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D580" t="n">
+        <v>0</v>
+      </c>
+      <c r="E580" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F580" t="n">
+        <v>53.71567707197253</v>
+      </c>
+      <c r="G580" t="n">
+        <v>9009.80646665667</v>
+      </c>
+      <c r="H580" t="n">
+        <v>51704740705.68839</v>
+      </c>
+      <c r="I580" t="n">
+        <v>3.326316648746506</v>
+      </c>
+      <c r="J580" t="n">
+        <v>5337253015.03064</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>610</v>
+      </c>
+      <c r="C581" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D581" t="n">
+        <v>0</v>
+      </c>
+      <c r="E581" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F581" t="n">
+        <v>46.86861350038294</v>
+      </c>
+      <c r="G581" t="n">
+        <v>1002.245676223203</v>
+      </c>
+      <c r="H581" t="n">
+        <v>24126247644.29263</v>
+      </c>
+      <c r="I581" t="n">
+        <v>10.17338022033609</v>
+      </c>
+      <c r="J581" t="n">
+        <v>32915746076.4264</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1e+16</v>
+      </c>
+      <c r="C582" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D582" t="n">
+        <v>0</v>
+      </c>
+      <c r="E582" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F582" t="n">
+        <v>29.326573568</v>
+      </c>
+      <c r="G582" t="n">
+        <v>889.6259531912921</v>
+      </c>
+      <c r="H582" t="n">
+        <v>-3.309322252153853e+23</v>
+      </c>
+      <c r="I582" t="n">
+        <v>27.71542015271903</v>
+      </c>
+      <c r="J582" t="n">
+        <v>3.309322252154423e+23</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>630</v>
+      </c>
+      <c r="C583" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D583" t="n">
+        <v>0</v>
+      </c>
+      <c r="E583" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F583" t="n">
+        <v>46.70547397112593</v>
+      </c>
+      <c r="G583" t="n">
+        <v>995.1507456279003</v>
+      </c>
+      <c r="H583" t="n">
+        <v>23383729233.21111</v>
+      </c>
+      <c r="I583" t="n">
+        <v>10.3365197495931</v>
+      </c>
+      <c r="J583" t="n">
+        <v>33658264487.50792</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>620</v>
+      </c>
+      <c r="C584" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D584" t="n">
+        <v>0</v>
+      </c>
+      <c r="E584" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F584" t="n">
+        <v>46.78588689719382</v>
+      </c>
+      <c r="G584" t="n">
+        <v>998.6204177211238</v>
+      </c>
+      <c r="H584" t="n">
+        <v>23754306153.19304</v>
+      </c>
+      <c r="I584" t="n">
+        <v>10.25610682352522</v>
+      </c>
+      <c r="J584" t="n">
+        <v>33287687567.52599</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>390</v>
+      </c>
+      <c r="C585" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D585" t="n">
+        <v>0</v>
+      </c>
+      <c r="E585" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F585" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G585" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H585" t="n">
+        <v>32693637187.47162</v>
+      </c>
+      <c r="I585" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J585" t="n">
+        <v>24348356533.24741</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>4</v>
+      </c>
+      <c r="C586" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D586" t="n">
+        <v>0</v>
+      </c>
+      <c r="E586" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F586" t="n">
+        <v>53.80672461550006</v>
+      </c>
+      <c r="G586" t="n">
+        <v>9519.301348137373</v>
+      </c>
+      <c r="H586" t="n">
+        <v>52390289509.78645</v>
+      </c>
+      <c r="I586" t="n">
+        <v>3.235269105218975</v>
+      </c>
+      <c r="J586" t="n">
+        <v>4651704210.932579</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>410</v>
+      </c>
+      <c r="C587" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D587" t="n">
+        <v>0</v>
+      </c>
+      <c r="E587" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F587" t="n">
+        <v>48.1874030872552</v>
+      </c>
+      <c r="G587" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H587" t="n">
+        <v>31899085090.04681</v>
+      </c>
+      <c r="I587" t="n">
+        <v>8.854590633463836</v>
+      </c>
+      <c r="J587" t="n">
+        <v>25142908630.67222</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>7</v>
+      </c>
+      <c r="C588" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D588" t="n">
+        <v>0</v>
+      </c>
+      <c r="E588" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F588" t="n">
+        <v>53.49831041749932</v>
+      </c>
+      <c r="G588" t="n">
+        <v>8717.176637523147</v>
+      </c>
+      <c r="H588" t="n">
+        <v>51228416810.71766</v>
+      </c>
+      <c r="I588" t="n">
+        <v>3.543683303219716</v>
+      </c>
+      <c r="J588" t="n">
+        <v>5813576910.001373</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>145</v>
+      </c>
+      <c r="C589" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D589" t="n">
+        <v>0</v>
+      </c>
+      <c r="E589" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F589" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G589" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H589" t="n">
+        <v>42426900380.92541</v>
+      </c>
+      <c r="I589" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J589" t="n">
+        <v>14615093339.79362</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>740</v>
+      </c>
+      <c r="C590" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D590" t="n">
+        <v>0</v>
+      </c>
+      <c r="E590" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F590" t="n">
+        <v>45.88276327422266</v>
+      </c>
+      <c r="G590" t="n">
+        <v>962.6327851215189</v>
+      </c>
+      <c r="H590" t="n">
+        <v>19384098943.21065</v>
+      </c>
+      <c r="I590" t="n">
+        <v>11.15923044649637</v>
+      </c>
+      <c r="J590" t="n">
+        <v>37657894777.50838</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>370</v>
+      </c>
+      <c r="C591" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D591" t="n">
+        <v>0</v>
+      </c>
+      <c r="E591" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F591" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G591" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H591" t="n">
+        <v>33488189284.89642</v>
+      </c>
+      <c r="I591" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J591" t="n">
+        <v>23553804435.82261</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>600</v>
+      </c>
+      <c r="C592" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D592" t="n">
+        <v>0</v>
+      </c>
+      <c r="E592" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F592" t="n">
+        <v>46.95379500295929</v>
+      </c>
+      <c r="G592" t="n">
+        <v>1006.038007987869</v>
+      </c>
+      <c r="H592" t="n">
+        <v>24499612178.7907</v>
+      </c>
+      <c r="I592" t="n">
+        <v>10.08819871775975</v>
+      </c>
+      <c r="J592" t="n">
+        <v>32542381541.92833</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>680</v>
+      </c>
+      <c r="C593" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D593" t="n">
+        <v>0</v>
+      </c>
+      <c r="E593" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F593" t="n">
+        <v>46.35242482763016</v>
+      </c>
+      <c r="G593" t="n">
+        <v>980.5402281018844</v>
+      </c>
+      <c r="H593" t="n">
+        <v>21549325981.89934</v>
+      </c>
+      <c r="I593" t="n">
+        <v>10.68956889308888</v>
+      </c>
+      <c r="J593" t="n">
+        <v>35492667738.81969</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>430</v>
+      </c>
+      <c r="C594" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D594" t="n">
+        <v>0</v>
+      </c>
+      <c r="E594" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F594" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G594" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H594" t="n">
+        <v>31104532992.62202</v>
+      </c>
+      <c r="I594" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J594" t="n">
+        <v>25937460728.09701</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>730</v>
+      </c>
+      <c r="C595" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D595" t="n">
+        <v>0</v>
+      </c>
+      <c r="E595" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F595" t="n">
+        <v>45.95906874431417</v>
+      </c>
+      <c r="G595" t="n">
+        <v>965.4264344845503</v>
+      </c>
+      <c r="H595" t="n">
+        <v>19742632107.90998</v>
+      </c>
+      <c r="I595" t="n">
+        <v>11.08292497640486</v>
+      </c>
+      <c r="J595" t="n">
+        <v>37299361612.80905</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>165</v>
+      </c>
+      <c r="C596" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D596" t="n">
+        <v>0</v>
+      </c>
+      <c r="E596" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F596" t="n">
+        <v>48.18740308725522</v>
+      </c>
+      <c r="G596" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H596" t="n">
+        <v>41632348283.50063</v>
+      </c>
+      <c r="I596" t="n">
+        <v>8.854590633463815</v>
+      </c>
+      <c r="J596" t="n">
+        <v>15409645437.2184</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>400</v>
+      </c>
+      <c r="C597" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D597" t="n">
+        <v>0</v>
+      </c>
+      <c r="E597" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F597" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G597" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H597" t="n">
+        <v>32296361138.75923</v>
+      </c>
+      <c r="I597" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J597" t="n">
+        <v>24745632581.9598</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>640</v>
+      </c>
+      <c r="C598" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D598" t="n">
+        <v>0</v>
+      </c>
+      <c r="E598" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F598" t="n">
+        <v>46.62724313095844</v>
+      </c>
+      <c r="G598" t="n">
+        <v>991.8261512019781</v>
+      </c>
+      <c r="H598" t="n">
+        <v>23014461848.81642</v>
+      </c>
+      <c r="I598" t="n">
+        <v>10.41475058976059</v>
+      </c>
+      <c r="J598" t="n">
+        <v>34027531871.90261</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>75</v>
+      </c>
+      <c r="C599" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0</v>
+      </c>
+      <c r="E599" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F599" t="n">
+        <v>48.1874030872552</v>
+      </c>
+      <c r="G599" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H599" t="n">
+        <v>45207832721.9122</v>
+      </c>
+      <c r="I599" t="n">
+        <v>8.854590633463836</v>
+      </c>
+      <c r="J599" t="n">
+        <v>11834160998.80683</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>55</v>
+      </c>
+      <c r="C600" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0</v>
+      </c>
+      <c r="E600" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F600" t="n">
+        <v>50.59192765071704</v>
+      </c>
+      <c r="G600" t="n">
+        <v>2044.961440343802</v>
+      </c>
+      <c r="H600" t="n">
+        <v>46408045642.46646</v>
+      </c>
+      <c r="I600" t="n">
+        <v>6.450066070001995</v>
+      </c>
+      <c r="J600" t="n">
+        <v>10633948078.25257</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>125</v>
+      </c>
+      <c r="C601" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D601" t="n">
+        <v>0</v>
+      </c>
+      <c r="E601" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F601" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G601" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H601" t="n">
+        <v>43221452478.35021</v>
+      </c>
+      <c r="I601" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J601" t="n">
+        <v>13820541242.36882</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>105</v>
+      </c>
+      <c r="C602" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D602" t="n">
+        <v>0</v>
+      </c>
+      <c r="E602" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F602" t="n">
+        <v>48.1874030872552</v>
+      </c>
+      <c r="G602" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H602" t="n">
+        <v>44016004575.775</v>
+      </c>
+      <c r="I602" t="n">
+        <v>8.854590633463836</v>
+      </c>
+      <c r="J602" t="n">
+        <v>13025989144.94403</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>9</v>
+      </c>
+      <c r="C603" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D603" t="n">
+        <v>0</v>
+      </c>
+      <c r="E603" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F603" t="n">
+        <v>53.61810498285629</v>
+      </c>
+      <c r="G603" t="n">
+        <v>8596.69973313073</v>
+      </c>
+      <c r="H603" t="n">
+        <v>50740004961.39278</v>
+      </c>
+      <c r="I603" t="n">
+        <v>3.423888737862747</v>
+      </c>
+      <c r="J603" t="n">
+        <v>6301988759.326256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
